--- a/BackTest/2020-01-15 BackTest XMR.xlsx
+++ b/BackTest/2020-01-15 BackTest XMR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M113"/>
+  <dimension ref="A1:M114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,25 +436,25 @@
         <v>68650</v>
       </c>
       <c r="C2" t="n">
-        <v>68200</v>
+        <v>68600</v>
       </c>
       <c r="D2" t="n">
         <v>68650</v>
       </c>
       <c r="E2" t="n">
-        <v>68200</v>
+        <v>68600</v>
       </c>
       <c r="F2" t="n">
-        <v>27.8369</v>
+        <v>30</v>
       </c>
       <c r="G2" t="n">
-        <v>67114.16666666667</v>
+        <v>67087.5</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>68650</v>
+      </c>
+      <c r="C3" t="n">
         <v>68200</v>
       </c>
-      <c r="C3" t="n">
-        <v>68600</v>
-      </c>
       <c r="D3" t="n">
-        <v>68600</v>
+        <v>68650</v>
       </c>
       <c r="E3" t="n">
         <v>68200</v>
       </c>
       <c r="F3" t="n">
-        <v>31.1859</v>
+        <v>27.8369</v>
       </c>
       <c r="G3" t="n">
-        <v>67147.5</v>
+        <v>67114.16666666667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -506,25 +506,25 @@
         <v>68200</v>
       </c>
       <c r="C4" t="n">
-        <v>68200</v>
+        <v>68600</v>
       </c>
       <c r="D4" t="n">
-        <v>68200</v>
+        <v>68600</v>
       </c>
       <c r="E4" t="n">
         <v>68200</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2443</v>
+        <v>31.1859</v>
       </c>
       <c r="G4" t="n">
-        <v>67166.66666666667</v>
+        <v>67147.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -538,28 +538,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>68600</v>
+        <v>68200</v>
       </c>
       <c r="C5" t="n">
-        <v>68600</v>
+        <v>68200</v>
       </c>
       <c r="D5" t="n">
-        <v>68600</v>
+        <v>68200</v>
       </c>
       <c r="E5" t="n">
-        <v>68600</v>
+        <v>68200</v>
       </c>
       <c r="F5" t="n">
-        <v>6.6803</v>
+        <v>0.2443</v>
       </c>
       <c r="G5" t="n">
-        <v>67192.5</v>
+        <v>67166.66666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -576,19 +576,19 @@
         <v>68600</v>
       </c>
       <c r="C6" t="n">
-        <v>68800</v>
+        <v>68600</v>
       </c>
       <c r="D6" t="n">
-        <v>68800</v>
+        <v>68600</v>
       </c>
       <c r="E6" t="n">
         <v>68600</v>
       </c>
       <c r="F6" t="n">
-        <v>26.8106</v>
+        <v>6.6803</v>
       </c>
       <c r="G6" t="n">
-        <v>67221.66666666667</v>
+        <v>67192.5</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>68350</v>
+        <v>68600</v>
       </c>
       <c r="C7" t="n">
-        <v>68350</v>
+        <v>68800</v>
       </c>
       <c r="D7" t="n">
-        <v>68350</v>
+        <v>68800</v>
       </c>
       <c r="E7" t="n">
-        <v>68300</v>
+        <v>68600</v>
       </c>
       <c r="F7" t="n">
-        <v>24.613</v>
+        <v>26.8106</v>
       </c>
       <c r="G7" t="n">
-        <v>67251.66666666667</v>
+        <v>67221.66666666667</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -652,19 +652,19 @@
         <v>68350</v>
       </c>
       <c r="E8" t="n">
-        <v>68350</v>
+        <v>68300</v>
       </c>
       <c r="F8" t="n">
-        <v>5.2833</v>
+        <v>24.613</v>
       </c>
       <c r="G8" t="n">
-        <v>67281.66666666667</v>
+        <v>67251.66666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>68800</v>
+        <v>68350</v>
       </c>
       <c r="C9" t="n">
-        <v>68800</v>
+        <v>68350</v>
       </c>
       <c r="D9" t="n">
-        <v>68800</v>
+        <v>68350</v>
       </c>
       <c r="E9" t="n">
-        <v>68800</v>
+        <v>68350</v>
       </c>
       <c r="F9" t="n">
-        <v>2.238372093023</v>
+        <v>5.2833</v>
       </c>
       <c r="G9" t="n">
-        <v>67319.16666666667</v>
+        <v>67281.66666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>68800</v>
       </c>
       <c r="F10" t="n">
-        <v>1.103</v>
+        <v>2.238372093023</v>
       </c>
       <c r="G10" t="n">
-        <v>67356.66666666667</v>
+        <v>67319.16666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>68350</v>
+        <v>68800</v>
       </c>
       <c r="C11" t="n">
-        <v>68300</v>
+        <v>68800</v>
       </c>
       <c r="D11" t="n">
-        <v>68350</v>
+        <v>68800</v>
       </c>
       <c r="E11" t="n">
-        <v>68300</v>
+        <v>68800</v>
       </c>
       <c r="F11" t="n">
-        <v>3.025</v>
+        <v>1.103</v>
       </c>
       <c r="G11" t="n">
-        <v>67386.66666666667</v>
+        <v>67356.66666666667</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>68350</v>
+      </c>
+      <c r="C12" t="n">
         <v>68300</v>
       </c>
-      <c r="C12" t="n">
-        <v>68250</v>
-      </c>
       <c r="D12" t="n">
+        <v>68350</v>
+      </c>
+      <c r="E12" t="n">
         <v>68300</v>
       </c>
-      <c r="E12" t="n">
-        <v>68250</v>
-      </c>
       <c r="F12" t="n">
-        <v>13.8716</v>
+        <v>3.025</v>
       </c>
       <c r="G12" t="n">
-        <v>67415.83333333333</v>
+        <v>67386.66666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>68300</v>
+      </c>
+      <c r="C13" t="n">
         <v>68250</v>
       </c>
-      <c r="C13" t="n">
-        <v>68200</v>
-      </c>
       <c r="D13" t="n">
+        <v>68300</v>
+      </c>
+      <c r="E13" t="n">
         <v>68250</v>
       </c>
-      <c r="E13" t="n">
-        <v>68200</v>
-      </c>
       <c r="F13" t="n">
-        <v>15.1712</v>
+        <v>13.8716</v>
       </c>
       <c r="G13" t="n">
-        <v>67445</v>
+        <v>67415.83333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>68250</v>
+      </c>
+      <c r="C14" t="n">
         <v>68200</v>
       </c>
-      <c r="C14" t="n">
-        <v>68750</v>
-      </c>
       <c r="D14" t="n">
-        <v>68750</v>
+        <v>68250</v>
       </c>
       <c r="E14" t="n">
         <v>68200</v>
       </c>
       <c r="F14" t="n">
-        <v>5.7254</v>
+        <v>15.1712</v>
       </c>
       <c r="G14" t="n">
-        <v>67483.33333333333</v>
+        <v>67445</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>68250</v>
+        <v>68200</v>
       </c>
       <c r="C15" t="n">
-        <v>68200</v>
+        <v>68750</v>
       </c>
       <c r="D15" t="n">
-        <v>68250</v>
+        <v>68750</v>
       </c>
       <c r="E15" t="n">
         <v>68200</v>
       </c>
       <c r="F15" t="n">
-        <v>21.9269</v>
+        <v>5.7254</v>
       </c>
       <c r="G15" t="n">
-        <v>67512.5</v>
+        <v>67483.33333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>68050</v>
+        <v>68250</v>
       </c>
       <c r="C16" t="n">
-        <v>68050</v>
+        <v>68200</v>
       </c>
       <c r="D16" t="n">
-        <v>68050</v>
+        <v>68250</v>
       </c>
       <c r="E16" t="n">
-        <v>68050</v>
+        <v>68200</v>
       </c>
       <c r="F16" t="n">
-        <v>5.3422</v>
+        <v>21.9269</v>
       </c>
       <c r="G16" t="n">
-        <v>67530</v>
+        <v>67512.5</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>67950</v>
+        <v>68050</v>
       </c>
       <c r="C17" t="n">
-        <v>67950</v>
+        <v>68050</v>
       </c>
       <c r="D17" t="n">
-        <v>67950</v>
+        <v>68050</v>
       </c>
       <c r="E17" t="n">
-        <v>67950</v>
+        <v>68050</v>
       </c>
       <c r="F17" t="n">
-        <v>7.6908</v>
+        <v>5.3422</v>
       </c>
       <c r="G17" t="n">
-        <v>67555</v>
+        <v>67530</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>67950</v>
       </c>
       <c r="F18" t="n">
-        <v>25.8762</v>
+        <v>7.6908</v>
       </c>
       <c r="G18" t="n">
-        <v>67570.83333333333</v>
+        <v>67555</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>67950</v>
       </c>
       <c r="F19" t="n">
-        <v>1.159</v>
+        <v>25.8762</v>
       </c>
       <c r="G19" t="n">
-        <v>67594.16666666667</v>
+        <v>67570.83333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>67600</v>
+        <v>67950</v>
       </c>
       <c r="C20" t="n">
-        <v>67600</v>
+        <v>67950</v>
       </c>
       <c r="D20" t="n">
-        <v>67600</v>
+        <v>67950</v>
       </c>
       <c r="E20" t="n">
-        <v>67600</v>
+        <v>67950</v>
       </c>
       <c r="F20" t="n">
-        <v>6.1384</v>
+        <v>1.159</v>
       </c>
       <c r="G20" t="n">
-        <v>67612.5</v>
+        <v>67594.16666666667</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>67850</v>
+        <v>67600</v>
       </c>
       <c r="C21" t="n">
-        <v>67850</v>
+        <v>67600</v>
       </c>
       <c r="D21" t="n">
-        <v>67850</v>
+        <v>67600</v>
       </c>
       <c r="E21" t="n">
-        <v>67850</v>
+        <v>67600</v>
       </c>
       <c r="F21" t="n">
-        <v>39.6372</v>
+        <v>6.1384</v>
       </c>
       <c r="G21" t="n">
-        <v>67641.66666666667</v>
+        <v>67612.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,31 +1133,35 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>67650</v>
+        <v>67850</v>
       </c>
       <c r="C22" t="n">
-        <v>67650</v>
+        <v>67850</v>
       </c>
       <c r="D22" t="n">
-        <v>67650</v>
+        <v>67850</v>
       </c>
       <c r="E22" t="n">
-        <v>67650</v>
+        <v>67850</v>
       </c>
       <c r="F22" t="n">
-        <v>69.06480000000001</v>
+        <v>39.6372</v>
       </c>
       <c r="G22" t="n">
-        <v>67660.83333333333</v>
+        <v>67641.66666666667</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>67600</v>
+      </c>
+      <c r="K22" t="n">
+        <v>67600</v>
+      </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
@@ -1168,22 +1172,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>67700</v>
+        <v>67650</v>
       </c>
       <c r="C23" t="n">
-        <v>68550</v>
+        <v>67650</v>
       </c>
       <c r="D23" t="n">
-        <v>68550</v>
+        <v>67650</v>
       </c>
       <c r="E23" t="n">
-        <v>67700</v>
+        <v>67650</v>
       </c>
       <c r="F23" t="n">
-        <v>27.7966</v>
+        <v>69.06480000000001</v>
       </c>
       <c r="G23" t="n">
-        <v>67694.16666666667</v>
+        <v>67660.83333333333</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1192,8 +1196,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>67600</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1203,22 +1213,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>67750</v>
+        <v>67700</v>
       </c>
       <c r="C24" t="n">
-        <v>67700</v>
+        <v>68550</v>
       </c>
       <c r="D24" t="n">
-        <v>67750</v>
+        <v>68550</v>
       </c>
       <c r="E24" t="n">
         <v>67700</v>
       </c>
       <c r="F24" t="n">
-        <v>55.5391</v>
+        <v>27.7966</v>
       </c>
       <c r="G24" t="n">
-        <v>67713.33333333333</v>
+        <v>67694.16666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1227,8 +1237,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>67600</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1238,22 +1254,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>67650</v>
+        <v>67750</v>
       </c>
       <c r="C25" t="n">
-        <v>68450</v>
+        <v>67700</v>
       </c>
       <c r="D25" t="n">
-        <v>68450</v>
+        <v>67750</v>
       </c>
       <c r="E25" t="n">
-        <v>67600</v>
+        <v>67700</v>
       </c>
       <c r="F25" t="n">
-        <v>9.369799123447001</v>
+        <v>55.5391</v>
       </c>
       <c r="G25" t="n">
-        <v>67745</v>
+        <v>67713.33333333333</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,7 +1289,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>68450</v>
+        <v>67650</v>
       </c>
       <c r="C26" t="n">
         <v>68450</v>
@@ -1282,13 +1298,13 @@
         <v>68450</v>
       </c>
       <c r="E26" t="n">
-        <v>68450</v>
+        <v>67600</v>
       </c>
       <c r="F26" t="n">
-        <v>10</v>
+        <v>9.369799123447001</v>
       </c>
       <c r="G26" t="n">
-        <v>67776.66666666667</v>
+        <v>67745</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1323,7 +1339,7 @@
         <v>10</v>
       </c>
       <c r="G27" t="n">
-        <v>67808.33333333333</v>
+        <v>67776.66666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1359,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>67850</v>
+        <v>68450</v>
       </c>
       <c r="C28" t="n">
-        <v>68250</v>
+        <v>68450</v>
       </c>
       <c r="D28" t="n">
-        <v>68250</v>
+        <v>68450</v>
       </c>
       <c r="E28" t="n">
-        <v>67850</v>
+        <v>68450</v>
       </c>
       <c r="F28" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>67836.66666666667</v>
+        <v>67808.33333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,7 +1394,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>68250</v>
+        <v>67850</v>
       </c>
       <c r="C29" t="n">
         <v>68250</v>
@@ -1387,13 +1403,13 @@
         <v>68250</v>
       </c>
       <c r="E29" t="n">
-        <v>68250</v>
+        <v>67850</v>
       </c>
       <c r="F29" t="n">
-        <v>15.1627</v>
+        <v>35</v>
       </c>
       <c r="G29" t="n">
-        <v>67865</v>
+        <v>67836.66666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1429,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>68800</v>
+        <v>68250</v>
       </c>
       <c r="C30" t="n">
-        <v>68800</v>
+        <v>68250</v>
       </c>
       <c r="D30" t="n">
-        <v>68800</v>
+        <v>68250</v>
       </c>
       <c r="E30" t="n">
-        <v>68800</v>
+        <v>68250</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1</v>
+        <v>15.1627</v>
       </c>
       <c r="G30" t="n">
-        <v>67902.5</v>
+        <v>67865</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1476,10 @@
         <v>68800</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3291</v>
+        <v>0.1</v>
       </c>
       <c r="G31" t="n">
-        <v>67940</v>
+        <v>67902.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1499,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>68200</v>
+        <v>68800</v>
       </c>
       <c r="C32" t="n">
-        <v>68200</v>
+        <v>68800</v>
       </c>
       <c r="D32" t="n">
-        <v>68200</v>
+        <v>68800</v>
       </c>
       <c r="E32" t="n">
-        <v>68200</v>
+        <v>68800</v>
       </c>
       <c r="F32" t="n">
-        <v>2.2384</v>
+        <v>0.3291</v>
       </c>
       <c r="G32" t="n">
-        <v>67967.5</v>
+        <v>67940</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1534,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>68750</v>
+        <v>68200</v>
       </c>
       <c r="C33" t="n">
-        <v>68750</v>
+        <v>68200</v>
       </c>
       <c r="D33" t="n">
-        <v>68750</v>
+        <v>68200</v>
       </c>
       <c r="E33" t="n">
-        <v>68750</v>
+        <v>68200</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>2.2384</v>
       </c>
       <c r="G33" t="n">
-        <v>68004.16666666667</v>
+        <v>67967.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1569,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>68200</v>
+        <v>68750</v>
       </c>
       <c r="C34" t="n">
-        <v>68200</v>
+        <v>68750</v>
       </c>
       <c r="D34" t="n">
-        <v>69300</v>
+        <v>68750</v>
       </c>
       <c r="E34" t="n">
-        <v>68200</v>
+        <v>68750</v>
       </c>
       <c r="F34" t="n">
-        <v>675.8249</v>
+        <v>2</v>
       </c>
       <c r="G34" t="n">
-        <v>68025.83333333333</v>
+        <v>68004.16666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1604,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>69300</v>
+        <v>68200</v>
       </c>
       <c r="C35" t="n">
-        <v>69300</v>
+        <v>68200</v>
       </c>
       <c r="D35" t="n">
         <v>69300</v>
       </c>
       <c r="E35" t="n">
-        <v>69300</v>
+        <v>68200</v>
       </c>
       <c r="F35" t="n">
-        <v>0.048095238095</v>
+        <v>675.8249</v>
       </c>
       <c r="G35" t="n">
-        <v>68059.16666666667</v>
+        <v>68025.83333333333</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1639,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>68850</v>
+        <v>69300</v>
       </c>
       <c r="C36" t="n">
-        <v>68850</v>
+        <v>69300</v>
       </c>
       <c r="D36" t="n">
-        <v>68850</v>
+        <v>69300</v>
       </c>
       <c r="E36" t="n">
-        <v>68850</v>
+        <v>69300</v>
       </c>
       <c r="F36" t="n">
-        <v>1.4775</v>
+        <v>0.048095238095</v>
       </c>
       <c r="G36" t="n">
-        <v>68095</v>
+        <v>68059.16666666667</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1674,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>68750</v>
+        <v>68850</v>
       </c>
       <c r="C37" t="n">
-        <v>68750</v>
+        <v>68850</v>
       </c>
       <c r="D37" t="n">
-        <v>68750</v>
+        <v>68850</v>
       </c>
       <c r="E37" t="n">
-        <v>68750</v>
+        <v>68850</v>
       </c>
       <c r="F37" t="n">
-        <v>1.4844</v>
+        <v>1.4775</v>
       </c>
       <c r="G37" t="n">
-        <v>68129.16666666667</v>
+        <v>68095</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1709,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>68100</v>
+        <v>68750</v>
       </c>
       <c r="C38" t="n">
-        <v>68100</v>
+        <v>68750</v>
       </c>
       <c r="D38" t="n">
-        <v>68100</v>
+        <v>68750</v>
       </c>
       <c r="E38" t="n">
-        <v>68100</v>
+        <v>68750</v>
       </c>
       <c r="F38" t="n">
-        <v>0.15</v>
+        <v>1.4844</v>
       </c>
       <c r="G38" t="n">
-        <v>68143.33333333333</v>
+        <v>68129.16666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1744,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>68850</v>
+        <v>68100</v>
       </c>
       <c r="C39" t="n">
-        <v>68900</v>
+        <v>68100</v>
       </c>
       <c r="D39" t="n">
-        <v>68900</v>
+        <v>68100</v>
       </c>
       <c r="E39" t="n">
-        <v>68850</v>
+        <v>68100</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>0.15</v>
       </c>
       <c r="G39" t="n">
-        <v>68170.83333333333</v>
+        <v>68143.33333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1779,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>68250</v>
+        <v>68850</v>
       </c>
       <c r="C40" t="n">
-        <v>68300</v>
+        <v>68900</v>
       </c>
       <c r="D40" t="n">
-        <v>68300</v>
+        <v>68900</v>
       </c>
       <c r="E40" t="n">
-        <v>68250</v>
+        <v>68850</v>
       </c>
       <c r="F40" t="n">
-        <v>33.4959</v>
+        <v>2</v>
       </c>
       <c r="G40" t="n">
-        <v>68195.83333333333</v>
+        <v>68170.83333333333</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1814,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>68100</v>
+        <v>68250</v>
       </c>
       <c r="C41" t="n">
-        <v>68100</v>
+        <v>68300</v>
       </c>
       <c r="D41" t="n">
-        <v>68100</v>
+        <v>68300</v>
       </c>
       <c r="E41" t="n">
-        <v>68050</v>
+        <v>68250</v>
       </c>
       <c r="F41" t="n">
-        <v>1.2687</v>
+        <v>33.4959</v>
       </c>
       <c r="G41" t="n">
-        <v>68217.5</v>
+        <v>68195.83333333333</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1842,13 +1858,13 @@
         <v>68100</v>
       </c>
       <c r="E42" t="n">
-        <v>68100</v>
+        <v>68050</v>
       </c>
       <c r="F42" t="n">
-        <v>10</v>
+        <v>1.2687</v>
       </c>
       <c r="G42" t="n">
-        <v>68238.33333333333</v>
+        <v>68217.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1884,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>68150</v>
+        <v>68100</v>
       </c>
       <c r="C43" t="n">
-        <v>68150</v>
+        <v>68100</v>
       </c>
       <c r="D43" t="n">
-        <v>68150</v>
+        <v>68100</v>
       </c>
       <c r="E43" t="n">
-        <v>68150</v>
+        <v>68100</v>
       </c>
       <c r="F43" t="n">
-        <v>10.15</v>
+        <v>10</v>
       </c>
       <c r="G43" t="n">
-        <v>68256.66666666667</v>
+        <v>68238.33333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1919,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>68500</v>
+        <v>68150</v>
       </c>
       <c r="C44" t="n">
-        <v>68500</v>
+        <v>68150</v>
       </c>
       <c r="D44" t="n">
-        <v>68500</v>
+        <v>68150</v>
       </c>
       <c r="E44" t="n">
-        <v>68500</v>
+        <v>68150</v>
       </c>
       <c r="F44" t="n">
-        <v>3.8829</v>
+        <v>10.15</v>
       </c>
       <c r="G44" t="n">
-        <v>68269.16666666667</v>
+        <v>68256.66666666667</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1954,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>69100</v>
+        <v>68500</v>
       </c>
       <c r="C45" t="n">
-        <v>69100</v>
+        <v>68500</v>
       </c>
       <c r="D45" t="n">
-        <v>69100</v>
+        <v>68500</v>
       </c>
       <c r="E45" t="n">
-        <v>69100</v>
+        <v>68500</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1</v>
+        <v>3.8829</v>
       </c>
       <c r="G45" t="n">
-        <v>68294.16666666667</v>
+        <v>68269.16666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,10 +2001,10 @@
         <v>69100</v>
       </c>
       <c r="F46" t="n">
-        <v>12.0498</v>
+        <v>0.1</v>
       </c>
       <c r="G46" t="n">
-        <v>68319.16666666667</v>
+        <v>68294.16666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,10 +2036,10 @@
         <v>69100</v>
       </c>
       <c r="F47" t="n">
-        <v>10.9048</v>
+        <v>12.0498</v>
       </c>
       <c r="G47" t="n">
-        <v>68344.16666666667</v>
+        <v>68319.16666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2059,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>68700</v>
+        <v>69100</v>
       </c>
       <c r="C48" t="n">
-        <v>68700</v>
+        <v>69100</v>
       </c>
       <c r="D48" t="n">
-        <v>68700</v>
+        <v>69100</v>
       </c>
       <c r="E48" t="n">
-        <v>68700</v>
+        <v>69100</v>
       </c>
       <c r="F48" t="n">
-        <v>1.5886</v>
+        <v>10.9048</v>
       </c>
       <c r="G48" t="n">
-        <v>68355.83333333333</v>
+        <v>68344.16666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2094,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>69100</v>
+        <v>68700</v>
       </c>
       <c r="C49" t="n">
-        <v>69300</v>
+        <v>68700</v>
       </c>
       <c r="D49" t="n">
-        <v>69300</v>
+        <v>68700</v>
       </c>
       <c r="E49" t="n">
-        <v>69100</v>
+        <v>68700</v>
       </c>
       <c r="F49" t="n">
-        <v>0.58</v>
+        <v>1.5886</v>
       </c>
       <c r="G49" t="n">
-        <v>68377.5</v>
+        <v>68355.83333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2129,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
+        <v>69100</v>
+      </c>
+      <c r="C50" t="n">
         <v>69300</v>
-      </c>
-      <c r="C50" t="n">
-        <v>68650</v>
       </c>
       <c r="D50" t="n">
         <v>69300</v>
       </c>
       <c r="E50" t="n">
-        <v>68650</v>
+        <v>69100</v>
       </c>
       <c r="F50" t="n">
-        <v>51.8525</v>
+        <v>0.58</v>
       </c>
       <c r="G50" t="n">
-        <v>68388.33333333333</v>
+        <v>68377.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2164,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>69350</v>
+        <v>69300</v>
       </c>
       <c r="C51" t="n">
-        <v>69350</v>
+        <v>68650</v>
       </c>
       <c r="D51" t="n">
-        <v>69350</v>
+        <v>69300</v>
       </c>
       <c r="E51" t="n">
-        <v>69350</v>
+        <v>68650</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1</v>
+        <v>51.8525</v>
       </c>
       <c r="G51" t="n">
-        <v>68410.83333333333</v>
+        <v>68388.33333333333</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2199,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>68800</v>
+        <v>69350</v>
       </c>
       <c r="C52" t="n">
-        <v>68800</v>
+        <v>69350</v>
       </c>
       <c r="D52" t="n">
-        <v>68800</v>
+        <v>69350</v>
       </c>
       <c r="E52" t="n">
-        <v>68800</v>
+        <v>69350</v>
       </c>
       <c r="F52" t="n">
-        <v>10.0746</v>
+        <v>0.1</v>
       </c>
       <c r="G52" t="n">
-        <v>68430.83333333333</v>
+        <v>68410.83333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2221,19 +2237,19 @@
         <v>68800</v>
       </c>
       <c r="C53" t="n">
-        <v>68700</v>
+        <v>68800</v>
       </c>
       <c r="D53" t="n">
         <v>68800</v>
       </c>
       <c r="E53" t="n">
-        <v>68700</v>
+        <v>68800</v>
       </c>
       <c r="F53" t="n">
-        <v>25.8318</v>
+        <v>10.0746</v>
       </c>
       <c r="G53" t="n">
-        <v>68446.66666666667</v>
+        <v>68430.83333333333</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2269,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
+        <v>68800</v>
+      </c>
+      <c r="C54" t="n">
         <v>68700</v>
       </c>
-      <c r="C54" t="n">
-        <v>68650</v>
-      </c>
       <c r="D54" t="n">
+        <v>68800</v>
+      </c>
+      <c r="E54" t="n">
         <v>68700</v>
       </c>
-      <c r="E54" t="n">
-        <v>68650</v>
-      </c>
       <c r="F54" t="n">
-        <v>21.2812</v>
+        <v>25.8318</v>
       </c>
       <c r="G54" t="n">
-        <v>68461.66666666667</v>
+        <v>68446.66666666667</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2304,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>68650</v>
+        <v>68700</v>
       </c>
       <c r="C55" t="n">
         <v>68650</v>
       </c>
       <c r="D55" t="n">
-        <v>68650</v>
+        <v>68700</v>
       </c>
       <c r="E55" t="n">
         <v>68650</v>
       </c>
       <c r="F55" t="n">
-        <v>6.6387</v>
+        <v>21.2812</v>
       </c>
       <c r="G55" t="n">
-        <v>68475.83333333333</v>
+        <v>68461.66666666667</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2335,10 +2351,10 @@
         <v>68650</v>
       </c>
       <c r="F56" t="n">
-        <v>4</v>
+        <v>6.6387</v>
       </c>
       <c r="G56" t="n">
-        <v>68483.33333333333</v>
+        <v>68475.83333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2374,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>69150</v>
+        <v>68650</v>
       </c>
       <c r="C57" t="n">
-        <v>69050</v>
+        <v>68650</v>
       </c>
       <c r="D57" t="n">
-        <v>69150</v>
+        <v>68650</v>
       </c>
       <c r="E57" t="n">
-        <v>69050</v>
+        <v>68650</v>
       </c>
       <c r="F57" t="n">
-        <v>1.1255</v>
+        <v>4</v>
       </c>
       <c r="G57" t="n">
-        <v>68494.16666666667</v>
+        <v>68483.33333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2409,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>69050</v>
+        <v>69150</v>
       </c>
       <c r="C58" t="n">
         <v>69050</v>
       </c>
       <c r="D58" t="n">
-        <v>69050</v>
+        <v>69150</v>
       </c>
       <c r="E58" t="n">
         <v>69050</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1449</v>
+        <v>1.1255</v>
       </c>
       <c r="G58" t="n">
-        <v>68502.5</v>
+        <v>68494.16666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2431,19 +2447,19 @@
         <v>69050</v>
       </c>
       <c r="C59" t="n">
-        <v>69250</v>
+        <v>69050</v>
       </c>
       <c r="D59" t="n">
-        <v>69250</v>
+        <v>69050</v>
       </c>
       <c r="E59" t="n">
         <v>69050</v>
       </c>
       <c r="F59" t="n">
-        <v>27.932855451263</v>
+        <v>0.1449</v>
       </c>
       <c r="G59" t="n">
-        <v>68513.33333333333</v>
+        <v>68502.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2479,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>68850</v>
+        <v>69050</v>
       </c>
       <c r="C60" t="n">
-        <v>68850</v>
+        <v>69250</v>
       </c>
       <c r="D60" t="n">
-        <v>68850</v>
+        <v>69250</v>
       </c>
       <c r="E60" t="n">
-        <v>68850</v>
+        <v>69050</v>
       </c>
       <c r="F60" t="n">
-        <v>1.5</v>
+        <v>27.932855451263</v>
       </c>
       <c r="G60" t="n">
-        <v>68514.16666666667</v>
+        <v>68513.33333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2514,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>69150</v>
+        <v>68850</v>
       </c>
       <c r="C61" t="n">
         <v>68850</v>
       </c>
       <c r="D61" t="n">
-        <v>69150</v>
+        <v>68850</v>
       </c>
       <c r="E61" t="n">
-        <v>68800</v>
+        <v>68850</v>
       </c>
       <c r="F61" t="n">
-        <v>19.218843673174</v>
+        <v>1.5</v>
       </c>
       <c r="G61" t="n">
-        <v>68518.33333333333</v>
+        <v>68514.16666666667</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2549,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
+        <v>69150</v>
+      </c>
+      <c r="C62" t="n">
+        <v>68850</v>
+      </c>
+      <c r="D62" t="n">
+        <v>69150</v>
+      </c>
+      <c r="E62" t="n">
         <v>68800</v>
       </c>
-      <c r="C62" t="n">
-        <v>68650</v>
-      </c>
-      <c r="D62" t="n">
-        <v>68800</v>
-      </c>
-      <c r="E62" t="n">
-        <v>68650</v>
-      </c>
       <c r="F62" t="n">
-        <v>36.915769767441</v>
+        <v>19.218843673174</v>
       </c>
       <c r="G62" t="n">
-        <v>68525.83333333333</v>
+        <v>68518.33333333333</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2584,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>68600</v>
+        <v>68800</v>
       </c>
       <c r="C63" t="n">
-        <v>68550</v>
+        <v>68650</v>
       </c>
       <c r="D63" t="n">
-        <v>68600</v>
+        <v>68800</v>
       </c>
       <c r="E63" t="n">
-        <v>68550</v>
+        <v>68650</v>
       </c>
       <c r="F63" t="n">
-        <v>36.8866</v>
+        <v>36.915769767441</v>
       </c>
       <c r="G63" t="n">
-        <v>68525</v>
+        <v>68525.83333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2619,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>68450</v>
+        <v>68600</v>
       </c>
       <c r="C64" t="n">
         <v>68550</v>
       </c>
       <c r="D64" t="n">
+        <v>68600</v>
+      </c>
+      <c r="E64" t="n">
         <v>68550</v>
       </c>
-      <c r="E64" t="n">
-        <v>68400</v>
-      </c>
       <c r="F64" t="n">
-        <v>1.4582</v>
+        <v>36.8866</v>
       </c>
       <c r="G64" t="n">
-        <v>68530.83333333333</v>
+        <v>68525</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2654,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>68300</v>
+        <v>68450</v>
       </c>
       <c r="C65" t="n">
-        <v>68300</v>
+        <v>68550</v>
       </c>
       <c r="D65" t="n">
-        <v>68300</v>
+        <v>68550</v>
       </c>
       <c r="E65" t="n">
-        <v>68300</v>
+        <v>68400</v>
       </c>
       <c r="F65" t="n">
-        <v>0.2921</v>
+        <v>1.4582</v>
       </c>
       <c r="G65" t="n">
-        <v>68525.83333333333</v>
+        <v>68530.83333333333</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2689,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>68950</v>
+        <v>68300</v>
       </c>
       <c r="C66" t="n">
-        <v>69050</v>
+        <v>68300</v>
       </c>
       <c r="D66" t="n">
-        <v>69050</v>
+        <v>68300</v>
       </c>
       <c r="E66" t="n">
-        <v>68950</v>
+        <v>68300</v>
       </c>
       <c r="F66" t="n">
-        <v>3.8975</v>
+        <v>0.2921</v>
       </c>
       <c r="G66" t="n">
-        <v>68530</v>
+        <v>68525.83333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2724,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
+        <v>68950</v>
+      </c>
+      <c r="C67" t="n">
         <v>69050</v>
       </c>
-      <c r="C67" t="n">
-        <v>69150</v>
-      </c>
       <c r="D67" t="n">
-        <v>69150</v>
+        <v>69050</v>
       </c>
       <c r="E67" t="n">
-        <v>69050</v>
+        <v>68950</v>
       </c>
       <c r="F67" t="n">
-        <v>8.6714</v>
+        <v>3.8975</v>
       </c>
       <c r="G67" t="n">
-        <v>68543.33333333333</v>
+        <v>68530</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2746,19 +2762,19 @@
         <v>69050</v>
       </c>
       <c r="C68" t="n">
-        <v>69050</v>
+        <v>69150</v>
       </c>
       <c r="D68" t="n">
-        <v>69050</v>
+        <v>69150</v>
       </c>
       <c r="E68" t="n">
         <v>69050</v>
       </c>
       <c r="F68" t="n">
-        <v>7.4565</v>
+        <v>8.6714</v>
       </c>
       <c r="G68" t="n">
-        <v>68555</v>
+        <v>68543.33333333333</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2790,10 +2806,10 @@
         <v>69050</v>
       </c>
       <c r="F69" t="n">
-        <v>1.6374</v>
+        <v>7.4565</v>
       </c>
       <c r="G69" t="n">
-        <v>68559.16666666667</v>
+        <v>68555</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2829,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>68850</v>
+        <v>69050</v>
       </c>
       <c r="C70" t="n">
-        <v>68850</v>
+        <v>69050</v>
       </c>
       <c r="D70" t="n">
-        <v>68850</v>
+        <v>69050</v>
       </c>
       <c r="E70" t="n">
-        <v>68850</v>
+        <v>69050</v>
       </c>
       <c r="F70" t="n">
-        <v>8.1759</v>
+        <v>1.6374</v>
       </c>
       <c r="G70" t="n">
-        <v>68560</v>
+        <v>68559.16666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2860,10 +2876,10 @@
         <v>68850</v>
       </c>
       <c r="F71" t="n">
-        <v>3.0424</v>
+        <v>8.1759</v>
       </c>
       <c r="G71" t="n">
-        <v>68569.16666666667</v>
+        <v>68560</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2895,10 +2911,10 @@
         <v>68850</v>
       </c>
       <c r="F72" t="n">
-        <v>24.023</v>
+        <v>3.0424</v>
       </c>
       <c r="G72" t="n">
-        <v>68579.16666666667</v>
+        <v>68569.16666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2934,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>68300</v>
+        <v>68850</v>
       </c>
       <c r="C73" t="n">
-        <v>68300</v>
+        <v>68850</v>
       </c>
       <c r="D73" t="n">
-        <v>68300</v>
+        <v>68850</v>
       </c>
       <c r="E73" t="n">
-        <v>68300</v>
+        <v>68850</v>
       </c>
       <c r="F73" t="n">
-        <v>7.4565</v>
+        <v>24.023</v>
       </c>
       <c r="G73" t="n">
-        <v>68580.83333333333</v>
+        <v>68579.16666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2965,10 +2981,10 @@
         <v>68300</v>
       </c>
       <c r="F74" t="n">
-        <v>57.6597</v>
+        <v>7.4565</v>
       </c>
       <c r="G74" t="n">
-        <v>68573.33333333333</v>
+        <v>68580.83333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +3004,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>68950</v>
+        <v>68300</v>
       </c>
       <c r="C75" t="n">
-        <v>68950</v>
+        <v>68300</v>
       </c>
       <c r="D75" t="n">
-        <v>68950</v>
+        <v>68300</v>
       </c>
       <c r="E75" t="n">
-        <v>68950</v>
+        <v>68300</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1859</v>
+        <v>57.6597</v>
       </c>
       <c r="G75" t="n">
-        <v>68585.83333333333</v>
+        <v>68573.33333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,16 +3039,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>68050</v>
+        <v>68950</v>
       </c>
       <c r="C76" t="n">
-        <v>68050</v>
+        <v>68950</v>
       </c>
       <c r="D76" t="n">
-        <v>68050</v>
+        <v>68950</v>
       </c>
       <c r="E76" t="n">
-        <v>68050</v>
+        <v>68950</v>
       </c>
       <c r="F76" t="n">
         <v>0.1859</v>
@@ -3058,22 +3074,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>68800</v>
+        <v>68050</v>
       </c>
       <c r="C77" t="n">
-        <v>68800</v>
+        <v>68050</v>
       </c>
       <c r="D77" t="n">
-        <v>68800</v>
+        <v>68050</v>
       </c>
       <c r="E77" t="n">
-        <v>68800</v>
+        <v>68050</v>
       </c>
       <c r="F77" t="n">
-        <v>0.129186046511</v>
+        <v>0.1859</v>
       </c>
       <c r="G77" t="n">
-        <v>68600</v>
+        <v>68585.83333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3109,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>68700</v>
+        <v>68800</v>
       </c>
       <c r="C78" t="n">
-        <v>68700</v>
+        <v>68800</v>
       </c>
       <c r="D78" t="n">
-        <v>68700</v>
+        <v>68800</v>
       </c>
       <c r="E78" t="n">
-        <v>68700</v>
+        <v>68800</v>
       </c>
       <c r="F78" t="n">
-        <v>5</v>
+        <v>0.129186046511</v>
       </c>
       <c r="G78" t="n">
-        <v>68612.5</v>
+        <v>68600</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3144,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>68800</v>
+        <v>68700</v>
       </c>
       <c r="C79" t="n">
-        <v>68800</v>
+        <v>68700</v>
       </c>
       <c r="D79" t="n">
-        <v>68800</v>
+        <v>68700</v>
       </c>
       <c r="E79" t="n">
-        <v>68800</v>
+        <v>68700</v>
       </c>
       <c r="F79" t="n">
-        <v>2.7547</v>
+        <v>5</v>
       </c>
       <c r="G79" t="n">
-        <v>68626.66666666667</v>
+        <v>68612.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3179,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>68450</v>
+        <v>68800</v>
       </c>
       <c r="C80" t="n">
-        <v>68450</v>
+        <v>68800</v>
       </c>
       <c r="D80" t="n">
-        <v>68450</v>
+        <v>68800</v>
       </c>
       <c r="E80" t="n">
-        <v>68450</v>
+        <v>68800</v>
       </c>
       <c r="F80" t="n">
-        <v>1.3567</v>
+        <v>2.7547</v>
       </c>
       <c r="G80" t="n">
-        <v>68640.83333333333</v>
+        <v>68626.66666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3214,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>68350</v>
+        <v>68450</v>
       </c>
       <c r="C81" t="n">
-        <v>68300</v>
+        <v>68450</v>
       </c>
       <c r="D81" t="n">
-        <v>68350</v>
+        <v>68450</v>
       </c>
       <c r="E81" t="n">
-        <v>68300</v>
+        <v>68450</v>
       </c>
       <c r="F81" t="n">
-        <v>39.9127</v>
+        <v>1.3567</v>
       </c>
       <c r="G81" t="n">
-        <v>68648.33333333333</v>
+        <v>68640.83333333333</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3249,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>68500</v>
+        <v>68350</v>
       </c>
       <c r="C82" t="n">
-        <v>68100</v>
+        <v>68300</v>
       </c>
       <c r="D82" t="n">
-        <v>68500</v>
+        <v>68350</v>
       </c>
       <c r="E82" t="n">
-        <v>68100</v>
+        <v>68300</v>
       </c>
       <c r="F82" t="n">
-        <v>1.0143</v>
+        <v>39.9127</v>
       </c>
       <c r="G82" t="n">
-        <v>68655.83333333333</v>
+        <v>68648.33333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3284,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>67600</v>
+        <v>68500</v>
       </c>
       <c r="C83" t="n">
-        <v>67600</v>
+        <v>68100</v>
       </c>
       <c r="D83" t="n">
-        <v>67600</v>
+        <v>68500</v>
       </c>
       <c r="E83" t="n">
-        <v>67600</v>
+        <v>68100</v>
       </c>
       <c r="F83" t="n">
-        <v>0.7862</v>
+        <v>1.0143</v>
       </c>
       <c r="G83" t="n">
-        <v>68640</v>
+        <v>68655.83333333333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3315,10 +3331,10 @@
         <v>67600</v>
       </c>
       <c r="F84" t="n">
-        <v>10</v>
+        <v>0.7862</v>
       </c>
       <c r="G84" t="n">
-        <v>68638.33333333333</v>
+        <v>68640</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3354,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>67750</v>
+        <v>67600</v>
       </c>
       <c r="C85" t="n">
-        <v>67750</v>
+        <v>67600</v>
       </c>
       <c r="D85" t="n">
-        <v>67750</v>
+        <v>67600</v>
       </c>
       <c r="E85" t="n">
-        <v>67750</v>
+        <v>67600</v>
       </c>
       <c r="F85" t="n">
-        <v>6.7138</v>
+        <v>10</v>
       </c>
       <c r="G85" t="n">
-        <v>68626.66666666667</v>
+        <v>68638.33333333333</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3389,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>68000</v>
+        <v>67750</v>
       </c>
       <c r="C86" t="n">
-        <v>68000</v>
+        <v>67750</v>
       </c>
       <c r="D86" t="n">
-        <v>68000</v>
+        <v>67750</v>
       </c>
       <c r="E86" t="n">
-        <v>68000</v>
+        <v>67750</v>
       </c>
       <c r="F86" t="n">
-        <v>1.7475</v>
+        <v>6.7138</v>
       </c>
       <c r="G86" t="n">
-        <v>68619.16666666667</v>
+        <v>68626.66666666667</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3411,19 +3427,19 @@
         <v>68000</v>
       </c>
       <c r="C87" t="n">
-        <v>67750</v>
+        <v>68000</v>
       </c>
       <c r="D87" t="n">
         <v>68000</v>
       </c>
       <c r="E87" t="n">
-        <v>67750</v>
+        <v>68000</v>
       </c>
       <c r="F87" t="n">
-        <v>1.53</v>
+        <v>1.7475</v>
       </c>
       <c r="G87" t="n">
-        <v>68607.5</v>
+        <v>68619.16666666667</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3459,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>67600</v>
+        <v>68000</v>
       </c>
       <c r="C88" t="n">
-        <v>67500</v>
+        <v>67750</v>
       </c>
       <c r="D88" t="n">
-        <v>67600</v>
+        <v>68000</v>
       </c>
       <c r="E88" t="n">
-        <v>67500</v>
+        <v>67750</v>
       </c>
       <c r="F88" t="n">
-        <v>8.8971</v>
+        <v>1.53</v>
       </c>
       <c r="G88" t="n">
-        <v>68595</v>
+        <v>68607.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3494,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>67550</v>
+        <v>67600</v>
       </c>
       <c r="C89" t="n">
-        <v>68000</v>
+        <v>67500</v>
       </c>
       <c r="D89" t="n">
-        <v>68000</v>
+        <v>67600</v>
       </c>
       <c r="E89" t="n">
         <v>67500</v>
       </c>
       <c r="F89" t="n">
-        <v>4.644</v>
+        <v>8.8971</v>
       </c>
       <c r="G89" t="n">
-        <v>68590.83333333333</v>
+        <v>68595</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3529,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>67450</v>
+        <v>67550</v>
       </c>
       <c r="C90" t="n">
-        <v>67400</v>
+        <v>68000</v>
       </c>
       <c r="D90" t="n">
-        <v>67450</v>
+        <v>68000</v>
       </c>
       <c r="E90" t="n">
-        <v>67400</v>
+        <v>67500</v>
       </c>
       <c r="F90" t="n">
-        <v>1.4981</v>
+        <v>4.644</v>
       </c>
       <c r="G90" t="n">
-        <v>68567.5</v>
+        <v>68590.83333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3564,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>67400</v>
+        <v>67450</v>
       </c>
       <c r="C91" t="n">
         <v>67400</v>
       </c>
       <c r="D91" t="n">
-        <v>67400</v>
+        <v>67450</v>
       </c>
       <c r="E91" t="n">
         <v>67400</v>
       </c>
       <c r="F91" t="n">
-        <v>49</v>
+        <v>1.4981</v>
       </c>
       <c r="G91" t="n">
-        <v>68544.16666666667</v>
+        <v>68567.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3599,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>67350</v>
+        <v>67400</v>
       </c>
       <c r="C92" t="n">
-        <v>67350</v>
+        <v>67400</v>
       </c>
       <c r="D92" t="n">
-        <v>67350</v>
+        <v>67400</v>
       </c>
       <c r="E92" t="n">
-        <v>67350</v>
+        <v>67400</v>
       </c>
       <c r="F92" t="n">
-        <v>6.3562</v>
+        <v>49</v>
       </c>
       <c r="G92" t="n">
-        <v>68530</v>
+        <v>68544.16666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3634,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>67550</v>
+        <v>67350</v>
       </c>
       <c r="C93" t="n">
-        <v>67550</v>
+        <v>67350</v>
       </c>
       <c r="D93" t="n">
-        <v>67550</v>
+        <v>67350</v>
       </c>
       <c r="E93" t="n">
-        <v>67550</v>
+        <v>67350</v>
       </c>
       <c r="F93" t="n">
-        <v>1.06</v>
+        <v>6.3562</v>
       </c>
       <c r="G93" t="n">
-        <v>68510</v>
+        <v>68530</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3669,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>67500</v>
+        <v>67550</v>
       </c>
       <c r="C94" t="n">
-        <v>67500</v>
+        <v>67550</v>
       </c>
       <c r="D94" t="n">
-        <v>67500</v>
+        <v>67550</v>
       </c>
       <c r="E94" t="n">
-        <v>67500</v>
+        <v>67550</v>
       </c>
       <c r="F94" t="n">
-        <v>3.9729</v>
+        <v>1.06</v>
       </c>
       <c r="G94" t="n">
-        <v>68498.33333333333</v>
+        <v>68510</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3704,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>67750</v>
+        <v>67500</v>
       </c>
       <c r="C95" t="n">
-        <v>67850</v>
+        <v>67500</v>
       </c>
       <c r="D95" t="n">
-        <v>67850</v>
+        <v>67500</v>
       </c>
       <c r="E95" t="n">
         <v>67500</v>
       </c>
       <c r="F95" t="n">
-        <v>119.7466</v>
+        <v>3.9729</v>
       </c>
       <c r="G95" t="n">
-        <v>68474.16666666667</v>
+        <v>68498.33333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3739,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
+        <v>67750</v>
+      </c>
+      <c r="C96" t="n">
+        <v>67850</v>
+      </c>
+      <c r="D96" t="n">
+        <v>67850</v>
+      </c>
+      <c r="E96" t="n">
         <v>67500</v>
       </c>
-      <c r="C96" t="n">
-        <v>67400</v>
-      </c>
-      <c r="D96" t="n">
-        <v>67900</v>
-      </c>
-      <c r="E96" t="n">
-        <v>67350</v>
-      </c>
       <c r="F96" t="n">
-        <v>9.8787</v>
+        <v>119.7466</v>
       </c>
       <c r="G96" t="n">
-        <v>68450</v>
+        <v>68474.16666666667</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3761,19 +3777,19 @@
         <v>67500</v>
       </c>
       <c r="C97" t="n">
-        <v>67450</v>
+        <v>67400</v>
       </c>
       <c r="D97" t="n">
-        <v>67500</v>
+        <v>67900</v>
       </c>
       <c r="E97" t="n">
-        <v>67450</v>
+        <v>67350</v>
       </c>
       <c r="F97" t="n">
-        <v>10</v>
+        <v>9.8787</v>
       </c>
       <c r="G97" t="n">
-        <v>68428.33333333333</v>
+        <v>68450</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3809,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>67350</v>
+        <v>67500</v>
       </c>
       <c r="C98" t="n">
-        <v>67350</v>
+        <v>67450</v>
       </c>
       <c r="D98" t="n">
-        <v>67350</v>
+        <v>67500</v>
       </c>
       <c r="E98" t="n">
-        <v>67350</v>
+        <v>67450</v>
       </c>
       <c r="F98" t="n">
-        <v>1.6029</v>
+        <v>10</v>
       </c>
       <c r="G98" t="n">
-        <v>68415.83333333333</v>
+        <v>68428.33333333333</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3844,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>67300</v>
+        <v>67350</v>
       </c>
       <c r="C99" t="n">
-        <v>67300</v>
+        <v>67350</v>
       </c>
       <c r="D99" t="n">
-        <v>67300</v>
+        <v>67350</v>
       </c>
       <c r="E99" t="n">
-        <v>67300</v>
+        <v>67350</v>
       </c>
       <c r="F99" t="n">
-        <v>17.9147</v>
+        <v>1.6029</v>
       </c>
       <c r="G99" t="n">
-        <v>68389.16666666667</v>
+        <v>68415.83333333333</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3866,19 +3882,19 @@
         <v>67300</v>
       </c>
       <c r="C100" t="n">
-        <v>67000</v>
+        <v>67300</v>
       </c>
       <c r="D100" t="n">
-        <v>67450</v>
+        <v>67300</v>
       </c>
       <c r="E100" t="n">
-        <v>67000</v>
+        <v>67300</v>
       </c>
       <c r="F100" t="n">
-        <v>14.579</v>
+        <v>17.9147</v>
       </c>
       <c r="G100" t="n">
-        <v>68367.5</v>
+        <v>68389.16666666667</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3914,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>67200</v>
+        <v>67300</v>
       </c>
       <c r="C101" t="n">
-        <v>66900</v>
+        <v>67000</v>
       </c>
       <c r="D101" t="n">
-        <v>67200</v>
+        <v>67450</v>
       </c>
       <c r="E101" t="n">
-        <v>66900</v>
+        <v>67000</v>
       </c>
       <c r="F101" t="n">
-        <v>13.6046</v>
+        <v>14.579</v>
       </c>
       <c r="G101" t="n">
-        <v>68347.5</v>
+        <v>68367.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3949,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="C102" t="n">
-        <v>67000</v>
+        <v>66900</v>
       </c>
       <c r="D102" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="E102" t="n">
-        <v>67000</v>
+        <v>66900</v>
       </c>
       <c r="F102" t="n">
-        <v>0.5679999999999999</v>
+        <v>13.6046</v>
       </c>
       <c r="G102" t="n">
-        <v>68329.16666666667</v>
+        <v>68347.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3984,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>66950</v>
+        <v>67000</v>
       </c>
       <c r="C103" t="n">
-        <v>66950</v>
+        <v>67000</v>
       </c>
       <c r="D103" t="n">
-        <v>66950</v>
+        <v>67000</v>
       </c>
       <c r="E103" t="n">
-        <v>66950</v>
+        <v>67000</v>
       </c>
       <c r="F103" t="n">
-        <v>2.2617</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="G103" t="n">
-        <v>68309.16666666667</v>
+        <v>68329.16666666667</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4019,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>67000</v>
+        <v>66950</v>
       </c>
       <c r="C104" t="n">
-        <v>67000</v>
+        <v>66950</v>
       </c>
       <c r="D104" t="n">
-        <v>67000</v>
+        <v>66950</v>
       </c>
       <c r="E104" t="n">
-        <v>67000</v>
+        <v>66950</v>
       </c>
       <c r="F104" t="n">
-        <v>0.3194</v>
+        <v>2.2617</v>
       </c>
       <c r="G104" t="n">
-        <v>68284.16666666667</v>
+        <v>68309.16666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4054,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>66950</v>
+        <v>67000</v>
       </c>
       <c r="C105" t="n">
-        <v>66950</v>
+        <v>67000</v>
       </c>
       <c r="D105" t="n">
-        <v>66950</v>
+        <v>67000</v>
       </c>
       <c r="E105" t="n">
-        <v>66950</v>
+        <v>67000</v>
       </c>
       <c r="F105" t="n">
-        <v>1.9556</v>
+        <v>0.3194</v>
       </c>
       <c r="G105" t="n">
-        <v>68248.33333333333</v>
+        <v>68284.16666666667</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4076,19 +4092,19 @@
         <v>66950</v>
       </c>
       <c r="C106" t="n">
-        <v>67000</v>
+        <v>66950</v>
       </c>
       <c r="D106" t="n">
-        <v>67000</v>
+        <v>66950</v>
       </c>
       <c r="E106" t="n">
-        <v>66700</v>
+        <v>66950</v>
       </c>
       <c r="F106" t="n">
-        <v>131.3544</v>
+        <v>1.9556</v>
       </c>
       <c r="G106" t="n">
-        <v>68213.33333333333</v>
+        <v>68248.33333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,35 +4124,31 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>67050</v>
+        <v>66950</v>
       </c>
       <c r="C107" t="n">
-        <v>67350</v>
+        <v>67000</v>
       </c>
       <c r="D107" t="n">
-        <v>67350</v>
+        <v>67000</v>
       </c>
       <c r="E107" t="n">
-        <v>67050</v>
+        <v>66700</v>
       </c>
       <c r="F107" t="n">
-        <v>99.1962</v>
+        <v>131.3544</v>
       </c>
       <c r="G107" t="n">
-        <v>68184.16666666667</v>
+        <v>68213.33333333333</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K107" t="n">
-        <v>67000</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
@@ -4150,37 +4162,29 @@
         <v>67050</v>
       </c>
       <c r="C108" t="n">
-        <v>67000</v>
+        <v>67350</v>
       </c>
       <c r="D108" t="n">
+        <v>67350</v>
+      </c>
+      <c r="E108" t="n">
         <v>67050</v>
       </c>
-      <c r="E108" t="n">
-        <v>67000</v>
-      </c>
       <c r="F108" t="n">
-        <v>2.6841</v>
+        <v>99.1962</v>
       </c>
       <c r="G108" t="n">
-        <v>68155.83333333333</v>
+        <v>68184.16666666667</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>67350</v>
-      </c>
-      <c r="K108" t="n">
-        <v>67000</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4190,40 +4194,32 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
+        <v>67050</v>
+      </c>
+      <c r="C109" t="n">
         <v>67000</v>
       </c>
-      <c r="C109" t="n">
-        <v>66800</v>
-      </c>
       <c r="D109" t="n">
+        <v>67050</v>
+      </c>
+      <c r="E109" t="n">
         <v>67000</v>
       </c>
-      <c r="E109" t="n">
-        <v>66800</v>
-      </c>
       <c r="F109" t="n">
-        <v>10.9048</v>
+        <v>2.6841</v>
       </c>
       <c r="G109" t="n">
-        <v>68114.16666666667</v>
+        <v>68155.83333333333</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K109" t="n">
-        <v>67000</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4233,40 +4229,32 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>67050</v>
+        <v>67000</v>
       </c>
       <c r="C110" t="n">
-        <v>66550</v>
+        <v>66800</v>
       </c>
       <c r="D110" t="n">
-        <v>67050</v>
+        <v>67000</v>
       </c>
       <c r="E110" t="n">
-        <v>66550</v>
+        <v>66800</v>
       </c>
       <c r="F110" t="n">
-        <v>50.9979</v>
+        <v>10.9048</v>
       </c>
       <c r="G110" t="n">
-        <v>68079.16666666667</v>
+        <v>68114.16666666667</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>66800</v>
-      </c>
-      <c r="K110" t="n">
-        <v>67000</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4276,40 +4264,32 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>67350</v>
+        <v>67050</v>
       </c>
       <c r="C111" t="n">
-        <v>67450</v>
+        <v>66550</v>
       </c>
       <c r="D111" t="n">
-        <v>67450</v>
+        <v>67050</v>
       </c>
       <c r="E111" t="n">
-        <v>67350</v>
+        <v>66550</v>
       </c>
       <c r="F111" t="n">
-        <v>0.7587</v>
+        <v>50.9979</v>
       </c>
       <c r="G111" t="n">
-        <v>68047.5</v>
+        <v>68079.16666666667</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>66550</v>
-      </c>
-      <c r="K111" t="n">
-        <v>67000</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4319,40 +4299,32 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
+        <v>67350</v>
+      </c>
+      <c r="C112" t="n">
         <v>67450</v>
       </c>
-      <c r="C112" t="n">
-        <v>67500</v>
-      </c>
       <c r="D112" t="n">
-        <v>67500</v>
+        <v>67450</v>
       </c>
       <c r="E112" t="n">
-        <v>67450</v>
+        <v>67350</v>
       </c>
       <c r="F112" t="n">
-        <v>15.6013</v>
+        <v>0.7587</v>
       </c>
       <c r="G112" t="n">
-        <v>68025.83333333333</v>
+        <v>68047.5</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>67450</v>
-      </c>
-      <c r="K112" t="n">
-        <v>67000</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4362,41 +4334,68 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
+        <v>67450</v>
+      </c>
+      <c r="C113" t="n">
+        <v>67500</v>
+      </c>
+      <c r="D113" t="n">
+        <v>67500</v>
+      </c>
+      <c r="E113" t="n">
+        <v>67450</v>
+      </c>
+      <c r="F113" t="n">
+        <v>15.6013</v>
+      </c>
+      <c r="G113" t="n">
+        <v>68025.83333333333</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
         <v>67300</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C114" t="n">
         <v>67250</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D114" t="n">
         <v>67300</v>
       </c>
-      <c r="E113" t="n">
+      <c r="E114" t="n">
         <v>67250</v>
       </c>
-      <c r="F113" t="n">
+      <c r="F114" t="n">
         <v>1.7349</v>
       </c>
-      <c r="G113" t="n">
+      <c r="G114" t="n">
         <v>68001.66666666667</v>
       </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>67500</v>
-      </c>
-      <c r="K113" t="n">
-        <v>67000</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-15 BackTest XMR.xlsx
+++ b/BackTest/2020-01-15 BackTest XMR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M114"/>
+  <dimension ref="A1:N124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>30</v>
       </c>
       <c r="G2" t="n">
+        <v>68110</v>
+      </c>
+      <c r="H2" t="n">
         <v>67087.5</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>27.8369</v>
       </c>
       <c r="G3" t="n">
+        <v>68150</v>
+      </c>
+      <c r="H3" t="n">
         <v>67114.16666666667</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>31.1859</v>
       </c>
       <c r="G4" t="n">
+        <v>68190</v>
+      </c>
+      <c r="H4" t="n">
         <v>67147.5</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>0.2443</v>
       </c>
       <c r="G5" t="n">
+        <v>68203.33333333333</v>
+      </c>
+      <c r="H5" t="n">
         <v>67166.66666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>6.6803</v>
       </c>
       <c r="G6" t="n">
+        <v>68243.33333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>67192.5</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>26.8106</v>
       </c>
       <c r="G7" t="n">
+        <v>68296.66666666667</v>
+      </c>
+      <c r="H7" t="n">
         <v>67221.66666666667</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>24.613</v>
       </c>
       <c r="G8" t="n">
+        <v>68346.66666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>67251.66666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>5.2833</v>
       </c>
       <c r="G9" t="n">
+        <v>68386.66666666667</v>
+      </c>
+      <c r="H9" t="n">
         <v>67281.66666666667</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>2.238372093023</v>
       </c>
       <c r="G10" t="n">
+        <v>68456.66666666667</v>
+      </c>
+      <c r="H10" t="n">
         <v>67319.16666666667</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>1.103</v>
       </c>
       <c r="G11" t="n">
+        <v>68523.33333333333</v>
+      </c>
+      <c r="H11" t="n">
         <v>67356.66666666667</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>3.025</v>
       </c>
       <c r="G12" t="n">
+        <v>68530</v>
+      </c>
+      <c r="H12" t="n">
         <v>67386.66666666667</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>13.8716</v>
       </c>
       <c r="G13" t="n">
+        <v>68520</v>
+      </c>
+      <c r="H13" t="n">
         <v>67415.83333333333</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>15.1712</v>
       </c>
       <c r="G14" t="n">
+        <v>68496.66666666667</v>
+      </c>
+      <c r="H14" t="n">
         <v>67445</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>5.7254</v>
       </c>
       <c r="G15" t="n">
+        <v>68506.66666666667</v>
+      </c>
+      <c r="H15" t="n">
         <v>67483.33333333333</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>21.9269</v>
       </c>
       <c r="G16" t="n">
+        <v>68466.66666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>67512.5</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>5.3422</v>
       </c>
       <c r="G17" t="n">
+        <v>68430</v>
+      </c>
+      <c r="H17" t="n">
         <v>67530</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>7.6908</v>
       </c>
       <c r="G18" t="n">
+        <v>68413.33333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>67555</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>25.8762</v>
       </c>
       <c r="G19" t="n">
+        <v>68370</v>
+      </c>
+      <c r="H19" t="n">
         <v>67570.83333333333</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>1.159</v>
       </c>
       <c r="G20" t="n">
+        <v>68353.33333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>67594.16666666667</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>6.1384</v>
       </c>
       <c r="G21" t="n">
+        <v>68286.66666666667</v>
+      </c>
+      <c r="H21" t="n">
         <v>67612.5</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,22 +1213,21 @@
         <v>39.6372</v>
       </c>
       <c r="G22" t="n">
+        <v>68223.33333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>67641.66666666667</v>
       </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>67600</v>
-      </c>
-      <c r="K22" t="n">
-        <v>67600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1187,24 +1251,21 @@
         <v>69.06480000000001</v>
       </c>
       <c r="G23" t="n">
+        <v>68176.66666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>67660.83333333333</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>67600</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1228,24 +1289,21 @@
         <v>27.7966</v>
       </c>
       <c r="G24" t="n">
+        <v>68190</v>
+      </c>
+      <c r="H24" t="n">
         <v>67694.16666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>67600</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1269,18 +1327,21 @@
         <v>55.5391</v>
       </c>
       <c r="G25" t="n">
+        <v>68116.66666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>67713.33333333333</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1304,18 +1365,21 @@
         <v>9.369799123447001</v>
       </c>
       <c r="G26" t="n">
+        <v>68093.33333333333</v>
+      </c>
+      <c r="H26" t="n">
         <v>67745</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1339,18 +1403,21 @@
         <v>10</v>
       </c>
       <c r="G27" t="n">
+        <v>68103.33333333333</v>
+      </c>
+      <c r="H27" t="n">
         <v>67776.66666666667</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1374,18 +1441,21 @@
         <v>10</v>
       </c>
       <c r="G28" t="n">
+        <v>68116.66666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>67808.33333333333</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1409,18 +1479,21 @@
         <v>35</v>
       </c>
       <c r="G29" t="n">
+        <v>68120</v>
+      </c>
+      <c r="H29" t="n">
         <v>67836.66666666667</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1444,18 +1517,21 @@
         <v>15.1627</v>
       </c>
       <c r="G30" t="n">
+        <v>68086.66666666667</v>
+      </c>
+      <c r="H30" t="n">
         <v>67865</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1479,18 +1555,21 @@
         <v>0.1</v>
       </c>
       <c r="G31" t="n">
+        <v>68126.66666666667</v>
+      </c>
+      <c r="H31" t="n">
         <v>67902.5</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1514,18 +1593,21 @@
         <v>0.3291</v>
       </c>
       <c r="G32" t="n">
+        <v>68176.66666666667</v>
+      </c>
+      <c r="H32" t="n">
         <v>67940</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1549,18 +1631,21 @@
         <v>2.2384</v>
       </c>
       <c r="G33" t="n">
+        <v>68193.33333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>67967.5</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1584,18 +1669,21 @@
         <v>2</v>
       </c>
       <c r="G34" t="n">
+        <v>68246.66666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>68004.16666666667</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1619,18 +1707,21 @@
         <v>675.8249</v>
       </c>
       <c r="G35" t="n">
+        <v>68263.33333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>68025.83333333333</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,18 +1745,21 @@
         <v>0.048095238095</v>
       </c>
       <c r="G36" t="n">
+        <v>68376.66666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>68059.16666666667</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1689,18 +1783,21 @@
         <v>1.4775</v>
       </c>
       <c r="G37" t="n">
+        <v>68443.33333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>68095</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1724,18 +1821,21 @@
         <v>1.4844</v>
       </c>
       <c r="G38" t="n">
+        <v>68516.66666666667</v>
+      </c>
+      <c r="H38" t="n">
         <v>68129.16666666667</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1759,18 +1859,21 @@
         <v>0.15</v>
       </c>
       <c r="G39" t="n">
+        <v>68486.66666666667</v>
+      </c>
+      <c r="H39" t="n">
         <v>68143.33333333333</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1794,18 +1897,21 @@
         <v>2</v>
       </c>
       <c r="G40" t="n">
+        <v>68566.66666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>68170.83333333333</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1829,18 +1935,21 @@
         <v>33.4959</v>
       </c>
       <c r="G41" t="n">
+        <v>68556.66666666667</v>
+      </c>
+      <c r="H41" t="n">
         <v>68195.83333333333</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1864,18 +1973,21 @@
         <v>1.2687</v>
       </c>
       <c r="G42" t="n">
+        <v>68533.33333333333</v>
+      </c>
+      <c r="H42" t="n">
         <v>68217.5</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1899,18 +2011,21 @@
         <v>10</v>
       </c>
       <c r="G43" t="n">
+        <v>68510</v>
+      </c>
+      <c r="H43" t="n">
         <v>68238.33333333333</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1934,18 +2049,21 @@
         <v>10.15</v>
       </c>
       <c r="G44" t="n">
+        <v>68503.33333333333</v>
+      </c>
+      <c r="H44" t="n">
         <v>68256.66666666667</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1969,18 +2087,21 @@
         <v>3.8829</v>
       </c>
       <c r="G45" t="n">
+        <v>68520</v>
+      </c>
+      <c r="H45" t="n">
         <v>68269.16666666667</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2004,18 +2125,21 @@
         <v>0.1</v>
       </c>
       <c r="G46" t="n">
+        <v>68540</v>
+      </c>
+      <c r="H46" t="n">
         <v>68294.16666666667</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2039,18 +2163,21 @@
         <v>12.0498</v>
       </c>
       <c r="G47" t="n">
+        <v>68560</v>
+      </c>
+      <c r="H47" t="n">
         <v>68319.16666666667</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2074,18 +2201,21 @@
         <v>10.9048</v>
       </c>
       <c r="G48" t="n">
+        <v>68620</v>
+      </c>
+      <c r="H48" t="n">
         <v>68344.16666666667</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2109,18 +2239,21 @@
         <v>1.5886</v>
       </c>
       <c r="G49" t="n">
+        <v>68616.66666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>68355.83333333333</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2144,18 +2277,21 @@
         <v>0.58</v>
       </c>
       <c r="G50" t="n">
+        <v>68690</v>
+      </c>
+      <c r="H50" t="n">
         <v>68377.5</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2179,18 +2315,21 @@
         <v>51.8525</v>
       </c>
       <c r="G51" t="n">
+        <v>68646.66666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>68388.33333333333</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2214,18 +2353,21 @@
         <v>0.1</v>
       </c>
       <c r="G52" t="n">
+        <v>68680</v>
+      </c>
+      <c r="H52" t="n">
         <v>68410.83333333333</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2249,18 +2391,21 @@
         <v>10.0746</v>
       </c>
       <c r="G53" t="n">
+        <v>68683.33333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>68430.83333333333</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,18 +2429,21 @@
         <v>25.8318</v>
       </c>
       <c r="G54" t="n">
+        <v>68723.33333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>68446.66666666667</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>1</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2319,18 +2467,21 @@
         <v>21.2812</v>
       </c>
       <c r="G55" t="n">
+        <v>68706.66666666667</v>
+      </c>
+      <c r="H55" t="n">
         <v>68461.66666666667</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2354,18 +2505,21 @@
         <v>6.6387</v>
       </c>
       <c r="G56" t="n">
+        <v>68730</v>
+      </c>
+      <c r="H56" t="n">
         <v>68475.83333333333</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2389,18 +2543,21 @@
         <v>4</v>
       </c>
       <c r="G57" t="n">
+        <v>68766.66666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>68483.33333333333</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2424,18 +2581,21 @@
         <v>1.1255</v>
       </c>
       <c r="G58" t="n">
+        <v>68830</v>
+      </c>
+      <c r="H58" t="n">
         <v>68494.16666666667</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2459,18 +2619,21 @@
         <v>0.1449</v>
       </c>
       <c r="G59" t="n">
+        <v>68890</v>
+      </c>
+      <c r="H59" t="n">
         <v>68502.5</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2494,18 +2657,21 @@
         <v>27.932855451263</v>
       </c>
       <c r="G60" t="n">
+        <v>68940</v>
+      </c>
+      <c r="H60" t="n">
         <v>68513.33333333333</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2529,18 +2695,21 @@
         <v>1.5</v>
       </c>
       <c r="G61" t="n">
+        <v>68923.33333333333</v>
+      </c>
+      <c r="H61" t="n">
         <v>68514.16666666667</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2564,18 +2733,21 @@
         <v>19.218843673174</v>
       </c>
       <c r="G62" t="n">
+        <v>68906.66666666667</v>
+      </c>
+      <c r="H62" t="n">
         <v>68518.33333333333</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2599,18 +2771,21 @@
         <v>36.915769767441</v>
       </c>
       <c r="G63" t="n">
+        <v>68876.66666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>68525.83333333333</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2634,18 +2809,21 @@
         <v>36.8866</v>
       </c>
       <c r="G64" t="n">
+        <v>68866.66666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>68525</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2669,18 +2847,21 @@
         <v>1.4582</v>
       </c>
       <c r="G65" t="n">
+        <v>68816.66666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>68530.83333333333</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2704,18 +2885,21 @@
         <v>0.2921</v>
       </c>
       <c r="G66" t="n">
+        <v>68793.33333333333</v>
+      </c>
+      <c r="H66" t="n">
         <v>68525.83333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2739,18 +2923,21 @@
         <v>3.8975</v>
       </c>
       <c r="G67" t="n">
+        <v>68773.33333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>68530</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2774,18 +2961,21 @@
         <v>8.6714</v>
       </c>
       <c r="G68" t="n">
+        <v>68796.66666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>68543.33333333333</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2809,18 +2999,21 @@
         <v>7.4565</v>
       </c>
       <c r="G69" t="n">
+        <v>68820</v>
+      </c>
+      <c r="H69" t="n">
         <v>68555</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2844,18 +3037,21 @@
         <v>1.6374</v>
       </c>
       <c r="G70" t="n">
+        <v>68846.66666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>68559.16666666667</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2879,18 +3075,21 @@
         <v>8.1759</v>
       </c>
       <c r="G71" t="n">
+        <v>68860</v>
+      </c>
+      <c r="H71" t="n">
         <v>68560</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2914,18 +3113,21 @@
         <v>3.0424</v>
       </c>
       <c r="G72" t="n">
+        <v>68873.33333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>68569.16666666667</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2949,18 +3151,21 @@
         <v>24.023</v>
       </c>
       <c r="G73" t="n">
+        <v>68860</v>
+      </c>
+      <c r="H73" t="n">
         <v>68579.16666666667</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,18 +3189,21 @@
         <v>7.4565</v>
       </c>
       <c r="G74" t="n">
+        <v>68810</v>
+      </c>
+      <c r="H74" t="n">
         <v>68580.83333333333</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3019,18 +3227,21 @@
         <v>57.6597</v>
       </c>
       <c r="G75" t="n">
+        <v>68746.66666666667</v>
+      </c>
+      <c r="H75" t="n">
         <v>68573.33333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3054,18 +3265,21 @@
         <v>0.1859</v>
       </c>
       <c r="G76" t="n">
+        <v>68753.33333333333</v>
+      </c>
+      <c r="H76" t="n">
         <v>68585.83333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3089,18 +3303,21 @@
         <v>0.1859</v>
       </c>
       <c r="G77" t="n">
+        <v>68700</v>
+      </c>
+      <c r="H77" t="n">
         <v>68585.83333333333</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3124,18 +3341,21 @@
         <v>0.129186046511</v>
       </c>
       <c r="G78" t="n">
+        <v>68710</v>
+      </c>
+      <c r="H78" t="n">
         <v>68600</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3159,18 +3379,21 @@
         <v>5</v>
       </c>
       <c r="G79" t="n">
+        <v>68720</v>
+      </c>
+      <c r="H79" t="n">
         <v>68612.5</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3194,18 +3417,21 @@
         <v>2.7547</v>
       </c>
       <c r="G80" t="n">
+        <v>68736.66666666667</v>
+      </c>
+      <c r="H80" t="n">
         <v>68626.66666666667</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3229,18 +3455,21 @@
         <v>1.3567</v>
       </c>
       <c r="G81" t="n">
+        <v>68746.66666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>68640.83333333333</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3264,18 +3493,21 @@
         <v>39.9127</v>
       </c>
       <c r="G82" t="n">
+        <v>68696.66666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>68648.33333333333</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3299,18 +3531,21 @@
         <v>1.0143</v>
       </c>
       <c r="G83" t="n">
+        <v>68626.66666666667</v>
+      </c>
+      <c r="H83" t="n">
         <v>68655.83333333333</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3334,18 +3569,21 @@
         <v>0.7862</v>
       </c>
       <c r="G84" t="n">
+        <v>68530</v>
+      </c>
+      <c r="H84" t="n">
         <v>68640</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3369,18 +3607,21 @@
         <v>10</v>
       </c>
       <c r="G85" t="n">
+        <v>68433.33333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>68638.33333333333</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3404,18 +3645,21 @@
         <v>6.7138</v>
       </c>
       <c r="G86" t="n">
+        <v>68360</v>
+      </c>
+      <c r="H86" t="n">
         <v>68626.66666666667</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3439,18 +3683,21 @@
         <v>1.7475</v>
       </c>
       <c r="G87" t="n">
+        <v>68303.33333333333</v>
+      </c>
+      <c r="H87" t="n">
         <v>68619.16666666667</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3474,18 +3721,21 @@
         <v>1.53</v>
       </c>
       <c r="G88" t="n">
+        <v>68230</v>
+      </c>
+      <c r="H88" t="n">
         <v>68607.5</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3509,18 +3759,21 @@
         <v>8.8971</v>
       </c>
       <c r="G89" t="n">
+        <v>68176.66666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>68595</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3544,18 +3797,21 @@
         <v>4.644</v>
       </c>
       <c r="G90" t="n">
+        <v>68156.66666666667</v>
+      </c>
+      <c r="H90" t="n">
         <v>68590.83333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3579,18 +3835,21 @@
         <v>1.4981</v>
       </c>
       <c r="G91" t="n">
+        <v>68053.33333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>68567.5</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3614,18 +3873,21 @@
         <v>49</v>
       </c>
       <c r="G92" t="n">
+        <v>68010</v>
+      </c>
+      <c r="H92" t="n">
         <v>68544.16666666667</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3649,18 +3911,21 @@
         <v>6.3562</v>
       </c>
       <c r="G93" t="n">
+        <v>67913.33333333333</v>
+      </c>
+      <c r="H93" t="n">
         <v>68530</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3684,18 +3949,21 @@
         <v>1.06</v>
       </c>
       <c r="G94" t="n">
+        <v>67836.66666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>68510</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3719,18 +3987,21 @@
         <v>3.9729</v>
       </c>
       <c r="G95" t="n">
+        <v>67750</v>
+      </c>
+      <c r="H95" t="n">
         <v>68498.33333333333</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3754,18 +4025,21 @@
         <v>119.7466</v>
       </c>
       <c r="G96" t="n">
+        <v>67710</v>
+      </c>
+      <c r="H96" t="n">
         <v>68474.16666666667</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3789,18 +4063,21 @@
         <v>9.8787</v>
       </c>
       <c r="G97" t="n">
+        <v>67650</v>
+      </c>
+      <c r="H97" t="n">
         <v>68450</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3824,18 +4101,21 @@
         <v>10</v>
       </c>
       <c r="G98" t="n">
+        <v>67606.66666666667</v>
+      </c>
+      <c r="H98" t="n">
         <v>68428.33333333333</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3859,18 +4139,21 @@
         <v>1.6029</v>
       </c>
       <c r="G99" t="n">
+        <v>67590</v>
+      </c>
+      <c r="H99" t="n">
         <v>68415.83333333333</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3894,18 +4177,21 @@
         <v>17.9147</v>
       </c>
       <c r="G100" t="n">
+        <v>67570</v>
+      </c>
+      <c r="H100" t="n">
         <v>68389.16666666667</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3929,18 +4215,21 @@
         <v>14.579</v>
       </c>
       <c r="G101" t="n">
+        <v>67520</v>
+      </c>
+      <c r="H101" t="n">
         <v>68367.5</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3964,18 +4253,21 @@
         <v>13.6046</v>
       </c>
       <c r="G102" t="n">
+        <v>67446.66666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>68347.5</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3999,18 +4291,21 @@
         <v>0.5679999999999999</v>
       </c>
       <c r="G103" t="n">
+        <v>67396.66666666667</v>
+      </c>
+      <c r="H103" t="n">
         <v>68329.16666666667</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4034,18 +4329,21 @@
         <v>2.2617</v>
       </c>
       <c r="G104" t="n">
+        <v>67360</v>
+      </c>
+      <c r="H104" t="n">
         <v>68309.16666666667</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,18 +4367,21 @@
         <v>0.3194</v>
       </c>
       <c r="G105" t="n">
+        <v>67293.33333333333</v>
+      </c>
+      <c r="H105" t="n">
         <v>68284.16666666667</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4104,18 +4405,21 @@
         <v>1.9556</v>
       </c>
       <c r="G106" t="n">
+        <v>67263.33333333333</v>
+      </c>
+      <c r="H106" t="n">
         <v>68248.33333333333</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4139,18 +4443,27 @@
         <v>131.3544</v>
       </c>
       <c r="G107" t="n">
+        <v>67236.66666666667</v>
+      </c>
+      <c r="H107" t="n">
         <v>68213.33333333333</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>66950</v>
+      </c>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4174,18 +4487,27 @@
         <v>99.1962</v>
       </c>
       <c r="G108" t="n">
+        <v>67236.66666666667</v>
+      </c>
+      <c r="H108" t="n">
         <v>68184.16666666667</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>67000</v>
+      </c>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4209,18 +4531,25 @@
         <v>2.6841</v>
       </c>
       <c r="G109" t="n">
+        <v>67200</v>
+      </c>
+      <c r="H109" t="n">
         <v>68155.83333333333</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4244,18 +4573,25 @@
         <v>10.9048</v>
       </c>
       <c r="G110" t="n">
+        <v>67153.33333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>68114.16666666667</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4279,18 +4615,27 @@
         <v>50.9979</v>
       </c>
       <c r="G111" t="n">
+        <v>67066.66666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>68079.16666666667</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>66800</v>
+      </c>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,18 +4659,27 @@
         <v>0.7587</v>
       </c>
       <c r="G112" t="n">
+        <v>67070</v>
+      </c>
+      <c r="H112" t="n">
         <v>68047.5</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>66550</v>
+      </c>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4349,18 +4703,25 @@
         <v>15.6013</v>
       </c>
       <c r="G113" t="n">
+        <v>67073.33333333333</v>
+      </c>
+      <c r="H113" t="n">
         <v>68025.83333333333</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4384,18 +4745,457 @@
         <v>1.7349</v>
       </c>
       <c r="G114" t="n">
+        <v>67066.66666666667</v>
+      </c>
+      <c r="H114" t="n">
         <v>68001.66666666667</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>67150</v>
+      </c>
+      <c r="C115" t="n">
+        <v>67150</v>
+      </c>
+      <c r="D115" t="n">
+        <v>67150</v>
+      </c>
+      <c r="E115" t="n">
+        <v>67150</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1.5424</v>
+      </c>
+      <c r="G115" t="n">
+        <v>67056.66666666667</v>
+      </c>
+      <c r="H115" t="n">
+        <v>67976.66666666667</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>67600</v>
+      </c>
+      <c r="C116" t="n">
+        <v>67600</v>
+      </c>
+      <c r="D116" t="n">
+        <v>67600</v>
+      </c>
+      <c r="E116" t="n">
+        <v>67600</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="G116" t="n">
+        <v>67096.66666666667</v>
+      </c>
+      <c r="H116" t="n">
+        <v>67959.16666666667</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>67500</v>
+      </c>
+      <c r="C117" t="n">
+        <v>67500</v>
+      </c>
+      <c r="D117" t="n">
+        <v>67500</v>
+      </c>
+      <c r="E117" t="n">
+        <v>67500</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="G117" t="n">
+        <v>67136.66666666667</v>
+      </c>
+      <c r="H117" t="n">
+        <v>67940</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>67500</v>
+      </c>
+      <c r="C118" t="n">
+        <v>67500</v>
+      </c>
+      <c r="D118" t="n">
+        <v>67500</v>
+      </c>
+      <c r="E118" t="n">
+        <v>67500</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G118" t="n">
+        <v>67170</v>
+      </c>
+      <c r="H118" t="n">
+        <v>67914.16666666667</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>67300</v>
+      </c>
+      <c r="C119" t="n">
+        <v>67300</v>
+      </c>
+      <c r="D119" t="n">
+        <v>67300</v>
+      </c>
+      <c r="E119" t="n">
+        <v>67300</v>
+      </c>
+      <c r="F119" t="n">
+        <v>5.065</v>
+      </c>
+      <c r="G119" t="n">
+        <v>67193.33333333333</v>
+      </c>
+      <c r="H119" t="n">
+        <v>67885</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>67500</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>67300</v>
+      </c>
+      <c r="C120" t="n">
+        <v>67300</v>
+      </c>
+      <c r="D120" t="n">
+        <v>67300</v>
+      </c>
+      <c r="E120" t="n">
+        <v>67300</v>
+      </c>
+      <c r="F120" t="n">
+        <v>34.421</v>
+      </c>
+      <c r="G120" t="n">
+        <v>67213.33333333333</v>
+      </c>
+      <c r="H120" t="n">
+        <v>67852.5</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>67300</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>67300</v>
+      </c>
+      <c r="C121" t="n">
+        <v>67300</v>
+      </c>
+      <c r="D121" t="n">
+        <v>67300</v>
+      </c>
+      <c r="E121" t="n">
+        <v>67300</v>
+      </c>
+      <c r="F121" t="n">
+        <v>19.001</v>
+      </c>
+      <c r="G121" t="n">
+        <v>67236.66666666667</v>
+      </c>
+      <c r="H121" t="n">
+        <v>67826.66666666667</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>67300</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>67300</v>
+      </c>
+      <c r="C122" t="n">
+        <v>67300</v>
+      </c>
+      <c r="D122" t="n">
+        <v>67300</v>
+      </c>
+      <c r="E122" t="n">
+        <v>67300</v>
+      </c>
+      <c r="F122" t="n">
+        <v>33.2212</v>
+      </c>
+      <c r="G122" t="n">
+        <v>67256.66666666667</v>
+      </c>
+      <c r="H122" t="n">
+        <v>67800.83333333333</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>67300</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>67300</v>
+      </c>
+      <c r="C123" t="n">
+        <v>67400</v>
+      </c>
+      <c r="D123" t="n">
+        <v>67400</v>
+      </c>
+      <c r="E123" t="n">
+        <v>67300</v>
+      </c>
+      <c r="F123" t="n">
+        <v>20.7175</v>
+      </c>
+      <c r="G123" t="n">
+        <v>67260</v>
+      </c>
+      <c r="H123" t="n">
+        <v>67780</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>67300</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>67400</v>
+      </c>
+      <c r="C124" t="n">
+        <v>67400</v>
+      </c>
+      <c r="D124" t="n">
+        <v>67400</v>
+      </c>
+      <c r="E124" t="n">
+        <v>67400</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G124" t="n">
+        <v>67286.66666666667</v>
+      </c>
+      <c r="H124" t="n">
+        <v>67760.83333333333</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>67400</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-15 BackTest XMR.xlsx
+++ b/BackTest/2020-01-15 BackTest XMR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N124"/>
+  <dimension ref="A1:M153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>MA60</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>68650</v>
+        <v>66550</v>
       </c>
       <c r="C2" t="n">
-        <v>68600</v>
+        <v>66550</v>
       </c>
       <c r="D2" t="n">
-        <v>68650</v>
+        <v>66550</v>
       </c>
       <c r="E2" t="n">
-        <v>68600</v>
+        <v>66550</v>
       </c>
       <c r="F2" t="n">
-        <v>30</v>
+        <v>12.3809</v>
       </c>
       <c r="G2" t="n">
-        <v>68110</v>
+        <v>-64707.79652953412</v>
       </c>
       <c r="H2" t="n">
-        <v>67087.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>68650</v>
+        <v>66550</v>
       </c>
       <c r="C3" t="n">
-        <v>68200</v>
+        <v>66550</v>
       </c>
       <c r="D3" t="n">
-        <v>68650</v>
+        <v>66550</v>
       </c>
       <c r="E3" t="n">
-        <v>68200</v>
+        <v>66550</v>
       </c>
       <c r="F3" t="n">
-        <v>27.8369</v>
+        <v>26.434</v>
       </c>
       <c r="G3" t="n">
-        <v>68150</v>
+        <v>-64707.79652953412</v>
       </c>
       <c r="H3" t="n">
-        <v>67114.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>68200</v>
+        <v>66550</v>
       </c>
       <c r="C4" t="n">
-        <v>68600</v>
+        <v>66900</v>
       </c>
       <c r="D4" t="n">
-        <v>68600</v>
+        <v>66900</v>
       </c>
       <c r="E4" t="n">
-        <v>68200</v>
+        <v>66550</v>
       </c>
       <c r="F4" t="n">
-        <v>31.1859</v>
+        <v>3.601</v>
       </c>
       <c r="G4" t="n">
-        <v>68190</v>
+        <v>-64704.19552953412</v>
       </c>
       <c r="H4" t="n">
-        <v>67147.5</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,37 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>68200</v>
+        <v>67300</v>
       </c>
       <c r="C5" t="n">
-        <v>68200</v>
+        <v>67300</v>
       </c>
       <c r="D5" t="n">
-        <v>68200</v>
+        <v>67300</v>
       </c>
       <c r="E5" t="n">
-        <v>68200</v>
+        <v>67300</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2443</v>
+        <v>0.6776</v>
       </c>
       <c r="G5" t="n">
-        <v>68203.33333333333</v>
+        <v>-64703.51792953411</v>
       </c>
       <c r="H5" t="n">
-        <v>67166.66666666667</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+        <v>66900</v>
+      </c>
+      <c r="K5" t="n">
+        <v>66900</v>
+      </c>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +577,41 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>68600</v>
+        <v>66700</v>
       </c>
       <c r="C6" t="n">
-        <v>68600</v>
+        <v>66700</v>
       </c>
       <c r="D6" t="n">
-        <v>68600</v>
+        <v>66700</v>
       </c>
       <c r="E6" t="n">
-        <v>68600</v>
+        <v>66700</v>
       </c>
       <c r="F6" t="n">
-        <v>6.6803</v>
+        <v>0.1</v>
       </c>
       <c r="G6" t="n">
-        <v>68243.33333333333</v>
+        <v>-64703.61792953411</v>
       </c>
       <c r="H6" t="n">
-        <v>67192.5</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+        <v>67300</v>
+      </c>
+      <c r="K6" t="n">
+        <v>66900</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +620,41 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>68600</v>
+        <v>66700</v>
       </c>
       <c r="C7" t="n">
-        <v>68800</v>
+        <v>66700</v>
       </c>
       <c r="D7" t="n">
-        <v>68800</v>
+        <v>66700</v>
       </c>
       <c r="E7" t="n">
-        <v>68600</v>
+        <v>66700</v>
       </c>
       <c r="F7" t="n">
-        <v>26.8106</v>
+        <v>0.02</v>
       </c>
       <c r="G7" t="n">
-        <v>68296.66666666667</v>
+        <v>-64703.61792953411</v>
       </c>
       <c r="H7" t="n">
-        <v>67221.66666666667</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+        <v>66700</v>
+      </c>
+      <c r="K7" t="n">
+        <v>66900</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +663,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>68350</v>
+        <v>67250</v>
       </c>
       <c r="C8" t="n">
-        <v>68350</v>
+        <v>67250</v>
       </c>
       <c r="D8" t="n">
-        <v>68350</v>
+        <v>67250</v>
       </c>
       <c r="E8" t="n">
-        <v>68300</v>
+        <v>67250</v>
       </c>
       <c r="F8" t="n">
-        <v>24.613</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>68346.66666666667</v>
+        <v>-64701.61792953411</v>
       </c>
       <c r="H8" t="n">
-        <v>67251.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +698,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>68350</v>
+        <v>67250</v>
       </c>
       <c r="C9" t="n">
-        <v>68350</v>
+        <v>67250</v>
       </c>
       <c r="D9" t="n">
-        <v>68350</v>
+        <v>67250</v>
       </c>
       <c r="E9" t="n">
-        <v>68350</v>
+        <v>67250</v>
       </c>
       <c r="F9" t="n">
-        <v>5.2833</v>
+        <v>7.1785</v>
       </c>
       <c r="G9" t="n">
-        <v>68386.66666666667</v>
+        <v>-64701.61792953411</v>
       </c>
       <c r="H9" t="n">
-        <v>67281.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +733,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>68800</v>
+        <v>66850</v>
       </c>
       <c r="C10" t="n">
-        <v>68800</v>
+        <v>66800</v>
       </c>
       <c r="D10" t="n">
-        <v>68800</v>
+        <v>67250</v>
       </c>
       <c r="E10" t="n">
-        <v>68800</v>
+        <v>66800</v>
       </c>
       <c r="F10" t="n">
-        <v>2.238372093023</v>
+        <v>49.5821</v>
       </c>
       <c r="G10" t="n">
-        <v>68456.66666666667</v>
+        <v>-64751.20002953411</v>
       </c>
       <c r="H10" t="n">
-        <v>67319.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +768,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>68800</v>
+        <v>66800</v>
       </c>
       <c r="C11" t="n">
-        <v>68800</v>
+        <v>66800</v>
       </c>
       <c r="D11" t="n">
-        <v>68800</v>
+        <v>66800</v>
       </c>
       <c r="E11" t="n">
-        <v>68800</v>
+        <v>66800</v>
       </c>
       <c r="F11" t="n">
-        <v>1.103</v>
+        <v>15.7226</v>
       </c>
       <c r="G11" t="n">
-        <v>68523.33333333333</v>
+        <v>-64751.20002953411</v>
       </c>
       <c r="H11" t="n">
-        <v>67356.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +803,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>68350</v>
+        <v>66850</v>
       </c>
       <c r="C12" t="n">
-        <v>68300</v>
+        <v>66850</v>
       </c>
       <c r="D12" t="n">
-        <v>68350</v>
+        <v>66850</v>
       </c>
       <c r="E12" t="n">
-        <v>68300</v>
+        <v>66800</v>
       </c>
       <c r="F12" t="n">
-        <v>3.025</v>
+        <v>14.3533</v>
       </c>
       <c r="G12" t="n">
-        <v>68530</v>
+        <v>-64736.84672953411</v>
       </c>
       <c r="H12" t="n">
-        <v>67386.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +838,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>68300</v>
+        <v>67050</v>
       </c>
       <c r="C13" t="n">
-        <v>68250</v>
+        <v>67050</v>
       </c>
       <c r="D13" t="n">
-        <v>68300</v>
+        <v>67050</v>
       </c>
       <c r="E13" t="n">
-        <v>68250</v>
+        <v>67050</v>
       </c>
       <c r="F13" t="n">
-        <v>13.8716</v>
+        <v>1.1256</v>
       </c>
       <c r="G13" t="n">
-        <v>68520</v>
+        <v>-64735.72112953411</v>
       </c>
       <c r="H13" t="n">
-        <v>67415.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +873,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>68250</v>
+        <v>67200</v>
       </c>
       <c r="C14" t="n">
-        <v>68200</v>
+        <v>67750</v>
       </c>
       <c r="D14" t="n">
-        <v>68250</v>
+        <v>67750</v>
       </c>
       <c r="E14" t="n">
-        <v>68200</v>
+        <v>67200</v>
       </c>
       <c r="F14" t="n">
-        <v>15.1712</v>
+        <v>69.06486354243501</v>
       </c>
       <c r="G14" t="n">
-        <v>68496.66666666667</v>
+        <v>-64666.65626599167</v>
       </c>
       <c r="H14" t="n">
-        <v>67445</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +908,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>68200</v>
+        <v>67600</v>
       </c>
       <c r="C15" t="n">
-        <v>68750</v>
+        <v>67600</v>
       </c>
       <c r="D15" t="n">
-        <v>68750</v>
+        <v>67600</v>
       </c>
       <c r="E15" t="n">
-        <v>68200</v>
+        <v>67600</v>
       </c>
       <c r="F15" t="n">
-        <v>5.7254</v>
+        <v>20.6117</v>
       </c>
       <c r="G15" t="n">
-        <v>68506.66666666667</v>
+        <v>-64687.26796599168</v>
       </c>
       <c r="H15" t="n">
-        <v>67483.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +943,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>68250</v>
+        <v>67600</v>
       </c>
       <c r="C16" t="n">
-        <v>68200</v>
+        <v>67600</v>
       </c>
       <c r="D16" t="n">
-        <v>68250</v>
+        <v>67600</v>
       </c>
       <c r="E16" t="n">
-        <v>68200</v>
+        <v>67600</v>
       </c>
       <c r="F16" t="n">
-        <v>21.9269</v>
+        <v>4.623</v>
       </c>
       <c r="G16" t="n">
-        <v>68466.66666666667</v>
+        <v>-64687.26796599168</v>
       </c>
       <c r="H16" t="n">
-        <v>67512.5</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +978,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>68050</v>
+        <v>67600</v>
       </c>
       <c r="C17" t="n">
-        <v>68050</v>
+        <v>67600</v>
       </c>
       <c r="D17" t="n">
-        <v>68050</v>
+        <v>67600</v>
       </c>
       <c r="E17" t="n">
-        <v>68050</v>
+        <v>67600</v>
       </c>
       <c r="F17" t="n">
-        <v>5.3422</v>
+        <v>33.1736</v>
       </c>
       <c r="G17" t="n">
-        <v>68430</v>
+        <v>-64687.26796599168</v>
       </c>
       <c r="H17" t="n">
-        <v>67530</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +1013,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>67950</v>
+        <v>68000</v>
       </c>
       <c r="C18" t="n">
-        <v>67950</v>
+        <v>68000</v>
       </c>
       <c r="D18" t="n">
-        <v>67950</v>
+        <v>68000</v>
       </c>
       <c r="E18" t="n">
-        <v>67950</v>
+        <v>68000</v>
       </c>
       <c r="F18" t="n">
-        <v>7.6908</v>
+        <v>20</v>
       </c>
       <c r="G18" t="n">
-        <v>68413.33333333333</v>
+        <v>-64667.26796599168</v>
       </c>
       <c r="H18" t="n">
-        <v>67555</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1048,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>67950</v>
+        <v>68000</v>
       </c>
       <c r="C19" t="n">
-        <v>67950</v>
+        <v>68000</v>
       </c>
       <c r="D19" t="n">
-        <v>67950</v>
+        <v>68000</v>
       </c>
       <c r="E19" t="n">
-        <v>67950</v>
+        <v>68000</v>
       </c>
       <c r="F19" t="n">
-        <v>25.8762</v>
+        <v>7</v>
       </c>
       <c r="G19" t="n">
-        <v>68370</v>
+        <v>-64667.26796599168</v>
       </c>
       <c r="H19" t="n">
-        <v>67570.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1083,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>67950</v>
+        <v>68000</v>
       </c>
       <c r="C20" t="n">
-        <v>67950</v>
+        <v>68000</v>
       </c>
       <c r="D20" t="n">
-        <v>67950</v>
+        <v>68000</v>
       </c>
       <c r="E20" t="n">
-        <v>67950</v>
+        <v>68000</v>
       </c>
       <c r="F20" t="n">
-        <v>1.159</v>
+        <v>53.0456</v>
       </c>
       <c r="G20" t="n">
-        <v>68353.33333333333</v>
+        <v>-64667.26796599168</v>
       </c>
       <c r="H20" t="n">
-        <v>67594.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1118,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>67600</v>
+        <v>68000</v>
       </c>
       <c r="C21" t="n">
-        <v>67600</v>
+        <v>68000</v>
       </c>
       <c r="D21" t="n">
-        <v>67600</v>
+        <v>68000</v>
       </c>
       <c r="E21" t="n">
-        <v>67600</v>
+        <v>68000</v>
       </c>
       <c r="F21" t="n">
-        <v>6.1384</v>
+        <v>0.1694</v>
       </c>
       <c r="G21" t="n">
-        <v>68286.66666666667</v>
+        <v>-64667.26796599168</v>
       </c>
       <c r="H21" t="n">
-        <v>67612.5</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1153,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>67850</v>
+        <v>67600</v>
       </c>
       <c r="C22" t="n">
-        <v>67850</v>
+        <v>67600</v>
       </c>
       <c r="D22" t="n">
-        <v>67850</v>
+        <v>67600</v>
       </c>
       <c r="E22" t="n">
-        <v>67850</v>
+        <v>67600</v>
       </c>
       <c r="F22" t="n">
-        <v>39.6372</v>
+        <v>23.6878</v>
       </c>
       <c r="G22" t="n">
-        <v>68223.33333333333</v>
+        <v>-64690.95576599168</v>
       </c>
       <c r="H22" t="n">
-        <v>67641.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1188,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>67650</v>
+        <v>67450</v>
       </c>
       <c r="C23" t="n">
-        <v>67650</v>
+        <v>67750</v>
       </c>
       <c r="D23" t="n">
-        <v>67650</v>
+        <v>67750</v>
       </c>
       <c r="E23" t="n">
-        <v>67650</v>
+        <v>67450</v>
       </c>
       <c r="F23" t="n">
-        <v>69.06480000000001</v>
+        <v>11.7366</v>
       </c>
       <c r="G23" t="n">
-        <v>68176.66666666667</v>
+        <v>-64679.21916599168</v>
       </c>
       <c r="H23" t="n">
-        <v>67660.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1223,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>67700</v>
+        <v>67750</v>
       </c>
       <c r="C24" t="n">
-        <v>68550</v>
+        <v>67750</v>
       </c>
       <c r="D24" t="n">
-        <v>68550</v>
+        <v>67750</v>
       </c>
       <c r="E24" t="n">
-        <v>67700</v>
+        <v>67750</v>
       </c>
       <c r="F24" t="n">
-        <v>27.7966</v>
+        <v>1.0632</v>
       </c>
       <c r="G24" t="n">
-        <v>68190</v>
+        <v>-64679.21916599168</v>
       </c>
       <c r="H24" t="n">
-        <v>67694.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1315,33 +1261,30 @@
         <v>67750</v>
       </c>
       <c r="C25" t="n">
-        <v>67700</v>
+        <v>67800</v>
       </c>
       <c r="D25" t="n">
+        <v>67800</v>
+      </c>
+      <c r="E25" t="n">
         <v>67750</v>
       </c>
-      <c r="E25" t="n">
-        <v>67700</v>
-      </c>
       <c r="F25" t="n">
-        <v>55.5391</v>
+        <v>16.9001</v>
       </c>
       <c r="G25" t="n">
-        <v>68116.66666666667</v>
+        <v>-64662.31906599168</v>
       </c>
       <c r="H25" t="n">
-        <v>67713.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1293,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>67650</v>
+        <v>67800</v>
       </c>
       <c r="C26" t="n">
-        <v>68450</v>
+        <v>68200</v>
       </c>
       <c r="D26" t="n">
-        <v>68450</v>
+        <v>68200</v>
       </c>
       <c r="E26" t="n">
-        <v>67600</v>
+        <v>67800</v>
       </c>
       <c r="F26" t="n">
-        <v>9.369799123447001</v>
+        <v>0.4601</v>
       </c>
       <c r="G26" t="n">
-        <v>68093.33333333333</v>
+        <v>-64661.85896599168</v>
       </c>
       <c r="H26" t="n">
-        <v>67745</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1328,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>68450</v>
+        <v>68200</v>
       </c>
       <c r="C27" t="n">
-        <v>68450</v>
+        <v>68400</v>
       </c>
       <c r="D27" t="n">
-        <v>68450</v>
+        <v>68400</v>
       </c>
       <c r="E27" t="n">
-        <v>68450</v>
+        <v>68200</v>
       </c>
       <c r="F27" t="n">
-        <v>10</v>
+        <v>5.1585</v>
       </c>
       <c r="G27" t="n">
-        <v>68103.33333333333</v>
+        <v>-64656.70046599169</v>
       </c>
       <c r="H27" t="n">
-        <v>67776.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1363,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>68450</v>
+        <v>68400</v>
       </c>
       <c r="C28" t="n">
-        <v>68450</v>
+        <v>68550</v>
       </c>
       <c r="D28" t="n">
-        <v>68450</v>
+        <v>68550</v>
       </c>
       <c r="E28" t="n">
-        <v>68450</v>
+        <v>68400</v>
       </c>
       <c r="F28" t="n">
-        <v>10</v>
+        <v>10.212</v>
       </c>
       <c r="G28" t="n">
-        <v>68116.66666666667</v>
+        <v>-64646.48846599169</v>
       </c>
       <c r="H28" t="n">
-        <v>67808.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1398,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>67850</v>
+        <v>68550</v>
       </c>
       <c r="C29" t="n">
-        <v>68250</v>
+        <v>68600</v>
       </c>
       <c r="D29" t="n">
-        <v>68250</v>
+        <v>68600</v>
       </c>
       <c r="E29" t="n">
-        <v>67850</v>
+        <v>68550</v>
       </c>
       <c r="F29" t="n">
-        <v>35</v>
+        <v>0.5114</v>
       </c>
       <c r="G29" t="n">
-        <v>68120</v>
+        <v>-64645.97706599168</v>
       </c>
       <c r="H29" t="n">
-        <v>67836.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1433,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>68250</v>
+        <v>68800</v>
       </c>
       <c r="C30" t="n">
-        <v>68250</v>
+        <v>68800</v>
       </c>
       <c r="D30" t="n">
-        <v>68250</v>
+        <v>68800</v>
       </c>
       <c r="E30" t="n">
-        <v>68250</v>
+        <v>68800</v>
       </c>
       <c r="F30" t="n">
-        <v>15.1627</v>
+        <v>9.928900000000001</v>
       </c>
       <c r="G30" t="n">
-        <v>68086.66666666667</v>
+        <v>-64636.04816599168</v>
       </c>
       <c r="H30" t="n">
-        <v>67865</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1468,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>68800</v>
+        <v>68650</v>
       </c>
       <c r="C31" t="n">
-        <v>68800</v>
+        <v>68600</v>
       </c>
       <c r="D31" t="n">
-        <v>68800</v>
+        <v>68650</v>
       </c>
       <c r="E31" t="n">
-        <v>68800</v>
+        <v>68600</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1</v>
+        <v>30</v>
       </c>
       <c r="G31" t="n">
-        <v>68126.66666666667</v>
+        <v>-64666.04816599168</v>
       </c>
       <c r="H31" t="n">
-        <v>67902.5</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1503,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>68800</v>
+        <v>68650</v>
       </c>
       <c r="C32" t="n">
-        <v>68800</v>
+        <v>68200</v>
       </c>
       <c r="D32" t="n">
-        <v>68800</v>
+        <v>68650</v>
       </c>
       <c r="E32" t="n">
-        <v>68800</v>
+        <v>68200</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3291</v>
+        <v>27.8369</v>
       </c>
       <c r="G32" t="n">
-        <v>68176.66666666667</v>
+        <v>-64693.88506599169</v>
       </c>
       <c r="H32" t="n">
-        <v>67940</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1619,33 +1541,30 @@
         <v>68200</v>
       </c>
       <c r="C33" t="n">
-        <v>68200</v>
+        <v>68600</v>
       </c>
       <c r="D33" t="n">
-        <v>68200</v>
+        <v>68600</v>
       </c>
       <c r="E33" t="n">
         <v>68200</v>
       </c>
       <c r="F33" t="n">
-        <v>2.2384</v>
+        <v>31.1859</v>
       </c>
       <c r="G33" t="n">
-        <v>68193.33333333333</v>
+        <v>-64662.69916599169</v>
       </c>
       <c r="H33" t="n">
-        <v>67967.5</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1573,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>68750</v>
+        <v>68200</v>
       </c>
       <c r="C34" t="n">
-        <v>68750</v>
+        <v>68200</v>
       </c>
       <c r="D34" t="n">
-        <v>68750</v>
+        <v>68200</v>
       </c>
       <c r="E34" t="n">
-        <v>68750</v>
+        <v>68200</v>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>0.2443</v>
       </c>
       <c r="G34" t="n">
-        <v>68246.66666666667</v>
+        <v>-64662.94346599169</v>
       </c>
       <c r="H34" t="n">
-        <v>68004.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1608,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>68200</v>
+        <v>68600</v>
       </c>
       <c r="C35" t="n">
-        <v>68200</v>
+        <v>68600</v>
       </c>
       <c r="D35" t="n">
-        <v>69300</v>
+        <v>68600</v>
       </c>
       <c r="E35" t="n">
-        <v>68200</v>
+        <v>68600</v>
       </c>
       <c r="F35" t="n">
-        <v>675.8249</v>
+        <v>6.6803</v>
       </c>
       <c r="G35" t="n">
-        <v>68263.33333333333</v>
+        <v>-64656.26316599169</v>
       </c>
       <c r="H35" t="n">
-        <v>68025.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1643,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>69300</v>
+        <v>68600</v>
       </c>
       <c r="C36" t="n">
-        <v>69300</v>
+        <v>68800</v>
       </c>
       <c r="D36" t="n">
-        <v>69300</v>
+        <v>68800</v>
       </c>
       <c r="E36" t="n">
-        <v>69300</v>
+        <v>68600</v>
       </c>
       <c r="F36" t="n">
-        <v>0.048095238095</v>
+        <v>26.8106</v>
       </c>
       <c r="G36" t="n">
-        <v>68376.66666666667</v>
+        <v>-64629.45256599169</v>
       </c>
       <c r="H36" t="n">
-        <v>68059.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1678,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>68850</v>
+        <v>68350</v>
       </c>
       <c r="C37" t="n">
-        <v>68850</v>
+        <v>68350</v>
       </c>
       <c r="D37" t="n">
-        <v>68850</v>
+        <v>68350</v>
       </c>
       <c r="E37" t="n">
-        <v>68850</v>
+        <v>68300</v>
       </c>
       <c r="F37" t="n">
-        <v>1.4775</v>
+        <v>24.613</v>
       </c>
       <c r="G37" t="n">
-        <v>68443.33333333333</v>
+        <v>-64654.06556599169</v>
       </c>
       <c r="H37" t="n">
-        <v>68095</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1713,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>68750</v>
+        <v>68350</v>
       </c>
       <c r="C38" t="n">
-        <v>68750</v>
+        <v>68350</v>
       </c>
       <c r="D38" t="n">
-        <v>68750</v>
+        <v>68350</v>
       </c>
       <c r="E38" t="n">
-        <v>68750</v>
+        <v>68350</v>
       </c>
       <c r="F38" t="n">
-        <v>1.4844</v>
+        <v>5.2833</v>
       </c>
       <c r="G38" t="n">
-        <v>68516.66666666667</v>
+        <v>-64654.06556599169</v>
       </c>
       <c r="H38" t="n">
-        <v>68129.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1748,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>68100</v>
+        <v>68800</v>
       </c>
       <c r="C39" t="n">
-        <v>68100</v>
+        <v>68800</v>
       </c>
       <c r="D39" t="n">
-        <v>68100</v>
+        <v>68800</v>
       </c>
       <c r="E39" t="n">
-        <v>68100</v>
+        <v>68800</v>
       </c>
       <c r="F39" t="n">
-        <v>0.15</v>
+        <v>2.238372093023</v>
       </c>
       <c r="G39" t="n">
-        <v>68486.66666666667</v>
+        <v>-64651.82719389867</v>
       </c>
       <c r="H39" t="n">
-        <v>68143.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1783,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>68850</v>
+        <v>68800</v>
       </c>
       <c r="C40" t="n">
-        <v>68900</v>
+        <v>68800</v>
       </c>
       <c r="D40" t="n">
-        <v>68900</v>
+        <v>68800</v>
       </c>
       <c r="E40" t="n">
-        <v>68850</v>
+        <v>68800</v>
       </c>
       <c r="F40" t="n">
-        <v>2</v>
+        <v>1.103</v>
       </c>
       <c r="G40" t="n">
-        <v>68566.66666666667</v>
+        <v>-64651.82719389867</v>
       </c>
       <c r="H40" t="n">
-        <v>68170.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1818,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>68250</v>
+        <v>68350</v>
       </c>
       <c r="C41" t="n">
         <v>68300</v>
       </c>
       <c r="D41" t="n">
+        <v>68350</v>
+      </c>
+      <c r="E41" t="n">
         <v>68300</v>
       </c>
-      <c r="E41" t="n">
-        <v>68250</v>
-      </c>
       <c r="F41" t="n">
-        <v>33.4959</v>
+        <v>3.025</v>
       </c>
       <c r="G41" t="n">
-        <v>68556.66666666667</v>
+        <v>-64654.85219389867</v>
       </c>
       <c r="H41" t="n">
-        <v>68195.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1853,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>68100</v>
+        <v>68300</v>
       </c>
       <c r="C42" t="n">
-        <v>68100</v>
+        <v>68250</v>
       </c>
       <c r="D42" t="n">
-        <v>68100</v>
+        <v>68300</v>
       </c>
       <c r="E42" t="n">
-        <v>68050</v>
+        <v>68250</v>
       </c>
       <c r="F42" t="n">
-        <v>1.2687</v>
+        <v>13.8716</v>
       </c>
       <c r="G42" t="n">
-        <v>68533.33333333333</v>
+        <v>-64668.72379389867</v>
       </c>
       <c r="H42" t="n">
-        <v>68217.5</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1888,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>68100</v>
+        <v>68250</v>
       </c>
       <c r="C43" t="n">
-        <v>68100</v>
+        <v>68200</v>
       </c>
       <c r="D43" t="n">
-        <v>68100</v>
+        <v>68250</v>
       </c>
       <c r="E43" t="n">
-        <v>68100</v>
+        <v>68200</v>
       </c>
       <c r="F43" t="n">
-        <v>10</v>
+        <v>15.1712</v>
       </c>
       <c r="G43" t="n">
-        <v>68510</v>
+        <v>-64683.89499389866</v>
       </c>
       <c r="H43" t="n">
-        <v>68238.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1923,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>68150</v>
+        <v>68200</v>
       </c>
       <c r="C44" t="n">
-        <v>68150</v>
+        <v>68750</v>
       </c>
       <c r="D44" t="n">
-        <v>68150</v>
+        <v>68750</v>
       </c>
       <c r="E44" t="n">
-        <v>68150</v>
+        <v>68200</v>
       </c>
       <c r="F44" t="n">
-        <v>10.15</v>
+        <v>5.7254</v>
       </c>
       <c r="G44" t="n">
-        <v>68503.33333333333</v>
+        <v>-64678.16959389866</v>
       </c>
       <c r="H44" t="n">
-        <v>68256.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +1958,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>68500</v>
+        <v>68250</v>
       </c>
       <c r="C45" t="n">
-        <v>68500</v>
+        <v>68200</v>
       </c>
       <c r="D45" t="n">
-        <v>68500</v>
+        <v>68250</v>
       </c>
       <c r="E45" t="n">
-        <v>68500</v>
+        <v>68200</v>
       </c>
       <c r="F45" t="n">
-        <v>3.8829</v>
+        <v>21.9269</v>
       </c>
       <c r="G45" t="n">
-        <v>68520</v>
+        <v>-64700.09649389866</v>
       </c>
       <c r="H45" t="n">
-        <v>68269.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +1993,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>69100</v>
+        <v>68050</v>
       </c>
       <c r="C46" t="n">
-        <v>69100</v>
+        <v>68050</v>
       </c>
       <c r="D46" t="n">
-        <v>69100</v>
+        <v>68050</v>
       </c>
       <c r="E46" t="n">
-        <v>69100</v>
+        <v>68050</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1</v>
+        <v>5.3422</v>
       </c>
       <c r="G46" t="n">
-        <v>68540</v>
+        <v>-64705.43869389866</v>
       </c>
       <c r="H46" t="n">
-        <v>68294.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2028,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>69100</v>
+        <v>67950</v>
       </c>
       <c r="C47" t="n">
-        <v>69100</v>
+        <v>67950</v>
       </c>
       <c r="D47" t="n">
-        <v>69100</v>
+        <v>67950</v>
       </c>
       <c r="E47" t="n">
-        <v>69100</v>
+        <v>67950</v>
       </c>
       <c r="F47" t="n">
-        <v>12.0498</v>
+        <v>7.6908</v>
       </c>
       <c r="G47" t="n">
-        <v>68560</v>
+        <v>-64713.12949389865</v>
       </c>
       <c r="H47" t="n">
-        <v>68319.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2063,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>69100</v>
+        <v>67950</v>
       </c>
       <c r="C48" t="n">
-        <v>69100</v>
+        <v>67950</v>
       </c>
       <c r="D48" t="n">
-        <v>69100</v>
+        <v>67950</v>
       </c>
       <c r="E48" t="n">
-        <v>69100</v>
+        <v>67950</v>
       </c>
       <c r="F48" t="n">
-        <v>10.9048</v>
+        <v>25.8762</v>
       </c>
       <c r="G48" t="n">
-        <v>68620</v>
+        <v>-64713.12949389865</v>
       </c>
       <c r="H48" t="n">
-        <v>68344.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>1</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2098,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>68700</v>
+        <v>67950</v>
       </c>
       <c r="C49" t="n">
-        <v>68700</v>
+        <v>67950</v>
       </c>
       <c r="D49" t="n">
-        <v>68700</v>
+        <v>67950</v>
       </c>
       <c r="E49" t="n">
-        <v>68700</v>
+        <v>67950</v>
       </c>
       <c r="F49" t="n">
-        <v>1.5886</v>
+        <v>1.159</v>
       </c>
       <c r="G49" t="n">
-        <v>68616.66666666667</v>
+        <v>-64713.12949389865</v>
       </c>
       <c r="H49" t="n">
-        <v>68355.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>1</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2133,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>69100</v>
+        <v>67600</v>
       </c>
       <c r="C50" t="n">
-        <v>69300</v>
+        <v>67600</v>
       </c>
       <c r="D50" t="n">
-        <v>69300</v>
+        <v>67600</v>
       </c>
       <c r="E50" t="n">
-        <v>69100</v>
+        <v>67600</v>
       </c>
       <c r="F50" t="n">
-        <v>0.58</v>
+        <v>6.1384</v>
       </c>
       <c r="G50" t="n">
-        <v>68690</v>
+        <v>-64719.26789389866</v>
       </c>
       <c r="H50" t="n">
-        <v>68377.5</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>1</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2168,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>69300</v>
+        <v>67850</v>
       </c>
       <c r="C51" t="n">
-        <v>68650</v>
+        <v>67850</v>
       </c>
       <c r="D51" t="n">
-        <v>69300</v>
+        <v>67850</v>
       </c>
       <c r="E51" t="n">
-        <v>68650</v>
+        <v>67850</v>
       </c>
       <c r="F51" t="n">
-        <v>51.8525</v>
+        <v>39.6372</v>
       </c>
       <c r="G51" t="n">
-        <v>68646.66666666667</v>
+        <v>-64679.63069389866</v>
       </c>
       <c r="H51" t="n">
-        <v>68388.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>1</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2203,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>69350</v>
+        <v>67650</v>
       </c>
       <c r="C52" t="n">
-        <v>69350</v>
+        <v>67650</v>
       </c>
       <c r="D52" t="n">
-        <v>69350</v>
+        <v>67650</v>
       </c>
       <c r="E52" t="n">
-        <v>69350</v>
+        <v>67650</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1</v>
+        <v>69.06480000000001</v>
       </c>
       <c r="G52" t="n">
-        <v>68680</v>
+        <v>-64748.69549389866</v>
       </c>
       <c r="H52" t="n">
-        <v>68410.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>1</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2238,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>68800</v>
+        <v>67700</v>
       </c>
       <c r="C53" t="n">
-        <v>68800</v>
+        <v>68550</v>
       </c>
       <c r="D53" t="n">
-        <v>68800</v>
+        <v>68550</v>
       </c>
       <c r="E53" t="n">
-        <v>68800</v>
+        <v>67700</v>
       </c>
       <c r="F53" t="n">
-        <v>10.0746</v>
+        <v>27.7966</v>
       </c>
       <c r="G53" t="n">
-        <v>68683.33333333333</v>
+        <v>-64720.89889389866</v>
       </c>
       <c r="H53" t="n">
-        <v>68430.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>1</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2273,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>68800</v>
+        <v>67750</v>
       </c>
       <c r="C54" t="n">
-        <v>68700</v>
+        <v>67700</v>
       </c>
       <c r="D54" t="n">
-        <v>68800</v>
+        <v>67750</v>
       </c>
       <c r="E54" t="n">
-        <v>68700</v>
+        <v>67700</v>
       </c>
       <c r="F54" t="n">
-        <v>25.8318</v>
+        <v>55.5391</v>
       </c>
       <c r="G54" t="n">
-        <v>68723.33333333333</v>
+        <v>-64776.43799389866</v>
       </c>
       <c r="H54" t="n">
-        <v>68446.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>1</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2308,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>68700</v>
+        <v>67650</v>
       </c>
       <c r="C55" t="n">
-        <v>68650</v>
+        <v>68450</v>
       </c>
       <c r="D55" t="n">
-        <v>68700</v>
+        <v>68450</v>
       </c>
       <c r="E55" t="n">
-        <v>68650</v>
+        <v>67600</v>
       </c>
       <c r="F55" t="n">
-        <v>21.2812</v>
+        <v>9.369799123447001</v>
       </c>
       <c r="G55" t="n">
-        <v>68706.66666666667</v>
+        <v>-64767.06819477522</v>
       </c>
       <c r="H55" t="n">
-        <v>68461.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>1</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2343,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>68650</v>
+        <v>68450</v>
       </c>
       <c r="C56" t="n">
-        <v>68650</v>
+        <v>68450</v>
       </c>
       <c r="D56" t="n">
-        <v>68650</v>
+        <v>68450</v>
       </c>
       <c r="E56" t="n">
-        <v>68650</v>
+        <v>68450</v>
       </c>
       <c r="F56" t="n">
-        <v>6.6387</v>
+        <v>10</v>
       </c>
       <c r="G56" t="n">
-        <v>68730</v>
+        <v>-64767.06819477522</v>
       </c>
       <c r="H56" t="n">
-        <v>68475.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>1</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2378,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>68650</v>
+        <v>68450</v>
       </c>
       <c r="C57" t="n">
-        <v>68650</v>
+        <v>68450</v>
       </c>
       <c r="D57" t="n">
-        <v>68650</v>
+        <v>68450</v>
       </c>
       <c r="E57" t="n">
-        <v>68650</v>
+        <v>68450</v>
       </c>
       <c r="F57" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G57" t="n">
-        <v>68766.66666666667</v>
+        <v>-64767.06819477522</v>
       </c>
       <c r="H57" t="n">
-        <v>68483.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>1</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2413,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>69150</v>
+        <v>67850</v>
       </c>
       <c r="C58" t="n">
-        <v>69050</v>
+        <v>68250</v>
       </c>
       <c r="D58" t="n">
-        <v>69150</v>
+        <v>68250</v>
       </c>
       <c r="E58" t="n">
-        <v>69050</v>
+        <v>67850</v>
       </c>
       <c r="F58" t="n">
-        <v>1.1255</v>
+        <v>35</v>
       </c>
       <c r="G58" t="n">
-        <v>68830</v>
+        <v>-64802.06819477522</v>
       </c>
       <c r="H58" t="n">
-        <v>68494.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>1</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2448,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>69050</v>
+        <v>68250</v>
       </c>
       <c r="C59" t="n">
-        <v>69050</v>
+        <v>68250</v>
       </c>
       <c r="D59" t="n">
-        <v>69050</v>
+        <v>68250</v>
       </c>
       <c r="E59" t="n">
-        <v>69050</v>
+        <v>68250</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1449</v>
+        <v>15.1627</v>
       </c>
       <c r="G59" t="n">
-        <v>68890</v>
+        <v>-64802.06819477522</v>
       </c>
       <c r="H59" t="n">
-        <v>68502.5</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>1</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2483,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>69050</v>
+        <v>68800</v>
       </c>
       <c r="C60" t="n">
-        <v>69250</v>
+        <v>68800</v>
       </c>
       <c r="D60" t="n">
-        <v>69250</v>
+        <v>68800</v>
       </c>
       <c r="E60" t="n">
-        <v>69050</v>
+        <v>68800</v>
       </c>
       <c r="F60" t="n">
-        <v>27.932855451263</v>
+        <v>0.1</v>
       </c>
       <c r="G60" t="n">
-        <v>68940</v>
+        <v>-64801.96819477522</v>
       </c>
       <c r="H60" t="n">
-        <v>68513.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>1</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2518,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>68850</v>
+        <v>68800</v>
       </c>
       <c r="C61" t="n">
-        <v>68850</v>
+        <v>68800</v>
       </c>
       <c r="D61" t="n">
-        <v>68850</v>
+        <v>68800</v>
       </c>
       <c r="E61" t="n">
-        <v>68850</v>
+        <v>68800</v>
       </c>
       <c r="F61" t="n">
-        <v>1.5</v>
+        <v>0.3291</v>
       </c>
       <c r="G61" t="n">
-        <v>68923.33333333333</v>
+        <v>-64801.96819477522</v>
       </c>
       <c r="H61" t="n">
-        <v>68514.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>1</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2553,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>69150</v>
+        <v>68200</v>
       </c>
       <c r="C62" t="n">
-        <v>68850</v>
+        <v>68200</v>
       </c>
       <c r="D62" t="n">
-        <v>69150</v>
+        <v>68200</v>
       </c>
       <c r="E62" t="n">
-        <v>68800</v>
+        <v>68200</v>
       </c>
       <c r="F62" t="n">
-        <v>19.218843673174</v>
+        <v>2.2384</v>
       </c>
       <c r="G62" t="n">
-        <v>68906.66666666667</v>
+        <v>-64804.20659477522</v>
       </c>
       <c r="H62" t="n">
-        <v>68518.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>1</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2588,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>68800</v>
+        <v>68750</v>
       </c>
       <c r="C63" t="n">
-        <v>68650</v>
+        <v>68750</v>
       </c>
       <c r="D63" t="n">
-        <v>68800</v>
+        <v>68750</v>
       </c>
       <c r="E63" t="n">
-        <v>68650</v>
+        <v>68750</v>
       </c>
       <c r="F63" t="n">
-        <v>36.915769767441</v>
+        <v>2</v>
       </c>
       <c r="G63" t="n">
-        <v>68876.66666666667</v>
+        <v>-64802.20659477522</v>
       </c>
       <c r="H63" t="n">
-        <v>68525.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>1</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2623,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>68600</v>
+        <v>68200</v>
       </c>
       <c r="C64" t="n">
-        <v>68550</v>
+        <v>68200</v>
       </c>
       <c r="D64" t="n">
-        <v>68600</v>
+        <v>69300</v>
       </c>
       <c r="E64" t="n">
-        <v>68550</v>
+        <v>68200</v>
       </c>
       <c r="F64" t="n">
-        <v>36.8866</v>
+        <v>675.8249</v>
       </c>
       <c r="G64" t="n">
-        <v>68866.66666666667</v>
+        <v>-65478.03149477522</v>
       </c>
       <c r="H64" t="n">
-        <v>68525</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>1</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +2658,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>68450</v>
+        <v>69300</v>
       </c>
       <c r="C65" t="n">
-        <v>68550</v>
+        <v>69300</v>
       </c>
       <c r="D65" t="n">
-        <v>68550</v>
+        <v>69300</v>
       </c>
       <c r="E65" t="n">
-        <v>68400</v>
+        <v>69300</v>
       </c>
       <c r="F65" t="n">
-        <v>1.4582</v>
+        <v>0.048095238095</v>
       </c>
       <c r="G65" t="n">
-        <v>68816.66666666667</v>
+        <v>-65477.98339953712</v>
       </c>
       <c r="H65" t="n">
-        <v>68530.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>1</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +2693,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>68300</v>
+        <v>68850</v>
       </c>
       <c r="C66" t="n">
-        <v>68300</v>
+        <v>68850</v>
       </c>
       <c r="D66" t="n">
-        <v>68300</v>
+        <v>68850</v>
       </c>
       <c r="E66" t="n">
-        <v>68300</v>
+        <v>68850</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2921</v>
+        <v>1.4775</v>
       </c>
       <c r="G66" t="n">
-        <v>68793.33333333333</v>
+        <v>-65479.46089953712</v>
       </c>
       <c r="H66" t="n">
-        <v>68525.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>1</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +2728,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>68950</v>
+        <v>68750</v>
       </c>
       <c r="C67" t="n">
-        <v>69050</v>
+        <v>68750</v>
       </c>
       <c r="D67" t="n">
-        <v>69050</v>
+        <v>68750</v>
       </c>
       <c r="E67" t="n">
-        <v>68950</v>
+        <v>68750</v>
       </c>
       <c r="F67" t="n">
-        <v>3.8975</v>
+        <v>1.4844</v>
       </c>
       <c r="G67" t="n">
-        <v>68773.33333333333</v>
+        <v>-65480.94529953712</v>
       </c>
       <c r="H67" t="n">
-        <v>68530</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>1</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +2763,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>69050</v>
+        <v>68100</v>
       </c>
       <c r="C68" t="n">
-        <v>69150</v>
+        <v>68100</v>
       </c>
       <c r="D68" t="n">
-        <v>69150</v>
+        <v>68100</v>
       </c>
       <c r="E68" t="n">
-        <v>69050</v>
+        <v>68100</v>
       </c>
       <c r="F68" t="n">
-        <v>8.6714</v>
+        <v>0.15</v>
       </c>
       <c r="G68" t="n">
-        <v>68796.66666666667</v>
+        <v>-65481.09529953713</v>
       </c>
       <c r="H68" t="n">
-        <v>68543.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>1</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,36 +2798,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>69050</v>
+        <v>68850</v>
       </c>
       <c r="C69" t="n">
-        <v>69050</v>
+        <v>68900</v>
       </c>
       <c r="D69" t="n">
-        <v>69050</v>
+        <v>68900</v>
       </c>
       <c r="E69" t="n">
-        <v>69050</v>
+        <v>68850</v>
       </c>
       <c r="F69" t="n">
-        <v>7.4565</v>
+        <v>2</v>
       </c>
       <c r="G69" t="n">
-        <v>68820</v>
+        <v>-65479.09529953713</v>
       </c>
       <c r="H69" t="n">
-        <v>68555</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +2833,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>69050</v>
+        <v>68250</v>
       </c>
       <c r="C70" t="n">
-        <v>69050</v>
+        <v>68300</v>
       </c>
       <c r="D70" t="n">
-        <v>69050</v>
+        <v>68300</v>
       </c>
       <c r="E70" t="n">
-        <v>69050</v>
+        <v>68250</v>
       </c>
       <c r="F70" t="n">
-        <v>1.6374</v>
+        <v>33.4959</v>
       </c>
       <c r="G70" t="n">
-        <v>68846.66666666667</v>
+        <v>-65512.59119953713</v>
       </c>
       <c r="H70" t="n">
-        <v>68559.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>1</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,36 +2868,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>68850</v>
+        <v>68100</v>
       </c>
       <c r="C71" t="n">
-        <v>68850</v>
+        <v>68100</v>
       </c>
       <c r="D71" t="n">
-        <v>68850</v>
+        <v>68100</v>
       </c>
       <c r="E71" t="n">
-        <v>68850</v>
+        <v>68050</v>
       </c>
       <c r="F71" t="n">
-        <v>8.1759</v>
+        <v>1.2687</v>
       </c>
       <c r="G71" t="n">
-        <v>68860</v>
+        <v>-65513.85989953713</v>
       </c>
       <c r="H71" t="n">
-        <v>68560</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>1</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +2903,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>68850</v>
+        <v>68100</v>
       </c>
       <c r="C72" t="n">
-        <v>68850</v>
+        <v>68100</v>
       </c>
       <c r="D72" t="n">
-        <v>68850</v>
+        <v>68100</v>
       </c>
       <c r="E72" t="n">
-        <v>68850</v>
+        <v>68100</v>
       </c>
       <c r="F72" t="n">
-        <v>3.0424</v>
+        <v>10</v>
       </c>
       <c r="G72" t="n">
-        <v>68873.33333333333</v>
+        <v>-65513.85989953713</v>
       </c>
       <c r="H72" t="n">
-        <v>68569.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>1</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,36 +2938,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>68850</v>
+        <v>68150</v>
       </c>
       <c r="C73" t="n">
-        <v>68850</v>
+        <v>68150</v>
       </c>
       <c r="D73" t="n">
-        <v>68850</v>
+        <v>68150</v>
       </c>
       <c r="E73" t="n">
-        <v>68850</v>
+        <v>68150</v>
       </c>
       <c r="F73" t="n">
-        <v>24.023</v>
+        <v>10.15</v>
       </c>
       <c r="G73" t="n">
-        <v>68860</v>
+        <v>-65503.70989953713</v>
       </c>
       <c r="H73" t="n">
-        <v>68579.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,36 +2973,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>68300</v>
+        <v>68500</v>
       </c>
       <c r="C74" t="n">
-        <v>68300</v>
+        <v>68500</v>
       </c>
       <c r="D74" t="n">
-        <v>68300</v>
+        <v>68500</v>
       </c>
       <c r="E74" t="n">
-        <v>68300</v>
+        <v>68500</v>
       </c>
       <c r="F74" t="n">
-        <v>7.4565</v>
+        <v>3.8829</v>
       </c>
       <c r="G74" t="n">
-        <v>68810</v>
+        <v>-65499.82699953713</v>
       </c>
       <c r="H74" t="n">
-        <v>68580.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>1</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,36 +3008,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>68300</v>
+        <v>69100</v>
       </c>
       <c r="C75" t="n">
-        <v>68300</v>
+        <v>69100</v>
       </c>
       <c r="D75" t="n">
-        <v>68300</v>
+        <v>69100</v>
       </c>
       <c r="E75" t="n">
-        <v>68300</v>
+        <v>69100</v>
       </c>
       <c r="F75" t="n">
-        <v>57.6597</v>
+        <v>0.1</v>
       </c>
       <c r="G75" t="n">
-        <v>68746.66666666667</v>
+        <v>-65499.72699953713</v>
       </c>
       <c r="H75" t="n">
-        <v>68573.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,36 +3043,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>68950</v>
+        <v>69100</v>
       </c>
       <c r="C76" t="n">
-        <v>68950</v>
+        <v>69100</v>
       </c>
       <c r="D76" t="n">
-        <v>68950</v>
+        <v>69100</v>
       </c>
       <c r="E76" t="n">
-        <v>68950</v>
+        <v>69100</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1859</v>
+        <v>12.0498</v>
       </c>
       <c r="G76" t="n">
-        <v>68753.33333333333</v>
+        <v>-65499.72699953713</v>
       </c>
       <c r="H76" t="n">
-        <v>68585.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,36 +3078,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>68050</v>
+        <v>69100</v>
       </c>
       <c r="C77" t="n">
-        <v>68050</v>
+        <v>69100</v>
       </c>
       <c r="D77" t="n">
-        <v>68050</v>
+        <v>69100</v>
       </c>
       <c r="E77" t="n">
-        <v>68050</v>
+        <v>69100</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1859</v>
+        <v>10.9048</v>
       </c>
       <c r="G77" t="n">
-        <v>68700</v>
+        <v>-65499.72699953713</v>
       </c>
       <c r="H77" t="n">
-        <v>68585.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,36 +3113,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>68800</v>
+        <v>68700</v>
       </c>
       <c r="C78" t="n">
-        <v>68800</v>
+        <v>68700</v>
       </c>
       <c r="D78" t="n">
-        <v>68800</v>
+        <v>68700</v>
       </c>
       <c r="E78" t="n">
-        <v>68800</v>
+        <v>68700</v>
       </c>
       <c r="F78" t="n">
-        <v>0.129186046511</v>
+        <v>1.5886</v>
       </c>
       <c r="G78" t="n">
-        <v>68710</v>
+        <v>-65501.31559953713</v>
       </c>
       <c r="H78" t="n">
-        <v>68600</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,36 +3148,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>68700</v>
+        <v>69100</v>
       </c>
       <c r="C79" t="n">
-        <v>68700</v>
+        <v>69300</v>
       </c>
       <c r="D79" t="n">
-        <v>68700</v>
+        <v>69300</v>
       </c>
       <c r="E79" t="n">
-        <v>68700</v>
+        <v>69100</v>
       </c>
       <c r="F79" t="n">
-        <v>5</v>
+        <v>0.58</v>
       </c>
       <c r="G79" t="n">
-        <v>68720</v>
+        <v>-65500.73559953713</v>
       </c>
       <c r="H79" t="n">
-        <v>68612.5</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3402,36 +3183,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>68800</v>
+        <v>69300</v>
       </c>
       <c r="C80" t="n">
-        <v>68800</v>
+        <v>68650</v>
       </c>
       <c r="D80" t="n">
-        <v>68800</v>
+        <v>69300</v>
       </c>
       <c r="E80" t="n">
-        <v>68800</v>
+        <v>68650</v>
       </c>
       <c r="F80" t="n">
-        <v>2.7547</v>
+        <v>51.8525</v>
       </c>
       <c r="G80" t="n">
-        <v>68736.66666666667</v>
+        <v>-65552.58809953713</v>
       </c>
       <c r="H80" t="n">
-        <v>68626.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,36 +3218,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>68450</v>
+        <v>69350</v>
       </c>
       <c r="C81" t="n">
-        <v>68450</v>
+        <v>69350</v>
       </c>
       <c r="D81" t="n">
-        <v>68450</v>
+        <v>69350</v>
       </c>
       <c r="E81" t="n">
-        <v>68450</v>
+        <v>69350</v>
       </c>
       <c r="F81" t="n">
-        <v>1.3567</v>
+        <v>0.1</v>
       </c>
       <c r="G81" t="n">
-        <v>68746.66666666667</v>
+        <v>-65552.48809953712</v>
       </c>
       <c r="H81" t="n">
-        <v>68640.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,36 +3253,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>68350</v>
+        <v>68800</v>
       </c>
       <c r="C82" t="n">
-        <v>68300</v>
+        <v>68800</v>
       </c>
       <c r="D82" t="n">
-        <v>68350</v>
+        <v>68800</v>
       </c>
       <c r="E82" t="n">
-        <v>68300</v>
+        <v>68800</v>
       </c>
       <c r="F82" t="n">
-        <v>39.9127</v>
+        <v>10.0746</v>
       </c>
       <c r="G82" t="n">
-        <v>68696.66666666667</v>
+        <v>-65562.56269953713</v>
       </c>
       <c r="H82" t="n">
-        <v>68648.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3516,36 +3288,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>68500</v>
+        <v>68800</v>
       </c>
       <c r="C83" t="n">
-        <v>68100</v>
+        <v>68700</v>
       </c>
       <c r="D83" t="n">
-        <v>68500</v>
+        <v>68800</v>
       </c>
       <c r="E83" t="n">
-        <v>68100</v>
+        <v>68700</v>
       </c>
       <c r="F83" t="n">
-        <v>1.0143</v>
+        <v>25.8318</v>
       </c>
       <c r="G83" t="n">
-        <v>68626.66666666667</v>
+        <v>-65588.39449953713</v>
       </c>
       <c r="H83" t="n">
-        <v>68655.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,36 +3323,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>67600</v>
+        <v>68700</v>
       </c>
       <c r="C84" t="n">
-        <v>67600</v>
+        <v>68650</v>
       </c>
       <c r="D84" t="n">
-        <v>67600</v>
+        <v>68700</v>
       </c>
       <c r="E84" t="n">
-        <v>67600</v>
+        <v>68650</v>
       </c>
       <c r="F84" t="n">
-        <v>0.7862</v>
+        <v>21.2812</v>
       </c>
       <c r="G84" t="n">
-        <v>68530</v>
+        <v>-65609.67569953713</v>
       </c>
       <c r="H84" t="n">
-        <v>68640</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3592,36 +3358,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>67600</v>
+        <v>68650</v>
       </c>
       <c r="C85" t="n">
-        <v>67600</v>
+        <v>68650</v>
       </c>
       <c r="D85" t="n">
-        <v>67600</v>
+        <v>68650</v>
       </c>
       <c r="E85" t="n">
-        <v>67600</v>
+        <v>68650</v>
       </c>
       <c r="F85" t="n">
-        <v>10</v>
+        <v>6.6387</v>
       </c>
       <c r="G85" t="n">
-        <v>68433.33333333333</v>
+        <v>-65609.67569953713</v>
       </c>
       <c r="H85" t="n">
-        <v>68638.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3630,36 +3393,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>67750</v>
+        <v>68650</v>
       </c>
       <c r="C86" t="n">
-        <v>67750</v>
+        <v>68650</v>
       </c>
       <c r="D86" t="n">
-        <v>67750</v>
+        <v>68650</v>
       </c>
       <c r="E86" t="n">
-        <v>67750</v>
+        <v>68650</v>
       </c>
       <c r="F86" t="n">
-        <v>6.7138</v>
+        <v>4</v>
       </c>
       <c r="G86" t="n">
-        <v>68360</v>
+        <v>-65609.67569953713</v>
       </c>
       <c r="H86" t="n">
-        <v>68626.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,36 +3428,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>68000</v>
+        <v>69150</v>
       </c>
       <c r="C87" t="n">
-        <v>68000</v>
+        <v>69050</v>
       </c>
       <c r="D87" t="n">
-        <v>68000</v>
+        <v>69150</v>
       </c>
       <c r="E87" t="n">
-        <v>68000</v>
+        <v>69050</v>
       </c>
       <c r="F87" t="n">
-        <v>1.7475</v>
+        <v>1.1255</v>
       </c>
       <c r="G87" t="n">
-        <v>68303.33333333333</v>
+        <v>-65608.55019953713</v>
       </c>
       <c r="H87" t="n">
-        <v>68619.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,36 +3463,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>68000</v>
+        <v>69050</v>
       </c>
       <c r="C88" t="n">
-        <v>67750</v>
+        <v>69050</v>
       </c>
       <c r="D88" t="n">
-        <v>68000</v>
+        <v>69050</v>
       </c>
       <c r="E88" t="n">
-        <v>67750</v>
+        <v>69050</v>
       </c>
       <c r="F88" t="n">
-        <v>1.53</v>
+        <v>0.1449</v>
       </c>
       <c r="G88" t="n">
-        <v>68230</v>
+        <v>-65608.55019953713</v>
       </c>
       <c r="H88" t="n">
-        <v>68607.5</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3744,36 +3498,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>67600</v>
+        <v>69050</v>
       </c>
       <c r="C89" t="n">
-        <v>67500</v>
+        <v>69250</v>
       </c>
       <c r="D89" t="n">
-        <v>67600</v>
+        <v>69250</v>
       </c>
       <c r="E89" t="n">
-        <v>67500</v>
+        <v>69050</v>
       </c>
       <c r="F89" t="n">
-        <v>8.8971</v>
+        <v>27.932855451263</v>
       </c>
       <c r="G89" t="n">
-        <v>68176.66666666667</v>
+        <v>-65580.61734408587</v>
       </c>
       <c r="H89" t="n">
-        <v>68595</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3782,36 +3533,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>67550</v>
+        <v>68850</v>
       </c>
       <c r="C90" t="n">
-        <v>68000</v>
+        <v>68850</v>
       </c>
       <c r="D90" t="n">
-        <v>68000</v>
+        <v>68850</v>
       </c>
       <c r="E90" t="n">
-        <v>67500</v>
+        <v>68850</v>
       </c>
       <c r="F90" t="n">
-        <v>4.644</v>
+        <v>1.5</v>
       </c>
       <c r="G90" t="n">
-        <v>68156.66666666667</v>
+        <v>-65582.11734408587</v>
       </c>
       <c r="H90" t="n">
-        <v>68590.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3820,36 +3568,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>67450</v>
+        <v>69150</v>
       </c>
       <c r="C91" t="n">
-        <v>67400</v>
+        <v>68850</v>
       </c>
       <c r="D91" t="n">
-        <v>67450</v>
+        <v>69150</v>
       </c>
       <c r="E91" t="n">
-        <v>67400</v>
+        <v>68800</v>
       </c>
       <c r="F91" t="n">
-        <v>1.4981</v>
+        <v>19.218843673174</v>
       </c>
       <c r="G91" t="n">
-        <v>68053.33333333333</v>
+        <v>-65582.11734408587</v>
       </c>
       <c r="H91" t="n">
-        <v>68567.5</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3858,36 +3603,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>67400</v>
+        <v>68800</v>
       </c>
       <c r="C92" t="n">
-        <v>67400</v>
+        <v>68650</v>
       </c>
       <c r="D92" t="n">
-        <v>67400</v>
+        <v>68800</v>
       </c>
       <c r="E92" t="n">
-        <v>67400</v>
+        <v>68650</v>
       </c>
       <c r="F92" t="n">
-        <v>49</v>
+        <v>36.915769767441</v>
       </c>
       <c r="G92" t="n">
-        <v>68010</v>
+        <v>-65619.03311385331</v>
       </c>
       <c r="H92" t="n">
-        <v>68544.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,36 +3638,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>67350</v>
+        <v>68600</v>
       </c>
       <c r="C93" t="n">
-        <v>67350</v>
+        <v>68550</v>
       </c>
       <c r="D93" t="n">
-        <v>67350</v>
+        <v>68600</v>
       </c>
       <c r="E93" t="n">
-        <v>67350</v>
+        <v>68550</v>
       </c>
       <c r="F93" t="n">
-        <v>6.3562</v>
+        <v>36.8866</v>
       </c>
       <c r="G93" t="n">
-        <v>67913.33333333333</v>
+        <v>-65655.91971385331</v>
       </c>
       <c r="H93" t="n">
-        <v>68530</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3934,36 +3673,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>67550</v>
+        <v>68450</v>
       </c>
       <c r="C94" t="n">
-        <v>67550</v>
+        <v>68550</v>
       </c>
       <c r="D94" t="n">
-        <v>67550</v>
+        <v>68550</v>
       </c>
       <c r="E94" t="n">
-        <v>67550</v>
+        <v>68400</v>
       </c>
       <c r="F94" t="n">
-        <v>1.06</v>
+        <v>1.4582</v>
       </c>
       <c r="G94" t="n">
-        <v>67836.66666666667</v>
+        <v>-65655.91971385331</v>
       </c>
       <c r="H94" t="n">
-        <v>68510</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3972,36 +3708,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>67500</v>
+        <v>68300</v>
       </c>
       <c r="C95" t="n">
-        <v>67500</v>
+        <v>68300</v>
       </c>
       <c r="D95" t="n">
-        <v>67500</v>
+        <v>68300</v>
       </c>
       <c r="E95" t="n">
-        <v>67500</v>
+        <v>68300</v>
       </c>
       <c r="F95" t="n">
-        <v>3.9729</v>
+        <v>0.2921</v>
       </c>
       <c r="G95" t="n">
-        <v>67750</v>
+        <v>-65656.21181385331</v>
       </c>
       <c r="H95" t="n">
-        <v>68498.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4010,36 +3743,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>67750</v>
+        <v>68950</v>
       </c>
       <c r="C96" t="n">
-        <v>67850</v>
+        <v>69050</v>
       </c>
       <c r="D96" t="n">
-        <v>67850</v>
+        <v>69050</v>
       </c>
       <c r="E96" t="n">
-        <v>67500</v>
+        <v>68950</v>
       </c>
       <c r="F96" t="n">
-        <v>119.7466</v>
+        <v>3.8975</v>
       </c>
       <c r="G96" t="n">
-        <v>67710</v>
+        <v>-65652.31431385331</v>
       </c>
       <c r="H96" t="n">
-        <v>68474.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4048,36 +3778,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>67500</v>
+        <v>69050</v>
       </c>
       <c r="C97" t="n">
-        <v>67400</v>
+        <v>69150</v>
       </c>
       <c r="D97" t="n">
-        <v>67900</v>
+        <v>69150</v>
       </c>
       <c r="E97" t="n">
-        <v>67350</v>
+        <v>69050</v>
       </c>
       <c r="F97" t="n">
-        <v>9.8787</v>
+        <v>8.6714</v>
       </c>
       <c r="G97" t="n">
-        <v>67650</v>
+        <v>-65643.6429138533</v>
       </c>
       <c r="H97" t="n">
-        <v>68450</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4086,36 +3813,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>67500</v>
+        <v>69050</v>
       </c>
       <c r="C98" t="n">
-        <v>67450</v>
+        <v>69050</v>
       </c>
       <c r="D98" t="n">
-        <v>67500</v>
+        <v>69050</v>
       </c>
       <c r="E98" t="n">
-        <v>67450</v>
+        <v>69050</v>
       </c>
       <c r="F98" t="n">
-        <v>10</v>
+        <v>7.4565</v>
       </c>
       <c r="G98" t="n">
-        <v>67606.66666666667</v>
+        <v>-65651.0994138533</v>
       </c>
       <c r="H98" t="n">
-        <v>68428.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4124,36 +3848,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>67350</v>
+        <v>69050</v>
       </c>
       <c r="C99" t="n">
-        <v>67350</v>
+        <v>69050</v>
       </c>
       <c r="D99" t="n">
-        <v>67350</v>
+        <v>69050</v>
       </c>
       <c r="E99" t="n">
-        <v>67350</v>
+        <v>69050</v>
       </c>
       <c r="F99" t="n">
-        <v>1.6029</v>
+        <v>1.6374</v>
       </c>
       <c r="G99" t="n">
-        <v>67590</v>
+        <v>-65651.0994138533</v>
       </c>
       <c r="H99" t="n">
-        <v>68415.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4162,36 +3883,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>67300</v>
+        <v>68850</v>
       </c>
       <c r="C100" t="n">
-        <v>67300</v>
+        <v>68850</v>
       </c>
       <c r="D100" t="n">
-        <v>67300</v>
+        <v>68850</v>
       </c>
       <c r="E100" t="n">
-        <v>67300</v>
+        <v>68850</v>
       </c>
       <c r="F100" t="n">
-        <v>17.9147</v>
+        <v>8.1759</v>
       </c>
       <c r="G100" t="n">
-        <v>67570</v>
+        <v>-65659.2753138533</v>
       </c>
       <c r="H100" t="n">
-        <v>68389.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4200,36 +3918,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>67300</v>
+        <v>68850</v>
       </c>
       <c r="C101" t="n">
-        <v>67000</v>
+        <v>68850</v>
       </c>
       <c r="D101" t="n">
-        <v>67450</v>
+        <v>68850</v>
       </c>
       <c r="E101" t="n">
-        <v>67000</v>
+        <v>68850</v>
       </c>
       <c r="F101" t="n">
-        <v>14.579</v>
+        <v>3.0424</v>
       </c>
       <c r="G101" t="n">
-        <v>67520</v>
+        <v>-65659.2753138533</v>
       </c>
       <c r="H101" t="n">
-        <v>68367.5</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4238,36 +3953,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>67200</v>
+        <v>68850</v>
       </c>
       <c r="C102" t="n">
-        <v>66900</v>
+        <v>68850</v>
       </c>
       <c r="D102" t="n">
-        <v>67200</v>
+        <v>68850</v>
       </c>
       <c r="E102" t="n">
-        <v>66900</v>
+        <v>68850</v>
       </c>
       <c r="F102" t="n">
-        <v>13.6046</v>
+        <v>24.023</v>
       </c>
       <c r="G102" t="n">
-        <v>67446.66666666667</v>
+        <v>-65659.2753138533</v>
       </c>
       <c r="H102" t="n">
-        <v>68347.5</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4276,36 +3988,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>67000</v>
+        <v>68300</v>
       </c>
       <c r="C103" t="n">
-        <v>67000</v>
+        <v>68300</v>
       </c>
       <c r="D103" t="n">
-        <v>67000</v>
+        <v>68300</v>
       </c>
       <c r="E103" t="n">
-        <v>67000</v>
+        <v>68300</v>
       </c>
       <c r="F103" t="n">
-        <v>0.5679999999999999</v>
+        <v>7.4565</v>
       </c>
       <c r="G103" t="n">
-        <v>67396.66666666667</v>
+        <v>-65666.7318138533</v>
       </c>
       <c r="H103" t="n">
-        <v>68329.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,36 +4023,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>66950</v>
+        <v>68300</v>
       </c>
       <c r="C104" t="n">
-        <v>66950</v>
+        <v>68300</v>
       </c>
       <c r="D104" t="n">
-        <v>66950</v>
+        <v>68300</v>
       </c>
       <c r="E104" t="n">
-        <v>66950</v>
+        <v>68300</v>
       </c>
       <c r="F104" t="n">
-        <v>2.2617</v>
+        <v>57.6597</v>
       </c>
       <c r="G104" t="n">
-        <v>67360</v>
+        <v>-65666.7318138533</v>
       </c>
       <c r="H104" t="n">
-        <v>68309.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4352,36 +4058,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>67000</v>
+        <v>68950</v>
       </c>
       <c r="C105" t="n">
-        <v>67000</v>
+        <v>68950</v>
       </c>
       <c r="D105" t="n">
-        <v>67000</v>
+        <v>68950</v>
       </c>
       <c r="E105" t="n">
-        <v>67000</v>
+        <v>68950</v>
       </c>
       <c r="F105" t="n">
-        <v>0.3194</v>
+        <v>0.1859</v>
       </c>
       <c r="G105" t="n">
-        <v>67293.33333333333</v>
+        <v>-65666.5459138533</v>
       </c>
       <c r="H105" t="n">
-        <v>68284.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4390,36 +4093,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>66950</v>
+        <v>68050</v>
       </c>
       <c r="C106" t="n">
-        <v>66950</v>
+        <v>68050</v>
       </c>
       <c r="D106" t="n">
-        <v>66950</v>
+        <v>68050</v>
       </c>
       <c r="E106" t="n">
-        <v>66950</v>
+        <v>68050</v>
       </c>
       <c r="F106" t="n">
-        <v>1.9556</v>
+        <v>0.1859</v>
       </c>
       <c r="G106" t="n">
-        <v>67263.33333333333</v>
+        <v>-65666.7318138533</v>
       </c>
       <c r="H106" t="n">
-        <v>68248.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4428,774 +4128,1815 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>66950</v>
+        <v>68800</v>
       </c>
       <c r="C107" t="n">
-        <v>67000</v>
+        <v>68800</v>
       </c>
       <c r="D107" t="n">
-        <v>67000</v>
+        <v>68800</v>
       </c>
       <c r="E107" t="n">
-        <v>66700</v>
+        <v>68800</v>
       </c>
       <c r="F107" t="n">
-        <v>131.3544</v>
+        <v>0.129186046511</v>
       </c>
       <c r="G107" t="n">
-        <v>67236.66666666667</v>
+        <v>-65666.60262780679</v>
       </c>
       <c r="H107" t="n">
-        <v>68213.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
-      </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="n">
-        <v>66950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr">
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>68700</v>
+      </c>
+      <c r="C108" t="n">
+        <v>68700</v>
+      </c>
+      <c r="D108" t="n">
+        <v>68700</v>
+      </c>
+      <c r="E108" t="n">
+        <v>68700</v>
+      </c>
+      <c r="F108" t="n">
+        <v>5</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-65671.60262780679</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>68800</v>
+      </c>
+      <c r="C109" t="n">
+        <v>68800</v>
+      </c>
+      <c r="D109" t="n">
+        <v>68800</v>
+      </c>
+      <c r="E109" t="n">
+        <v>68800</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2.7547</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-65668.84792780678</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>68450</v>
+      </c>
+      <c r="C110" t="n">
+        <v>68450</v>
+      </c>
+      <c r="D110" t="n">
+        <v>68450</v>
+      </c>
+      <c r="E110" t="n">
+        <v>68450</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1.3567</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-65670.20462780679</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>68350</v>
+      </c>
+      <c r="C111" t="n">
+        <v>68300</v>
+      </c>
+      <c r="D111" t="n">
+        <v>68350</v>
+      </c>
+      <c r="E111" t="n">
+        <v>68300</v>
+      </c>
+      <c r="F111" t="n">
+        <v>39.9127</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-65710.11732780679</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>68500</v>
+      </c>
+      <c r="C112" t="n">
+        <v>68100</v>
+      </c>
+      <c r="D112" t="n">
+        <v>68500</v>
+      </c>
+      <c r="E112" t="n">
+        <v>68100</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1.0143</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-65711.13162780678</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>67600</v>
+      </c>
+      <c r="C113" t="n">
+        <v>67600</v>
+      </c>
+      <c r="D113" t="n">
+        <v>67600</v>
+      </c>
+      <c r="E113" t="n">
+        <v>67600</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.7862</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-65711.91782780678</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>67600</v>
+      </c>
+      <c r="C114" t="n">
+        <v>67600</v>
+      </c>
+      <c r="D114" t="n">
+        <v>67600</v>
+      </c>
+      <c r="E114" t="n">
+        <v>67600</v>
+      </c>
+      <c r="F114" t="n">
+        <v>10</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-65711.91782780678</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>67750</v>
+      </c>
+      <c r="C115" t="n">
+        <v>67750</v>
+      </c>
+      <c r="D115" t="n">
+        <v>67750</v>
+      </c>
+      <c r="E115" t="n">
+        <v>67750</v>
+      </c>
+      <c r="F115" t="n">
+        <v>6.7138</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-65705.20402780679</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>68000</v>
+      </c>
+      <c r="C116" t="n">
+        <v>68000</v>
+      </c>
+      <c r="D116" t="n">
+        <v>68000</v>
+      </c>
+      <c r="E116" t="n">
+        <v>68000</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1.7475</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-65703.45652780679</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>68000</v>
+      </c>
+      <c r="C117" t="n">
+        <v>67750</v>
+      </c>
+      <c r="D117" t="n">
+        <v>68000</v>
+      </c>
+      <c r="E117" t="n">
+        <v>67750</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-65704.98652780679</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>67600</v>
+      </c>
+      <c r="C118" t="n">
+        <v>67500</v>
+      </c>
+      <c r="D118" t="n">
+        <v>67600</v>
+      </c>
+      <c r="E118" t="n">
+        <v>67500</v>
+      </c>
+      <c r="F118" t="n">
+        <v>8.8971</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-65713.88362780679</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>67550</v>
+      </c>
+      <c r="C119" t="n">
+        <v>68000</v>
+      </c>
+      <c r="D119" t="n">
+        <v>68000</v>
+      </c>
+      <c r="E119" t="n">
+        <v>67500</v>
+      </c>
+      <c r="F119" t="n">
+        <v>4.644</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-65709.23962780679</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>67450</v>
+      </c>
+      <c r="C120" t="n">
+        <v>67400</v>
+      </c>
+      <c r="D120" t="n">
+        <v>67450</v>
+      </c>
+      <c r="E120" t="n">
+        <v>67400</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1.4981</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-65710.73772780679</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>67400</v>
+      </c>
+      <c r="C121" t="n">
+        <v>67400</v>
+      </c>
+      <c r="D121" t="n">
+        <v>67400</v>
+      </c>
+      <c r="E121" t="n">
+        <v>67400</v>
+      </c>
+      <c r="F121" t="n">
+        <v>49</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-65710.73772780679</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>67350</v>
+      </c>
+      <c r="C122" t="n">
+        <v>67350</v>
+      </c>
+      <c r="D122" t="n">
+        <v>67350</v>
+      </c>
+      <c r="E122" t="n">
+        <v>67350</v>
+      </c>
+      <c r="F122" t="n">
+        <v>6.3562</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-65717.09392780678</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>67550</v>
+      </c>
+      <c r="C123" t="n">
+        <v>67550</v>
+      </c>
+      <c r="D123" t="n">
+        <v>67550</v>
+      </c>
+      <c r="E123" t="n">
+        <v>67550</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-65716.03392780678</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>67500</v>
+      </c>
+      <c r="C124" t="n">
+        <v>67500</v>
+      </c>
+      <c r="D124" t="n">
+        <v>67500</v>
+      </c>
+      <c r="E124" t="n">
+        <v>67500</v>
+      </c>
+      <c r="F124" t="n">
+        <v>3.9729</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-65720.00682780678</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>67750</v>
+      </c>
+      <c r="C125" t="n">
+        <v>67850</v>
+      </c>
+      <c r="D125" t="n">
+        <v>67850</v>
+      </c>
+      <c r="E125" t="n">
+        <v>67500</v>
+      </c>
+      <c r="F125" t="n">
+        <v>119.7466</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-65600.26022780678</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>67500</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="N107" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>67050</v>
-      </c>
-      <c r="C108" t="n">
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>67500</v>
+      </c>
+      <c r="C126" t="n">
+        <v>67400</v>
+      </c>
+      <c r="D126" t="n">
+        <v>67900</v>
+      </c>
+      <c r="E126" t="n">
         <v>67350</v>
       </c>
-      <c r="D108" t="n">
-        <v>67350</v>
-      </c>
-      <c r="E108" t="n">
-        <v>67050</v>
-      </c>
-      <c r="F108" t="n">
-        <v>99.1962</v>
-      </c>
-      <c r="G108" t="n">
-        <v>67236.66666666667</v>
-      </c>
-      <c r="H108" t="n">
-        <v>68184.16666666667</v>
-      </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="n">
-        <v>67000</v>
-      </c>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr">
+      <c r="F126" t="n">
+        <v>9.8787</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-65610.13892780678</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>67850</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>67050</v>
-      </c>
-      <c r="C109" t="n">
-        <v>67000</v>
-      </c>
-      <c r="D109" t="n">
-        <v>67050</v>
-      </c>
-      <c r="E109" t="n">
-        <v>67000</v>
-      </c>
-      <c r="F109" t="n">
-        <v>2.6841</v>
-      </c>
-      <c r="G109" t="n">
-        <v>67200</v>
-      </c>
-      <c r="H109" t="n">
-        <v>68155.83333333333</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr">
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>67500</v>
+      </c>
+      <c r="C127" t="n">
+        <v>67450</v>
+      </c>
+      <c r="D127" t="n">
+        <v>67500</v>
+      </c>
+      <c r="E127" t="n">
+        <v>67450</v>
+      </c>
+      <c r="F127" t="n">
+        <v>10</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-65600.13892780678</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>67000</v>
-      </c>
-      <c r="C110" t="n">
-        <v>66800</v>
-      </c>
-      <c r="D110" t="n">
-        <v>67000</v>
-      </c>
-      <c r="E110" t="n">
-        <v>66800</v>
-      </c>
-      <c r="F110" t="n">
-        <v>10.9048</v>
-      </c>
-      <c r="G110" t="n">
-        <v>67153.33333333333</v>
-      </c>
-      <c r="H110" t="n">
-        <v>68114.16666666667</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr">
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>67350</v>
+      </c>
+      <c r="C128" t="n">
+        <v>67350</v>
+      </c>
+      <c r="D128" t="n">
+        <v>67350</v>
+      </c>
+      <c r="E128" t="n">
+        <v>67350</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1.6029</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-65601.74182780678</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>67450</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>67050</v>
-      </c>
-      <c r="C111" t="n">
-        <v>66550</v>
-      </c>
-      <c r="D111" t="n">
-        <v>67050</v>
-      </c>
-      <c r="E111" t="n">
-        <v>66550</v>
-      </c>
-      <c r="F111" t="n">
-        <v>50.9979</v>
-      </c>
-      <c r="G111" t="n">
-        <v>67066.66666666667</v>
-      </c>
-      <c r="H111" t="n">
-        <v>68079.16666666667</v>
-      </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="n">
-        <v>66800</v>
-      </c>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr">
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>67300</v>
+      </c>
+      <c r="C129" t="n">
+        <v>67300</v>
+      </c>
+      <c r="D129" t="n">
+        <v>67300</v>
+      </c>
+      <c r="E129" t="n">
+        <v>67300</v>
+      </c>
+      <c r="F129" t="n">
+        <v>17.9147</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-65619.65652780677</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>67350</v>
-      </c>
-      <c r="C112" t="n">
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>67300</v>
+      </c>
+      <c r="C130" t="n">
+        <v>67000</v>
+      </c>
+      <c r="D130" t="n">
         <v>67450</v>
       </c>
-      <c r="D112" t="n">
-        <v>67450</v>
-      </c>
-      <c r="E112" t="n">
-        <v>67350</v>
-      </c>
-      <c r="F112" t="n">
-        <v>0.7587</v>
-      </c>
-      <c r="G112" t="n">
-        <v>67070</v>
-      </c>
-      <c r="H112" t="n">
-        <v>68047.5</v>
-      </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="n">
-        <v>66550</v>
-      </c>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr">
+      <c r="E130" t="n">
+        <v>67000</v>
+      </c>
+      <c r="F130" t="n">
+        <v>14.579</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-65634.23552780677</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>67300</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>67450</v>
-      </c>
-      <c r="C113" t="n">
-        <v>67500</v>
-      </c>
-      <c r="D113" t="n">
-        <v>67500</v>
-      </c>
-      <c r="E113" t="n">
-        <v>67450</v>
-      </c>
-      <c r="F113" t="n">
-        <v>15.6013</v>
-      </c>
-      <c r="G113" t="n">
-        <v>67073.33333333333</v>
-      </c>
-      <c r="H113" t="n">
-        <v>68025.83333333333</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr">
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>67200</v>
+      </c>
+      <c r="C131" t="n">
+        <v>66900</v>
+      </c>
+      <c r="D131" t="n">
+        <v>67200</v>
+      </c>
+      <c r="E131" t="n">
+        <v>66900</v>
+      </c>
+      <c r="F131" t="n">
+        <v>13.6046</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-65647.84012780678</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>67000</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>67300</v>
-      </c>
-      <c r="C114" t="n">
-        <v>67250</v>
-      </c>
-      <c r="D114" t="n">
-        <v>67300</v>
-      </c>
-      <c r="E114" t="n">
-        <v>67250</v>
-      </c>
-      <c r="F114" t="n">
-        <v>1.7349</v>
-      </c>
-      <c r="G114" t="n">
-        <v>67066.66666666667</v>
-      </c>
-      <c r="H114" t="n">
-        <v>68001.66666666667</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr">
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>67000</v>
+      </c>
+      <c r="C132" t="n">
+        <v>67000</v>
+      </c>
+      <c r="D132" t="n">
+        <v>67000</v>
+      </c>
+      <c r="E132" t="n">
+        <v>67000</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-65647.27212780678</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>66900</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>67150</v>
-      </c>
-      <c r="C115" t="n">
-        <v>67150</v>
-      </c>
-      <c r="D115" t="n">
-        <v>67150</v>
-      </c>
-      <c r="E115" t="n">
-        <v>67150</v>
-      </c>
-      <c r="F115" t="n">
-        <v>1.5424</v>
-      </c>
-      <c r="G115" t="n">
-        <v>67056.66666666667</v>
-      </c>
-      <c r="H115" t="n">
-        <v>67976.66666666667</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr">
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>66950</v>
+      </c>
+      <c r="C133" t="n">
+        <v>66950</v>
+      </c>
+      <c r="D133" t="n">
+        <v>66950</v>
+      </c>
+      <c r="E133" t="n">
+        <v>66950</v>
+      </c>
+      <c r="F133" t="n">
+        <v>2.2617</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-65649.53382780678</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>67000</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>67600</v>
-      </c>
-      <c r="C116" t="n">
-        <v>67600</v>
-      </c>
-      <c r="D116" t="n">
-        <v>67600</v>
-      </c>
-      <c r="E116" t="n">
-        <v>67600</v>
-      </c>
-      <c r="F116" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="G116" t="n">
-        <v>67096.66666666667</v>
-      </c>
-      <c r="H116" t="n">
-        <v>67959.16666666667</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr">
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>67000</v>
+      </c>
+      <c r="C134" t="n">
+        <v>67000</v>
+      </c>
+      <c r="D134" t="n">
+        <v>67000</v>
+      </c>
+      <c r="E134" t="n">
+        <v>67000</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.3194</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-65649.21442780679</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>66950</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>67500</v>
-      </c>
-      <c r="C117" t="n">
-        <v>67500</v>
-      </c>
-      <c r="D117" t="n">
-        <v>67500</v>
-      </c>
-      <c r="E117" t="n">
-        <v>67500</v>
-      </c>
-      <c r="F117" t="n">
-        <v>0.635</v>
-      </c>
-      <c r="G117" t="n">
-        <v>67136.66666666667</v>
-      </c>
-      <c r="H117" t="n">
-        <v>67940</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr">
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>66950</v>
+      </c>
+      <c r="C135" t="n">
+        <v>66950</v>
+      </c>
+      <c r="D135" t="n">
+        <v>66950</v>
+      </c>
+      <c r="E135" t="n">
+        <v>66950</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1.9556</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-65651.17002780679</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>67000</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>67500</v>
-      </c>
-      <c r="C118" t="n">
-        <v>67500</v>
-      </c>
-      <c r="D118" t="n">
-        <v>67500</v>
-      </c>
-      <c r="E118" t="n">
-        <v>67500</v>
-      </c>
-      <c r="F118" t="n">
-        <v>0.365</v>
-      </c>
-      <c r="G118" t="n">
-        <v>67170</v>
-      </c>
-      <c r="H118" t="n">
-        <v>67914.16666666667</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr">
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>66950</v>
+      </c>
+      <c r="C136" t="n">
+        <v>67000</v>
+      </c>
+      <c r="D136" t="n">
+        <v>67000</v>
+      </c>
+      <c r="E136" t="n">
+        <v>66700</v>
+      </c>
+      <c r="F136" t="n">
+        <v>131.3544</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-65519.81562780679</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>66950</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>67300</v>
-      </c>
-      <c r="C119" t="n">
-        <v>67300</v>
-      </c>
-      <c r="D119" t="n">
-        <v>67300</v>
-      </c>
-      <c r="E119" t="n">
-        <v>67300</v>
-      </c>
-      <c r="F119" t="n">
-        <v>5.065</v>
-      </c>
-      <c r="G119" t="n">
-        <v>67193.33333333333</v>
-      </c>
-      <c r="H119" t="n">
-        <v>67885</v>
-      </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="n">
-        <v>67500</v>
-      </c>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr">
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>67050</v>
+      </c>
+      <c r="C137" t="n">
+        <v>67350</v>
+      </c>
+      <c r="D137" t="n">
+        <v>67350</v>
+      </c>
+      <c r="E137" t="n">
+        <v>67050</v>
+      </c>
+      <c r="F137" t="n">
+        <v>99.1962</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-65420.61942780679</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>67000</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>67300</v>
-      </c>
-      <c r="C120" t="n">
-        <v>67300</v>
-      </c>
-      <c r="D120" t="n">
-        <v>67300</v>
-      </c>
-      <c r="E120" t="n">
-        <v>67300</v>
-      </c>
-      <c r="F120" t="n">
-        <v>34.421</v>
-      </c>
-      <c r="G120" t="n">
-        <v>67213.33333333333</v>
-      </c>
-      <c r="H120" t="n">
-        <v>67852.5</v>
-      </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" t="n">
-        <v>67300</v>
-      </c>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr">
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>67050</v>
+      </c>
+      <c r="C138" t="n">
+        <v>67000</v>
+      </c>
+      <c r="D138" t="n">
+        <v>67050</v>
+      </c>
+      <c r="E138" t="n">
+        <v>67000</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2.6841</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-65423.30352780679</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>67350</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>67300</v>
-      </c>
-      <c r="C121" t="n">
-        <v>67300</v>
-      </c>
-      <c r="D121" t="n">
-        <v>67300</v>
-      </c>
-      <c r="E121" t="n">
-        <v>67300</v>
-      </c>
-      <c r="F121" t="n">
-        <v>19.001</v>
-      </c>
-      <c r="G121" t="n">
-        <v>67236.66666666667</v>
-      </c>
-      <c r="H121" t="n">
-        <v>67826.66666666667</v>
-      </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
-      <c r="K121" t="n">
-        <v>67300</v>
-      </c>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr">
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>67000</v>
+      </c>
+      <c r="C139" t="n">
+        <v>66800</v>
+      </c>
+      <c r="D139" t="n">
+        <v>67000</v>
+      </c>
+      <c r="E139" t="n">
+        <v>66800</v>
+      </c>
+      <c r="F139" t="n">
+        <v>10.9048</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-65434.20832780679</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>67000</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>67300</v>
-      </c>
-      <c r="C122" t="n">
-        <v>67300</v>
-      </c>
-      <c r="D122" t="n">
-        <v>67300</v>
-      </c>
-      <c r="E122" t="n">
-        <v>67300</v>
-      </c>
-      <c r="F122" t="n">
-        <v>33.2212</v>
-      </c>
-      <c r="G122" t="n">
-        <v>67256.66666666667</v>
-      </c>
-      <c r="H122" t="n">
-        <v>67800.83333333333</v>
-      </c>
-      <c r="I122" t="n">
-        <v>1</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
-      <c r="K122" t="n">
-        <v>67300</v>
-      </c>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr">
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>67050</v>
+      </c>
+      <c r="C140" t="n">
+        <v>66550</v>
+      </c>
+      <c r="D140" t="n">
+        <v>67050</v>
+      </c>
+      <c r="E140" t="n">
+        <v>66550</v>
+      </c>
+      <c r="F140" t="n">
+        <v>50.9979</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-65485.20622780679</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>66800</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>67300</v>
-      </c>
-      <c r="C123" t="n">
-        <v>67400</v>
-      </c>
-      <c r="D123" t="n">
-        <v>67400</v>
-      </c>
-      <c r="E123" t="n">
-        <v>67300</v>
-      </c>
-      <c r="F123" t="n">
-        <v>20.7175</v>
-      </c>
-      <c r="G123" t="n">
-        <v>67260</v>
-      </c>
-      <c r="H123" t="n">
-        <v>67780</v>
-      </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
-      <c r="K123" t="n">
-        <v>67300</v>
-      </c>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr">
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>67350</v>
+      </c>
+      <c r="C141" t="n">
+        <v>67450</v>
+      </c>
+      <c r="D141" t="n">
+        <v>67450</v>
+      </c>
+      <c r="E141" t="n">
+        <v>67350</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.7587</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-65484.44752780679</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>66550</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>67400</v>
-      </c>
-      <c r="C124" t="n">
-        <v>67400</v>
-      </c>
-      <c r="D124" t="n">
-        <v>67400</v>
-      </c>
-      <c r="E124" t="n">
-        <v>67400</v>
-      </c>
-      <c r="F124" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="G124" t="n">
-        <v>67286.66666666667</v>
-      </c>
-      <c r="H124" t="n">
-        <v>67760.83333333333</v>
-      </c>
-      <c r="I124" t="n">
-        <v>1</v>
-      </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K124" t="n">
-        <v>67400</v>
-      </c>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr">
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>67450</v>
+      </c>
+      <c r="C142" t="n">
+        <v>67500</v>
+      </c>
+      <c r="D142" t="n">
+        <v>67500</v>
+      </c>
+      <c r="E142" t="n">
+        <v>67450</v>
+      </c>
+      <c r="F142" t="n">
+        <v>15.6013</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-65468.84622780679</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>67450</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N124" t="n">
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>67300</v>
+      </c>
+      <c r="C143" t="n">
+        <v>67250</v>
+      </c>
+      <c r="D143" t="n">
+        <v>67300</v>
+      </c>
+      <c r="E143" t="n">
+        <v>67250</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1.7349</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-65470.58112780679</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>67500</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>67150</v>
+      </c>
+      <c r="C144" t="n">
+        <v>67150</v>
+      </c>
+      <c r="D144" t="n">
+        <v>67150</v>
+      </c>
+      <c r="E144" t="n">
+        <v>67150</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1.5424</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-65472.12352780679</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>67250</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>67600</v>
+      </c>
+      <c r="C145" t="n">
+        <v>67600</v>
+      </c>
+      <c r="D145" t="n">
+        <v>67600</v>
+      </c>
+      <c r="E145" t="n">
+        <v>67600</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-65472.11552780679</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>67150</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>67500</v>
+      </c>
+      <c r="C146" t="n">
+        <v>67500</v>
+      </c>
+      <c r="D146" t="n">
+        <v>67500</v>
+      </c>
+      <c r="E146" t="n">
+        <v>67500</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-65472.75052780679</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>67600</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>67500</v>
+      </c>
+      <c r="C147" t="n">
+        <v>67500</v>
+      </c>
+      <c r="D147" t="n">
+        <v>67500</v>
+      </c>
+      <c r="E147" t="n">
+        <v>67500</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-65472.75052780679</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>67500</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>67300</v>
+      </c>
+      <c r="C148" t="n">
+        <v>67300</v>
+      </c>
+      <c r="D148" t="n">
+        <v>67300</v>
+      </c>
+      <c r="E148" t="n">
+        <v>67300</v>
+      </c>
+      <c r="F148" t="n">
+        <v>5.065</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-65477.81552780679</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>67500</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>67300</v>
+      </c>
+      <c r="C149" t="n">
+        <v>67300</v>
+      </c>
+      <c r="D149" t="n">
+        <v>67300</v>
+      </c>
+      <c r="E149" t="n">
+        <v>67300</v>
+      </c>
+      <c r="F149" t="n">
+        <v>34.421</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-65477.81552780679</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>67300</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>67300</v>
+      </c>
+      <c r="C150" t="n">
+        <v>67300</v>
+      </c>
+      <c r="D150" t="n">
+        <v>67300</v>
+      </c>
+      <c r="E150" t="n">
+        <v>67300</v>
+      </c>
+      <c r="F150" t="n">
+        <v>19.001</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-65477.81552780679</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>67300</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>67300</v>
+      </c>
+      <c r="C151" t="n">
+        <v>67300</v>
+      </c>
+      <c r="D151" t="n">
+        <v>67300</v>
+      </c>
+      <c r="E151" t="n">
+        <v>67300</v>
+      </c>
+      <c r="F151" t="n">
+        <v>33.2212</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-65477.81552780679</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>67300</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>67300</v>
+      </c>
+      <c r="C152" t="n">
+        <v>67400</v>
+      </c>
+      <c r="D152" t="n">
+        <v>67400</v>
+      </c>
+      <c r="E152" t="n">
+        <v>67300</v>
+      </c>
+      <c r="F152" t="n">
+        <v>20.7175</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-65457.09802780679</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>67300</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>67400</v>
+      </c>
+      <c r="C153" t="n">
+        <v>67400</v>
+      </c>
+      <c r="D153" t="n">
+        <v>67400</v>
+      </c>
+      <c r="E153" t="n">
+        <v>67400</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-65457.09802780679</v>
+      </c>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-15 BackTest XMR.xlsx
+++ b/BackTest/2020-01-15 BackTest XMR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M153"/>
+  <dimension ref="A1:N111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>66550</v>
+        <v>68200</v>
       </c>
       <c r="C2" t="n">
-        <v>66550</v>
+        <v>68750</v>
       </c>
       <c r="D2" t="n">
-        <v>66550</v>
+        <v>68750</v>
       </c>
       <c r="E2" t="n">
-        <v>66550</v>
+        <v>68200</v>
       </c>
       <c r="F2" t="n">
-        <v>12.3809</v>
+        <v>5.7254</v>
       </c>
       <c r="G2" t="n">
-        <v>-64707.79652953412</v>
+        <v>-64678.16959389866</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>66550</v>
+        <v>68250</v>
       </c>
       <c r="C3" t="n">
-        <v>66550</v>
+        <v>68200</v>
       </c>
       <c r="D3" t="n">
-        <v>66550</v>
+        <v>68250</v>
       </c>
       <c r="E3" t="n">
-        <v>66550</v>
+        <v>68200</v>
       </c>
       <c r="F3" t="n">
-        <v>26.434</v>
+        <v>21.9269</v>
       </c>
       <c r="G3" t="n">
-        <v>-64707.79652953412</v>
+        <v>-64700.09649389866</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>66550</v>
+        <v>68050</v>
       </c>
       <c r="C4" t="n">
-        <v>66900</v>
+        <v>68050</v>
       </c>
       <c r="D4" t="n">
-        <v>66900</v>
+        <v>68050</v>
       </c>
       <c r="E4" t="n">
-        <v>66550</v>
+        <v>68050</v>
       </c>
       <c r="F4" t="n">
-        <v>3.601</v>
+        <v>5.3422</v>
       </c>
       <c r="G4" t="n">
-        <v>-64704.19552953412</v>
+        <v>-64705.43869389866</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,468 +539,523 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>67300</v>
+        <v>67950</v>
       </c>
       <c r="C5" t="n">
-        <v>67300</v>
+        <v>67950</v>
       </c>
       <c r="D5" t="n">
-        <v>67300</v>
+        <v>67950</v>
       </c>
       <c r="E5" t="n">
-        <v>67300</v>
+        <v>67950</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6776</v>
+        <v>7.6908</v>
       </c>
       <c r="G5" t="n">
-        <v>-64703.51792953411</v>
+        <v>-64713.12949389865</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>66900</v>
-      </c>
-      <c r="K5" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>66700</v>
+        <v>67950</v>
       </c>
       <c r="C6" t="n">
-        <v>66700</v>
+        <v>67950</v>
       </c>
       <c r="D6" t="n">
-        <v>66700</v>
+        <v>67950</v>
       </c>
       <c r="E6" t="n">
-        <v>66700</v>
+        <v>67950</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1</v>
+        <v>25.8762</v>
       </c>
       <c r="G6" t="n">
-        <v>-64703.61792953411</v>
+        <v>-64713.12949389865</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>67300</v>
-      </c>
-      <c r="K6" t="n">
-        <v>66900</v>
-      </c>
-      <c r="L6" t="inlineStr">
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>67950</v>
+      </c>
+      <c r="C7" t="n">
+        <v>67950</v>
+      </c>
+      <c r="D7" t="n">
+        <v>67950</v>
+      </c>
+      <c r="E7" t="n">
+        <v>67950</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.159</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-64713.12949389865</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>67600</v>
+      </c>
+      <c r="C8" t="n">
+        <v>67600</v>
+      </c>
+      <c r="D8" t="n">
+        <v>67600</v>
+      </c>
+      <c r="E8" t="n">
+        <v>67600</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6.1384</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-64719.26789389866</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>67950</v>
+      </c>
+      <c r="K8" t="n">
+        <v>67950</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>67850</v>
+      </c>
+      <c r="C9" t="n">
+        <v>67850</v>
+      </c>
+      <c r="D9" t="n">
+        <v>67850</v>
+      </c>
+      <c r="E9" t="n">
+        <v>67850</v>
+      </c>
+      <c r="F9" t="n">
+        <v>39.6372</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-64679.63069389866</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>67600</v>
+      </c>
+      <c r="K9" t="n">
+        <v>67950</v>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>66700</v>
-      </c>
-      <c r="C7" t="n">
-        <v>66700</v>
-      </c>
-      <c r="D7" t="n">
-        <v>66700</v>
-      </c>
-      <c r="E7" t="n">
-        <v>66700</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-64703.61792953411</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>66700</v>
-      </c>
-      <c r="K7" t="n">
-        <v>66900</v>
-      </c>
-      <c r="L7" t="inlineStr">
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>67650</v>
+      </c>
+      <c r="C10" t="n">
+        <v>67650</v>
+      </c>
+      <c r="D10" t="n">
+        <v>67650</v>
+      </c>
+      <c r="E10" t="n">
+        <v>67650</v>
+      </c>
+      <c r="F10" t="n">
+        <v>69.06480000000001</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-64748.69549389866</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>67850</v>
+      </c>
+      <c r="K10" t="n">
+        <v>67950</v>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>67250</v>
-      </c>
-      <c r="C8" t="n">
-        <v>67250</v>
-      </c>
-      <c r="D8" t="n">
-        <v>67250</v>
-      </c>
-      <c r="E8" t="n">
-        <v>67250</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-64701.61792953411</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>67250</v>
-      </c>
-      <c r="C9" t="n">
-        <v>67250</v>
-      </c>
-      <c r="D9" t="n">
-        <v>67250</v>
-      </c>
-      <c r="E9" t="n">
-        <v>67250</v>
-      </c>
-      <c r="F9" t="n">
-        <v>7.1785</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-64701.61792953411</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>66850</v>
-      </c>
-      <c r="C10" t="n">
-        <v>66800</v>
-      </c>
-      <c r="D10" t="n">
-        <v>67250</v>
-      </c>
-      <c r="E10" t="n">
-        <v>66800</v>
-      </c>
-      <c r="F10" t="n">
-        <v>49.5821</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-64751.20002953411</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>66800</v>
+        <v>67700</v>
       </c>
       <c r="C11" t="n">
-        <v>66800</v>
+        <v>68550</v>
       </c>
       <c r="D11" t="n">
-        <v>66800</v>
+        <v>68550</v>
       </c>
       <c r="E11" t="n">
-        <v>66800</v>
+        <v>67700</v>
       </c>
       <c r="F11" t="n">
-        <v>15.7226</v>
+        <v>27.7966</v>
       </c>
       <c r="G11" t="n">
-        <v>-64751.20002953411</v>
+        <v>-64720.89889389866</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>67650</v>
+      </c>
+      <c r="K11" t="n">
+        <v>67650</v>
+      </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>66850</v>
+        <v>67750</v>
       </c>
       <c r="C12" t="n">
-        <v>66850</v>
+        <v>67700</v>
       </c>
       <c r="D12" t="n">
-        <v>66850</v>
+        <v>67750</v>
       </c>
       <c r="E12" t="n">
-        <v>66800</v>
+        <v>67700</v>
       </c>
       <c r="F12" t="n">
-        <v>14.3533</v>
+        <v>55.5391</v>
       </c>
       <c r="G12" t="n">
-        <v>-64736.84672953411</v>
+        <v>-64776.43799389866</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>68550</v>
+      </c>
+      <c r="K12" t="n">
+        <v>67650</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>67050</v>
+        <v>67650</v>
       </c>
       <c r="C13" t="n">
-        <v>67050</v>
+        <v>68450</v>
       </c>
       <c r="D13" t="n">
-        <v>67050</v>
+        <v>68450</v>
       </c>
       <c r="E13" t="n">
-        <v>67050</v>
+        <v>67600</v>
       </c>
       <c r="F13" t="n">
-        <v>1.1256</v>
+        <v>9.369799123447001</v>
       </c>
       <c r="G13" t="n">
-        <v>-64735.72112953411</v>
+        <v>-64767.06819477522</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>67700</v>
+      </c>
+      <c r="K13" t="n">
+        <v>67650</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>67200</v>
+        <v>68450</v>
       </c>
       <c r="C14" t="n">
-        <v>67750</v>
+        <v>68450</v>
       </c>
       <c r="D14" t="n">
-        <v>67750</v>
+        <v>68450</v>
       </c>
       <c r="E14" t="n">
-        <v>67200</v>
+        <v>68450</v>
       </c>
       <c r="F14" t="n">
-        <v>69.06486354243501</v>
+        <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>-64666.65626599167</v>
+        <v>-64767.06819477522</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>68450</v>
+      </c>
+      <c r="K14" t="n">
+        <v>67650</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>67600</v>
+        <v>68450</v>
       </c>
       <c r="C15" t="n">
-        <v>67600</v>
+        <v>68450</v>
       </c>
       <c r="D15" t="n">
-        <v>67600</v>
+        <v>68450</v>
       </c>
       <c r="E15" t="n">
-        <v>67600</v>
+        <v>68450</v>
       </c>
       <c r="F15" t="n">
-        <v>20.6117</v>
+        <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>-64687.26796599168</v>
+        <v>-64767.06819477522</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>68450</v>
+      </c>
+      <c r="K15" t="n">
+        <v>67650</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>67600</v>
+        <v>67850</v>
       </c>
       <c r="C16" t="n">
-        <v>67600</v>
+        <v>68250</v>
       </c>
       <c r="D16" t="n">
-        <v>67600</v>
+        <v>68250</v>
       </c>
       <c r="E16" t="n">
-        <v>67600</v>
+        <v>67850</v>
       </c>
       <c r="F16" t="n">
-        <v>4.623</v>
+        <v>35</v>
       </c>
       <c r="G16" t="n">
-        <v>-64687.26796599168</v>
+        <v>-64802.06819477522</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>67650</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>67600</v>
+        <v>68250</v>
       </c>
       <c r="C17" t="n">
-        <v>67600</v>
+        <v>68250</v>
       </c>
       <c r="D17" t="n">
-        <v>67600</v>
+        <v>68250</v>
       </c>
       <c r="E17" t="n">
-        <v>67600</v>
+        <v>68250</v>
       </c>
       <c r="F17" t="n">
-        <v>33.1736</v>
+        <v>15.1627</v>
       </c>
       <c r="G17" t="n">
-        <v>-64687.26796599168</v>
+        <v>-64802.06819477522</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1002,33 +1064,40 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>67650</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>68000</v>
+        <v>68800</v>
       </c>
       <c r="C18" t="n">
-        <v>68000</v>
+        <v>68800</v>
       </c>
       <c r="D18" t="n">
-        <v>68000</v>
+        <v>68800</v>
       </c>
       <c r="E18" t="n">
-        <v>68000</v>
+        <v>68800</v>
       </c>
       <c r="F18" t="n">
-        <v>20</v>
+        <v>0.1</v>
       </c>
       <c r="G18" t="n">
-        <v>-64667.26796599168</v>
+        <v>-64801.96819477522</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1037,33 +1106,40 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>67650</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>68000</v>
+        <v>68800</v>
       </c>
       <c r="C19" t="n">
-        <v>68000</v>
+        <v>68800</v>
       </c>
       <c r="D19" t="n">
-        <v>68000</v>
+        <v>68800</v>
       </c>
       <c r="E19" t="n">
-        <v>68000</v>
+        <v>68800</v>
       </c>
       <c r="F19" t="n">
-        <v>7</v>
+        <v>0.3291</v>
       </c>
       <c r="G19" t="n">
-        <v>-64667.26796599168</v>
+        <v>-64801.96819477522</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1072,33 +1148,40 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>67650</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>68000</v>
+        <v>68200</v>
       </c>
       <c r="C20" t="n">
-        <v>68000</v>
+        <v>68200</v>
       </c>
       <c r="D20" t="n">
-        <v>68000</v>
+        <v>68200</v>
       </c>
       <c r="E20" t="n">
-        <v>68000</v>
+        <v>68200</v>
       </c>
       <c r="F20" t="n">
-        <v>53.0456</v>
+        <v>2.2384</v>
       </c>
       <c r="G20" t="n">
-        <v>-64667.26796599168</v>
+        <v>-64804.20659477522</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1107,33 +1190,40 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>67650</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>68000</v>
+        <v>68750</v>
       </c>
       <c r="C21" t="n">
-        <v>68000</v>
+        <v>68750</v>
       </c>
       <c r="D21" t="n">
-        <v>68000</v>
+        <v>68750</v>
       </c>
       <c r="E21" t="n">
-        <v>68000</v>
+        <v>68750</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1694</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>-64667.26796599168</v>
+        <v>-64802.20659477522</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1142,33 +1232,40 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>67650</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>67600</v>
+        <v>68200</v>
       </c>
       <c r="C22" t="n">
-        <v>67600</v>
+        <v>68200</v>
       </c>
       <c r="D22" t="n">
-        <v>67600</v>
+        <v>69300</v>
       </c>
       <c r="E22" t="n">
-        <v>67600</v>
+        <v>68200</v>
       </c>
       <c r="F22" t="n">
-        <v>23.6878</v>
+        <v>675.8249</v>
       </c>
       <c r="G22" t="n">
-        <v>-64690.95576599168</v>
+        <v>-65478.03149477522</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1177,33 +1274,40 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>67650</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>67450</v>
+        <v>69300</v>
       </c>
       <c r="C23" t="n">
-        <v>67750</v>
+        <v>69300</v>
       </c>
       <c r="D23" t="n">
-        <v>67750</v>
+        <v>69300</v>
       </c>
       <c r="E23" t="n">
-        <v>67450</v>
+        <v>69300</v>
       </c>
       <c r="F23" t="n">
-        <v>11.7366</v>
+        <v>0.048095238095</v>
       </c>
       <c r="G23" t="n">
-        <v>-64679.21916599168</v>
+        <v>-65477.98339953712</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1212,74 +1316,88 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>67650</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>67750</v>
+        <v>68850</v>
       </c>
       <c r="C24" t="n">
-        <v>67750</v>
+        <v>68850</v>
       </c>
       <c r="D24" t="n">
-        <v>67750</v>
+        <v>68850</v>
       </c>
       <c r="E24" t="n">
-        <v>67750</v>
+        <v>68850</v>
       </c>
       <c r="F24" t="n">
-        <v>1.0632</v>
+        <v>1.4775</v>
       </c>
       <c r="G24" t="n">
-        <v>-64679.21916599168</v>
+        <v>-65479.46089953712</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>67650</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M24" t="n">
-        <v>1</v>
-      </c>
+        <v>1.012738359201774</v>
+      </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>67750</v>
+        <v>68750</v>
       </c>
       <c r="C25" t="n">
-        <v>67800</v>
+        <v>68750</v>
       </c>
       <c r="D25" t="n">
-        <v>67800</v>
+        <v>68750</v>
       </c>
       <c r="E25" t="n">
-        <v>67750</v>
+        <v>68750</v>
       </c>
       <c r="F25" t="n">
-        <v>16.9001</v>
+        <v>1.4844</v>
       </c>
       <c r="G25" t="n">
-        <v>-64662.31906599168</v>
+        <v>-65480.94529953712</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1287,34 +1405,35 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>67800</v>
+        <v>68100</v>
       </c>
       <c r="C26" t="n">
-        <v>68200</v>
+        <v>68100</v>
       </c>
       <c r="D26" t="n">
-        <v>68200</v>
+        <v>68100</v>
       </c>
       <c r="E26" t="n">
-        <v>67800</v>
+        <v>68100</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4601</v>
+        <v>0.15</v>
       </c>
       <c r="G26" t="n">
-        <v>-64661.85896599168</v>
+        <v>-65481.09529953713</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1322,34 +1441,35 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>68200</v>
+        <v>68850</v>
       </c>
       <c r="C27" t="n">
-        <v>68400</v>
+        <v>68900</v>
       </c>
       <c r="D27" t="n">
-        <v>68400</v>
+        <v>68900</v>
       </c>
       <c r="E27" t="n">
-        <v>68200</v>
+        <v>68850</v>
       </c>
       <c r="F27" t="n">
-        <v>5.1585</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>-64656.70046599169</v>
+        <v>-65479.09529953713</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1357,34 +1477,35 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>68400</v>
+        <v>68250</v>
       </c>
       <c r="C28" t="n">
-        <v>68550</v>
+        <v>68300</v>
       </c>
       <c r="D28" t="n">
-        <v>68550</v>
+        <v>68300</v>
       </c>
       <c r="E28" t="n">
-        <v>68400</v>
+        <v>68250</v>
       </c>
       <c r="F28" t="n">
-        <v>10.212</v>
+        <v>33.4959</v>
       </c>
       <c r="G28" t="n">
-        <v>-64646.48846599169</v>
+        <v>-65512.59119953713</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1392,34 +1513,35 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>68550</v>
+        <v>68100</v>
       </c>
       <c r="C29" t="n">
-        <v>68600</v>
+        <v>68100</v>
       </c>
       <c r="D29" t="n">
-        <v>68600</v>
+        <v>68100</v>
       </c>
       <c r="E29" t="n">
-        <v>68550</v>
+        <v>68050</v>
       </c>
       <c r="F29" t="n">
-        <v>0.5114</v>
+        <v>1.2687</v>
       </c>
       <c r="G29" t="n">
-        <v>-64645.97706599168</v>
+        <v>-65513.85989953713</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1427,34 +1549,35 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>68800</v>
+        <v>68100</v>
       </c>
       <c r="C30" t="n">
-        <v>68800</v>
+        <v>68100</v>
       </c>
       <c r="D30" t="n">
-        <v>68800</v>
+        <v>68100</v>
       </c>
       <c r="E30" t="n">
-        <v>68800</v>
+        <v>68100</v>
       </c>
       <c r="F30" t="n">
-        <v>9.928900000000001</v>
+        <v>10</v>
       </c>
       <c r="G30" t="n">
-        <v>-64636.04816599168</v>
+        <v>-65513.85989953713</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1462,28 +1585,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>68650</v>
+        <v>68150</v>
       </c>
       <c r="C31" t="n">
-        <v>68600</v>
+        <v>68150</v>
       </c>
       <c r="D31" t="n">
-        <v>68650</v>
+        <v>68150</v>
       </c>
       <c r="E31" t="n">
-        <v>68600</v>
+        <v>68150</v>
       </c>
       <c r="F31" t="n">
-        <v>30</v>
+        <v>10.15</v>
       </c>
       <c r="G31" t="n">
-        <v>-64666.04816599168</v>
+        <v>-65503.70989953713</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1497,28 +1621,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>68650</v>
+        <v>68500</v>
       </c>
       <c r="C32" t="n">
-        <v>68200</v>
+        <v>68500</v>
       </c>
       <c r="D32" t="n">
-        <v>68650</v>
+        <v>68500</v>
       </c>
       <c r="E32" t="n">
-        <v>68200</v>
+        <v>68500</v>
       </c>
       <c r="F32" t="n">
-        <v>27.8369</v>
+        <v>3.8829</v>
       </c>
       <c r="G32" t="n">
-        <v>-64693.88506599169</v>
+        <v>-65499.82699953713</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1532,34 +1657,35 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>68200</v>
+        <v>69100</v>
       </c>
       <c r="C33" t="n">
-        <v>68600</v>
+        <v>69100</v>
       </c>
       <c r="D33" t="n">
-        <v>68600</v>
+        <v>69100</v>
       </c>
       <c r="E33" t="n">
-        <v>68200</v>
+        <v>69100</v>
       </c>
       <c r="F33" t="n">
-        <v>31.1859</v>
+        <v>0.1</v>
       </c>
       <c r="G33" t="n">
-        <v>-64662.69916599169</v>
+        <v>-65499.72699953713</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1567,34 +1693,35 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>68200</v>
+        <v>69100</v>
       </c>
       <c r="C34" t="n">
-        <v>68200</v>
+        <v>69100</v>
       </c>
       <c r="D34" t="n">
-        <v>68200</v>
+        <v>69100</v>
       </c>
       <c r="E34" t="n">
-        <v>68200</v>
+        <v>69100</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2443</v>
+        <v>12.0498</v>
       </c>
       <c r="G34" t="n">
-        <v>-64662.94346599169</v>
+        <v>-65499.72699953713</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1602,34 +1729,35 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>68600</v>
+        <v>69100</v>
       </c>
       <c r="C35" t="n">
-        <v>68600</v>
+        <v>69100</v>
       </c>
       <c r="D35" t="n">
-        <v>68600</v>
+        <v>69100</v>
       </c>
       <c r="E35" t="n">
-        <v>68600</v>
+        <v>69100</v>
       </c>
       <c r="F35" t="n">
-        <v>6.6803</v>
+        <v>10.9048</v>
       </c>
       <c r="G35" t="n">
-        <v>-64656.26316599169</v>
+        <v>-65499.72699953713</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1637,34 +1765,35 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>68600</v>
+        <v>68700</v>
       </c>
       <c r="C36" t="n">
-        <v>68800</v>
+        <v>68700</v>
       </c>
       <c r="D36" t="n">
-        <v>68800</v>
+        <v>68700</v>
       </c>
       <c r="E36" t="n">
-        <v>68600</v>
+        <v>68700</v>
       </c>
       <c r="F36" t="n">
-        <v>26.8106</v>
+        <v>1.5886</v>
       </c>
       <c r="G36" t="n">
-        <v>-64629.45256599169</v>
+        <v>-65501.31559953713</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1672,34 +1801,35 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>68350</v>
+        <v>69100</v>
       </c>
       <c r="C37" t="n">
-        <v>68350</v>
+        <v>69300</v>
       </c>
       <c r="D37" t="n">
-        <v>68350</v>
+        <v>69300</v>
       </c>
       <c r="E37" t="n">
-        <v>68300</v>
+        <v>69100</v>
       </c>
       <c r="F37" t="n">
-        <v>24.613</v>
+        <v>0.58</v>
       </c>
       <c r="G37" t="n">
-        <v>-64654.06556599169</v>
+        <v>-65500.73559953713</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1707,34 +1837,35 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>68350</v>
+        <v>69300</v>
       </c>
       <c r="C38" t="n">
-        <v>68350</v>
+        <v>68650</v>
       </c>
       <c r="D38" t="n">
-        <v>68350</v>
+        <v>69300</v>
       </c>
       <c r="E38" t="n">
-        <v>68350</v>
+        <v>68650</v>
       </c>
       <c r="F38" t="n">
-        <v>5.2833</v>
+        <v>51.8525</v>
       </c>
       <c r="G38" t="n">
-        <v>-64654.06556599169</v>
+        <v>-65552.58809953713</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1742,34 +1873,35 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>68800</v>
+        <v>69350</v>
       </c>
       <c r="C39" t="n">
-        <v>68800</v>
+        <v>69350</v>
       </c>
       <c r="D39" t="n">
-        <v>68800</v>
+        <v>69350</v>
       </c>
       <c r="E39" t="n">
-        <v>68800</v>
+        <v>69350</v>
       </c>
       <c r="F39" t="n">
-        <v>2.238372093023</v>
+        <v>0.1</v>
       </c>
       <c r="G39" t="n">
-        <v>-64651.82719389867</v>
+        <v>-65552.48809953712</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1777,6 +1909,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1795,16 +1928,16 @@
         <v>68800</v>
       </c>
       <c r="F40" t="n">
-        <v>1.103</v>
+        <v>10.0746</v>
       </c>
       <c r="G40" t="n">
-        <v>-64651.82719389867</v>
+        <v>-65562.56269953713</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1812,34 +1945,35 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>68350</v>
+        <v>68800</v>
       </c>
       <c r="C41" t="n">
-        <v>68300</v>
+        <v>68700</v>
       </c>
       <c r="D41" t="n">
-        <v>68350</v>
+        <v>68800</v>
       </c>
       <c r="E41" t="n">
-        <v>68300</v>
+        <v>68700</v>
       </c>
       <c r="F41" t="n">
-        <v>3.025</v>
+        <v>25.8318</v>
       </c>
       <c r="G41" t="n">
-        <v>-64654.85219389867</v>
+        <v>-65588.39449953713</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1847,34 +1981,35 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>68300</v>
+        <v>68700</v>
       </c>
       <c r="C42" t="n">
-        <v>68250</v>
+        <v>68650</v>
       </c>
       <c r="D42" t="n">
-        <v>68300</v>
+        <v>68700</v>
       </c>
       <c r="E42" t="n">
-        <v>68250</v>
+        <v>68650</v>
       </c>
       <c r="F42" t="n">
-        <v>13.8716</v>
+        <v>21.2812</v>
       </c>
       <c r="G42" t="n">
-        <v>-64668.72379389867</v>
+        <v>-65609.67569953713</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1882,34 +2017,35 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>68250</v>
+        <v>68650</v>
       </c>
       <c r="C43" t="n">
-        <v>68200</v>
+        <v>68650</v>
       </c>
       <c r="D43" t="n">
-        <v>68250</v>
+        <v>68650</v>
       </c>
       <c r="E43" t="n">
-        <v>68200</v>
+        <v>68650</v>
       </c>
       <c r="F43" t="n">
-        <v>15.1712</v>
+        <v>6.6387</v>
       </c>
       <c r="G43" t="n">
-        <v>-64683.89499389866</v>
+        <v>-65609.67569953713</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1917,34 +2053,35 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>68200</v>
+        <v>68650</v>
       </c>
       <c r="C44" t="n">
-        <v>68750</v>
+        <v>68650</v>
       </c>
       <c r="D44" t="n">
-        <v>68750</v>
+        <v>68650</v>
       </c>
       <c r="E44" t="n">
-        <v>68200</v>
+        <v>68650</v>
       </c>
       <c r="F44" t="n">
-        <v>5.7254</v>
+        <v>4</v>
       </c>
       <c r="G44" t="n">
-        <v>-64678.16959389866</v>
+        <v>-65609.67569953713</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -1952,34 +2089,35 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>68250</v>
+        <v>69150</v>
       </c>
       <c r="C45" t="n">
-        <v>68200</v>
+        <v>69050</v>
       </c>
       <c r="D45" t="n">
-        <v>68250</v>
+        <v>69150</v>
       </c>
       <c r="E45" t="n">
-        <v>68200</v>
+        <v>69050</v>
       </c>
       <c r="F45" t="n">
-        <v>21.9269</v>
+        <v>1.1255</v>
       </c>
       <c r="G45" t="n">
-        <v>-64700.09649389866</v>
+        <v>-65608.55019953713</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -1987,34 +2125,35 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>68050</v>
+        <v>69050</v>
       </c>
       <c r="C46" t="n">
-        <v>68050</v>
+        <v>69050</v>
       </c>
       <c r="D46" t="n">
-        <v>68050</v>
+        <v>69050</v>
       </c>
       <c r="E46" t="n">
-        <v>68050</v>
+        <v>69050</v>
       </c>
       <c r="F46" t="n">
-        <v>5.3422</v>
+        <v>0.1449</v>
       </c>
       <c r="G46" t="n">
-        <v>-64705.43869389866</v>
+        <v>-65608.55019953713</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2022,34 +2161,35 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>67950</v>
+        <v>69050</v>
       </c>
       <c r="C47" t="n">
-        <v>67950</v>
+        <v>69250</v>
       </c>
       <c r="D47" t="n">
-        <v>67950</v>
+        <v>69250</v>
       </c>
       <c r="E47" t="n">
-        <v>67950</v>
+        <v>69050</v>
       </c>
       <c r="F47" t="n">
-        <v>7.6908</v>
+        <v>27.932855451263</v>
       </c>
       <c r="G47" t="n">
-        <v>-64713.12949389865</v>
+        <v>-65580.61734408587</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2057,34 +2197,35 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>67950</v>
+        <v>68850</v>
       </c>
       <c r="C48" t="n">
-        <v>67950</v>
+        <v>68850</v>
       </c>
       <c r="D48" t="n">
-        <v>67950</v>
+        <v>68850</v>
       </c>
       <c r="E48" t="n">
-        <v>67950</v>
+        <v>68850</v>
       </c>
       <c r="F48" t="n">
-        <v>25.8762</v>
+        <v>1.5</v>
       </c>
       <c r="G48" t="n">
-        <v>-64713.12949389865</v>
+        <v>-65582.11734408587</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2092,34 +2233,35 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>67950</v>
+        <v>69150</v>
       </c>
       <c r="C49" t="n">
-        <v>67950</v>
+        <v>68850</v>
       </c>
       <c r="D49" t="n">
-        <v>67950</v>
+        <v>69150</v>
       </c>
       <c r="E49" t="n">
-        <v>67950</v>
+        <v>68800</v>
       </c>
       <c r="F49" t="n">
-        <v>1.159</v>
+        <v>19.218843673174</v>
       </c>
       <c r="G49" t="n">
-        <v>-64713.12949389865</v>
+        <v>-65582.11734408587</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2127,34 +2269,35 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>67600</v>
+        <v>68800</v>
       </c>
       <c r="C50" t="n">
-        <v>67600</v>
+        <v>68650</v>
       </c>
       <c r="D50" t="n">
-        <v>67600</v>
+        <v>68800</v>
       </c>
       <c r="E50" t="n">
-        <v>67600</v>
+        <v>68650</v>
       </c>
       <c r="F50" t="n">
-        <v>6.1384</v>
+        <v>36.915769767441</v>
       </c>
       <c r="G50" t="n">
-        <v>-64719.26789389866</v>
+        <v>-65619.03311385331</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2162,34 +2305,35 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>67850</v>
+        <v>68600</v>
       </c>
       <c r="C51" t="n">
-        <v>67850</v>
+        <v>68550</v>
       </c>
       <c r="D51" t="n">
-        <v>67850</v>
+        <v>68600</v>
       </c>
       <c r="E51" t="n">
-        <v>67850</v>
+        <v>68550</v>
       </c>
       <c r="F51" t="n">
-        <v>39.6372</v>
+        <v>36.8866</v>
       </c>
       <c r="G51" t="n">
-        <v>-64679.63069389866</v>
+        <v>-65655.91971385331</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2197,34 +2341,35 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>67650</v>
+        <v>68450</v>
       </c>
       <c r="C52" t="n">
-        <v>67650</v>
+        <v>68550</v>
       </c>
       <c r="D52" t="n">
-        <v>67650</v>
+        <v>68550</v>
       </c>
       <c r="E52" t="n">
-        <v>67650</v>
+        <v>68400</v>
       </c>
       <c r="F52" t="n">
-        <v>69.06480000000001</v>
+        <v>1.4582</v>
       </c>
       <c r="G52" t="n">
-        <v>-64748.69549389866</v>
+        <v>-65655.91971385331</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2232,34 +2377,35 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>67700</v>
+        <v>68300</v>
       </c>
       <c r="C53" t="n">
-        <v>68550</v>
+        <v>68300</v>
       </c>
       <c r="D53" t="n">
-        <v>68550</v>
+        <v>68300</v>
       </c>
       <c r="E53" t="n">
-        <v>67700</v>
+        <v>68300</v>
       </c>
       <c r="F53" t="n">
-        <v>27.7966</v>
+        <v>0.2921</v>
       </c>
       <c r="G53" t="n">
-        <v>-64720.89889389866</v>
+        <v>-65656.21181385331</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2267,28 +2413,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>67750</v>
+        <v>68950</v>
       </c>
       <c r="C54" t="n">
-        <v>67700</v>
+        <v>69050</v>
       </c>
       <c r="D54" t="n">
-        <v>67750</v>
+        <v>69050</v>
       </c>
       <c r="E54" t="n">
-        <v>67700</v>
+        <v>68950</v>
       </c>
       <c r="F54" t="n">
-        <v>55.5391</v>
+        <v>3.8975</v>
       </c>
       <c r="G54" t="n">
-        <v>-64776.43799389866</v>
+        <v>-65652.31431385331</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2302,34 +2449,35 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>67650</v>
+        <v>69050</v>
       </c>
       <c r="C55" t="n">
-        <v>68450</v>
+        <v>69150</v>
       </c>
       <c r="D55" t="n">
-        <v>68450</v>
+        <v>69150</v>
       </c>
       <c r="E55" t="n">
-        <v>67600</v>
+        <v>69050</v>
       </c>
       <c r="F55" t="n">
-        <v>9.369799123447001</v>
+        <v>8.6714</v>
       </c>
       <c r="G55" t="n">
-        <v>-64767.06819477522</v>
+        <v>-65643.6429138533</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2337,34 +2485,35 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>68450</v>
+        <v>69050</v>
       </c>
       <c r="C56" t="n">
-        <v>68450</v>
+        <v>69050</v>
       </c>
       <c r="D56" t="n">
-        <v>68450</v>
+        <v>69050</v>
       </c>
       <c r="E56" t="n">
-        <v>68450</v>
+        <v>69050</v>
       </c>
       <c r="F56" t="n">
-        <v>10</v>
+        <v>7.4565</v>
       </c>
       <c r="G56" t="n">
-        <v>-64767.06819477522</v>
+        <v>-65651.0994138533</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2372,34 +2521,35 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>68450</v>
+        <v>69050</v>
       </c>
       <c r="C57" t="n">
-        <v>68450</v>
+        <v>69050</v>
       </c>
       <c r="D57" t="n">
-        <v>68450</v>
+        <v>69050</v>
       </c>
       <c r="E57" t="n">
-        <v>68450</v>
+        <v>69050</v>
       </c>
       <c r="F57" t="n">
-        <v>10</v>
+        <v>1.6374</v>
       </c>
       <c r="G57" t="n">
-        <v>-64767.06819477522</v>
+        <v>-65651.0994138533</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2407,34 +2557,35 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>67850</v>
+        <v>68850</v>
       </c>
       <c r="C58" t="n">
-        <v>68250</v>
+        <v>68850</v>
       </c>
       <c r="D58" t="n">
-        <v>68250</v>
+        <v>68850</v>
       </c>
       <c r="E58" t="n">
-        <v>67850</v>
+        <v>68850</v>
       </c>
       <c r="F58" t="n">
-        <v>35</v>
+        <v>8.1759</v>
       </c>
       <c r="G58" t="n">
-        <v>-64802.06819477522</v>
+        <v>-65659.2753138533</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2442,34 +2593,35 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>68250</v>
+        <v>68850</v>
       </c>
       <c r="C59" t="n">
-        <v>68250</v>
+        <v>68850</v>
       </c>
       <c r="D59" t="n">
-        <v>68250</v>
+        <v>68850</v>
       </c>
       <c r="E59" t="n">
-        <v>68250</v>
+        <v>68850</v>
       </c>
       <c r="F59" t="n">
-        <v>15.1627</v>
+        <v>3.0424</v>
       </c>
       <c r="G59" t="n">
-        <v>-64802.06819477522</v>
+        <v>-65659.2753138533</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2477,34 +2629,35 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>68800</v>
+        <v>68850</v>
       </c>
       <c r="C60" t="n">
-        <v>68800</v>
+        <v>68850</v>
       </c>
       <c r="D60" t="n">
-        <v>68800</v>
+        <v>68850</v>
       </c>
       <c r="E60" t="n">
-        <v>68800</v>
+        <v>68850</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1</v>
+        <v>24.023</v>
       </c>
       <c r="G60" t="n">
-        <v>-64801.96819477522</v>
+        <v>-65659.2753138533</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2512,34 +2665,35 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>68800</v>
+        <v>68300</v>
       </c>
       <c r="C61" t="n">
-        <v>68800</v>
+        <v>68300</v>
       </c>
       <c r="D61" t="n">
-        <v>68800</v>
+        <v>68300</v>
       </c>
       <c r="E61" t="n">
-        <v>68800</v>
+        <v>68300</v>
       </c>
       <c r="F61" t="n">
-        <v>0.3291</v>
+        <v>7.4565</v>
       </c>
       <c r="G61" t="n">
-        <v>-64801.96819477522</v>
+        <v>-65666.7318138533</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2547,34 +2701,35 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>68200</v>
+        <v>68300</v>
       </c>
       <c r="C62" t="n">
-        <v>68200</v>
+        <v>68300</v>
       </c>
       <c r="D62" t="n">
-        <v>68200</v>
+        <v>68300</v>
       </c>
       <c r="E62" t="n">
-        <v>68200</v>
+        <v>68300</v>
       </c>
       <c r="F62" t="n">
-        <v>2.2384</v>
+        <v>57.6597</v>
       </c>
       <c r="G62" t="n">
-        <v>-64804.20659477522</v>
+        <v>-65666.7318138533</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2582,34 +2737,35 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>68750</v>
+        <v>68950</v>
       </c>
       <c r="C63" t="n">
-        <v>68750</v>
+        <v>68950</v>
       </c>
       <c r="D63" t="n">
-        <v>68750</v>
+        <v>68950</v>
       </c>
       <c r="E63" t="n">
-        <v>68750</v>
+        <v>68950</v>
       </c>
       <c r="F63" t="n">
-        <v>2</v>
+        <v>0.1859</v>
       </c>
       <c r="G63" t="n">
-        <v>-64802.20659477522</v>
+        <v>-65666.5459138533</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2617,34 +2773,35 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>68200</v>
+        <v>68050</v>
       </c>
       <c r="C64" t="n">
-        <v>68200</v>
+        <v>68050</v>
       </c>
       <c r="D64" t="n">
-        <v>69300</v>
+        <v>68050</v>
       </c>
       <c r="E64" t="n">
-        <v>68200</v>
+        <v>68050</v>
       </c>
       <c r="F64" t="n">
-        <v>675.8249</v>
+        <v>0.1859</v>
       </c>
       <c r="G64" t="n">
-        <v>-65478.03149477522</v>
+        <v>-65666.7318138533</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2652,34 +2809,35 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>69300</v>
+        <v>68800</v>
       </c>
       <c r="C65" t="n">
-        <v>69300</v>
+        <v>68800</v>
       </c>
       <c r="D65" t="n">
-        <v>69300</v>
+        <v>68800</v>
       </c>
       <c r="E65" t="n">
-        <v>69300</v>
+        <v>68800</v>
       </c>
       <c r="F65" t="n">
-        <v>0.048095238095</v>
+        <v>0.129186046511</v>
       </c>
       <c r="G65" t="n">
-        <v>-65477.98339953712</v>
+        <v>-65666.60262780679</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -2687,34 +2845,35 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>68850</v>
+        <v>68700</v>
       </c>
       <c r="C66" t="n">
-        <v>68850</v>
+        <v>68700</v>
       </c>
       <c r="D66" t="n">
-        <v>68850</v>
+        <v>68700</v>
       </c>
       <c r="E66" t="n">
-        <v>68850</v>
+        <v>68700</v>
       </c>
       <c r="F66" t="n">
-        <v>1.4775</v>
+        <v>5</v>
       </c>
       <c r="G66" t="n">
-        <v>-65479.46089953712</v>
+        <v>-65671.60262780679</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -2722,34 +2881,35 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>68750</v>
+        <v>68800</v>
       </c>
       <c r="C67" t="n">
-        <v>68750</v>
+        <v>68800</v>
       </c>
       <c r="D67" t="n">
-        <v>68750</v>
+        <v>68800</v>
       </c>
       <c r="E67" t="n">
-        <v>68750</v>
+        <v>68800</v>
       </c>
       <c r="F67" t="n">
-        <v>1.4844</v>
+        <v>2.7547</v>
       </c>
       <c r="G67" t="n">
-        <v>-65480.94529953712</v>
+        <v>-65668.84792780678</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -2757,28 +2917,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>68100</v>
+        <v>68450</v>
       </c>
       <c r="C68" t="n">
-        <v>68100</v>
+        <v>68450</v>
       </c>
       <c r="D68" t="n">
-        <v>68100</v>
+        <v>68450</v>
       </c>
       <c r="E68" t="n">
-        <v>68100</v>
+        <v>68450</v>
       </c>
       <c r="F68" t="n">
-        <v>0.15</v>
+        <v>1.3567</v>
       </c>
       <c r="G68" t="n">
-        <v>-65481.09529953713</v>
+        <v>-65670.20462780679</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2792,34 +2953,35 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>68850</v>
+        <v>68350</v>
       </c>
       <c r="C69" t="n">
-        <v>68900</v>
+        <v>68300</v>
       </c>
       <c r="D69" t="n">
-        <v>68900</v>
+        <v>68350</v>
       </c>
       <c r="E69" t="n">
-        <v>68850</v>
+        <v>68300</v>
       </c>
       <c r="F69" t="n">
-        <v>2</v>
+        <v>39.9127</v>
       </c>
       <c r="G69" t="n">
-        <v>-65479.09529953713</v>
+        <v>-65710.11732780679</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -2827,34 +2989,35 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>68250</v>
+        <v>68500</v>
       </c>
       <c r="C70" t="n">
-        <v>68300</v>
+        <v>68100</v>
       </c>
       <c r="D70" t="n">
-        <v>68300</v>
+        <v>68500</v>
       </c>
       <c r="E70" t="n">
-        <v>68250</v>
+        <v>68100</v>
       </c>
       <c r="F70" t="n">
-        <v>33.4959</v>
+        <v>1.0143</v>
       </c>
       <c r="G70" t="n">
-        <v>-65512.59119953713</v>
+        <v>-65711.13162780678</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -2862,34 +3025,35 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>68100</v>
+        <v>67600</v>
       </c>
       <c r="C71" t="n">
-        <v>68100</v>
+        <v>67600</v>
       </c>
       <c r="D71" t="n">
-        <v>68100</v>
+        <v>67600</v>
       </c>
       <c r="E71" t="n">
-        <v>68050</v>
+        <v>67600</v>
       </c>
       <c r="F71" t="n">
-        <v>1.2687</v>
+        <v>0.7862</v>
       </c>
       <c r="G71" t="n">
-        <v>-65513.85989953713</v>
+        <v>-65711.91782780678</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -2897,28 +3061,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>68100</v>
+        <v>67600</v>
       </c>
       <c r="C72" t="n">
-        <v>68100</v>
+        <v>67600</v>
       </c>
       <c r="D72" t="n">
-        <v>68100</v>
+        <v>67600</v>
       </c>
       <c r="E72" t="n">
-        <v>68100</v>
+        <v>67600</v>
       </c>
       <c r="F72" t="n">
         <v>10</v>
       </c>
       <c r="G72" t="n">
-        <v>-65513.85989953713</v>
+        <v>-65711.91782780678</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2932,28 +3097,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>68150</v>
+        <v>67750</v>
       </c>
       <c r="C73" t="n">
-        <v>68150</v>
+        <v>67750</v>
       </c>
       <c r="D73" t="n">
-        <v>68150</v>
+        <v>67750</v>
       </c>
       <c r="E73" t="n">
-        <v>68150</v>
+        <v>67750</v>
       </c>
       <c r="F73" t="n">
-        <v>10.15</v>
+        <v>6.7138</v>
       </c>
       <c r="G73" t="n">
-        <v>-65503.70989953713</v>
+        <v>-65705.20402780679</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2967,28 +3133,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>68500</v>
+        <v>68000</v>
       </c>
       <c r="C74" t="n">
-        <v>68500</v>
+        <v>68000</v>
       </c>
       <c r="D74" t="n">
-        <v>68500</v>
+        <v>68000</v>
       </c>
       <c r="E74" t="n">
-        <v>68500</v>
+        <v>68000</v>
       </c>
       <c r="F74" t="n">
-        <v>3.8829</v>
+        <v>1.7475</v>
       </c>
       <c r="G74" t="n">
-        <v>-65499.82699953713</v>
+        <v>-65703.45652780679</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3002,28 +3169,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>69100</v>
+        <v>68000</v>
       </c>
       <c r="C75" t="n">
-        <v>69100</v>
+        <v>67750</v>
       </c>
       <c r="D75" t="n">
-        <v>69100</v>
+        <v>68000</v>
       </c>
       <c r="E75" t="n">
-        <v>69100</v>
+        <v>67750</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1</v>
+        <v>1.53</v>
       </c>
       <c r="G75" t="n">
-        <v>-65499.72699953713</v>
+        <v>-65704.98652780679</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3037,28 +3205,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>69100</v>
+        <v>67600</v>
       </c>
       <c r="C76" t="n">
-        <v>69100</v>
+        <v>67500</v>
       </c>
       <c r="D76" t="n">
-        <v>69100</v>
+        <v>67600</v>
       </c>
       <c r="E76" t="n">
-        <v>69100</v>
+        <v>67500</v>
       </c>
       <c r="F76" t="n">
-        <v>12.0498</v>
+        <v>8.8971</v>
       </c>
       <c r="G76" t="n">
-        <v>-65499.72699953713</v>
+        <v>-65713.88362780679</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3072,34 +3241,35 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>69100</v>
+        <v>67550</v>
       </c>
       <c r="C77" t="n">
-        <v>69100</v>
+        <v>68000</v>
       </c>
       <c r="D77" t="n">
-        <v>69100</v>
+        <v>68000</v>
       </c>
       <c r="E77" t="n">
-        <v>69100</v>
+        <v>67500</v>
       </c>
       <c r="F77" t="n">
-        <v>10.9048</v>
+        <v>4.644</v>
       </c>
       <c r="G77" t="n">
-        <v>-65499.72699953713</v>
+        <v>-65709.23962780679</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3107,34 +3277,35 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>68700</v>
+        <v>67450</v>
       </c>
       <c r="C78" t="n">
-        <v>68700</v>
+        <v>67400</v>
       </c>
       <c r="D78" t="n">
-        <v>68700</v>
+        <v>67450</v>
       </c>
       <c r="E78" t="n">
-        <v>68700</v>
+        <v>67400</v>
       </c>
       <c r="F78" t="n">
-        <v>1.5886</v>
+        <v>1.4981</v>
       </c>
       <c r="G78" t="n">
-        <v>-65501.31559953713</v>
+        <v>-65710.73772780679</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3142,28 +3313,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>69100</v>
+        <v>67400</v>
       </c>
       <c r="C79" t="n">
-        <v>69300</v>
+        <v>67400</v>
       </c>
       <c r="D79" t="n">
-        <v>69300</v>
+        <v>67400</v>
       </c>
       <c r="E79" t="n">
-        <v>69100</v>
+        <v>67400</v>
       </c>
       <c r="F79" t="n">
-        <v>0.58</v>
+        <v>49</v>
       </c>
       <c r="G79" t="n">
-        <v>-65500.73559953713</v>
+        <v>-65710.73772780679</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3177,34 +3349,35 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>69300</v>
+        <v>67350</v>
       </c>
       <c r="C80" t="n">
-        <v>68650</v>
+        <v>67350</v>
       </c>
       <c r="D80" t="n">
-        <v>69300</v>
+        <v>67350</v>
       </c>
       <c r="E80" t="n">
-        <v>68650</v>
+        <v>67350</v>
       </c>
       <c r="F80" t="n">
-        <v>51.8525</v>
+        <v>6.3562</v>
       </c>
       <c r="G80" t="n">
-        <v>-65552.58809953713</v>
+        <v>-65717.09392780678</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3212,34 +3385,35 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>69350</v>
+        <v>67550</v>
       </c>
       <c r="C81" t="n">
-        <v>69350</v>
+        <v>67550</v>
       </c>
       <c r="D81" t="n">
-        <v>69350</v>
+        <v>67550</v>
       </c>
       <c r="E81" t="n">
-        <v>69350</v>
+        <v>67550</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1</v>
+        <v>1.06</v>
       </c>
       <c r="G81" t="n">
-        <v>-65552.48809953712</v>
+        <v>-65716.03392780678</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3247,34 +3421,35 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>68800</v>
+        <v>67500</v>
       </c>
       <c r="C82" t="n">
-        <v>68800</v>
+        <v>67500</v>
       </c>
       <c r="D82" t="n">
-        <v>68800</v>
+        <v>67500</v>
       </c>
       <c r="E82" t="n">
-        <v>68800</v>
+        <v>67500</v>
       </c>
       <c r="F82" t="n">
-        <v>10.0746</v>
+        <v>3.9729</v>
       </c>
       <c r="G82" t="n">
-        <v>-65562.56269953713</v>
+        <v>-65720.00682780678</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3282,34 +3457,35 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>68800</v>
+        <v>67750</v>
       </c>
       <c r="C83" t="n">
-        <v>68700</v>
+        <v>67850</v>
       </c>
       <c r="D83" t="n">
-        <v>68800</v>
+        <v>67850</v>
       </c>
       <c r="E83" t="n">
-        <v>68700</v>
+        <v>67500</v>
       </c>
       <c r="F83" t="n">
-        <v>25.8318</v>
+        <v>119.7466</v>
       </c>
       <c r="G83" t="n">
-        <v>-65588.39449953713</v>
+        <v>-65600.26022780678</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3317,28 +3493,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>68700</v>
+        <v>67500</v>
       </c>
       <c r="C84" t="n">
-        <v>68650</v>
+        <v>67400</v>
       </c>
       <c r="D84" t="n">
-        <v>68700</v>
+        <v>67900</v>
       </c>
       <c r="E84" t="n">
-        <v>68650</v>
+        <v>67350</v>
       </c>
       <c r="F84" t="n">
-        <v>21.2812</v>
+        <v>9.8787</v>
       </c>
       <c r="G84" t="n">
-        <v>-65609.67569953713</v>
+        <v>-65610.13892780678</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3352,28 +3529,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>68650</v>
+        <v>67500</v>
       </c>
       <c r="C85" t="n">
-        <v>68650</v>
+        <v>67450</v>
       </c>
       <c r="D85" t="n">
-        <v>68650</v>
+        <v>67500</v>
       </c>
       <c r="E85" t="n">
-        <v>68650</v>
+        <v>67450</v>
       </c>
       <c r="F85" t="n">
-        <v>6.6387</v>
+        <v>10</v>
       </c>
       <c r="G85" t="n">
-        <v>-65609.67569953713</v>
+        <v>-65600.13892780678</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3387,28 +3565,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>68650</v>
+        <v>67350</v>
       </c>
       <c r="C86" t="n">
-        <v>68650</v>
+        <v>67350</v>
       </c>
       <c r="D86" t="n">
-        <v>68650</v>
+        <v>67350</v>
       </c>
       <c r="E86" t="n">
-        <v>68650</v>
+        <v>67350</v>
       </c>
       <c r="F86" t="n">
-        <v>4</v>
+        <v>1.6029</v>
       </c>
       <c r="G86" t="n">
-        <v>-65609.67569953713</v>
+        <v>-65601.74182780678</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3422,28 +3601,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>69150</v>
+        <v>67300</v>
       </c>
       <c r="C87" t="n">
-        <v>69050</v>
+        <v>67300</v>
       </c>
       <c r="D87" t="n">
-        <v>69150</v>
+        <v>67300</v>
       </c>
       <c r="E87" t="n">
-        <v>69050</v>
+        <v>67300</v>
       </c>
       <c r="F87" t="n">
-        <v>1.1255</v>
+        <v>17.9147</v>
       </c>
       <c r="G87" t="n">
-        <v>-65608.55019953713</v>
+        <v>-65619.65652780677</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3457,34 +3637,35 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>69050</v>
+        <v>67300</v>
       </c>
       <c r="C88" t="n">
-        <v>69050</v>
+        <v>67000</v>
       </c>
       <c r="D88" t="n">
-        <v>69050</v>
+        <v>67450</v>
       </c>
       <c r="E88" t="n">
-        <v>69050</v>
+        <v>67000</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1449</v>
+        <v>14.579</v>
       </c>
       <c r="G88" t="n">
-        <v>-65608.55019953713</v>
+        <v>-65634.23552780677</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3492,34 +3673,35 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>69050</v>
+        <v>67200</v>
       </c>
       <c r="C89" t="n">
-        <v>69250</v>
+        <v>66900</v>
       </c>
       <c r="D89" t="n">
-        <v>69250</v>
+        <v>67200</v>
       </c>
       <c r="E89" t="n">
-        <v>69050</v>
+        <v>66900</v>
       </c>
       <c r="F89" t="n">
-        <v>27.932855451263</v>
+        <v>13.6046</v>
       </c>
       <c r="G89" t="n">
-        <v>-65580.61734408587</v>
+        <v>-65647.84012780678</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3527,34 +3709,35 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>68850</v>
+        <v>67000</v>
       </c>
       <c r="C90" t="n">
-        <v>68850</v>
+        <v>67000</v>
       </c>
       <c r="D90" t="n">
-        <v>68850</v>
+        <v>67000</v>
       </c>
       <c r="E90" t="n">
-        <v>68850</v>
+        <v>67000</v>
       </c>
       <c r="F90" t="n">
-        <v>1.5</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="G90" t="n">
-        <v>-65582.11734408587</v>
+        <v>-65647.27212780678</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3562,28 +3745,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>69150</v>
+        <v>66950</v>
       </c>
       <c r="C91" t="n">
-        <v>68850</v>
+        <v>66950</v>
       </c>
       <c r="D91" t="n">
-        <v>69150</v>
+        <v>66950</v>
       </c>
       <c r="E91" t="n">
-        <v>68800</v>
+        <v>66950</v>
       </c>
       <c r="F91" t="n">
-        <v>19.218843673174</v>
+        <v>2.2617</v>
       </c>
       <c r="G91" t="n">
-        <v>-65582.11734408587</v>
+        <v>-65649.53382780678</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3597,2348 +3781,883 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>68800</v>
+        <v>67000</v>
       </c>
       <c r="C92" t="n">
-        <v>68650</v>
+        <v>67000</v>
       </c>
       <c r="D92" t="n">
-        <v>68800</v>
+        <v>67000</v>
       </c>
       <c r="E92" t="n">
-        <v>68650</v>
+        <v>67000</v>
       </c>
       <c r="F92" t="n">
-        <v>36.915769767441</v>
+        <v>0.3194</v>
       </c>
       <c r="G92" t="n">
-        <v>-65619.03311385331</v>
+        <v>-65649.21442780679</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>66950</v>
+      </c>
+      <c r="K92" t="n">
+        <v>66950</v>
+      </c>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>68600</v>
+        <v>66950</v>
       </c>
       <c r="C93" t="n">
-        <v>68550</v>
+        <v>66950</v>
       </c>
       <c r="D93" t="n">
-        <v>68600</v>
+        <v>66950</v>
       </c>
       <c r="E93" t="n">
-        <v>68550</v>
+        <v>66950</v>
       </c>
       <c r="F93" t="n">
-        <v>36.8866</v>
+        <v>1.9556</v>
       </c>
       <c r="G93" t="n">
-        <v>-65655.91971385331</v>
+        <v>-65651.17002780679</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>67000</v>
+      </c>
+      <c r="K93" t="n">
+        <v>66950</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>68450</v>
+        <v>66950</v>
       </c>
       <c r="C94" t="n">
-        <v>68550</v>
+        <v>67000</v>
       </c>
       <c r="D94" t="n">
-        <v>68550</v>
+        <v>67000</v>
       </c>
       <c r="E94" t="n">
-        <v>68400</v>
+        <v>66700</v>
       </c>
       <c r="F94" t="n">
-        <v>1.4582</v>
+        <v>131.3544</v>
       </c>
       <c r="G94" t="n">
-        <v>-65655.91971385331</v>
+        <v>-65519.81562780679</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>66950</v>
+      </c>
+      <c r="K94" t="n">
+        <v>66950</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>68300</v>
+        <v>67050</v>
       </c>
       <c r="C95" t="n">
-        <v>68300</v>
+        <v>67350</v>
       </c>
       <c r="D95" t="n">
-        <v>68300</v>
+        <v>67350</v>
       </c>
       <c r="E95" t="n">
-        <v>68300</v>
+        <v>67050</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2921</v>
+        <v>99.1962</v>
       </c>
       <c r="G95" t="n">
-        <v>-65656.21181385331</v>
+        <v>-65420.61942780679</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>67000</v>
+      </c>
+      <c r="K95" t="n">
+        <v>66950</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>68950</v>
+        <v>67050</v>
       </c>
       <c r="C96" t="n">
-        <v>69050</v>
+        <v>67000</v>
       </c>
       <c r="D96" t="n">
-        <v>69050</v>
+        <v>67050</v>
       </c>
       <c r="E96" t="n">
-        <v>68950</v>
+        <v>67000</v>
       </c>
       <c r="F96" t="n">
-        <v>3.8975</v>
+        <v>2.6841</v>
       </c>
       <c r="G96" t="n">
-        <v>-65652.31431385331</v>
+        <v>-65423.30352780679</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>67350</v>
+      </c>
+      <c r="K96" t="n">
+        <v>66950</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>69050</v>
+        <v>67000</v>
       </c>
       <c r="C97" t="n">
-        <v>69150</v>
+        <v>66800</v>
       </c>
       <c r="D97" t="n">
-        <v>69150</v>
+        <v>67000</v>
       </c>
       <c r="E97" t="n">
-        <v>69050</v>
+        <v>66800</v>
       </c>
       <c r="F97" t="n">
-        <v>8.6714</v>
+        <v>10.9048</v>
       </c>
       <c r="G97" t="n">
-        <v>-65643.6429138533</v>
+        <v>-65434.20832780679</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>67000</v>
+      </c>
+      <c r="K97" t="n">
+        <v>66950</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>69050</v>
+        <v>67050</v>
       </c>
       <c r="C98" t="n">
-        <v>69050</v>
+        <v>66550</v>
       </c>
       <c r="D98" t="n">
-        <v>69050</v>
+        <v>67050</v>
       </c>
       <c r="E98" t="n">
-        <v>69050</v>
+        <v>66550</v>
       </c>
       <c r="F98" t="n">
-        <v>7.4565</v>
+        <v>50.9979</v>
       </c>
       <c r="G98" t="n">
-        <v>-65651.0994138533</v>
+        <v>-65485.20622780679</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>66800</v>
+      </c>
+      <c r="K98" t="n">
+        <v>66950</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>69050</v>
+        <v>67350</v>
       </c>
       <c r="C99" t="n">
-        <v>69050</v>
+        <v>67450</v>
       </c>
       <c r="D99" t="n">
-        <v>69050</v>
+        <v>67450</v>
       </c>
       <c r="E99" t="n">
-        <v>69050</v>
+        <v>67350</v>
       </c>
       <c r="F99" t="n">
-        <v>1.6374</v>
+        <v>0.7587</v>
       </c>
       <c r="G99" t="n">
-        <v>-65651.0994138533</v>
+        <v>-65484.44752780679</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>66550</v>
+      </c>
+      <c r="K99" t="n">
+        <v>66950</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>68850</v>
+        <v>67450</v>
       </c>
       <c r="C100" t="n">
-        <v>68850</v>
+        <v>67500</v>
       </c>
       <c r="D100" t="n">
-        <v>68850</v>
+        <v>67500</v>
       </c>
       <c r="E100" t="n">
-        <v>68850</v>
+        <v>67450</v>
       </c>
       <c r="F100" t="n">
-        <v>8.1759</v>
+        <v>15.6013</v>
       </c>
       <c r="G100" t="n">
-        <v>-65659.2753138533</v>
+        <v>-65468.84622780679</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>67450</v>
+      </c>
+      <c r="K100" t="n">
+        <v>66950</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>68850</v>
+        <v>67300</v>
       </c>
       <c r="C101" t="n">
-        <v>68850</v>
+        <v>67250</v>
       </c>
       <c r="D101" t="n">
-        <v>68850</v>
+        <v>67300</v>
       </c>
       <c r="E101" t="n">
-        <v>68850</v>
+        <v>67250</v>
       </c>
       <c r="F101" t="n">
-        <v>3.0424</v>
+        <v>1.7349</v>
       </c>
       <c r="G101" t="n">
-        <v>-65659.2753138533</v>
+        <v>-65470.58112780679</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>67500</v>
+      </c>
+      <c r="K101" t="n">
+        <v>66950</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>68850</v>
+        <v>67150</v>
       </c>
       <c r="C102" t="n">
-        <v>68850</v>
+        <v>67150</v>
       </c>
       <c r="D102" t="n">
-        <v>68850</v>
+        <v>67150</v>
       </c>
       <c r="E102" t="n">
-        <v>68850</v>
+        <v>67150</v>
       </c>
       <c r="F102" t="n">
-        <v>24.023</v>
+        <v>1.5424</v>
       </c>
       <c r="G102" t="n">
-        <v>-65659.2753138533</v>
+        <v>-65472.12352780679</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>67250</v>
+      </c>
+      <c r="K102" t="n">
+        <v>66950</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>68300</v>
+        <v>67600</v>
       </c>
       <c r="C103" t="n">
-        <v>68300</v>
+        <v>67600</v>
       </c>
       <c r="D103" t="n">
-        <v>68300</v>
+        <v>67600</v>
       </c>
       <c r="E103" t="n">
-        <v>68300</v>
+        <v>67600</v>
       </c>
       <c r="F103" t="n">
-        <v>7.4565</v>
+        <v>0.008</v>
       </c>
       <c r="G103" t="n">
-        <v>-65666.7318138533</v>
+        <v>-65472.11552780679</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>67150</v>
+      </c>
+      <c r="K103" t="n">
+        <v>66950</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>68300</v>
+        <v>67500</v>
       </c>
       <c r="C104" t="n">
-        <v>68300</v>
+        <v>67500</v>
       </c>
       <c r="D104" t="n">
-        <v>68300</v>
+        <v>67500</v>
       </c>
       <c r="E104" t="n">
-        <v>68300</v>
+        <v>67500</v>
       </c>
       <c r="F104" t="n">
-        <v>57.6597</v>
+        <v>0.635</v>
       </c>
       <c r="G104" t="n">
-        <v>-65666.7318138533</v>
+        <v>-65472.75052780679</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>67600</v>
+      </c>
+      <c r="K104" t="n">
+        <v>66950</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>68950</v>
+        <v>67500</v>
       </c>
       <c r="C105" t="n">
-        <v>68950</v>
+        <v>67500</v>
       </c>
       <c r="D105" t="n">
-        <v>68950</v>
+        <v>67500</v>
       </c>
       <c r="E105" t="n">
-        <v>68950</v>
+        <v>67500</v>
       </c>
       <c r="F105" t="n">
-        <v>0.1859</v>
+        <v>0.365</v>
       </c>
       <c r="G105" t="n">
-        <v>-65666.5459138533</v>
+        <v>-65472.75052780679</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>67500</v>
+      </c>
+      <c r="K105" t="n">
+        <v>66950</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>68050</v>
+        <v>67300</v>
       </c>
       <c r="C106" t="n">
-        <v>68050</v>
+        <v>67300</v>
       </c>
       <c r="D106" t="n">
-        <v>68050</v>
+        <v>67300</v>
       </c>
       <c r="E106" t="n">
-        <v>68050</v>
+        <v>67300</v>
       </c>
       <c r="F106" t="n">
-        <v>0.1859</v>
+        <v>5.065</v>
       </c>
       <c r="G106" t="n">
-        <v>-65666.7318138533</v>
+        <v>-65477.81552780679</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>67500</v>
+      </c>
+      <c r="K106" t="n">
+        <v>66950</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>68800</v>
+        <v>67300</v>
       </c>
       <c r="C107" t="n">
-        <v>68800</v>
+        <v>67300</v>
       </c>
       <c r="D107" t="n">
-        <v>68800</v>
+        <v>67300</v>
       </c>
       <c r="E107" t="n">
-        <v>68800</v>
+        <v>67300</v>
       </c>
       <c r="F107" t="n">
-        <v>0.129186046511</v>
+        <v>34.421</v>
       </c>
       <c r="G107" t="n">
-        <v>-65666.60262780679</v>
+        <v>-65477.81552780679</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>67300</v>
+      </c>
+      <c r="K107" t="n">
+        <v>66950</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>68700</v>
+        <v>67300</v>
       </c>
       <c r="C108" t="n">
-        <v>68700</v>
+        <v>67300</v>
       </c>
       <c r="D108" t="n">
-        <v>68700</v>
+        <v>67300</v>
       </c>
       <c r="E108" t="n">
-        <v>68700</v>
+        <v>67300</v>
       </c>
       <c r="F108" t="n">
-        <v>5</v>
+        <v>19.001</v>
       </c>
       <c r="G108" t="n">
-        <v>-65671.60262780679</v>
+        <v>-65477.81552780679</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>67300</v>
+      </c>
+      <c r="K108" t="n">
+        <v>66950</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>68800</v>
+        <v>67300</v>
       </c>
       <c r="C109" t="n">
-        <v>68800</v>
+        <v>67300</v>
       </c>
       <c r="D109" t="n">
-        <v>68800</v>
+        <v>67300</v>
       </c>
       <c r="E109" t="n">
-        <v>68800</v>
+        <v>67300</v>
       </c>
       <c r="F109" t="n">
-        <v>2.7547</v>
+        <v>33.2212</v>
       </c>
       <c r="G109" t="n">
-        <v>-65668.84792780678</v>
+        <v>-65477.81552780679</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>67300</v>
+      </c>
+      <c r="K109" t="n">
+        <v>66950</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>68450</v>
+        <v>67300</v>
       </c>
       <c r="C110" t="n">
-        <v>68450</v>
+        <v>67400</v>
       </c>
       <c r="D110" t="n">
-        <v>68450</v>
+        <v>67400</v>
       </c>
       <c r="E110" t="n">
-        <v>68450</v>
+        <v>67300</v>
       </c>
       <c r="F110" t="n">
-        <v>1.3567</v>
+        <v>20.7175</v>
       </c>
       <c r="G110" t="n">
-        <v>-65670.20462780679</v>
+        <v>-65457.09802780679</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>67300</v>
+      </c>
+      <c r="K110" t="n">
+        <v>66950</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>68350</v>
+        <v>67400</v>
       </c>
       <c r="C111" t="n">
-        <v>68300</v>
+        <v>67400</v>
       </c>
       <c r="D111" t="n">
-        <v>68350</v>
+        <v>67400</v>
       </c>
       <c r="E111" t="n">
-        <v>68300</v>
+        <v>67400</v>
       </c>
       <c r="F111" t="n">
-        <v>39.9127</v>
+        <v>0.0001</v>
       </c>
       <c r="G111" t="n">
-        <v>-65710.11732780679</v>
+        <v>-65457.09802780679</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>68500</v>
-      </c>
-      <c r="C112" t="n">
-        <v>68100</v>
-      </c>
-      <c r="D112" t="n">
-        <v>68500</v>
-      </c>
-      <c r="E112" t="n">
-        <v>68100</v>
-      </c>
-      <c r="F112" t="n">
-        <v>1.0143</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-65711.13162780678</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>67600</v>
-      </c>
-      <c r="C113" t="n">
-        <v>67600</v>
-      </c>
-      <c r="D113" t="n">
-        <v>67600</v>
-      </c>
-      <c r="E113" t="n">
-        <v>67600</v>
-      </c>
-      <c r="F113" t="n">
-        <v>0.7862</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-65711.91782780678</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>67600</v>
-      </c>
-      <c r="C114" t="n">
-        <v>67600</v>
-      </c>
-      <c r="D114" t="n">
-        <v>67600</v>
-      </c>
-      <c r="E114" t="n">
-        <v>67600</v>
-      </c>
-      <c r="F114" t="n">
-        <v>10</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-65711.91782780678</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>67750</v>
-      </c>
-      <c r="C115" t="n">
-        <v>67750</v>
-      </c>
-      <c r="D115" t="n">
-        <v>67750</v>
-      </c>
-      <c r="E115" t="n">
-        <v>67750</v>
-      </c>
-      <c r="F115" t="n">
-        <v>6.7138</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-65705.20402780679</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>68000</v>
-      </c>
-      <c r="C116" t="n">
-        <v>68000</v>
-      </c>
-      <c r="D116" t="n">
-        <v>68000</v>
-      </c>
-      <c r="E116" t="n">
-        <v>68000</v>
-      </c>
-      <c r="F116" t="n">
-        <v>1.7475</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-65703.45652780679</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>68000</v>
-      </c>
-      <c r="C117" t="n">
-        <v>67750</v>
-      </c>
-      <c r="D117" t="n">
-        <v>68000</v>
-      </c>
-      <c r="E117" t="n">
-        <v>67750</v>
-      </c>
-      <c r="F117" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-65704.98652780679</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>67600</v>
-      </c>
-      <c r="C118" t="n">
-        <v>67500</v>
-      </c>
-      <c r="D118" t="n">
-        <v>67600</v>
-      </c>
-      <c r="E118" t="n">
-        <v>67500</v>
-      </c>
-      <c r="F118" t="n">
-        <v>8.8971</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-65713.88362780679</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>67550</v>
-      </c>
-      <c r="C119" t="n">
-        <v>68000</v>
-      </c>
-      <c r="D119" t="n">
-        <v>68000</v>
-      </c>
-      <c r="E119" t="n">
-        <v>67500</v>
-      </c>
-      <c r="F119" t="n">
-        <v>4.644</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-65709.23962780679</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>67450</v>
-      </c>
-      <c r="C120" t="n">
+      <c r="J111" t="n">
         <v>67400</v>
       </c>
-      <c r="D120" t="n">
-        <v>67450</v>
-      </c>
-      <c r="E120" t="n">
-        <v>67400</v>
-      </c>
-      <c r="F120" t="n">
-        <v>1.4981</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-65710.73772780679</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>67400</v>
-      </c>
-      <c r="C121" t="n">
-        <v>67400</v>
-      </c>
-      <c r="D121" t="n">
-        <v>67400</v>
-      </c>
-      <c r="E121" t="n">
-        <v>67400</v>
-      </c>
-      <c r="F121" t="n">
-        <v>49</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-65710.73772780679</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>67350</v>
-      </c>
-      <c r="C122" t="n">
-        <v>67350</v>
-      </c>
-      <c r="D122" t="n">
-        <v>67350</v>
-      </c>
-      <c r="E122" t="n">
-        <v>67350</v>
-      </c>
-      <c r="F122" t="n">
-        <v>6.3562</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-65717.09392780678</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>67550</v>
-      </c>
-      <c r="C123" t="n">
-        <v>67550</v>
-      </c>
-      <c r="D123" t="n">
-        <v>67550</v>
-      </c>
-      <c r="E123" t="n">
-        <v>67550</v>
-      </c>
-      <c r="F123" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-65716.03392780678</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>67500</v>
-      </c>
-      <c r="C124" t="n">
-        <v>67500</v>
-      </c>
-      <c r="D124" t="n">
-        <v>67500</v>
-      </c>
-      <c r="E124" t="n">
-        <v>67500</v>
-      </c>
-      <c r="F124" t="n">
-        <v>3.9729</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-65720.00682780678</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>67750</v>
-      </c>
-      <c r="C125" t="n">
-        <v>67850</v>
-      </c>
-      <c r="D125" t="n">
-        <v>67850</v>
-      </c>
-      <c r="E125" t="n">
-        <v>67500</v>
-      </c>
-      <c r="F125" t="n">
-        <v>119.7466</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-65600.26022780678</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="n">
-        <v>67500</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>67500</v>
-      </c>
-      <c r="C126" t="n">
-        <v>67400</v>
-      </c>
-      <c r="D126" t="n">
-        <v>67900</v>
-      </c>
-      <c r="E126" t="n">
-        <v>67350</v>
-      </c>
-      <c r="F126" t="n">
-        <v>9.8787</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-65610.13892780678</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="n">
-        <v>67850</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
+      <c r="K111" t="n">
+        <v>66950</v>
+      </c>
+      <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>67500</v>
-      </c>
-      <c r="C127" t="n">
-        <v>67450</v>
-      </c>
-      <c r="D127" t="n">
-        <v>67500</v>
-      </c>
-      <c r="E127" t="n">
-        <v>67450</v>
-      </c>
-      <c r="F127" t="n">
-        <v>10</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-65600.13892780678</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="n">
-        <v>67400</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>67350</v>
-      </c>
-      <c r="C128" t="n">
-        <v>67350</v>
-      </c>
-      <c r="D128" t="n">
-        <v>67350</v>
-      </c>
-      <c r="E128" t="n">
-        <v>67350</v>
-      </c>
-      <c r="F128" t="n">
-        <v>1.6029</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-65601.74182780678</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="n">
-        <v>67450</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>67300</v>
-      </c>
-      <c r="C129" t="n">
-        <v>67300</v>
-      </c>
-      <c r="D129" t="n">
-        <v>67300</v>
-      </c>
-      <c r="E129" t="n">
-        <v>67300</v>
-      </c>
-      <c r="F129" t="n">
-        <v>17.9147</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-65619.65652780677</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>67300</v>
-      </c>
-      <c r="C130" t="n">
-        <v>67000</v>
-      </c>
-      <c r="D130" t="n">
-        <v>67450</v>
-      </c>
-      <c r="E130" t="n">
-        <v>67000</v>
-      </c>
-      <c r="F130" t="n">
-        <v>14.579</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-65634.23552780677</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="n">
-        <v>67300</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>67200</v>
-      </c>
-      <c r="C131" t="n">
-        <v>66900</v>
-      </c>
-      <c r="D131" t="n">
-        <v>67200</v>
-      </c>
-      <c r="E131" t="n">
-        <v>66900</v>
-      </c>
-      <c r="F131" t="n">
-        <v>13.6046</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-65647.84012780678</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>67000</v>
-      </c>
-      <c r="C132" t="n">
-        <v>67000</v>
-      </c>
-      <c r="D132" t="n">
-        <v>67000</v>
-      </c>
-      <c r="E132" t="n">
-        <v>67000</v>
-      </c>
-      <c r="F132" t="n">
-        <v>0.5679999999999999</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-65647.27212780678</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="n">
-        <v>66900</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>66950</v>
-      </c>
-      <c r="C133" t="n">
-        <v>66950</v>
-      </c>
-      <c r="D133" t="n">
-        <v>66950</v>
-      </c>
-      <c r="E133" t="n">
-        <v>66950</v>
-      </c>
-      <c r="F133" t="n">
-        <v>2.2617</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-65649.53382780678</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>67000</v>
-      </c>
-      <c r="C134" t="n">
-        <v>67000</v>
-      </c>
-      <c r="D134" t="n">
-        <v>67000</v>
-      </c>
-      <c r="E134" t="n">
-        <v>67000</v>
-      </c>
-      <c r="F134" t="n">
-        <v>0.3194</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-65649.21442780679</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
-        <v>66950</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>66950</v>
-      </c>
-      <c r="C135" t="n">
-        <v>66950</v>
-      </c>
-      <c r="D135" t="n">
-        <v>66950</v>
-      </c>
-      <c r="E135" t="n">
-        <v>66950</v>
-      </c>
-      <c r="F135" t="n">
-        <v>1.9556</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-65651.17002780679</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>66950</v>
-      </c>
-      <c r="C136" t="n">
-        <v>67000</v>
-      </c>
-      <c r="D136" t="n">
-        <v>67000</v>
-      </c>
-      <c r="E136" t="n">
-        <v>66700</v>
-      </c>
-      <c r="F136" t="n">
-        <v>131.3544</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-65519.81562780679</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="n">
-        <v>66950</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>67050</v>
-      </c>
-      <c r="C137" t="n">
-        <v>67350</v>
-      </c>
-      <c r="D137" t="n">
-        <v>67350</v>
-      </c>
-      <c r="E137" t="n">
-        <v>67050</v>
-      </c>
-      <c r="F137" t="n">
-        <v>99.1962</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-65420.61942780679</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>67050</v>
-      </c>
-      <c r="C138" t="n">
-        <v>67000</v>
-      </c>
-      <c r="D138" t="n">
-        <v>67050</v>
-      </c>
-      <c r="E138" t="n">
-        <v>67000</v>
-      </c>
-      <c r="F138" t="n">
-        <v>2.6841</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-65423.30352780679</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="n">
-        <v>67350</v>
-      </c>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>67000</v>
-      </c>
-      <c r="C139" t="n">
-        <v>66800</v>
-      </c>
-      <c r="D139" t="n">
-        <v>67000</v>
-      </c>
-      <c r="E139" t="n">
-        <v>66800</v>
-      </c>
-      <c r="F139" t="n">
-        <v>10.9048</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-65434.20832780679</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>67050</v>
-      </c>
-      <c r="C140" t="n">
-        <v>66550</v>
-      </c>
-      <c r="D140" t="n">
-        <v>67050</v>
-      </c>
-      <c r="E140" t="n">
-        <v>66550</v>
-      </c>
-      <c r="F140" t="n">
-        <v>50.9979</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-65485.20622780679</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="n">
-        <v>66800</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>67350</v>
-      </c>
-      <c r="C141" t="n">
-        <v>67450</v>
-      </c>
-      <c r="D141" t="n">
-        <v>67450</v>
-      </c>
-      <c r="E141" t="n">
-        <v>67350</v>
-      </c>
-      <c r="F141" t="n">
-        <v>0.7587</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-65484.44752780679</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="n">
-        <v>66550</v>
-      </c>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>67450</v>
-      </c>
-      <c r="C142" t="n">
-        <v>67500</v>
-      </c>
-      <c r="D142" t="n">
-        <v>67500</v>
-      </c>
-      <c r="E142" t="n">
-        <v>67450</v>
-      </c>
-      <c r="F142" t="n">
-        <v>15.6013</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-65468.84622780679</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="n">
-        <v>67450</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>67300</v>
-      </c>
-      <c r="C143" t="n">
-        <v>67250</v>
-      </c>
-      <c r="D143" t="n">
-        <v>67300</v>
-      </c>
-      <c r="E143" t="n">
-        <v>67250</v>
-      </c>
-      <c r="F143" t="n">
-        <v>1.7349</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-65470.58112780679</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="n">
-        <v>67500</v>
-      </c>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>67150</v>
-      </c>
-      <c r="C144" t="n">
-        <v>67150</v>
-      </c>
-      <c r="D144" t="n">
-        <v>67150</v>
-      </c>
-      <c r="E144" t="n">
-        <v>67150</v>
-      </c>
-      <c r="F144" t="n">
-        <v>1.5424</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-65472.12352780679</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="n">
-        <v>67250</v>
-      </c>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>67600</v>
-      </c>
-      <c r="C145" t="n">
-        <v>67600</v>
-      </c>
-      <c r="D145" t="n">
-        <v>67600</v>
-      </c>
-      <c r="E145" t="n">
-        <v>67600</v>
-      </c>
-      <c r="F145" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-65472.11552780679</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="n">
-        <v>67150</v>
-      </c>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>67500</v>
-      </c>
-      <c r="C146" t="n">
-        <v>67500</v>
-      </c>
-      <c r="D146" t="n">
-        <v>67500</v>
-      </c>
-      <c r="E146" t="n">
-        <v>67500</v>
-      </c>
-      <c r="F146" t="n">
-        <v>0.635</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-65472.75052780679</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="n">
-        <v>67600</v>
-      </c>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>67500</v>
-      </c>
-      <c r="C147" t="n">
-        <v>67500</v>
-      </c>
-      <c r="D147" t="n">
-        <v>67500</v>
-      </c>
-      <c r="E147" t="n">
-        <v>67500</v>
-      </c>
-      <c r="F147" t="n">
-        <v>0.365</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-65472.75052780679</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="n">
-        <v>67500</v>
-      </c>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>67300</v>
-      </c>
-      <c r="C148" t="n">
-        <v>67300</v>
-      </c>
-      <c r="D148" t="n">
-        <v>67300</v>
-      </c>
-      <c r="E148" t="n">
-        <v>67300</v>
-      </c>
-      <c r="F148" t="n">
-        <v>5.065</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-65477.81552780679</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="n">
-        <v>67500</v>
-      </c>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>67300</v>
-      </c>
-      <c r="C149" t="n">
-        <v>67300</v>
-      </c>
-      <c r="D149" t="n">
-        <v>67300</v>
-      </c>
-      <c r="E149" t="n">
-        <v>67300</v>
-      </c>
-      <c r="F149" t="n">
-        <v>34.421</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-65477.81552780679</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="n">
-        <v>67300</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>67300</v>
-      </c>
-      <c r="C150" t="n">
-        <v>67300</v>
-      </c>
-      <c r="D150" t="n">
-        <v>67300</v>
-      </c>
-      <c r="E150" t="n">
-        <v>67300</v>
-      </c>
-      <c r="F150" t="n">
-        <v>19.001</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-65477.81552780679</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="n">
-        <v>67300</v>
-      </c>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>67300</v>
-      </c>
-      <c r="C151" t="n">
-        <v>67300</v>
-      </c>
-      <c r="D151" t="n">
-        <v>67300</v>
-      </c>
-      <c r="E151" t="n">
-        <v>67300</v>
-      </c>
-      <c r="F151" t="n">
-        <v>33.2212</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-65477.81552780679</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="n">
-        <v>67300</v>
-      </c>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>67300</v>
-      </c>
-      <c r="C152" t="n">
-        <v>67400</v>
-      </c>
-      <c r="D152" t="n">
-        <v>67400</v>
-      </c>
-      <c r="E152" t="n">
-        <v>67300</v>
-      </c>
-      <c r="F152" t="n">
-        <v>20.7175</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-65457.09802780679</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="n">
-        <v>67300</v>
-      </c>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>67400</v>
-      </c>
-      <c r="C153" t="n">
-        <v>67400</v>
-      </c>
-      <c r="D153" t="n">
-        <v>67400</v>
-      </c>
-      <c r="E153" t="n">
-        <v>67400</v>
-      </c>
-      <c r="F153" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-65457.09802780679</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="n">
-        <v>67400</v>
-      </c>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-15 BackTest XMR.xlsx
+++ b/BackTest/2020-01-15 BackTest XMR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N111"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>68200</v>
+        <v>66600</v>
       </c>
       <c r="C2" t="n">
-        <v>68750</v>
+        <v>66600</v>
       </c>
       <c r="D2" t="n">
-        <v>68750</v>
+        <v>66600</v>
       </c>
       <c r="E2" t="n">
-        <v>68200</v>
+        <v>66600</v>
       </c>
       <c r="F2" t="n">
-        <v>5.7254</v>
+        <v>0.1421</v>
       </c>
       <c r="G2" t="n">
-        <v>-64678.16959389866</v>
+        <v>80.84357046587502</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>68250</v>
+        <v>67050</v>
       </c>
       <c r="C3" t="n">
-        <v>68200</v>
+        <v>67050</v>
       </c>
       <c r="D3" t="n">
-        <v>68250</v>
+        <v>67050</v>
       </c>
       <c r="E3" t="n">
-        <v>68200</v>
+        <v>67050</v>
       </c>
       <c r="F3" t="n">
-        <v>21.9269</v>
+        <v>11.374</v>
       </c>
       <c r="G3" t="n">
-        <v>-64700.09649389866</v>
+        <v>92.21757046587501</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>68050</v>
+        <v>67050</v>
       </c>
       <c r="C4" t="n">
-        <v>68050</v>
+        <v>67050</v>
       </c>
       <c r="D4" t="n">
-        <v>68050</v>
+        <v>67050</v>
       </c>
       <c r="E4" t="n">
-        <v>68050</v>
+        <v>67050</v>
       </c>
       <c r="F4" t="n">
-        <v>5.3422</v>
+        <v>14.8663</v>
       </c>
       <c r="G4" t="n">
-        <v>-64705.43869389866</v>
+        <v>92.21757046587501</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,28 +546,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>67950</v>
+        <v>67050</v>
       </c>
       <c r="C5" t="n">
-        <v>67950</v>
+        <v>67050</v>
       </c>
       <c r="D5" t="n">
-        <v>67950</v>
+        <v>67050</v>
       </c>
       <c r="E5" t="n">
-        <v>67950</v>
+        <v>67050</v>
       </c>
       <c r="F5" t="n">
-        <v>7.6908</v>
+        <v>0.12</v>
       </c>
       <c r="G5" t="n">
-        <v>-64713.12949389865</v>
+        <v>92.21757046587501</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -582,28 +582,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>67950</v>
+        <v>66550</v>
       </c>
       <c r="C6" t="n">
-        <v>67950</v>
+        <v>66550</v>
       </c>
       <c r="D6" t="n">
-        <v>67950</v>
+        <v>66550</v>
       </c>
       <c r="E6" t="n">
-        <v>67950</v>
+        <v>66550</v>
       </c>
       <c r="F6" t="n">
-        <v>25.8762</v>
+        <v>0.4701</v>
       </c>
       <c r="G6" t="n">
-        <v>-64713.12949389865</v>
+        <v>91.74747046587501</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>67950</v>
+        <v>66550</v>
       </c>
       <c r="C7" t="n">
-        <v>67950</v>
+        <v>66550</v>
       </c>
       <c r="D7" t="n">
-        <v>67950</v>
+        <v>66550</v>
       </c>
       <c r="E7" t="n">
-        <v>67950</v>
+        <v>66550</v>
       </c>
       <c r="F7" t="n">
-        <v>1.159</v>
+        <v>0.6319</v>
       </c>
       <c r="G7" t="n">
-        <v>-64713.12949389865</v>
+        <v>91.74747046587501</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,35 +654,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>67600</v>
+        <v>66550</v>
       </c>
       <c r="C8" t="n">
-        <v>67600</v>
+        <v>66550</v>
       </c>
       <c r="D8" t="n">
-        <v>67600</v>
+        <v>66550</v>
       </c>
       <c r="E8" t="n">
-        <v>67600</v>
+        <v>66550</v>
       </c>
       <c r="F8" t="n">
-        <v>6.1384</v>
+        <v>0.645</v>
       </c>
       <c r="G8" t="n">
-        <v>-64719.26789389866</v>
+        <v>91.74747046587501</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>67950</v>
-      </c>
-      <c r="K8" t="n">
-        <v>67950</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
@@ -694,40 +690,32 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>67850</v>
+        <v>66500</v>
       </c>
       <c r="C9" t="n">
-        <v>67850</v>
+        <v>66550</v>
       </c>
       <c r="D9" t="n">
-        <v>67850</v>
+        <v>66550</v>
       </c>
       <c r="E9" t="n">
-        <v>67850</v>
+        <v>66500</v>
       </c>
       <c r="F9" t="n">
-        <v>39.6372</v>
+        <v>2.0824</v>
       </c>
       <c r="G9" t="n">
-        <v>-64679.63069389866</v>
+        <v>91.74747046587501</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>67600</v>
-      </c>
-      <c r="K9" t="n">
-        <v>67950</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -738,40 +726,32 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>67650</v>
+        <v>66500</v>
       </c>
       <c r="C10" t="n">
-        <v>67650</v>
+        <v>66500</v>
       </c>
       <c r="D10" t="n">
-        <v>67650</v>
+        <v>66500</v>
       </c>
       <c r="E10" t="n">
-        <v>67650</v>
+        <v>66500</v>
       </c>
       <c r="F10" t="n">
-        <v>69.06480000000001</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>-64748.69549389866</v>
+        <v>88.74747046587501</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>67850</v>
-      </c>
-      <c r="K10" t="n">
-        <v>67950</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -782,35 +762,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>67700</v>
+        <v>66500</v>
       </c>
       <c r="C11" t="n">
-        <v>68550</v>
+        <v>66500</v>
       </c>
       <c r="D11" t="n">
-        <v>68550</v>
+        <v>66550</v>
       </c>
       <c r="E11" t="n">
-        <v>67700</v>
+        <v>66500</v>
       </c>
       <c r="F11" t="n">
-        <v>27.7966</v>
+        <v>31.554</v>
       </c>
       <c r="G11" t="n">
-        <v>-64720.89889389866</v>
+        <v>88.74747046587501</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>67650</v>
-      </c>
-      <c r="K11" t="n">
-        <v>67650</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
@@ -822,40 +798,32 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>67750</v>
+        <v>66450</v>
       </c>
       <c r="C12" t="n">
-        <v>67700</v>
+        <v>66450</v>
       </c>
       <c r="D12" t="n">
-        <v>67750</v>
+        <v>66450</v>
       </c>
       <c r="E12" t="n">
-        <v>67700</v>
+        <v>66450</v>
       </c>
       <c r="F12" t="n">
-        <v>55.5391</v>
+        <v>0.08</v>
       </c>
       <c r="G12" t="n">
-        <v>-64776.43799389866</v>
+        <v>88.66747046587501</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>68550</v>
-      </c>
-      <c r="K12" t="n">
-        <v>67650</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -866,40 +834,32 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>67650</v>
+        <v>66450</v>
       </c>
       <c r="C13" t="n">
-        <v>68450</v>
+        <v>66450</v>
       </c>
       <c r="D13" t="n">
-        <v>68450</v>
+        <v>66450</v>
       </c>
       <c r="E13" t="n">
-        <v>67600</v>
+        <v>66450</v>
       </c>
       <c r="F13" t="n">
-        <v>9.369799123447001</v>
+        <v>0.08</v>
       </c>
       <c r="G13" t="n">
-        <v>-64767.06819477522</v>
+        <v>88.66747046587501</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>67700</v>
-      </c>
-      <c r="K13" t="n">
-        <v>67650</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -910,40 +870,32 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>68450</v>
+        <v>66450</v>
       </c>
       <c r="C14" t="n">
-        <v>68450</v>
+        <v>66450</v>
       </c>
       <c r="D14" t="n">
-        <v>68450</v>
+        <v>66450</v>
       </c>
       <c r="E14" t="n">
-        <v>68450</v>
+        <v>66450</v>
       </c>
       <c r="F14" t="n">
-        <v>10</v>
+        <v>0.08</v>
       </c>
       <c r="G14" t="n">
-        <v>-64767.06819477522</v>
+        <v>88.66747046587501</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>68450</v>
-      </c>
-      <c r="K14" t="n">
-        <v>67650</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -954,40 +906,32 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>68450</v>
+        <v>66700</v>
       </c>
       <c r="C15" t="n">
-        <v>68450</v>
+        <v>67000</v>
       </c>
       <c r="D15" t="n">
-        <v>68450</v>
+        <v>67000</v>
       </c>
       <c r="E15" t="n">
-        <v>68450</v>
+        <v>66700</v>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>0.02</v>
       </c>
       <c r="G15" t="n">
-        <v>-64767.06819477522</v>
+        <v>88.68747046587501</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>68450</v>
-      </c>
-      <c r="K15" t="n">
-        <v>67650</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -998,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>67850</v>
+        <v>66450</v>
       </c>
       <c r="C16" t="n">
-        <v>68250</v>
+        <v>66450</v>
       </c>
       <c r="D16" t="n">
-        <v>68250</v>
+        <v>67000</v>
       </c>
       <c r="E16" t="n">
-        <v>67850</v>
+        <v>66450</v>
       </c>
       <c r="F16" t="n">
-        <v>35</v>
+        <v>0.09</v>
       </c>
       <c r="G16" t="n">
-        <v>-64802.06819477522</v>
+        <v>88.59747046587501</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1022,14 +966,8 @@
         <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>67650</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1040,38 +978,32 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>68250</v>
+        <v>67000</v>
       </c>
       <c r="C17" t="n">
-        <v>68250</v>
+        <v>67000</v>
       </c>
       <c r="D17" t="n">
-        <v>68250</v>
+        <v>67000</v>
       </c>
       <c r="E17" t="n">
-        <v>68250</v>
+        <v>67000</v>
       </c>
       <c r="F17" t="n">
-        <v>15.1627</v>
+        <v>0.32</v>
       </c>
       <c r="G17" t="n">
-        <v>-64802.06819477522</v>
+        <v>88.917470465875</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>67650</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1082,38 +1014,32 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>68800</v>
+        <v>66450</v>
       </c>
       <c r="C18" t="n">
-        <v>68800</v>
+        <v>66550</v>
       </c>
       <c r="D18" t="n">
-        <v>68800</v>
+        <v>67200</v>
       </c>
       <c r="E18" t="n">
-        <v>68800</v>
+        <v>66200</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1</v>
+        <v>64971.9312</v>
       </c>
       <c r="G18" t="n">
-        <v>-64801.96819477522</v>
+        <v>-64883.01372953413</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>67650</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1124,38 +1050,32 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>68800</v>
+        <v>66500</v>
       </c>
       <c r="C19" t="n">
-        <v>68800</v>
+        <v>66500</v>
       </c>
       <c r="D19" t="n">
-        <v>68800</v>
+        <v>66500</v>
       </c>
       <c r="E19" t="n">
-        <v>68800</v>
+        <v>66500</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3291</v>
+        <v>1.077</v>
       </c>
       <c r="G19" t="n">
-        <v>-64801.96819477522</v>
+        <v>-64884.09072953412</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>67650</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1166,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>68200</v>
+        <v>66850</v>
       </c>
       <c r="C20" t="n">
-        <v>68200</v>
+        <v>66100</v>
       </c>
       <c r="D20" t="n">
-        <v>68200</v>
+        <v>66850</v>
       </c>
       <c r="E20" t="n">
-        <v>68200</v>
+        <v>66100</v>
       </c>
       <c r="F20" t="n">
-        <v>2.2384</v>
+        <v>166.534</v>
       </c>
       <c r="G20" t="n">
-        <v>-64804.20659477522</v>
+        <v>-65050.62472953412</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1190,14 +1110,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>67650</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1208,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>68750</v>
+        <v>66100</v>
       </c>
       <c r="C21" t="n">
-        <v>68750</v>
+        <v>66500</v>
       </c>
       <c r="D21" t="n">
-        <v>68750</v>
+        <v>66500</v>
       </c>
       <c r="E21" t="n">
-        <v>68750</v>
+        <v>66000</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>139.7782</v>
       </c>
       <c r="G21" t="n">
-        <v>-64802.20659477522</v>
+        <v>-64910.84652953412</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1232,14 +1146,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>67650</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1250,36 +1158,36 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>68200</v>
+        <v>66000</v>
       </c>
       <c r="C22" t="n">
-        <v>68200</v>
+        <v>66550</v>
       </c>
       <c r="D22" t="n">
-        <v>69300</v>
+        <v>66550</v>
       </c>
       <c r="E22" t="n">
-        <v>68200</v>
+        <v>66000</v>
       </c>
       <c r="F22" t="n">
-        <v>675.8249</v>
+        <v>203.05</v>
       </c>
       <c r="G22" t="n">
-        <v>-65478.03149477522</v>
+        <v>-64707.79652953412</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>67650</v>
-      </c>
+      <c r="J22" t="n">
+        <v>66500</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M22" t="n">
@@ -1292,33 +1200,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>69300</v>
+        <v>66550</v>
       </c>
       <c r="C23" t="n">
-        <v>69300</v>
+        <v>66550</v>
       </c>
       <c r="D23" t="n">
-        <v>69300</v>
+        <v>66550</v>
       </c>
       <c r="E23" t="n">
-        <v>69300</v>
+        <v>66550</v>
       </c>
       <c r="F23" t="n">
-        <v>0.048095238095</v>
+        <v>5</v>
       </c>
       <c r="G23" t="n">
-        <v>-65477.98339953712</v>
+        <v>-64707.79652953412</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>67650</v>
-      </c>
+      <c r="J23" t="n">
+        <v>66550</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1334,40 +1242,40 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>68850</v>
+        <v>66550</v>
       </c>
       <c r="C24" t="n">
-        <v>68850</v>
+        <v>66550</v>
       </c>
       <c r="D24" t="n">
-        <v>68850</v>
+        <v>66550</v>
       </c>
       <c r="E24" t="n">
-        <v>68850</v>
+        <v>66550</v>
       </c>
       <c r="F24" t="n">
-        <v>1.4775</v>
+        <v>15.759398948159</v>
       </c>
       <c r="G24" t="n">
-        <v>-65479.46089953712</v>
+        <v>-64707.79652953412</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>67650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>66550</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>1.012738359201774</v>
+        <v>1</v>
       </c>
       <c r="N24" t="inlineStr"/>
     </row>
@@ -1376,32 +1284,38 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>68750</v>
+        <v>66550</v>
       </c>
       <c r="C25" t="n">
-        <v>68750</v>
+        <v>66550</v>
       </c>
       <c r="D25" t="n">
-        <v>68750</v>
+        <v>66550</v>
       </c>
       <c r="E25" t="n">
-        <v>68750</v>
+        <v>66550</v>
       </c>
       <c r="F25" t="n">
-        <v>1.4844</v>
+        <v>0.3457</v>
       </c>
       <c r="G25" t="n">
-        <v>-65480.94529953712</v>
+        <v>-64707.79652953412</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>66550</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1412,32 +1326,38 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>68100</v>
+        <v>66050</v>
       </c>
       <c r="C26" t="n">
-        <v>68100</v>
+        <v>66550</v>
       </c>
       <c r="D26" t="n">
-        <v>68100</v>
+        <v>66550</v>
       </c>
       <c r="E26" t="n">
-        <v>68100</v>
+        <v>66000</v>
       </c>
       <c r="F26" t="n">
-        <v>0.15</v>
+        <v>280.9532</v>
       </c>
       <c r="G26" t="n">
-        <v>-65481.09529953713</v>
+        <v>-64707.79652953412</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>66550</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1448,32 +1368,38 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>68850</v>
+        <v>66550</v>
       </c>
       <c r="C27" t="n">
-        <v>68900</v>
+        <v>66550</v>
       </c>
       <c r="D27" t="n">
-        <v>68900</v>
+        <v>66550</v>
       </c>
       <c r="E27" t="n">
-        <v>68850</v>
+        <v>66550</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>0.0262</v>
       </c>
       <c r="G27" t="n">
-        <v>-65479.09529953713</v>
+        <v>-64707.79652953412</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>66550</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1484,32 +1410,38 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>68250</v>
+        <v>66550</v>
       </c>
       <c r="C28" t="n">
-        <v>68300</v>
+        <v>66550</v>
       </c>
       <c r="D28" t="n">
-        <v>68300</v>
+        <v>66550</v>
       </c>
       <c r="E28" t="n">
-        <v>68250</v>
+        <v>66550</v>
       </c>
       <c r="F28" t="n">
-        <v>33.4959</v>
+        <v>10.8428</v>
       </c>
       <c r="G28" t="n">
-        <v>-65512.59119953713</v>
+        <v>-64707.79652953412</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>66550</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1520,32 +1452,38 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>68100</v>
+        <v>66550</v>
       </c>
       <c r="C29" t="n">
-        <v>68100</v>
+        <v>66550</v>
       </c>
       <c r="D29" t="n">
-        <v>68100</v>
+        <v>66550</v>
       </c>
       <c r="E29" t="n">
-        <v>68050</v>
+        <v>66550</v>
       </c>
       <c r="F29" t="n">
-        <v>1.2687</v>
+        <v>59.6807</v>
       </c>
       <c r="G29" t="n">
-        <v>-65513.85989953713</v>
+        <v>-64707.79652953412</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>66550</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1556,32 +1494,38 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>68100</v>
+        <v>66550</v>
       </c>
       <c r="C30" t="n">
-        <v>68100</v>
+        <v>66550</v>
       </c>
       <c r="D30" t="n">
-        <v>68100</v>
+        <v>66550</v>
       </c>
       <c r="E30" t="n">
-        <v>68100</v>
+        <v>66550</v>
       </c>
       <c r="F30" t="n">
-        <v>10</v>
+        <v>44.3483</v>
       </c>
       <c r="G30" t="n">
-        <v>-65513.85989953713</v>
+        <v>-64707.79652953412</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>66550</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1592,32 +1536,38 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>68150</v>
+        <v>66550</v>
       </c>
       <c r="C31" t="n">
-        <v>68150</v>
+        <v>66550</v>
       </c>
       <c r="D31" t="n">
-        <v>68150</v>
+        <v>66550</v>
       </c>
       <c r="E31" t="n">
-        <v>68150</v>
+        <v>66550</v>
       </c>
       <c r="F31" t="n">
-        <v>10.15</v>
+        <v>12.3809</v>
       </c>
       <c r="G31" t="n">
-        <v>-65503.70989953713</v>
+        <v>-64707.79652953412</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>66550</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1628,32 +1578,38 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>68500</v>
+        <v>66550</v>
       </c>
       <c r="C32" t="n">
-        <v>68500</v>
+        <v>66550</v>
       </c>
       <c r="D32" t="n">
-        <v>68500</v>
+        <v>66550</v>
       </c>
       <c r="E32" t="n">
-        <v>68500</v>
+        <v>66550</v>
       </c>
       <c r="F32" t="n">
-        <v>3.8829</v>
+        <v>26.434</v>
       </c>
       <c r="G32" t="n">
-        <v>-65499.82699953713</v>
+        <v>-64707.79652953412</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>66550</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1664,32 +1620,38 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>69100</v>
+        <v>66550</v>
       </c>
       <c r="C33" t="n">
-        <v>69100</v>
+        <v>66900</v>
       </c>
       <c r="D33" t="n">
-        <v>69100</v>
+        <v>66900</v>
       </c>
       <c r="E33" t="n">
-        <v>69100</v>
+        <v>66550</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1</v>
+        <v>3.601</v>
       </c>
       <c r="G33" t="n">
-        <v>-65499.72699953713</v>
+        <v>-64704.19552953412</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>66550</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1700,32 +1662,38 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>69100</v>
+        <v>67300</v>
       </c>
       <c r="C34" t="n">
-        <v>69100</v>
+        <v>67300</v>
       </c>
       <c r="D34" t="n">
-        <v>69100</v>
+        <v>67300</v>
       </c>
       <c r="E34" t="n">
-        <v>69100</v>
+        <v>67300</v>
       </c>
       <c r="F34" t="n">
-        <v>12.0498</v>
+        <v>0.6776</v>
       </c>
       <c r="G34" t="n">
-        <v>-65499.72699953713</v>
+        <v>-64703.51792953411</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>66900</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1736,32 +1704,36 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>69100</v>
+        <v>66700</v>
       </c>
       <c r="C35" t="n">
-        <v>69100</v>
+        <v>66700</v>
       </c>
       <c r="D35" t="n">
-        <v>69100</v>
+        <v>66700</v>
       </c>
       <c r="E35" t="n">
-        <v>69100</v>
+        <v>66700</v>
       </c>
       <c r="F35" t="n">
-        <v>10.9048</v>
+        <v>0.1</v>
       </c>
       <c r="G35" t="n">
-        <v>-65499.72699953713</v>
+        <v>-64703.61792953411</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1772,32 +1744,36 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>68700</v>
+        <v>66700</v>
       </c>
       <c r="C36" t="n">
-        <v>68700</v>
+        <v>66700</v>
       </c>
       <c r="D36" t="n">
-        <v>68700</v>
+        <v>66700</v>
       </c>
       <c r="E36" t="n">
-        <v>68700</v>
+        <v>66700</v>
       </c>
       <c r="F36" t="n">
-        <v>1.5886</v>
+        <v>0.02</v>
       </c>
       <c r="G36" t="n">
-        <v>-65501.31559953713</v>
+        <v>-64703.61792953411</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1808,32 +1784,36 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>69100</v>
+        <v>67250</v>
       </c>
       <c r="C37" t="n">
-        <v>69300</v>
+        <v>67250</v>
       </c>
       <c r="D37" t="n">
-        <v>69300</v>
+        <v>67250</v>
       </c>
       <c r="E37" t="n">
-        <v>69100</v>
+        <v>67250</v>
       </c>
       <c r="F37" t="n">
-        <v>0.58</v>
+        <v>2</v>
       </c>
       <c r="G37" t="n">
-        <v>-65500.73559953713</v>
+        <v>-64701.61792953411</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1844,32 +1824,36 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>69300</v>
+        <v>67250</v>
       </c>
       <c r="C38" t="n">
-        <v>68650</v>
+        <v>67250</v>
       </c>
       <c r="D38" t="n">
-        <v>69300</v>
+        <v>67250</v>
       </c>
       <c r="E38" t="n">
-        <v>68650</v>
+        <v>67250</v>
       </c>
       <c r="F38" t="n">
-        <v>51.8525</v>
+        <v>7.1785</v>
       </c>
       <c r="G38" t="n">
-        <v>-65552.58809953713</v>
+        <v>-64701.61792953411</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1880,32 +1864,36 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>69350</v>
+        <v>66850</v>
       </c>
       <c r="C39" t="n">
-        <v>69350</v>
+        <v>66800</v>
       </c>
       <c r="D39" t="n">
-        <v>69350</v>
+        <v>67250</v>
       </c>
       <c r="E39" t="n">
-        <v>69350</v>
+        <v>66800</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1</v>
+        <v>49.5821</v>
       </c>
       <c r="G39" t="n">
-        <v>-65552.48809953712</v>
+        <v>-64751.20002953411</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1916,32 +1904,36 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>68800</v>
+        <v>66800</v>
       </c>
       <c r="C40" t="n">
-        <v>68800</v>
+        <v>66800</v>
       </c>
       <c r="D40" t="n">
-        <v>68800</v>
+        <v>66800</v>
       </c>
       <c r="E40" t="n">
-        <v>68800</v>
+        <v>66800</v>
       </c>
       <c r="F40" t="n">
-        <v>10.0746</v>
+        <v>15.7226</v>
       </c>
       <c r="G40" t="n">
-        <v>-65562.56269953713</v>
+        <v>-64751.20002953411</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1952,32 +1944,36 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>68800</v>
+        <v>66850</v>
       </c>
       <c r="C41" t="n">
-        <v>68700</v>
+        <v>66850</v>
       </c>
       <c r="D41" t="n">
-        <v>68800</v>
+        <v>66850</v>
       </c>
       <c r="E41" t="n">
-        <v>68700</v>
+        <v>66800</v>
       </c>
       <c r="F41" t="n">
-        <v>25.8318</v>
+        <v>14.3533</v>
       </c>
       <c r="G41" t="n">
-        <v>-65588.39449953713</v>
+        <v>-64736.84672953411</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1988,32 +1984,36 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>68700</v>
+        <v>67050</v>
       </c>
       <c r="C42" t="n">
-        <v>68650</v>
+        <v>67050</v>
       </c>
       <c r="D42" t="n">
-        <v>68700</v>
+        <v>67050</v>
       </c>
       <c r="E42" t="n">
-        <v>68650</v>
+        <v>67050</v>
       </c>
       <c r="F42" t="n">
-        <v>21.2812</v>
+        <v>1.1256</v>
       </c>
       <c r="G42" t="n">
-        <v>-65609.67569953713</v>
+        <v>-64735.72112953411</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2024,32 +2024,36 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>68650</v>
+        <v>67200</v>
       </c>
       <c r="C43" t="n">
-        <v>68650</v>
+        <v>67750</v>
       </c>
       <c r="D43" t="n">
-        <v>68650</v>
+        <v>67750</v>
       </c>
       <c r="E43" t="n">
-        <v>68650</v>
+        <v>67200</v>
       </c>
       <c r="F43" t="n">
-        <v>6.6387</v>
+        <v>69.06486354243501</v>
       </c>
       <c r="G43" t="n">
-        <v>-65609.67569953713</v>
+        <v>-64666.65626599167</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2060,32 +2064,36 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>68650</v>
+        <v>67600</v>
       </c>
       <c r="C44" t="n">
-        <v>68650</v>
+        <v>67600</v>
       </c>
       <c r="D44" t="n">
-        <v>68650</v>
+        <v>67600</v>
       </c>
       <c r="E44" t="n">
-        <v>68650</v>
+        <v>67600</v>
       </c>
       <c r="F44" t="n">
-        <v>4</v>
+        <v>20.6117</v>
       </c>
       <c r="G44" t="n">
-        <v>-65609.67569953713</v>
+        <v>-64687.26796599168</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2096,32 +2104,36 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>69150</v>
+        <v>67600</v>
       </c>
       <c r="C45" t="n">
-        <v>69050</v>
+        <v>67600</v>
       </c>
       <c r="D45" t="n">
-        <v>69150</v>
+        <v>67600</v>
       </c>
       <c r="E45" t="n">
-        <v>69050</v>
+        <v>67600</v>
       </c>
       <c r="F45" t="n">
-        <v>1.1255</v>
+        <v>4.623</v>
       </c>
       <c r="G45" t="n">
-        <v>-65608.55019953713</v>
+        <v>-64687.26796599168</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2132,32 +2144,36 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>69050</v>
+        <v>67600</v>
       </c>
       <c r="C46" t="n">
-        <v>69050</v>
+        <v>67600</v>
       </c>
       <c r="D46" t="n">
-        <v>69050</v>
+        <v>67600</v>
       </c>
       <c r="E46" t="n">
-        <v>69050</v>
+        <v>67600</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1449</v>
+        <v>33.1736</v>
       </c>
       <c r="G46" t="n">
-        <v>-65608.55019953713</v>
+        <v>-64687.26796599168</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2168,32 +2184,36 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>69050</v>
+        <v>68000</v>
       </c>
       <c r="C47" t="n">
-        <v>69250</v>
+        <v>68000</v>
       </c>
       <c r="D47" t="n">
-        <v>69250</v>
+        <v>68000</v>
       </c>
       <c r="E47" t="n">
-        <v>69050</v>
+        <v>68000</v>
       </c>
       <c r="F47" t="n">
-        <v>27.932855451263</v>
+        <v>20</v>
       </c>
       <c r="G47" t="n">
-        <v>-65580.61734408587</v>
+        <v>-64667.26796599168</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2204,32 +2224,36 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>68850</v>
+        <v>68000</v>
       </c>
       <c r="C48" t="n">
-        <v>68850</v>
+        <v>68000</v>
       </c>
       <c r="D48" t="n">
-        <v>68850</v>
+        <v>68000</v>
       </c>
       <c r="E48" t="n">
-        <v>68850</v>
+        <v>68000</v>
       </c>
       <c r="F48" t="n">
-        <v>1.5</v>
+        <v>7</v>
       </c>
       <c r="G48" t="n">
-        <v>-65582.11734408587</v>
+        <v>-64667.26796599168</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2240,32 +2264,36 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>69150</v>
+        <v>68000</v>
       </c>
       <c r="C49" t="n">
-        <v>68850</v>
+        <v>68000</v>
       </c>
       <c r="D49" t="n">
-        <v>69150</v>
+        <v>68000</v>
       </c>
       <c r="E49" t="n">
-        <v>68800</v>
+        <v>68000</v>
       </c>
       <c r="F49" t="n">
-        <v>19.218843673174</v>
+        <v>53.0456</v>
       </c>
       <c r="G49" t="n">
-        <v>-65582.11734408587</v>
+        <v>-64667.26796599168</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2276,32 +2304,36 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>68800</v>
+        <v>68000</v>
       </c>
       <c r="C50" t="n">
-        <v>68650</v>
+        <v>68000</v>
       </c>
       <c r="D50" t="n">
-        <v>68800</v>
+        <v>68000</v>
       </c>
       <c r="E50" t="n">
-        <v>68650</v>
+        <v>68000</v>
       </c>
       <c r="F50" t="n">
-        <v>36.915769767441</v>
+        <v>0.1694</v>
       </c>
       <c r="G50" t="n">
-        <v>-65619.03311385331</v>
+        <v>-64667.26796599168</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2312,32 +2344,36 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>68600</v>
+        <v>67600</v>
       </c>
       <c r="C51" t="n">
-        <v>68550</v>
+        <v>67600</v>
       </c>
       <c r="D51" t="n">
-        <v>68600</v>
+        <v>67600</v>
       </c>
       <c r="E51" t="n">
-        <v>68550</v>
+        <v>67600</v>
       </c>
       <c r="F51" t="n">
-        <v>36.8866</v>
+        <v>23.6878</v>
       </c>
       <c r="G51" t="n">
-        <v>-65655.91971385331</v>
+        <v>-64690.95576599168</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2348,32 +2384,36 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>68450</v>
+        <v>67450</v>
       </c>
       <c r="C52" t="n">
-        <v>68550</v>
+        <v>67750</v>
       </c>
       <c r="D52" t="n">
-        <v>68550</v>
+        <v>67750</v>
       </c>
       <c r="E52" t="n">
-        <v>68400</v>
+        <v>67450</v>
       </c>
       <c r="F52" t="n">
-        <v>1.4582</v>
+        <v>11.7366</v>
       </c>
       <c r="G52" t="n">
-        <v>-65655.91971385331</v>
+        <v>-64679.21916599168</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2384,32 +2424,36 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>68300</v>
+        <v>67750</v>
       </c>
       <c r="C53" t="n">
-        <v>68300</v>
+        <v>67750</v>
       </c>
       <c r="D53" t="n">
-        <v>68300</v>
+        <v>67750</v>
       </c>
       <c r="E53" t="n">
-        <v>68300</v>
+        <v>67750</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2921</v>
+        <v>1.0632</v>
       </c>
       <c r="G53" t="n">
-        <v>-65656.21181385331</v>
+        <v>-64679.21916599168</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2420,22 +2464,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>68950</v>
+        <v>67750</v>
       </c>
       <c r="C54" t="n">
-        <v>69050</v>
+        <v>67800</v>
       </c>
       <c r="D54" t="n">
-        <v>69050</v>
+        <v>67800</v>
       </c>
       <c r="E54" t="n">
-        <v>68950</v>
+        <v>67750</v>
       </c>
       <c r="F54" t="n">
-        <v>3.8975</v>
+        <v>16.9001</v>
       </c>
       <c r="G54" t="n">
-        <v>-65652.31431385331</v>
+        <v>-64662.31906599168</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2445,7 +2489,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2456,32 +2504,36 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>69050</v>
+        <v>67800</v>
       </c>
       <c r="C55" t="n">
-        <v>69150</v>
+        <v>68200</v>
       </c>
       <c r="D55" t="n">
-        <v>69150</v>
+        <v>68200</v>
       </c>
       <c r="E55" t="n">
-        <v>69050</v>
+        <v>67800</v>
       </c>
       <c r="F55" t="n">
-        <v>8.6714</v>
+        <v>0.4601</v>
       </c>
       <c r="G55" t="n">
-        <v>-65643.6429138533</v>
+        <v>-64661.85896599168</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2492,32 +2544,36 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>69050</v>
+        <v>68200</v>
       </c>
       <c r="C56" t="n">
-        <v>69050</v>
+        <v>68400</v>
       </c>
       <c r="D56" t="n">
-        <v>69050</v>
+        <v>68400</v>
       </c>
       <c r="E56" t="n">
-        <v>69050</v>
+        <v>68200</v>
       </c>
       <c r="F56" t="n">
-        <v>7.4565</v>
+        <v>5.1585</v>
       </c>
       <c r="G56" t="n">
-        <v>-65651.0994138533</v>
+        <v>-64656.70046599169</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2528,32 +2584,36 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>69050</v>
+        <v>68400</v>
       </c>
       <c r="C57" t="n">
-        <v>69050</v>
+        <v>68550</v>
       </c>
       <c r="D57" t="n">
-        <v>69050</v>
+        <v>68550</v>
       </c>
       <c r="E57" t="n">
-        <v>69050</v>
+        <v>68400</v>
       </c>
       <c r="F57" t="n">
-        <v>1.6374</v>
+        <v>10.212</v>
       </c>
       <c r="G57" t="n">
-        <v>-65651.0994138533</v>
+        <v>-64646.48846599169</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2564,32 +2624,36 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>68850</v>
+        <v>68550</v>
       </c>
       <c r="C58" t="n">
-        <v>68850</v>
+        <v>68600</v>
       </c>
       <c r="D58" t="n">
-        <v>68850</v>
+        <v>68600</v>
       </c>
       <c r="E58" t="n">
-        <v>68850</v>
+        <v>68550</v>
       </c>
       <c r="F58" t="n">
-        <v>8.1759</v>
+        <v>0.5114</v>
       </c>
       <c r="G58" t="n">
-        <v>-65659.2753138533</v>
+        <v>-64645.97706599168</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2600,32 +2664,36 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>68850</v>
+        <v>68800</v>
       </c>
       <c r="C59" t="n">
-        <v>68850</v>
+        <v>68800</v>
       </c>
       <c r="D59" t="n">
-        <v>68850</v>
+        <v>68800</v>
       </c>
       <c r="E59" t="n">
-        <v>68850</v>
+        <v>68800</v>
       </c>
       <c r="F59" t="n">
-        <v>3.0424</v>
+        <v>9.928900000000001</v>
       </c>
       <c r="G59" t="n">
-        <v>-65659.2753138533</v>
+        <v>-64636.04816599168</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2636,32 +2704,36 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>68850</v>
+        <v>68650</v>
       </c>
       <c r="C60" t="n">
-        <v>68850</v>
+        <v>68600</v>
       </c>
       <c r="D60" t="n">
-        <v>68850</v>
+        <v>68650</v>
       </c>
       <c r="E60" t="n">
-        <v>68850</v>
+        <v>68600</v>
       </c>
       <c r="F60" t="n">
-        <v>24.023</v>
+        <v>30</v>
       </c>
       <c r="G60" t="n">
-        <v>-65659.2753138533</v>
+        <v>-64666.04816599168</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2672,32 +2744,36 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>68300</v>
+        <v>68650</v>
       </c>
       <c r="C61" t="n">
-        <v>68300</v>
+        <v>68200</v>
       </c>
       <c r="D61" t="n">
-        <v>68300</v>
+        <v>68650</v>
       </c>
       <c r="E61" t="n">
-        <v>68300</v>
+        <v>68200</v>
       </c>
       <c r="F61" t="n">
-        <v>7.4565</v>
+        <v>27.8369</v>
       </c>
       <c r="G61" t="n">
-        <v>-65666.7318138533</v>
+        <v>-64693.88506599169</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2708,32 +2784,36 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>68300</v>
+        <v>68200</v>
       </c>
       <c r="C62" t="n">
-        <v>68300</v>
+        <v>68600</v>
       </c>
       <c r="D62" t="n">
-        <v>68300</v>
+        <v>68600</v>
       </c>
       <c r="E62" t="n">
-        <v>68300</v>
+        <v>68200</v>
       </c>
       <c r="F62" t="n">
-        <v>57.6597</v>
+        <v>31.1859</v>
       </c>
       <c r="G62" t="n">
-        <v>-65666.7318138533</v>
+        <v>-64662.69916599169</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2744,32 +2824,36 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>68950</v>
+        <v>68200</v>
       </c>
       <c r="C63" t="n">
-        <v>68950</v>
+        <v>68200</v>
       </c>
       <c r="D63" t="n">
-        <v>68950</v>
+        <v>68200</v>
       </c>
       <c r="E63" t="n">
-        <v>68950</v>
+        <v>68200</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1859</v>
+        <v>0.2443</v>
       </c>
       <c r="G63" t="n">
-        <v>-65666.5459138533</v>
+        <v>-64662.94346599169</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2780,32 +2864,36 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>68050</v>
+        <v>68600</v>
       </c>
       <c r="C64" t="n">
-        <v>68050</v>
+        <v>68600</v>
       </c>
       <c r="D64" t="n">
-        <v>68050</v>
+        <v>68600</v>
       </c>
       <c r="E64" t="n">
-        <v>68050</v>
+        <v>68600</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1859</v>
+        <v>6.6803</v>
       </c>
       <c r="G64" t="n">
-        <v>-65666.7318138533</v>
+        <v>-64656.26316599169</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2816,7 +2904,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>68800</v>
+        <v>68600</v>
       </c>
       <c r="C65" t="n">
         <v>68800</v>
@@ -2825,23 +2913,27 @@
         <v>68800</v>
       </c>
       <c r="E65" t="n">
-        <v>68800</v>
+        <v>68600</v>
       </c>
       <c r="F65" t="n">
-        <v>0.129186046511</v>
+        <v>26.8106</v>
       </c>
       <c r="G65" t="n">
-        <v>-65666.60262780679</v>
+        <v>-64629.45256599169</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2852,32 +2944,36 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>68700</v>
+        <v>68350</v>
       </c>
       <c r="C66" t="n">
-        <v>68700</v>
+        <v>68350</v>
       </c>
       <c r="D66" t="n">
-        <v>68700</v>
+        <v>68350</v>
       </c>
       <c r="E66" t="n">
-        <v>68700</v>
+        <v>68300</v>
       </c>
       <c r="F66" t="n">
-        <v>5</v>
+        <v>24.613</v>
       </c>
       <c r="G66" t="n">
-        <v>-65671.60262780679</v>
+        <v>-64654.06556599169</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2888,32 +2984,36 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>68800</v>
+        <v>68350</v>
       </c>
       <c r="C67" t="n">
-        <v>68800</v>
+        <v>68350</v>
       </c>
       <c r="D67" t="n">
-        <v>68800</v>
+        <v>68350</v>
       </c>
       <c r="E67" t="n">
-        <v>68800</v>
+        <v>68350</v>
       </c>
       <c r="F67" t="n">
-        <v>2.7547</v>
+        <v>5.2833</v>
       </c>
       <c r="G67" t="n">
-        <v>-65668.84792780678</v>
+        <v>-64654.06556599169</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2924,22 +3024,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>68450</v>
+        <v>68800</v>
       </c>
       <c r="C68" t="n">
-        <v>68450</v>
+        <v>68800</v>
       </c>
       <c r="D68" t="n">
-        <v>68450</v>
+        <v>68800</v>
       </c>
       <c r="E68" t="n">
-        <v>68450</v>
+        <v>68800</v>
       </c>
       <c r="F68" t="n">
-        <v>1.3567</v>
+        <v>2.238372093023</v>
       </c>
       <c r="G68" t="n">
-        <v>-65670.20462780679</v>
+        <v>-64651.82719389867</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2949,7 +3049,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2960,32 +3064,36 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>68350</v>
+        <v>68800</v>
       </c>
       <c r="C69" t="n">
-        <v>68300</v>
+        <v>68800</v>
       </c>
       <c r="D69" t="n">
-        <v>68350</v>
+        <v>68800</v>
       </c>
       <c r="E69" t="n">
-        <v>68300</v>
+        <v>68800</v>
       </c>
       <c r="F69" t="n">
-        <v>39.9127</v>
+        <v>1.103</v>
       </c>
       <c r="G69" t="n">
-        <v>-65710.11732780679</v>
+        <v>-64651.82719389867</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2996,32 +3104,36 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>68500</v>
+        <v>68350</v>
       </c>
       <c r="C70" t="n">
-        <v>68100</v>
+        <v>68300</v>
       </c>
       <c r="D70" t="n">
-        <v>68500</v>
+        <v>68350</v>
       </c>
       <c r="E70" t="n">
-        <v>68100</v>
+        <v>68300</v>
       </c>
       <c r="F70" t="n">
-        <v>1.0143</v>
+        <v>3.025</v>
       </c>
       <c r="G70" t="n">
-        <v>-65711.13162780678</v>
+        <v>-64654.85219389867</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3032,32 +3144,36 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>67600</v>
+        <v>68300</v>
       </c>
       <c r="C71" t="n">
-        <v>67600</v>
+        <v>68250</v>
       </c>
       <c r="D71" t="n">
-        <v>67600</v>
+        <v>68300</v>
       </c>
       <c r="E71" t="n">
-        <v>67600</v>
+        <v>68250</v>
       </c>
       <c r="F71" t="n">
-        <v>0.7862</v>
+        <v>13.8716</v>
       </c>
       <c r="G71" t="n">
-        <v>-65711.91782780678</v>
+        <v>-64668.72379389867</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3068,22 +3184,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>67600</v>
+        <v>68250</v>
       </c>
       <c r="C72" t="n">
-        <v>67600</v>
+        <v>68200</v>
       </c>
       <c r="D72" t="n">
-        <v>67600</v>
+        <v>68250</v>
       </c>
       <c r="E72" t="n">
-        <v>67600</v>
+        <v>68200</v>
       </c>
       <c r="F72" t="n">
-        <v>10</v>
+        <v>15.1712</v>
       </c>
       <c r="G72" t="n">
-        <v>-65711.91782780678</v>
+        <v>-64683.89499389866</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3093,7 +3209,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3104,22 +3224,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>67750</v>
+        <v>68200</v>
       </c>
       <c r="C73" t="n">
-        <v>67750</v>
+        <v>68750</v>
       </c>
       <c r="D73" t="n">
-        <v>67750</v>
+        <v>68750</v>
       </c>
       <c r="E73" t="n">
-        <v>67750</v>
+        <v>68200</v>
       </c>
       <c r="F73" t="n">
-        <v>6.7138</v>
+        <v>5.7254</v>
       </c>
       <c r="G73" t="n">
-        <v>-65705.20402780679</v>
+        <v>-64678.16959389866</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3129,7 +3249,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3140,22 +3264,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>68000</v>
+        <v>68250</v>
       </c>
       <c r="C74" t="n">
-        <v>68000</v>
+        <v>68200</v>
       </c>
       <c r="D74" t="n">
-        <v>68000</v>
+        <v>68250</v>
       </c>
       <c r="E74" t="n">
-        <v>68000</v>
+        <v>68200</v>
       </c>
       <c r="F74" t="n">
-        <v>1.7475</v>
+        <v>21.9269</v>
       </c>
       <c r="G74" t="n">
-        <v>-65703.45652780679</v>
+        <v>-64700.09649389866</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3165,7 +3289,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3176,22 +3304,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>68000</v>
+        <v>68050</v>
       </c>
       <c r="C75" t="n">
-        <v>67750</v>
+        <v>68050</v>
       </c>
       <c r="D75" t="n">
-        <v>68000</v>
+        <v>68050</v>
       </c>
       <c r="E75" t="n">
-        <v>67750</v>
+        <v>68050</v>
       </c>
       <c r="F75" t="n">
-        <v>1.53</v>
+        <v>5.3422</v>
       </c>
       <c r="G75" t="n">
-        <v>-65704.98652780679</v>
+        <v>-64705.43869389866</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3201,7 +3329,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3212,22 +3344,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>67600</v>
+        <v>67950</v>
       </c>
       <c r="C76" t="n">
-        <v>67500</v>
+        <v>67950</v>
       </c>
       <c r="D76" t="n">
-        <v>67600</v>
+        <v>67950</v>
       </c>
       <c r="E76" t="n">
-        <v>67500</v>
+        <v>67950</v>
       </c>
       <c r="F76" t="n">
-        <v>8.8971</v>
+        <v>7.6908</v>
       </c>
       <c r="G76" t="n">
-        <v>-65713.88362780679</v>
+        <v>-64713.12949389865</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3237,7 +3369,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3248,22 +3384,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>67550</v>
+        <v>67950</v>
       </c>
       <c r="C77" t="n">
-        <v>68000</v>
+        <v>67950</v>
       </c>
       <c r="D77" t="n">
-        <v>68000</v>
+        <v>67950</v>
       </c>
       <c r="E77" t="n">
-        <v>67500</v>
+        <v>67950</v>
       </c>
       <c r="F77" t="n">
-        <v>4.644</v>
+        <v>25.8762</v>
       </c>
       <c r="G77" t="n">
-        <v>-65709.23962780679</v>
+        <v>-64713.12949389865</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3273,7 +3409,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3284,22 +3424,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>67450</v>
+        <v>67950</v>
       </c>
       <c r="C78" t="n">
-        <v>67400</v>
+        <v>67950</v>
       </c>
       <c r="D78" t="n">
-        <v>67450</v>
+        <v>67950</v>
       </c>
       <c r="E78" t="n">
-        <v>67400</v>
+        <v>67950</v>
       </c>
       <c r="F78" t="n">
-        <v>1.4981</v>
+        <v>1.159</v>
       </c>
       <c r="G78" t="n">
-        <v>-65710.73772780679</v>
+        <v>-64713.12949389865</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3309,7 +3449,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3320,22 +3464,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>67400</v>
+        <v>67600</v>
       </c>
       <c r="C79" t="n">
-        <v>67400</v>
+        <v>67600</v>
       </c>
       <c r="D79" t="n">
-        <v>67400</v>
+        <v>67600</v>
       </c>
       <c r="E79" t="n">
-        <v>67400</v>
+        <v>67600</v>
       </c>
       <c r="F79" t="n">
-        <v>49</v>
+        <v>6.1384</v>
       </c>
       <c r="G79" t="n">
-        <v>-65710.73772780679</v>
+        <v>-64719.26789389866</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3345,7 +3489,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3356,32 +3504,38 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>67350</v>
+        <v>67850</v>
       </c>
       <c r="C80" t="n">
-        <v>67350</v>
+        <v>67850</v>
       </c>
       <c r="D80" t="n">
-        <v>67350</v>
+        <v>67850</v>
       </c>
       <c r="E80" t="n">
-        <v>67350</v>
+        <v>67850</v>
       </c>
       <c r="F80" t="n">
-        <v>6.3562</v>
+        <v>39.6372</v>
       </c>
       <c r="G80" t="n">
-        <v>-65717.09392780678</v>
+        <v>-64679.63069389866</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>67600</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3392,22 +3546,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>67550</v>
+        <v>67650</v>
       </c>
       <c r="C81" t="n">
-        <v>67550</v>
+        <v>67650</v>
       </c>
       <c r="D81" t="n">
-        <v>67550</v>
+        <v>67650</v>
       </c>
       <c r="E81" t="n">
-        <v>67550</v>
+        <v>67650</v>
       </c>
       <c r="F81" t="n">
-        <v>1.06</v>
+        <v>69.06480000000001</v>
       </c>
       <c r="G81" t="n">
-        <v>-65716.03392780678</v>
+        <v>-64748.69549389866</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3417,7 +3571,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3428,22 +3586,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>67500</v>
+        <v>67700</v>
       </c>
       <c r="C82" t="n">
-        <v>67500</v>
+        <v>68550</v>
       </c>
       <c r="D82" t="n">
-        <v>67500</v>
+        <v>68550</v>
       </c>
       <c r="E82" t="n">
-        <v>67500</v>
+        <v>67700</v>
       </c>
       <c r="F82" t="n">
-        <v>3.9729</v>
+        <v>27.7966</v>
       </c>
       <c r="G82" t="n">
-        <v>-65720.00682780678</v>
+        <v>-64720.89889389866</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3453,7 +3611,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3467,19 +3629,19 @@
         <v>67750</v>
       </c>
       <c r="C83" t="n">
-        <v>67850</v>
+        <v>67700</v>
       </c>
       <c r="D83" t="n">
-        <v>67850</v>
+        <v>67750</v>
       </c>
       <c r="E83" t="n">
-        <v>67500</v>
+        <v>67700</v>
       </c>
       <c r="F83" t="n">
-        <v>119.7466</v>
+        <v>55.5391</v>
       </c>
       <c r="G83" t="n">
-        <v>-65600.26022780678</v>
+        <v>-64776.43799389866</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3489,7 +3651,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3500,22 +3666,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>67500</v>
+        <v>67650</v>
       </c>
       <c r="C84" t="n">
-        <v>67400</v>
+        <v>68450</v>
       </c>
       <c r="D84" t="n">
-        <v>67900</v>
+        <v>68450</v>
       </c>
       <c r="E84" t="n">
-        <v>67350</v>
+        <v>67600</v>
       </c>
       <c r="F84" t="n">
-        <v>9.8787</v>
+        <v>9.369799123447001</v>
       </c>
       <c r="G84" t="n">
-        <v>-65610.13892780678</v>
+        <v>-64767.06819477522</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3525,7 +3691,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3536,22 +3706,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>67500</v>
+        <v>68450</v>
       </c>
       <c r="C85" t="n">
-        <v>67450</v>
+        <v>68450</v>
       </c>
       <c r="D85" t="n">
-        <v>67500</v>
+        <v>68450</v>
       </c>
       <c r="E85" t="n">
-        <v>67450</v>
+        <v>68450</v>
       </c>
       <c r="F85" t="n">
         <v>10</v>
       </c>
       <c r="G85" t="n">
-        <v>-65600.13892780678</v>
+        <v>-64767.06819477522</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3561,7 +3731,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3572,22 +3746,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>67350</v>
+        <v>68450</v>
       </c>
       <c r="C86" t="n">
-        <v>67350</v>
+        <v>68450</v>
       </c>
       <c r="D86" t="n">
-        <v>67350</v>
+        <v>68450</v>
       </c>
       <c r="E86" t="n">
-        <v>67350</v>
+        <v>68450</v>
       </c>
       <c r="F86" t="n">
-        <v>1.6029</v>
+        <v>10</v>
       </c>
       <c r="G86" t="n">
-        <v>-65601.74182780678</v>
+        <v>-64767.06819477522</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3597,7 +3771,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3608,22 +3786,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>67300</v>
+        <v>67850</v>
       </c>
       <c r="C87" t="n">
-        <v>67300</v>
+        <v>68250</v>
       </c>
       <c r="D87" t="n">
-        <v>67300</v>
+        <v>68250</v>
       </c>
       <c r="E87" t="n">
-        <v>67300</v>
+        <v>67850</v>
       </c>
       <c r="F87" t="n">
-        <v>17.9147</v>
+        <v>35</v>
       </c>
       <c r="G87" t="n">
-        <v>-65619.65652780677</v>
+        <v>-64802.06819477522</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3633,7 +3811,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3644,22 +3826,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>67300</v>
+        <v>68250</v>
       </c>
       <c r="C88" t="n">
-        <v>67000</v>
+        <v>68250</v>
       </c>
       <c r="D88" t="n">
-        <v>67450</v>
+        <v>68250</v>
       </c>
       <c r="E88" t="n">
-        <v>67000</v>
+        <v>68250</v>
       </c>
       <c r="F88" t="n">
-        <v>14.579</v>
+        <v>15.1627</v>
       </c>
       <c r="G88" t="n">
-        <v>-65634.23552780677</v>
+        <v>-64802.06819477522</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3669,7 +3851,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3680,22 +3866,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>67200</v>
+        <v>68800</v>
       </c>
       <c r="C89" t="n">
-        <v>66900</v>
+        <v>68800</v>
       </c>
       <c r="D89" t="n">
-        <v>67200</v>
+        <v>68800</v>
       </c>
       <c r="E89" t="n">
-        <v>66900</v>
+        <v>68800</v>
       </c>
       <c r="F89" t="n">
-        <v>13.6046</v>
+        <v>0.1</v>
       </c>
       <c r="G89" t="n">
-        <v>-65647.84012780678</v>
+        <v>-64801.96819477522</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3705,7 +3891,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3716,22 +3906,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>67000</v>
+        <v>68800</v>
       </c>
       <c r="C90" t="n">
-        <v>67000</v>
+        <v>68800</v>
       </c>
       <c r="D90" t="n">
-        <v>67000</v>
+        <v>68800</v>
       </c>
       <c r="E90" t="n">
-        <v>67000</v>
+        <v>68800</v>
       </c>
       <c r="F90" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.3291</v>
       </c>
       <c r="G90" t="n">
-        <v>-65647.27212780678</v>
+        <v>-64801.96819477522</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3741,7 +3931,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3752,22 +3946,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>66950</v>
+        <v>68200</v>
       </c>
       <c r="C91" t="n">
-        <v>66950</v>
+        <v>68200</v>
       </c>
       <c r="D91" t="n">
-        <v>66950</v>
+        <v>68200</v>
       </c>
       <c r="E91" t="n">
-        <v>66950</v>
+        <v>68200</v>
       </c>
       <c r="F91" t="n">
-        <v>2.2617</v>
+        <v>2.2384</v>
       </c>
       <c r="G91" t="n">
-        <v>-65649.53382780678</v>
+        <v>-64804.20659477522</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3777,7 +3971,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3788,36 +3986,36 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>67000</v>
+        <v>68750</v>
       </c>
       <c r="C92" t="n">
-        <v>67000</v>
+        <v>68750</v>
       </c>
       <c r="D92" t="n">
-        <v>67000</v>
+        <v>68750</v>
       </c>
       <c r="E92" t="n">
-        <v>67000</v>
+        <v>68750</v>
       </c>
       <c r="F92" t="n">
-        <v>0.3194</v>
+        <v>2</v>
       </c>
       <c r="G92" t="n">
-        <v>-65649.21442780679</v>
+        <v>-64802.20659477522</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>66950</v>
-      </c>
-      <c r="K92" t="n">
-        <v>66950</v>
-      </c>
-      <c r="L92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3828,38 +4026,34 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>66950</v>
+        <v>68200</v>
       </c>
       <c r="C93" t="n">
-        <v>66950</v>
+        <v>68200</v>
       </c>
       <c r="D93" t="n">
-        <v>66950</v>
+        <v>69300</v>
       </c>
       <c r="E93" t="n">
-        <v>66950</v>
+        <v>68200</v>
       </c>
       <c r="F93" t="n">
-        <v>1.9556</v>
+        <v>675.8249</v>
       </c>
       <c r="G93" t="n">
-        <v>-65651.17002780679</v>
+        <v>-65478.03149477522</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K93" t="n">
-        <v>66950</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M93" t="n">
@@ -3872,38 +4066,34 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>66950</v>
+        <v>69300</v>
       </c>
       <c r="C94" t="n">
-        <v>67000</v>
+        <v>69300</v>
       </c>
       <c r="D94" t="n">
-        <v>67000</v>
+        <v>69300</v>
       </c>
       <c r="E94" t="n">
-        <v>66700</v>
+        <v>69300</v>
       </c>
       <c r="F94" t="n">
-        <v>131.3544</v>
+        <v>0.048095238095</v>
       </c>
       <c r="G94" t="n">
-        <v>-65519.81562780679</v>
+        <v>-65477.98339953712</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>66950</v>
-      </c>
-      <c r="K94" t="n">
-        <v>66950</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M94" t="n">
@@ -3916,35 +4106,31 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>67050</v>
+        <v>68850</v>
       </c>
       <c r="C95" t="n">
-        <v>67350</v>
+        <v>68850</v>
       </c>
       <c r="D95" t="n">
-        <v>67350</v>
+        <v>68850</v>
       </c>
       <c r="E95" t="n">
-        <v>67050</v>
+        <v>68850</v>
       </c>
       <c r="F95" t="n">
-        <v>99.1962</v>
+        <v>1.4775</v>
       </c>
       <c r="G95" t="n">
-        <v>-65420.61942780679</v>
+        <v>-65479.46089953712</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K95" t="n">
-        <v>66950</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3960,35 +4146,31 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>67050</v>
+        <v>68750</v>
       </c>
       <c r="C96" t="n">
-        <v>67000</v>
+        <v>68750</v>
       </c>
       <c r="D96" t="n">
-        <v>67050</v>
+        <v>68750</v>
       </c>
       <c r="E96" t="n">
-        <v>67000</v>
+        <v>68750</v>
       </c>
       <c r="F96" t="n">
-        <v>2.6841</v>
+        <v>1.4844</v>
       </c>
       <c r="G96" t="n">
-        <v>-65423.30352780679</v>
+        <v>-65480.94529953712</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>67350</v>
-      </c>
-      <c r="K96" t="n">
-        <v>66950</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4004,35 +4186,31 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>67000</v>
+        <v>68100</v>
       </c>
       <c r="C97" t="n">
-        <v>66800</v>
+        <v>68100</v>
       </c>
       <c r="D97" t="n">
-        <v>67000</v>
+        <v>68100</v>
       </c>
       <c r="E97" t="n">
-        <v>66800</v>
+        <v>68100</v>
       </c>
       <c r="F97" t="n">
-        <v>10.9048</v>
+        <v>0.15</v>
       </c>
       <c r="G97" t="n">
-        <v>-65434.20832780679</v>
+        <v>-65481.09529953713</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K97" t="n">
-        <v>66950</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4048,35 +4226,31 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>67050</v>
+        <v>68850</v>
       </c>
       <c r="C98" t="n">
-        <v>66550</v>
+        <v>68900</v>
       </c>
       <c r="D98" t="n">
-        <v>67050</v>
+        <v>68900</v>
       </c>
       <c r="E98" t="n">
-        <v>66550</v>
+        <v>68850</v>
       </c>
       <c r="F98" t="n">
-        <v>50.9979</v>
+        <v>2</v>
       </c>
       <c r="G98" t="n">
-        <v>-65485.20622780679</v>
+        <v>-65479.09529953713</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>66800</v>
-      </c>
-      <c r="K98" t="n">
-        <v>66950</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4092,35 +4266,31 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>67350</v>
+        <v>68250</v>
       </c>
       <c r="C99" t="n">
-        <v>67450</v>
+        <v>68300</v>
       </c>
       <c r="D99" t="n">
-        <v>67450</v>
+        <v>68300</v>
       </c>
       <c r="E99" t="n">
-        <v>67350</v>
+        <v>68250</v>
       </c>
       <c r="F99" t="n">
-        <v>0.7587</v>
+        <v>33.4959</v>
       </c>
       <c r="G99" t="n">
-        <v>-65484.44752780679</v>
+        <v>-65512.59119953713</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>66550</v>
-      </c>
-      <c r="K99" t="n">
-        <v>66950</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4136,35 +4306,31 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>67450</v>
+        <v>68100</v>
       </c>
       <c r="C100" t="n">
-        <v>67500</v>
+        <v>68100</v>
       </c>
       <c r="D100" t="n">
-        <v>67500</v>
+        <v>68100</v>
       </c>
       <c r="E100" t="n">
-        <v>67450</v>
+        <v>68050</v>
       </c>
       <c r="F100" t="n">
-        <v>15.6013</v>
+        <v>1.2687</v>
       </c>
       <c r="G100" t="n">
-        <v>-65468.84622780679</v>
+        <v>-65513.85989953713</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>67450</v>
-      </c>
-      <c r="K100" t="n">
-        <v>66950</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4180,35 +4346,31 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>67300</v>
+        <v>68100</v>
       </c>
       <c r="C101" t="n">
-        <v>67250</v>
+        <v>68100</v>
       </c>
       <c r="D101" t="n">
-        <v>67300</v>
+        <v>68100</v>
       </c>
       <c r="E101" t="n">
-        <v>67250</v>
+        <v>68100</v>
       </c>
       <c r="F101" t="n">
-        <v>1.7349</v>
+        <v>10</v>
       </c>
       <c r="G101" t="n">
-        <v>-65470.58112780679</v>
+        <v>-65513.85989953713</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>67500</v>
-      </c>
-      <c r="K101" t="n">
-        <v>66950</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4224,35 +4386,31 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>67150</v>
+        <v>68150</v>
       </c>
       <c r="C102" t="n">
-        <v>67150</v>
+        <v>68150</v>
       </c>
       <c r="D102" t="n">
-        <v>67150</v>
+        <v>68150</v>
       </c>
       <c r="E102" t="n">
-        <v>67150</v>
+        <v>68150</v>
       </c>
       <c r="F102" t="n">
-        <v>1.5424</v>
+        <v>10.15</v>
       </c>
       <c r="G102" t="n">
-        <v>-65472.12352780679</v>
+        <v>-65503.70989953713</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>67250</v>
-      </c>
-      <c r="K102" t="n">
-        <v>66950</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4268,35 +4426,31 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>67600</v>
+        <v>68500</v>
       </c>
       <c r="C103" t="n">
-        <v>67600</v>
+        <v>68500</v>
       </c>
       <c r="D103" t="n">
-        <v>67600</v>
+        <v>68500</v>
       </c>
       <c r="E103" t="n">
-        <v>67600</v>
+        <v>68500</v>
       </c>
       <c r="F103" t="n">
-        <v>0.008</v>
+        <v>3.8829</v>
       </c>
       <c r="G103" t="n">
-        <v>-65472.11552780679</v>
+        <v>-65499.82699953713</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>67150</v>
-      </c>
-      <c r="K103" t="n">
-        <v>66950</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4312,35 +4466,31 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>67500</v>
+        <v>69100</v>
       </c>
       <c r="C104" t="n">
-        <v>67500</v>
+        <v>69100</v>
       </c>
       <c r="D104" t="n">
-        <v>67500</v>
+        <v>69100</v>
       </c>
       <c r="E104" t="n">
-        <v>67500</v>
+        <v>69100</v>
       </c>
       <c r="F104" t="n">
-        <v>0.635</v>
+        <v>0.1</v>
       </c>
       <c r="G104" t="n">
-        <v>-65472.75052780679</v>
+        <v>-65499.72699953713</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>67600</v>
-      </c>
-      <c r="K104" t="n">
-        <v>66950</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4356,35 +4506,31 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>67500</v>
+        <v>69100</v>
       </c>
       <c r="C105" t="n">
-        <v>67500</v>
+        <v>69100</v>
       </c>
       <c r="D105" t="n">
-        <v>67500</v>
+        <v>69100</v>
       </c>
       <c r="E105" t="n">
-        <v>67500</v>
+        <v>69100</v>
       </c>
       <c r="F105" t="n">
-        <v>0.365</v>
+        <v>12.0498</v>
       </c>
       <c r="G105" t="n">
-        <v>-65472.75052780679</v>
+        <v>-65499.72699953713</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>67500</v>
-      </c>
-      <c r="K105" t="n">
-        <v>66950</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4400,35 +4546,31 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>67300</v>
+        <v>69100</v>
       </c>
       <c r="C106" t="n">
-        <v>67300</v>
+        <v>69100</v>
       </c>
       <c r="D106" t="n">
-        <v>67300</v>
+        <v>69100</v>
       </c>
       <c r="E106" t="n">
-        <v>67300</v>
+        <v>69100</v>
       </c>
       <c r="F106" t="n">
-        <v>5.065</v>
+        <v>10.9048</v>
       </c>
       <c r="G106" t="n">
-        <v>-65477.81552780679</v>
+        <v>-65499.72699953713</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>67500</v>
-      </c>
-      <c r="K106" t="n">
-        <v>66950</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4444,35 +4586,31 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>67300</v>
+        <v>68700</v>
       </c>
       <c r="C107" t="n">
-        <v>67300</v>
+        <v>68700</v>
       </c>
       <c r="D107" t="n">
-        <v>67300</v>
+        <v>68700</v>
       </c>
       <c r="E107" t="n">
-        <v>67300</v>
+        <v>68700</v>
       </c>
       <c r="F107" t="n">
-        <v>34.421</v>
+        <v>1.5886</v>
       </c>
       <c r="G107" t="n">
-        <v>-65477.81552780679</v>
+        <v>-65501.31559953713</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>67300</v>
-      </c>
-      <c r="K107" t="n">
-        <v>66950</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4488,35 +4626,31 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>67300</v>
+        <v>69100</v>
       </c>
       <c r="C108" t="n">
-        <v>67300</v>
+        <v>69300</v>
       </c>
       <c r="D108" t="n">
-        <v>67300</v>
+        <v>69300</v>
       </c>
       <c r="E108" t="n">
-        <v>67300</v>
+        <v>69100</v>
       </c>
       <c r="F108" t="n">
-        <v>19.001</v>
+        <v>0.58</v>
       </c>
       <c r="G108" t="n">
-        <v>-65477.81552780679</v>
+        <v>-65500.73559953713</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>67300</v>
-      </c>
-      <c r="K108" t="n">
-        <v>66950</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4532,35 +4666,31 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>67300</v>
+        <v>69300</v>
       </c>
       <c r="C109" t="n">
-        <v>67300</v>
+        <v>68650</v>
       </c>
       <c r="D109" t="n">
-        <v>67300</v>
+        <v>69300</v>
       </c>
       <c r="E109" t="n">
-        <v>67300</v>
+        <v>68650</v>
       </c>
       <c r="F109" t="n">
-        <v>33.2212</v>
+        <v>51.8525</v>
       </c>
       <c r="G109" t="n">
-        <v>-65477.81552780679</v>
+        <v>-65552.58809953713</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>67300</v>
-      </c>
-      <c r="K109" t="n">
-        <v>66950</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4576,35 +4706,31 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>67300</v>
+        <v>69350</v>
       </c>
       <c r="C110" t="n">
-        <v>67400</v>
+        <v>69350</v>
       </c>
       <c r="D110" t="n">
-        <v>67400</v>
+        <v>69350</v>
       </c>
       <c r="E110" t="n">
-        <v>67300</v>
+        <v>69350</v>
       </c>
       <c r="F110" t="n">
-        <v>20.7175</v>
+        <v>0.1</v>
       </c>
       <c r="G110" t="n">
-        <v>-65457.09802780679</v>
+        <v>-65552.48809953712</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>67300</v>
-      </c>
-      <c r="K110" t="n">
-        <v>66950</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4620,44 +4746,2902 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
+        <v>68800</v>
+      </c>
+      <c r="C111" t="n">
+        <v>68800</v>
+      </c>
+      <c r="D111" t="n">
+        <v>68800</v>
+      </c>
+      <c r="E111" t="n">
+        <v>68800</v>
+      </c>
+      <c r="F111" t="n">
+        <v>10.0746</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-65562.56269953713</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>68800</v>
+      </c>
+      <c r="C112" t="n">
+        <v>68700</v>
+      </c>
+      <c r="D112" t="n">
+        <v>68800</v>
+      </c>
+      <c r="E112" t="n">
+        <v>68700</v>
+      </c>
+      <c r="F112" t="n">
+        <v>25.8318</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-65588.39449953713</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>68700</v>
+      </c>
+      <c r="C113" t="n">
+        <v>68650</v>
+      </c>
+      <c r="D113" t="n">
+        <v>68700</v>
+      </c>
+      <c r="E113" t="n">
+        <v>68650</v>
+      </c>
+      <c r="F113" t="n">
+        <v>21.2812</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-65609.67569953713</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>68650</v>
+      </c>
+      <c r="C114" t="n">
+        <v>68650</v>
+      </c>
+      <c r="D114" t="n">
+        <v>68650</v>
+      </c>
+      <c r="E114" t="n">
+        <v>68650</v>
+      </c>
+      <c r="F114" t="n">
+        <v>6.6387</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-65609.67569953713</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>68650</v>
+      </c>
+      <c r="C115" t="n">
+        <v>68650</v>
+      </c>
+      <c r="D115" t="n">
+        <v>68650</v>
+      </c>
+      <c r="E115" t="n">
+        <v>68650</v>
+      </c>
+      <c r="F115" t="n">
+        <v>4</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-65609.67569953713</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>69150</v>
+      </c>
+      <c r="C116" t="n">
+        <v>69050</v>
+      </c>
+      <c r="D116" t="n">
+        <v>69150</v>
+      </c>
+      <c r="E116" t="n">
+        <v>69050</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1.1255</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-65608.55019953713</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>69050</v>
+      </c>
+      <c r="C117" t="n">
+        <v>69050</v>
+      </c>
+      <c r="D117" t="n">
+        <v>69050</v>
+      </c>
+      <c r="E117" t="n">
+        <v>69050</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.1449</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-65608.55019953713</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>69050</v>
+      </c>
+      <c r="C118" t="n">
+        <v>69250</v>
+      </c>
+      <c r="D118" t="n">
+        <v>69250</v>
+      </c>
+      <c r="E118" t="n">
+        <v>69050</v>
+      </c>
+      <c r="F118" t="n">
+        <v>27.932855451263</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-65580.61734408587</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>68850</v>
+      </c>
+      <c r="C119" t="n">
+        <v>68850</v>
+      </c>
+      <c r="D119" t="n">
+        <v>68850</v>
+      </c>
+      <c r="E119" t="n">
+        <v>68850</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-65582.11734408587</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>69150</v>
+      </c>
+      <c r="C120" t="n">
+        <v>68850</v>
+      </c>
+      <c r="D120" t="n">
+        <v>69150</v>
+      </c>
+      <c r="E120" t="n">
+        <v>68800</v>
+      </c>
+      <c r="F120" t="n">
+        <v>19.218843673174</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-65582.11734408587</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>68800</v>
+      </c>
+      <c r="C121" t="n">
+        <v>68650</v>
+      </c>
+      <c r="D121" t="n">
+        <v>68800</v>
+      </c>
+      <c r="E121" t="n">
+        <v>68650</v>
+      </c>
+      <c r="F121" t="n">
+        <v>36.915769767441</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-65619.03311385331</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>68600</v>
+      </c>
+      <c r="C122" t="n">
+        <v>68550</v>
+      </c>
+      <c r="D122" t="n">
+        <v>68600</v>
+      </c>
+      <c r="E122" t="n">
+        <v>68550</v>
+      </c>
+      <c r="F122" t="n">
+        <v>36.8866</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-65655.91971385331</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>68450</v>
+      </c>
+      <c r="C123" t="n">
+        <v>68550</v>
+      </c>
+      <c r="D123" t="n">
+        <v>68550</v>
+      </c>
+      <c r="E123" t="n">
+        <v>68400</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1.4582</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-65655.91971385331</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>68300</v>
+      </c>
+      <c r="C124" t="n">
+        <v>68300</v>
+      </c>
+      <c r="D124" t="n">
+        <v>68300</v>
+      </c>
+      <c r="E124" t="n">
+        <v>68300</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.2921</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-65656.21181385331</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>68950</v>
+      </c>
+      <c r="C125" t="n">
+        <v>69050</v>
+      </c>
+      <c r="D125" t="n">
+        <v>69050</v>
+      </c>
+      <c r="E125" t="n">
+        <v>68950</v>
+      </c>
+      <c r="F125" t="n">
+        <v>3.8975</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-65652.31431385331</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>69050</v>
+      </c>
+      <c r="C126" t="n">
+        <v>69150</v>
+      </c>
+      <c r="D126" t="n">
+        <v>69150</v>
+      </c>
+      <c r="E126" t="n">
+        <v>69050</v>
+      </c>
+      <c r="F126" t="n">
+        <v>8.6714</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-65643.6429138533</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>69050</v>
+      </c>
+      <c r="C127" t="n">
+        <v>69050</v>
+      </c>
+      <c r="D127" t="n">
+        <v>69050</v>
+      </c>
+      <c r="E127" t="n">
+        <v>69050</v>
+      </c>
+      <c r="F127" t="n">
+        <v>7.4565</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-65651.0994138533</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>69050</v>
+      </c>
+      <c r="C128" t="n">
+        <v>69050</v>
+      </c>
+      <c r="D128" t="n">
+        <v>69050</v>
+      </c>
+      <c r="E128" t="n">
+        <v>69050</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1.6374</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-65651.0994138533</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>68850</v>
+      </c>
+      <c r="C129" t="n">
+        <v>68850</v>
+      </c>
+      <c r="D129" t="n">
+        <v>68850</v>
+      </c>
+      <c r="E129" t="n">
+        <v>68850</v>
+      </c>
+      <c r="F129" t="n">
+        <v>8.1759</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-65659.2753138533</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>68850</v>
+      </c>
+      <c r="C130" t="n">
+        <v>68850</v>
+      </c>
+      <c r="D130" t="n">
+        <v>68850</v>
+      </c>
+      <c r="E130" t="n">
+        <v>68850</v>
+      </c>
+      <c r="F130" t="n">
+        <v>3.0424</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-65659.2753138533</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>68850</v>
+      </c>
+      <c r="C131" t="n">
+        <v>68850</v>
+      </c>
+      <c r="D131" t="n">
+        <v>68850</v>
+      </c>
+      <c r="E131" t="n">
+        <v>68850</v>
+      </c>
+      <c r="F131" t="n">
+        <v>24.023</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-65659.2753138533</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>68300</v>
+      </c>
+      <c r="C132" t="n">
+        <v>68300</v>
+      </c>
+      <c r="D132" t="n">
+        <v>68300</v>
+      </c>
+      <c r="E132" t="n">
+        <v>68300</v>
+      </c>
+      <c r="F132" t="n">
+        <v>7.4565</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-65666.7318138533</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>68300</v>
+      </c>
+      <c r="C133" t="n">
+        <v>68300</v>
+      </c>
+      <c r="D133" t="n">
+        <v>68300</v>
+      </c>
+      <c r="E133" t="n">
+        <v>68300</v>
+      </c>
+      <c r="F133" t="n">
+        <v>57.6597</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-65666.7318138533</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>68950</v>
+      </c>
+      <c r="C134" t="n">
+        <v>68950</v>
+      </c>
+      <c r="D134" t="n">
+        <v>68950</v>
+      </c>
+      <c r="E134" t="n">
+        <v>68950</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.1859</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-65666.5459138533</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>68050</v>
+      </c>
+      <c r="C135" t="n">
+        <v>68050</v>
+      </c>
+      <c r="D135" t="n">
+        <v>68050</v>
+      </c>
+      <c r="E135" t="n">
+        <v>68050</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.1859</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-65666.7318138533</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>68800</v>
+      </c>
+      <c r="C136" t="n">
+        <v>68800</v>
+      </c>
+      <c r="D136" t="n">
+        <v>68800</v>
+      </c>
+      <c r="E136" t="n">
+        <v>68800</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.129186046511</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-65666.60262780679</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>68700</v>
+      </c>
+      <c r="C137" t="n">
+        <v>68700</v>
+      </c>
+      <c r="D137" t="n">
+        <v>68700</v>
+      </c>
+      <c r="E137" t="n">
+        <v>68700</v>
+      </c>
+      <c r="F137" t="n">
+        <v>5</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-65671.60262780679</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>68800</v>
+      </c>
+      <c r="C138" t="n">
+        <v>68800</v>
+      </c>
+      <c r="D138" t="n">
+        <v>68800</v>
+      </c>
+      <c r="E138" t="n">
+        <v>68800</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2.7547</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-65668.84792780678</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>68450</v>
+      </c>
+      <c r="C139" t="n">
+        <v>68450</v>
+      </c>
+      <c r="D139" t="n">
+        <v>68450</v>
+      </c>
+      <c r="E139" t="n">
+        <v>68450</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1.3567</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-65670.20462780679</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>68350</v>
+      </c>
+      <c r="C140" t="n">
+        <v>68300</v>
+      </c>
+      <c r="D140" t="n">
+        <v>68350</v>
+      </c>
+      <c r="E140" t="n">
+        <v>68300</v>
+      </c>
+      <c r="F140" t="n">
+        <v>39.9127</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-65710.11732780679</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>68500</v>
+      </c>
+      <c r="C141" t="n">
+        <v>68100</v>
+      </c>
+      <c r="D141" t="n">
+        <v>68500</v>
+      </c>
+      <c r="E141" t="n">
+        <v>68100</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1.0143</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-65711.13162780678</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>67600</v>
+      </c>
+      <c r="C142" t="n">
+        <v>67600</v>
+      </c>
+      <c r="D142" t="n">
+        <v>67600</v>
+      </c>
+      <c r="E142" t="n">
+        <v>67600</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.7862</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-65711.91782780678</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>67600</v>
+      </c>
+      <c r="C143" t="n">
+        <v>67600</v>
+      </c>
+      <c r="D143" t="n">
+        <v>67600</v>
+      </c>
+      <c r="E143" t="n">
+        <v>67600</v>
+      </c>
+      <c r="F143" t="n">
+        <v>10</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-65711.91782780678</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>67750</v>
+      </c>
+      <c r="C144" t="n">
+        <v>67750</v>
+      </c>
+      <c r="D144" t="n">
+        <v>67750</v>
+      </c>
+      <c r="E144" t="n">
+        <v>67750</v>
+      </c>
+      <c r="F144" t="n">
+        <v>6.7138</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-65705.20402780679</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>68000</v>
+      </c>
+      <c r="C145" t="n">
+        <v>68000</v>
+      </c>
+      <c r="D145" t="n">
+        <v>68000</v>
+      </c>
+      <c r="E145" t="n">
+        <v>68000</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1.7475</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-65703.45652780679</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>68000</v>
+      </c>
+      <c r="C146" t="n">
+        <v>67750</v>
+      </c>
+      <c r="D146" t="n">
+        <v>68000</v>
+      </c>
+      <c r="E146" t="n">
+        <v>67750</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-65704.98652780679</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>67600</v>
+      </c>
+      <c r="C147" t="n">
+        <v>67500</v>
+      </c>
+      <c r="D147" t="n">
+        <v>67600</v>
+      </c>
+      <c r="E147" t="n">
+        <v>67500</v>
+      </c>
+      <c r="F147" t="n">
+        <v>8.8971</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-65713.88362780679</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>67550</v>
+      </c>
+      <c r="C148" t="n">
+        <v>68000</v>
+      </c>
+      <c r="D148" t="n">
+        <v>68000</v>
+      </c>
+      <c r="E148" t="n">
+        <v>67500</v>
+      </c>
+      <c r="F148" t="n">
+        <v>4.644</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-65709.23962780679</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>67450</v>
+      </c>
+      <c r="C149" t="n">
         <v>67400</v>
       </c>
-      <c r="C111" t="n">
+      <c r="D149" t="n">
+        <v>67450</v>
+      </c>
+      <c r="E149" t="n">
         <v>67400</v>
       </c>
-      <c r="D111" t="n">
+      <c r="F149" t="n">
+        <v>1.4981</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-65710.73772780679</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
         <v>67400</v>
       </c>
-      <c r="E111" t="n">
+      <c r="C150" t="n">
         <v>67400</v>
       </c>
-      <c r="F111" t="n">
+      <c r="D150" t="n">
+        <v>67400</v>
+      </c>
+      <c r="E150" t="n">
+        <v>67400</v>
+      </c>
+      <c r="F150" t="n">
+        <v>49</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-65710.73772780679</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>67350</v>
+      </c>
+      <c r="C151" t="n">
+        <v>67350</v>
+      </c>
+      <c r="D151" t="n">
+        <v>67350</v>
+      </c>
+      <c r="E151" t="n">
+        <v>67350</v>
+      </c>
+      <c r="F151" t="n">
+        <v>6.3562</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-65717.09392780678</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>67550</v>
+      </c>
+      <c r="C152" t="n">
+        <v>67550</v>
+      </c>
+      <c r="D152" t="n">
+        <v>67550</v>
+      </c>
+      <c r="E152" t="n">
+        <v>67550</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-65716.03392780678</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>67500</v>
+      </c>
+      <c r="C153" t="n">
+        <v>67500</v>
+      </c>
+      <c r="D153" t="n">
+        <v>67500</v>
+      </c>
+      <c r="E153" t="n">
+        <v>67500</v>
+      </c>
+      <c r="F153" t="n">
+        <v>3.9729</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-65720.00682780678</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>67750</v>
+      </c>
+      <c r="C154" t="n">
+        <v>67850</v>
+      </c>
+      <c r="D154" t="n">
+        <v>67850</v>
+      </c>
+      <c r="E154" t="n">
+        <v>67500</v>
+      </c>
+      <c r="F154" t="n">
+        <v>119.7466</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-65600.26022780678</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>67500</v>
+      </c>
+      <c r="C155" t="n">
+        <v>67400</v>
+      </c>
+      <c r="D155" t="n">
+        <v>67900</v>
+      </c>
+      <c r="E155" t="n">
+        <v>67350</v>
+      </c>
+      <c r="F155" t="n">
+        <v>9.8787</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-65610.13892780678</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>67500</v>
+      </c>
+      <c r="C156" t="n">
+        <v>67450</v>
+      </c>
+      <c r="D156" t="n">
+        <v>67500</v>
+      </c>
+      <c r="E156" t="n">
+        <v>67450</v>
+      </c>
+      <c r="F156" t="n">
+        <v>10</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-65600.13892780678</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>67350</v>
+      </c>
+      <c r="C157" t="n">
+        <v>67350</v>
+      </c>
+      <c r="D157" t="n">
+        <v>67350</v>
+      </c>
+      <c r="E157" t="n">
+        <v>67350</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1.6029</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-65601.74182780678</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>67300</v>
+      </c>
+      <c r="C158" t="n">
+        <v>67300</v>
+      </c>
+      <c r="D158" t="n">
+        <v>67300</v>
+      </c>
+      <c r="E158" t="n">
+        <v>67300</v>
+      </c>
+      <c r="F158" t="n">
+        <v>17.9147</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-65619.65652780677</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>67300</v>
+      </c>
+      <c r="C159" t="n">
+        <v>67000</v>
+      </c>
+      <c r="D159" t="n">
+        <v>67450</v>
+      </c>
+      <c r="E159" t="n">
+        <v>67000</v>
+      </c>
+      <c r="F159" t="n">
+        <v>14.579</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-65634.23552780677</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>67200</v>
+      </c>
+      <c r="C160" t="n">
+        <v>66900</v>
+      </c>
+      <c r="D160" t="n">
+        <v>67200</v>
+      </c>
+      <c r="E160" t="n">
+        <v>66900</v>
+      </c>
+      <c r="F160" t="n">
+        <v>13.6046</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-65647.84012780678</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>67000</v>
+      </c>
+      <c r="C161" t="n">
+        <v>67000</v>
+      </c>
+      <c r="D161" t="n">
+        <v>67000</v>
+      </c>
+      <c r="E161" t="n">
+        <v>67000</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-65647.27212780678</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>66900</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>66950</v>
+      </c>
+      <c r="C162" t="n">
+        <v>66950</v>
+      </c>
+      <c r="D162" t="n">
+        <v>66950</v>
+      </c>
+      <c r="E162" t="n">
+        <v>66950</v>
+      </c>
+      <c r="F162" t="n">
+        <v>2.2617</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-65649.53382780678</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>67000</v>
+      </c>
+      <c r="C163" t="n">
+        <v>67000</v>
+      </c>
+      <c r="D163" t="n">
+        <v>67000</v>
+      </c>
+      <c r="E163" t="n">
+        <v>67000</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.3194</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-65649.21442780679</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>66950</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>66950</v>
+      </c>
+      <c r="C164" t="n">
+        <v>66950</v>
+      </c>
+      <c r="D164" t="n">
+        <v>66950</v>
+      </c>
+      <c r="E164" t="n">
+        <v>66950</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1.9556</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-65651.17002780679</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>67000</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>66950</v>
+      </c>
+      <c r="C165" t="n">
+        <v>67000</v>
+      </c>
+      <c r="D165" t="n">
+        <v>67000</v>
+      </c>
+      <c r="E165" t="n">
+        <v>66700</v>
+      </c>
+      <c r="F165" t="n">
+        <v>131.3544</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-65519.81562780679</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>66950</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>67050</v>
+      </c>
+      <c r="C166" t="n">
+        <v>67350</v>
+      </c>
+      <c r="D166" t="n">
+        <v>67350</v>
+      </c>
+      <c r="E166" t="n">
+        <v>67050</v>
+      </c>
+      <c r="F166" t="n">
+        <v>99.1962</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-65420.61942780679</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>67000</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>67050</v>
+      </c>
+      <c r="C167" t="n">
+        <v>67000</v>
+      </c>
+      <c r="D167" t="n">
+        <v>67050</v>
+      </c>
+      <c r="E167" t="n">
+        <v>67000</v>
+      </c>
+      <c r="F167" t="n">
+        <v>2.6841</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-65423.30352780679</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>67350</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>67000</v>
+      </c>
+      <c r="C168" t="n">
+        <v>66800</v>
+      </c>
+      <c r="D168" t="n">
+        <v>67000</v>
+      </c>
+      <c r="E168" t="n">
+        <v>66800</v>
+      </c>
+      <c r="F168" t="n">
+        <v>10.9048</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-65434.20832780679</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>67000</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>67050</v>
+      </c>
+      <c r="C169" t="n">
+        <v>66550</v>
+      </c>
+      <c r="D169" t="n">
+        <v>67050</v>
+      </c>
+      <c r="E169" t="n">
+        <v>66550</v>
+      </c>
+      <c r="F169" t="n">
+        <v>50.9979</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-65485.20622780679</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>66800</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>67350</v>
+      </c>
+      <c r="C170" t="n">
+        <v>67450</v>
+      </c>
+      <c r="D170" t="n">
+        <v>67450</v>
+      </c>
+      <c r="E170" t="n">
+        <v>67350</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.7587</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-65484.44752780679</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>66550</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>67450</v>
+      </c>
+      <c r="C171" t="n">
+        <v>67500</v>
+      </c>
+      <c r="D171" t="n">
+        <v>67500</v>
+      </c>
+      <c r="E171" t="n">
+        <v>67450</v>
+      </c>
+      <c r="F171" t="n">
+        <v>15.6013</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-65468.84622780679</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>67300</v>
+      </c>
+      <c r="C172" t="n">
+        <v>67250</v>
+      </c>
+      <c r="D172" t="n">
+        <v>67300</v>
+      </c>
+      <c r="E172" t="n">
+        <v>67250</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1.7349</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-65470.58112780679</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>67150</v>
+      </c>
+      <c r="C173" t="n">
+        <v>67150</v>
+      </c>
+      <c r="D173" t="n">
+        <v>67150</v>
+      </c>
+      <c r="E173" t="n">
+        <v>67150</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1.5424</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-65472.12352780679</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>67600</v>
+      </c>
+      <c r="C174" t="n">
+        <v>67600</v>
+      </c>
+      <c r="D174" t="n">
+        <v>67600</v>
+      </c>
+      <c r="E174" t="n">
+        <v>67600</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-65472.11552780679</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>67500</v>
+      </c>
+      <c r="C175" t="n">
+        <v>67500</v>
+      </c>
+      <c r="D175" t="n">
+        <v>67500</v>
+      </c>
+      <c r="E175" t="n">
+        <v>67500</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-65472.75052780679</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>67500</v>
+      </c>
+      <c r="C176" t="n">
+        <v>67500</v>
+      </c>
+      <c r="D176" t="n">
+        <v>67500</v>
+      </c>
+      <c r="E176" t="n">
+        <v>67500</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-65472.75052780679</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>67300</v>
+      </c>
+      <c r="C177" t="n">
+        <v>67300</v>
+      </c>
+      <c r="D177" t="n">
+        <v>67300</v>
+      </c>
+      <c r="E177" t="n">
+        <v>67300</v>
+      </c>
+      <c r="F177" t="n">
+        <v>5.065</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-65477.81552780679</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>67300</v>
+      </c>
+      <c r="C178" t="n">
+        <v>67300</v>
+      </c>
+      <c r="D178" t="n">
+        <v>67300</v>
+      </c>
+      <c r="E178" t="n">
+        <v>67300</v>
+      </c>
+      <c r="F178" t="n">
+        <v>34.421</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-65477.81552780679</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>67300</v>
+      </c>
+      <c r="C179" t="n">
+        <v>67300</v>
+      </c>
+      <c r="D179" t="n">
+        <v>67300</v>
+      </c>
+      <c r="E179" t="n">
+        <v>67300</v>
+      </c>
+      <c r="F179" t="n">
+        <v>19.001</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-65477.81552780679</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>67300</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>67300</v>
+      </c>
+      <c r="C180" t="n">
+        <v>67300</v>
+      </c>
+      <c r="D180" t="n">
+        <v>67300</v>
+      </c>
+      <c r="E180" t="n">
+        <v>67300</v>
+      </c>
+      <c r="F180" t="n">
+        <v>33.2212</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-65477.81552780679</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>67300</v>
+      </c>
+      <c r="C181" t="n">
+        <v>67400</v>
+      </c>
+      <c r="D181" t="n">
+        <v>67400</v>
+      </c>
+      <c r="E181" t="n">
+        <v>67300</v>
+      </c>
+      <c r="F181" t="n">
+        <v>20.7175</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-65457.09802780679</v>
+      </c>
+      <c r="H181" t="n">
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>67300</v>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>67400</v>
+      </c>
+      <c r="C182" t="n">
+        <v>67400</v>
+      </c>
+      <c r="D182" t="n">
+        <v>67400</v>
+      </c>
+      <c r="E182" t="n">
+        <v>67400</v>
+      </c>
+      <c r="F182" t="n">
         <v>0.0001</v>
       </c>
-      <c r="G111" t="n">
+      <c r="G182" t="n">
         <v>-65457.09802780679</v>
       </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>67400</v>
-      </c>
-      <c r="K111" t="n">
-        <v>66950</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-15 BackTest XMR.xlsx
+++ b/BackTest/2020-01-15 BackTest XMR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N182"/>
+  <dimension ref="A1:M182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>92.21757046587501</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>91.74747046587501</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>91.74747046587501</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>88.66747046587501</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>88.66747046587501</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>88.66747046587501</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>88.68747046587501</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>88.59747046587501</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>88.917470465875</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>-64883.01372953413</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>-64884.09072953412</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>-65050.62472953412</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1078,15 @@
         <v>-64910.84652953412</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,608 +1111,577 @@
         <v>-64707.79652953412</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>66500</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>66550</v>
+      </c>
+      <c r="C23" t="n">
+        <v>66550</v>
+      </c>
+      <c r="D23" t="n">
+        <v>66550</v>
+      </c>
+      <c r="E23" t="n">
+        <v>66550</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-64707.79652953412</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J23" t="n">
+        <v>66550</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>66550</v>
+      </c>
+      <c r="C24" t="n">
+        <v>66550</v>
+      </c>
+      <c r="D24" t="n">
+        <v>66550</v>
+      </c>
+      <c r="E24" t="n">
+        <v>66550</v>
+      </c>
+      <c r="F24" t="n">
+        <v>15.759398948159</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-64707.79652953412</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J24" t="n">
+        <v>66550</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>66550</v>
+      </c>
+      <c r="C25" t="n">
+        <v>66550</v>
+      </c>
+      <c r="D25" t="n">
+        <v>66550</v>
+      </c>
+      <c r="E25" t="n">
+        <v>66550</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.3457</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-64707.79652953412</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J25" t="n">
+        <v>66550</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>66050</v>
+      </c>
+      <c r="C26" t="n">
+        <v>66550</v>
+      </c>
+      <c r="D26" t="n">
+        <v>66550</v>
+      </c>
+      <c r="E26" t="n">
+        <v>66000</v>
+      </c>
+      <c r="F26" t="n">
+        <v>280.9532</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-64707.79652953412</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J26" t="n">
+        <v>66550</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>66550</v>
-      </c>
-      <c r="C23" t="n">
-        <v>66550</v>
-      </c>
-      <c r="D23" t="n">
-        <v>66550</v>
-      </c>
-      <c r="E23" t="n">
-        <v>66550</v>
-      </c>
-      <c r="F23" t="n">
-        <v>5</v>
-      </c>
-      <c r="G23" t="n">
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>66550</v>
+      </c>
+      <c r="C27" t="n">
+        <v>66550</v>
+      </c>
+      <c r="D27" t="n">
+        <v>66550</v>
+      </c>
+      <c r="E27" t="n">
+        <v>66550</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0262</v>
+      </c>
+      <c r="G27" t="n">
         <v>-64707.79652953412</v>
       </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>66550</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J27" t="n">
+        <v>66550</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>66550</v>
-      </c>
-      <c r="C24" t="n">
-        <v>66550</v>
-      </c>
-      <c r="D24" t="n">
-        <v>66550</v>
-      </c>
-      <c r="E24" t="n">
-        <v>66550</v>
-      </c>
-      <c r="F24" t="n">
-        <v>15.759398948159</v>
-      </c>
-      <c r="G24" t="n">
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>66550</v>
+      </c>
+      <c r="C28" t="n">
+        <v>66550</v>
+      </c>
+      <c r="D28" t="n">
+        <v>66550</v>
+      </c>
+      <c r="E28" t="n">
+        <v>66550</v>
+      </c>
+      <c r="F28" t="n">
+        <v>10.8428</v>
+      </c>
+      <c r="G28" t="n">
         <v>-64707.79652953412</v>
       </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>66550</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J28" t="n">
+        <v>66550</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>66550</v>
-      </c>
-      <c r="C25" t="n">
-        <v>66550</v>
-      </c>
-      <c r="D25" t="n">
-        <v>66550</v>
-      </c>
-      <c r="E25" t="n">
-        <v>66550</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.3457</v>
-      </c>
-      <c r="G25" t="n">
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>66550</v>
+      </c>
+      <c r="C29" t="n">
+        <v>66550</v>
+      </c>
+      <c r="D29" t="n">
+        <v>66550</v>
+      </c>
+      <c r="E29" t="n">
+        <v>66550</v>
+      </c>
+      <c r="F29" t="n">
+        <v>59.6807</v>
+      </c>
+      <c r="G29" t="n">
         <v>-64707.79652953412</v>
       </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>66550</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J29" t="n">
+        <v>66550</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>66050</v>
-      </c>
-      <c r="C26" t="n">
-        <v>66550</v>
-      </c>
-      <c r="D26" t="n">
-        <v>66550</v>
-      </c>
-      <c r="E26" t="n">
-        <v>66000</v>
-      </c>
-      <c r="F26" t="n">
-        <v>280.9532</v>
-      </c>
-      <c r="G26" t="n">
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>66550</v>
+      </c>
+      <c r="C30" t="n">
+        <v>66550</v>
+      </c>
+      <c r="D30" t="n">
+        <v>66550</v>
+      </c>
+      <c r="E30" t="n">
+        <v>66550</v>
+      </c>
+      <c r="F30" t="n">
+        <v>44.3483</v>
+      </c>
+      <c r="G30" t="n">
         <v>-64707.79652953412</v>
       </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>66550</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>66550</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>66550</v>
-      </c>
-      <c r="C27" t="n">
-        <v>66550</v>
-      </c>
-      <c r="D27" t="n">
-        <v>66550</v>
-      </c>
-      <c r="E27" t="n">
-        <v>66550</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.0262</v>
-      </c>
-      <c r="G27" t="n">
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>66550</v>
+      </c>
+      <c r="C31" t="n">
+        <v>66550</v>
+      </c>
+      <c r="D31" t="n">
+        <v>66550</v>
+      </c>
+      <c r="E31" t="n">
+        <v>66550</v>
+      </c>
+      <c r="F31" t="n">
+        <v>12.3809</v>
+      </c>
+      <c r="G31" t="n">
         <v>-64707.79652953412</v>
       </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>66550</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>66550</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>66550</v>
-      </c>
-      <c r="C28" t="n">
-        <v>66550</v>
-      </c>
-      <c r="D28" t="n">
-        <v>66550</v>
-      </c>
-      <c r="E28" t="n">
-        <v>66550</v>
-      </c>
-      <c r="F28" t="n">
-        <v>10.8428</v>
-      </c>
-      <c r="G28" t="n">
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>66550</v>
+      </c>
+      <c r="C32" t="n">
+        <v>66550</v>
+      </c>
+      <c r="D32" t="n">
+        <v>66550</v>
+      </c>
+      <c r="E32" t="n">
+        <v>66550</v>
+      </c>
+      <c r="F32" t="n">
+        <v>26.434</v>
+      </c>
+      <c r="G32" t="n">
         <v>-64707.79652953412</v>
       </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>66550</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>66550</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>66550</v>
-      </c>
-      <c r="C29" t="n">
-        <v>66550</v>
-      </c>
-      <c r="D29" t="n">
-        <v>66550</v>
-      </c>
-      <c r="E29" t="n">
-        <v>66550</v>
-      </c>
-      <c r="F29" t="n">
-        <v>59.6807</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-64707.79652953412</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>66550</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>66550</v>
+      </c>
+      <c r="C33" t="n">
+        <v>66900</v>
+      </c>
+      <c r="D33" t="n">
+        <v>66900</v>
+      </c>
+      <c r="E33" t="n">
+        <v>66550</v>
+      </c>
+      <c r="F33" t="n">
+        <v>3.601</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-64704.19552953412</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>66550</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>66550</v>
-      </c>
-      <c r="C30" t="n">
-        <v>66550</v>
-      </c>
-      <c r="D30" t="n">
-        <v>66550</v>
-      </c>
-      <c r="E30" t="n">
-        <v>66550</v>
-      </c>
-      <c r="F30" t="n">
-        <v>44.3483</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-64707.79652953412</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>66550</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>67300</v>
+      </c>
+      <c r="C34" t="n">
+        <v>67300</v>
+      </c>
+      <c r="D34" t="n">
+        <v>67300</v>
+      </c>
+      <c r="E34" t="n">
+        <v>67300</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.6776</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-64703.51792953411</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" t="n">
+        <v>66900</v>
+      </c>
+      <c r="J34" t="n">
+        <v>66550</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>66550</v>
-      </c>
-      <c r="C31" t="n">
-        <v>66550</v>
-      </c>
-      <c r="D31" t="n">
-        <v>66550</v>
-      </c>
-      <c r="E31" t="n">
-        <v>66550</v>
-      </c>
-      <c r="F31" t="n">
-        <v>12.3809</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-64707.79652953412</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>66550</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>66700</v>
+      </c>
+      <c r="C35" t="n">
+        <v>66700</v>
+      </c>
+      <c r="D35" t="n">
+        <v>66700</v>
+      </c>
+      <c r="E35" t="n">
+        <v>66700</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-64703.61792953411</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+      <c r="I35" t="n">
+        <v>67300</v>
+      </c>
+      <c r="J35" t="n">
+        <v>66550</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>66550</v>
-      </c>
-      <c r="C32" t="n">
-        <v>66550</v>
-      </c>
-      <c r="D32" t="n">
-        <v>66550</v>
-      </c>
-      <c r="E32" t="n">
-        <v>66550</v>
-      </c>
-      <c r="F32" t="n">
-        <v>26.434</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-64707.79652953412</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>66550</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>66700</v>
+      </c>
+      <c r="C36" t="n">
+        <v>66700</v>
+      </c>
+      <c r="D36" t="n">
+        <v>66700</v>
+      </c>
+      <c r="E36" t="n">
+        <v>66700</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-64703.61792953411</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+      <c r="I36" t="n">
+        <v>66700</v>
+      </c>
+      <c r="J36" t="n">
+        <v>66550</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>66550</v>
-      </c>
-      <c r="C33" t="n">
-        <v>66900</v>
-      </c>
-      <c r="D33" t="n">
-        <v>66900</v>
-      </c>
-      <c r="E33" t="n">
-        <v>66550</v>
-      </c>
-      <c r="F33" t="n">
-        <v>3.601</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-64704.19552953412</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>66550</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>67300</v>
-      </c>
-      <c r="C34" t="n">
-        <v>67300</v>
-      </c>
-      <c r="D34" t="n">
-        <v>67300</v>
-      </c>
-      <c r="E34" t="n">
-        <v>67300</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.6776</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-64703.51792953411</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>66900</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>66700</v>
-      </c>
-      <c r="C35" t="n">
-        <v>66700</v>
-      </c>
-      <c r="D35" t="n">
-        <v>66700</v>
-      </c>
-      <c r="E35" t="n">
-        <v>66700</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-64703.61792953411</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>66700</v>
-      </c>
-      <c r="C36" t="n">
-        <v>66700</v>
-      </c>
-      <c r="D36" t="n">
-        <v>66700</v>
-      </c>
-      <c r="E36" t="n">
-        <v>66700</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-64703.61792953411</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1802,22 +1706,21 @@
         <v>-64701.61792953411</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>66550</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1.005518407212622</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1844,20 +1747,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1882,22 +1778,15 @@
         <v>-64751.20002953411</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1924,20 +1813,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1962,22 +1844,15 @@
         <v>-64736.84672953411</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2002,22 +1877,19 @@
         <v>-64735.72112953411</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
+        <v>66850</v>
+      </c>
+      <c r="J42" t="n">
+        <v>66850</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2042,22 +1914,23 @@
         <v>-64666.65626599167</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
+        <v>67050</v>
+      </c>
+      <c r="J43" t="n">
+        <v>66850</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2084,20 +1957,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>66850</v>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2124,20 +1996,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2162,22 +2027,15 @@
         <v>-64687.26796599168</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2202,22 +2060,15 @@
         <v>-64667.26796599168</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2244,20 +2095,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2282,22 +2126,15 @@
         <v>-64667.26796599168</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2324,20 +2161,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2362,22 +2192,15 @@
         <v>-64690.95576599168</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2402,22 +2225,15 @@
         <v>-64679.21916599168</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2442,22 +2258,15 @@
         <v>-64679.21916599168</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2482,22 +2291,15 @@
         <v>-64662.31906599168</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2524,20 +2326,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2564,20 +2359,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2604,20 +2392,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2644,20 +2425,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2682,22 +2456,15 @@
         <v>-64636.04816599168</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2722,22 +2489,15 @@
         <v>-64666.04816599168</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2762,22 +2522,15 @@
         <v>-64693.88506599169</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2802,22 +2555,15 @@
         <v>-64662.69916599169</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2842,22 +2588,15 @@
         <v>-64662.94346599169</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2882,22 +2621,15 @@
         <v>-64656.26316599169</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2924,20 +2656,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2962,22 +2687,15 @@
         <v>-64654.06556599169</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3004,20 +2722,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3044,20 +2755,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3084,20 +2788,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3124,20 +2821,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3164,20 +2854,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3204,20 +2887,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3244,20 +2920,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3284,20 +2953,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3324,20 +2986,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3364,20 +3019,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3404,20 +3052,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3444,20 +3085,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3484,20 +3118,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3522,24 +3149,15 @@
         <v>-64679.63069389866</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>67600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3566,20 +3184,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3606,20 +3217,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3646,20 +3250,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3686,20 +3283,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3726,20 +3316,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3766,20 +3349,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3806,20 +3382,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3846,20 +3415,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3886,20 +3448,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3926,20 +3481,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3966,20 +3514,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4006,20 +3547,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4046,20 +3580,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4086,20 +3613,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4126,20 +3646,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4166,20 +3679,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4206,20 +3712,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4246,20 +3745,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4286,20 +3778,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4326,20 +3811,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4366,20 +3844,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4406,20 +3877,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4446,20 +3910,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4486,20 +3943,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4526,20 +3976,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4566,20 +4009,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4606,20 +4042,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4646,20 +4075,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4686,20 +4108,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4726,20 +4141,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4766,20 +4174,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4806,20 +4207,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4846,20 +4240,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4886,20 +4273,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4926,20 +4306,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4966,20 +4339,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5006,20 +4372,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5046,20 +4405,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5086,20 +4438,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5126,20 +4471,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5166,20 +4504,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5206,20 +4537,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5246,20 +4570,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5286,20 +4603,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5326,20 +4636,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5366,20 +4669,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5406,20 +4702,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5446,20 +4735,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5486,20 +4768,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5526,20 +4801,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5566,20 +4834,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5606,20 +4867,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5646,20 +4900,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5686,20 +4933,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5726,20 +4966,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5766,20 +4999,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5806,20 +5032,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5846,20 +5065,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5886,20 +5098,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5926,20 +5131,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5966,20 +5164,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6006,20 +5197,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6046,20 +5230,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6086,20 +5263,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6126,20 +5296,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6166,20 +5329,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6206,20 +5362,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6246,20 +5395,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6286,20 +5428,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6326,20 +5461,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6366,20 +5494,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6406,20 +5527,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6446,20 +5560,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6486,20 +5593,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6526,20 +5626,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6566,20 +5659,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6606,20 +5692,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6646,20 +5725,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6686,20 +5758,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6726,20 +5791,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6764,24 +5822,15 @@
         <v>-65647.27212780678</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6808,20 +5857,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6846,24 +5888,15 @@
         <v>-65649.21442780679</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="n">
-        <v>66950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6888,24 +5921,15 @@
         <v>-65651.17002780679</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="n">
-        <v>67000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6930,24 +5954,15 @@
         <v>-65519.81562780679</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="n">
-        <v>66950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6972,24 +5987,15 @@
         <v>-65420.61942780679</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="n">
-        <v>67000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7014,24 +6020,15 @@
         <v>-65423.30352780679</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="n">
-        <v>67350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7056,24 +6053,15 @@
         <v>-65434.20832780679</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="n">
-        <v>67000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7098,24 +6086,15 @@
         <v>-65485.20622780679</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="n">
-        <v>66800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7140,24 +6119,15 @@
         <v>-65484.44752780679</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="n">
-        <v>66550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7184,20 +6154,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7224,20 +6187,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7264,20 +6220,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7304,20 +6253,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7344,20 +6286,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7384,20 +6319,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7424,20 +6352,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7464,20 +6385,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7502,24 +6416,15 @@
         <v>-65477.81552780679</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="n">
-        <v>67300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7546,20 +6451,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7584,24 +6482,15 @@
         <v>-65457.09802780679</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="n">
-        <v>67300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7628,22 +6517,15 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest XMR.xlsx
+++ b/BackTest/2020-01-15 BackTest XMR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>80.84357046587502</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>92.21757046587501</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>92.21757046587501</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>92.21757046587501</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>91.74747046587501</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>91.74747046587501</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>91.74747046587501</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>91.74747046587501</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>88.74747046587501</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>88.74747046587501</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>88.66747046587501</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>88.66747046587501</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>88.66747046587501</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>88.68747046587501</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>88.59747046587501</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>88.917470465875</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-64883.01372953413</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-64884.09072953412</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-65050.62472953412</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-64910.84652953412</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-64707.79652953412</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,14 +1144,10 @@
         <v>-64707.79652953412</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>66550</v>
-      </c>
-      <c r="J23" t="n">
-        <v>66550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
@@ -1181,19 +1177,11 @@
         <v>-64707.79652953412</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>66550</v>
-      </c>
-      <c r="J24" t="n">
-        <v>66550</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1222,19 +1210,11 @@
         <v>-64707.79652953412</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>66550</v>
-      </c>
-      <c r="J25" t="n">
-        <v>66550</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1265,17 +1245,9 @@
       <c r="H26" t="n">
         <v>2</v>
       </c>
-      <c r="I26" t="n">
-        <v>66550</v>
-      </c>
-      <c r="J26" t="n">
-        <v>66550</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1306,17 +1278,9 @@
       <c r="H27" t="n">
         <v>2</v>
       </c>
-      <c r="I27" t="n">
-        <v>66550</v>
-      </c>
-      <c r="J27" t="n">
-        <v>66550</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1347,17 +1311,9 @@
       <c r="H28" t="n">
         <v>2</v>
       </c>
-      <c r="I28" t="n">
-        <v>66550</v>
-      </c>
-      <c r="J28" t="n">
-        <v>66550</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1388,17 +1344,9 @@
       <c r="H29" t="n">
         <v>2</v>
       </c>
-      <c r="I29" t="n">
-        <v>66550</v>
-      </c>
-      <c r="J29" t="n">
-        <v>66550</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1427,17 +1375,11 @@
         <v>-64707.79652953412</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>66550</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1466,17 +1408,11 @@
         <v>-64707.79652953412</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>66550</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1505,17 +1441,11 @@
         <v>-64707.79652953412</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>66550</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1544,17 +1474,11 @@
         <v>-64704.19552953412</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>66550</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1583,19 +1507,11 @@
         <v>-64703.51792953411</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>66900</v>
-      </c>
-      <c r="J34" t="n">
-        <v>66550</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1626,17 +1542,9 @@
       <c r="H35" t="n">
         <v>2</v>
       </c>
-      <c r="I35" t="n">
-        <v>67300</v>
-      </c>
-      <c r="J35" t="n">
-        <v>66550</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1665,19 +1573,11 @@
         <v>-64703.61792953411</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="n">
-        <v>66700</v>
-      </c>
-      <c r="J36" t="n">
-        <v>66550</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1706,19 +1606,13 @@
         <v>-64701.61792953411</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>66550</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>1.005518407212622</v>
+        <v>1</v>
       </c>
       <c r="M37" t="inlineStr"/>
     </row>
@@ -1745,7 +1639,7 @@
         <v>-64701.61792953411</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1778,7 +1672,7 @@
         <v>-64751.20002953411</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1811,7 +1705,7 @@
         <v>-64751.20002953411</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1844,7 +1738,7 @@
         <v>-64736.84672953411</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1879,12 +1773,8 @@
       <c r="H42" t="n">
         <v>2</v>
       </c>
-      <c r="I42" t="n">
-        <v>66850</v>
-      </c>
-      <c r="J42" t="n">
-        <v>66850</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
@@ -1916,17 +1806,9 @@
       <c r="H43" t="n">
         <v>2</v>
       </c>
-      <c r="I43" t="n">
-        <v>67050</v>
-      </c>
-      <c r="J43" t="n">
-        <v>66850</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1958,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>66850</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2027,7 +1903,7 @@
         <v>-64687.26796599168</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2060,7 +1936,7 @@
         <v>-64667.26796599168</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2126,7 +2002,7 @@
         <v>-64667.26796599168</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2192,7 +2068,7 @@
         <v>-64690.95576599168</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2225,7 +2101,7 @@
         <v>-64679.21916599168</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2258,7 +2134,7 @@
         <v>-64679.21916599168</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2291,7 +2167,7 @@
         <v>-64662.31906599168</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2456,7 +2332,7 @@
         <v>-64636.04816599168</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2489,7 +2365,7 @@
         <v>-64666.04816599168</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2522,7 +2398,7 @@
         <v>-64693.88506599169</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2555,7 +2431,7 @@
         <v>-64662.69916599169</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2588,7 +2464,7 @@
         <v>-64662.94346599169</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2621,7 +2497,7 @@
         <v>-64656.26316599169</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2687,7 +2563,7 @@
         <v>-64654.06556599169</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2918,11 +2794,17 @@
         <v>-64678.16959389866</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>68200</v>
+      </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2951,11 +2833,17 @@
         <v>-64700.09649389866</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>68750</v>
+      </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2984,11 +2872,17 @@
         <v>-64705.43869389866</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>68200</v>
+      </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3017,11 +2911,17 @@
         <v>-64713.12949389865</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>68050</v>
+      </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3050,11 +2950,17 @@
         <v>-64713.12949389865</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>67950</v>
+      </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3083,11 +2989,17 @@
         <v>-64713.12949389865</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>67950</v>
+      </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3116,11 +3028,17 @@
         <v>-64719.26789389866</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>67950</v>
+      </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3149,11 +3067,17 @@
         <v>-64679.63069389866</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>67600</v>
+      </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3182,11 +3106,17 @@
         <v>-64748.69549389866</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>67850</v>
+      </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3215,11 +3145,17 @@
         <v>-64720.89889389866</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>67650</v>
+      </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3248,11 +3184,17 @@
         <v>-64776.43799389866</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>68550</v>
+      </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3281,11 +3223,17 @@
         <v>-64767.06819477522</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>67700</v>
+      </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3314,11 +3262,17 @@
         <v>-64767.06819477522</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>68450</v>
+      </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3351,7 +3305,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3384,7 +3342,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3417,7 +3379,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3450,7 +3416,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3483,7 +3453,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3516,7 +3490,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3549,7 +3527,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3582,7 +3564,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3615,7 +3601,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3648,7 +3638,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3681,7 +3675,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3714,7 +3712,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3747,7 +3749,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3780,7 +3786,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3813,7 +3823,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3846,7 +3860,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3879,7 +3897,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3912,7 +3934,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3945,7 +3971,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3978,7 +4008,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4011,7 +4045,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4044,7 +4082,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4077,7 +4119,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4110,7 +4156,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4143,7 +4193,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4176,7 +4230,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4209,7 +4267,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4242,7 +4304,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4275,7 +4341,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4308,7 +4378,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4341,7 +4415,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4374,7 +4452,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4407,7 +4489,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4440,7 +4526,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4473,7 +4563,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4506,7 +4600,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4539,7 +4637,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4572,7 +4674,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4605,7 +4711,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4638,7 +4748,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4671,7 +4785,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4704,7 +4822,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4737,7 +4859,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4770,7 +4896,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4803,7 +4933,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4836,7 +4970,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4869,7 +5007,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4902,7 +5044,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4935,7 +5081,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4968,7 +5118,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5001,7 +5155,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5034,7 +5192,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5067,7 +5229,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5100,7 +5266,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5133,7 +5303,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5166,7 +5340,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5199,7 +5377,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5232,7 +5414,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5265,7 +5451,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5298,7 +5488,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5331,7 +5525,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5364,7 +5562,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5397,7 +5599,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5430,7 +5636,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5463,7 +5673,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5496,7 +5710,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5529,7 +5747,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5562,7 +5784,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5595,7 +5821,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5628,7 +5858,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5661,7 +5895,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5694,7 +5932,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5727,7 +5969,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5760,7 +6006,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5793,7 +6043,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5826,7 +6080,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5859,7 +6117,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5892,7 +6154,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5925,7 +6191,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5958,7 +6228,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5991,7 +6265,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6024,7 +6302,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6057,7 +6339,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6090,7 +6376,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6123,7 +6413,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6156,7 +6450,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6189,7 +6487,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6222,7 +6524,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6255,7 +6561,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6288,7 +6598,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6321,7 +6635,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6354,7 +6672,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6387,7 +6709,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6420,7 +6746,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6453,7 +6783,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6486,7 +6820,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6519,13 +6857,17 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
       <c r="M182" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest XMR.xlsx
+++ b/BackTest/2020-01-15 BackTest XMR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>80.84357046587502</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>92.21757046587501</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>91.74747046587501</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>88.74747046587501</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>88.74747046587501</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>88.66747046587501</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>88.66747046587501</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>88.68747046587501</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-65050.62472953412</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-64910.84652953412</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-64707.79652953412</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-64707.79652953412</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-64707.79652953412</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-64707.79652953412</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-64707.79652953412</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-64707.79652953412</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-64707.79652953412</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-64704.19552953412</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-64703.61792953411</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-64701.61792953411</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-64701.61792953411</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-64751.20002953411</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-64751.20002953411</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-64736.84672953411</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-64735.72112953411</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-64666.65626599167</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-64687.26796599168</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-64667.26796599168</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-64667.26796599168</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-64667.26796599168</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-64667.26796599168</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2794,17 +2794,11 @@
         <v>-64678.16959389866</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>68200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2833,17 +2827,11 @@
         <v>-64700.09649389866</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>68750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2872,17 +2860,11 @@
         <v>-64705.43869389866</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>68200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2911,17 +2893,11 @@
         <v>-64713.12949389865</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>68050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2950,17 +2926,11 @@
         <v>-64713.12949389865</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>67950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2989,17 +2959,11 @@
         <v>-64713.12949389865</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>67950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3028,17 +2992,11 @@
         <v>-64719.26789389866</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>67950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3067,17 +3025,11 @@
         <v>-64679.63069389866</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>67600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3106,17 +3058,11 @@
         <v>-64748.69549389866</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>67850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3145,17 +3091,11 @@
         <v>-64720.89889389866</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>67650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3184,17 +3124,11 @@
         <v>-64776.43799389866</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>68550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3223,17 +3157,11 @@
         <v>-64767.06819477522</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>67700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3262,17 +3190,11 @@
         <v>-64767.06819477522</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>68450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3305,11 +3227,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3342,11 +3260,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3379,11 +3293,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3416,11 +3326,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3453,11 +3359,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3490,11 +3392,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3527,11 +3425,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3564,11 +3458,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3601,11 +3491,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3638,11 +3524,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3675,11 +3557,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3712,11 +3590,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3749,11 +3623,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3786,11 +3656,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3823,11 +3689,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3860,11 +3722,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3897,11 +3755,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3934,11 +3788,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3971,11 +3821,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4008,11 +3854,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4045,11 +3887,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4082,11 +3920,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4119,11 +3953,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4156,11 +3986,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4193,11 +4019,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4230,11 +4052,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4267,11 +4085,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4304,11 +4118,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4341,11 +4151,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4378,11 +4184,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4415,11 +4217,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4452,11 +4250,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4489,11 +4283,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4526,11 +4316,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4563,11 +4349,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4600,11 +4382,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4637,11 +4415,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4674,11 +4448,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4711,11 +4481,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4748,11 +4514,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4785,11 +4547,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4822,11 +4580,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4859,11 +4613,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4896,11 +4646,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4933,11 +4679,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4970,11 +4712,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5007,11 +4745,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5044,11 +4778,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5081,11 +4811,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5118,11 +4844,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5155,11 +4877,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5192,11 +4910,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5229,11 +4943,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5266,11 +4976,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5303,11 +5009,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5340,11 +5042,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5377,11 +5075,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5414,11 +5108,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5451,11 +5141,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5488,11 +5174,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5525,11 +5207,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5562,11 +5240,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5599,11 +5273,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5636,11 +5306,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5673,11 +5339,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5710,11 +5372,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5747,11 +5405,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5784,11 +5438,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5821,11 +5471,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5858,11 +5504,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5895,11 +5537,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5932,11 +5570,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5969,11 +5603,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6006,11 +5636,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6043,11 +5669,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6080,11 +5702,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6117,11 +5735,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6154,11 +5768,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6191,11 +5801,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6228,11 +5834,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6265,11 +5867,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6302,11 +5900,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6339,11 +5933,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6372,13 +5962,15 @@
         <v>-65485.20622780679</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>66800</v>
+      </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L169" t="n">
@@ -6668,9 +6260,11 @@
         <v>-65477.81552780679</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>67500</v>
+      </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
@@ -6705,9 +6299,11 @@
         <v>-65477.81552780679</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>67300</v>
+      </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
@@ -6816,9 +6412,11 @@
         <v>-65457.09802780679</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>67300</v>
+      </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
@@ -6868,6 +6466,6 @@
       <c r="M182" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest XMR.xlsx
+++ b/BackTest/2020-01-15 BackTest XMR.xlsx
@@ -517,7 +517,7 @@
         <v>92.21757046587501</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>92.21757046587501</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>91.74747046587501</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>91.74747046587501</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>91.74747046587501</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>91.74747046587501</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>88.66747046587501</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>88.59747046587501</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>88.917470465875</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-64883.01372953413</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-64884.09072953412</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-64687.26796599168</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-64687.26796599168</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-64667.26796599168</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-64667.26796599168</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-64667.26796599168</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-64667.26796599168</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-64654.06556599169</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-64654.06556599169</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-64651.82719389867</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-64651.82719389867</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-64654.85219389867</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-64668.72379389867</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,11 +2761,17 @@
         <v>-64683.89499389866</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>68250</v>
+      </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2794,11 +2800,17 @@
         <v>-64678.16959389866</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>68200</v>
+      </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2827,11 +2839,17 @@
         <v>-64700.09649389866</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>68750</v>
+      </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2860,11 +2878,17 @@
         <v>-64705.43869389866</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>68200</v>
+      </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2893,11 +2917,17 @@
         <v>-64713.12949389865</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>68050</v>
+      </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2926,11 +2956,17 @@
         <v>-64713.12949389865</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>67950</v>
+      </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2959,11 +2995,17 @@
         <v>-64713.12949389865</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>67950</v>
+      </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2992,11 +3034,17 @@
         <v>-64719.26789389866</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>67950</v>
+      </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3025,11 +3073,17 @@
         <v>-64679.63069389866</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>67600</v>
+      </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3058,11 +3112,17 @@
         <v>-64748.69549389866</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>67850</v>
+      </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3091,11 +3151,17 @@
         <v>-64720.89889389866</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>67650</v>
+      </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3124,11 +3190,17 @@
         <v>-64776.43799389866</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>68550</v>
+      </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3157,11 +3229,17 @@
         <v>-64767.06819477522</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>67700</v>
+      </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3190,11 +3268,17 @@
         <v>-64767.06819477522</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>68450</v>
+      </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3223,11 +3307,17 @@
         <v>-64767.06819477522</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>68450</v>
+      </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3256,11 +3346,17 @@
         <v>-64802.06819477522</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>68450</v>
+      </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3289,11 +3385,17 @@
         <v>-64802.06819477522</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>68250</v>
+      </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3322,11 +3424,17 @@
         <v>-64801.96819477522</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>68250</v>
+      </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3355,14 +3463,16 @@
         <v>-64801.96819477522</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
@@ -3388,7 +3498,7 @@
         <v>-64804.20659477522</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,10 +3531,14 @@
         <v>-64802.20659477522</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>68200</v>
+      </c>
+      <c r="J92" t="n">
+        <v>68200</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
@@ -3454,11 +3568,19 @@
         <v>-65478.03149477522</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>68750</v>
+      </c>
+      <c r="J93" t="n">
+        <v>68200</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +3609,17 @@
         <v>-65477.98339953712</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>68200</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3520,11 +3648,17 @@
         <v>-65479.46089953712</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>68200</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3553,11 +3687,17 @@
         <v>-65480.94529953712</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>68200</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +3726,17 @@
         <v>-65481.09529953713</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>68200</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3619,11 +3765,17 @@
         <v>-65479.09529953713</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>68200</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3652,11 +3804,17 @@
         <v>-65512.59119953713</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>68200</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +3843,17 @@
         <v>-65513.85989953713</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>68200</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3721,8 +3885,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>68200</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3754,8 +3924,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>68200</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3787,8 +3963,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>68200</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3820,8 +4002,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>68200</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3850,13 +4038,19 @@
         <v>-65499.72699953713</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>68200</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L105" t="n">
-        <v>1</v>
+        <v>1.008196480938417</v>
       </c>
       <c r="M105" t="inlineStr"/>
     </row>
@@ -3883,7 +4077,7 @@
         <v>-65499.72699953713</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +4110,7 @@
         <v>-65501.31559953713</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +4143,7 @@
         <v>-65500.73559953713</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +4176,7 @@
         <v>-65552.58809953713</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4209,7 @@
         <v>-65552.48809953712</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4242,7 @@
         <v>-65562.56269953713</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4275,7 @@
         <v>-65588.39449953713</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4308,7 @@
         <v>-65609.67569953713</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4341,7 @@
         <v>-65609.67569953713</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4374,7 @@
         <v>-65609.67569953713</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4407,7 @@
         <v>-65608.55019953713</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4440,7 @@
         <v>-65608.55019953713</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4473,7 @@
         <v>-65580.61734408587</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4506,7 @@
         <v>-65582.11734408587</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4539,7 @@
         <v>-65582.11734408587</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4572,7 @@
         <v>-65619.03311385331</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4605,7 @@
         <v>-65655.91971385331</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4638,7 @@
         <v>-65655.91971385331</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4671,7 @@
         <v>-65656.21181385331</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4704,7 @@
         <v>-65652.31431385331</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4737,7 @@
         <v>-65643.6429138533</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4770,7 @@
         <v>-65651.0994138533</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4803,7 @@
         <v>-65651.0994138533</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4836,7 @@
         <v>-65659.2753138533</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4840,7 +5034,7 @@
         <v>-65666.7318138533</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4906,7 +5100,7 @@
         <v>-65671.60262780679</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +5133,7 @@
         <v>-65668.84792780678</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +5166,7 @@
         <v>-65670.20462780679</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5199,7 @@
         <v>-65710.11732780679</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5368,10 +5562,14 @@
         <v>-65717.09392780678</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>67400</v>
+      </c>
+      <c r="J151" t="n">
+        <v>67400</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
@@ -5404,8 +5602,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5434,11 +5638,19 @@
         <v>-65720.00682780678</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>67550</v>
+      </c>
+      <c r="J153" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5467,11 +5679,19 @@
         <v>-65600.26022780678</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>67500</v>
+      </c>
+      <c r="J154" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5500,11 +5720,19 @@
         <v>-65610.13892780678</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>67850</v>
+      </c>
+      <c r="J155" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5533,11 +5761,19 @@
         <v>-65600.13892780678</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>67400</v>
+      </c>
+      <c r="J156" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5569,8 +5805,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5602,8 +5844,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5632,11 +5880,19 @@
         <v>-65634.23552780677</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>67300</v>
+      </c>
+      <c r="J159" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5665,11 +5921,19 @@
         <v>-65647.84012780678</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>67000</v>
+      </c>
+      <c r="J160" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5698,11 +5962,19 @@
         <v>-65647.27212780678</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>66900</v>
+      </c>
+      <c r="J161" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5731,11 +6003,19 @@
         <v>-65649.53382780678</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>67000</v>
+      </c>
+      <c r="J162" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5764,11 +6044,19 @@
         <v>-65649.21442780679</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>66950</v>
+      </c>
+      <c r="J163" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5797,11 +6085,19 @@
         <v>-65651.17002780679</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>67000</v>
+      </c>
+      <c r="J164" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5830,11 +6126,19 @@
         <v>-65519.81562780679</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>66950</v>
+      </c>
+      <c r="J165" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5863,11 +6167,19 @@
         <v>-65420.61942780679</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>67000</v>
+      </c>
+      <c r="J166" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5896,11 +6208,19 @@
         <v>-65423.30352780679</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>67350</v>
+      </c>
+      <c r="J167" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5929,11 +6249,19 @@
         <v>-65434.20832780679</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>67000</v>
+      </c>
+      <c r="J168" t="n">
+        <v>67400</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5967,10 +6295,12 @@
       <c r="I169" t="n">
         <v>66800</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>67400</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L169" t="n">
@@ -6001,10 +6331,14 @@
         <v>-65484.44752780679</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J170" t="n">
+        <v>67400</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6041,7 +6375,9 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>67400</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6078,7 +6414,9 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>67400</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6112,10 +6450,14 @@
         <v>-65472.12352780679</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>67250</v>
+      </c>
+      <c r="J173" t="n">
+        <v>67400</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6149,10 +6491,14 @@
         <v>-65472.11552780679</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>67150</v>
+      </c>
+      <c r="J174" t="n">
+        <v>67400</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6186,10 +6532,14 @@
         <v>-65472.75052780679</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>67600</v>
+      </c>
+      <c r="J175" t="n">
+        <v>67400</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6226,7 +6576,9 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>67400</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6265,7 +6617,9 @@
       <c r="I177" t="n">
         <v>67500</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>67400</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6304,7 +6658,9 @@
       <c r="I178" t="n">
         <v>67300</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>67400</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6338,10 +6694,14 @@
         <v>-65477.81552780679</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>67300</v>
+      </c>
+      <c r="J179" t="n">
+        <v>67400</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6375,10 +6735,14 @@
         <v>-65477.81552780679</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>67300</v>
+      </c>
+      <c r="J180" t="n">
+        <v>67400</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6417,7 +6781,9 @@
       <c r="I181" t="n">
         <v>67300</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>67400</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6451,10 +6817,14 @@
         <v>-65457.09802780679</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>67400</v>
+      </c>
+      <c r="J182" t="n">
+        <v>67400</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2020-01-15 BackTest XMR.xlsx
+++ b/BackTest/2020-01-15 BackTest XMR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M182"/>
+  <dimension ref="A1:L182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>0.1421</v>
       </c>
       <c r="G2" t="n">
-        <v>80.84357046587502</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>11.374</v>
       </c>
       <c r="G3" t="n">
-        <v>92.21757046587501</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>14.8663</v>
       </c>
       <c r="G4" t="n">
-        <v>92.21757046587501</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>0.12</v>
       </c>
       <c r="G5" t="n">
-        <v>92.21757046587501</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>0.4701</v>
       </c>
       <c r="G6" t="n">
-        <v>91.74747046587501</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>0.6319</v>
       </c>
       <c r="G7" t="n">
-        <v>91.74747046587501</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,19 @@
         <v>0.645</v>
       </c>
       <c r="G8" t="n">
-        <v>91.74747046587501</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>66550</v>
+      </c>
+      <c r="I8" t="n">
+        <v>66550</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +657,23 @@
         <v>2.0824</v>
       </c>
       <c r="G9" t="n">
-        <v>91.74747046587501</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>66550</v>
+      </c>
+      <c r="I9" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +695,21 @@
         <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>88.74747046587501</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +731,23 @@
         <v>31.554</v>
       </c>
       <c r="G11" t="n">
-        <v>88.74747046587501</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>66500</v>
+      </c>
+      <c r="I11" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +769,23 @@
         <v>0.08</v>
       </c>
       <c r="G12" t="n">
-        <v>88.66747046587501</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>66500</v>
+      </c>
+      <c r="I12" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +807,23 @@
         <v>0.08</v>
       </c>
       <c r="G13" t="n">
-        <v>88.66747046587501</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>66450</v>
+      </c>
+      <c r="I13" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +845,23 @@
         <v>0.08</v>
       </c>
       <c r="G14" t="n">
-        <v>88.66747046587501</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>66450</v>
+      </c>
+      <c r="I14" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +883,23 @@
         <v>0.02</v>
       </c>
       <c r="G15" t="n">
-        <v>88.68747046587501</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>66450</v>
+      </c>
+      <c r="I15" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +921,23 @@
         <v>0.09</v>
       </c>
       <c r="G16" t="n">
-        <v>88.59747046587501</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>67000</v>
+      </c>
+      <c r="I16" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +959,23 @@
         <v>0.32</v>
       </c>
       <c r="G17" t="n">
-        <v>88.917470465875</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>66450</v>
+      </c>
+      <c r="I17" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +997,21 @@
         <v>64971.9312</v>
       </c>
       <c r="G18" t="n">
-        <v>-64883.01372953413</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +1033,23 @@
         <v>1.077</v>
       </c>
       <c r="G19" t="n">
-        <v>-64884.09072953412</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>66550</v>
+      </c>
+      <c r="I19" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1071,23 @@
         <v>166.534</v>
       </c>
       <c r="G20" t="n">
-        <v>-65050.62472953412</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>66500</v>
+      </c>
+      <c r="I20" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1109,23 @@
         <v>139.7782</v>
       </c>
       <c r="G21" t="n">
-        <v>-64910.84652953412</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>66100</v>
+      </c>
+      <c r="I21" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1147,23 @@
         <v>203.05</v>
       </c>
       <c r="G22" t="n">
-        <v>-64707.79652953412</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>66500</v>
+      </c>
+      <c r="I22" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1185,23 @@
         <v>5</v>
       </c>
       <c r="G23" t="n">
-        <v>-64707.79652953412</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>66550</v>
+      </c>
+      <c r="I23" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1223,23 @@
         <v>15.759398948159</v>
       </c>
       <c r="G24" t="n">
-        <v>-64707.79652953412</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>66550</v>
+      </c>
+      <c r="I24" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1261,23 @@
         <v>0.3457</v>
       </c>
       <c r="G25" t="n">
-        <v>-64707.79652953412</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>66550</v>
+      </c>
+      <c r="I25" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1299,23 @@
         <v>280.9532</v>
       </c>
       <c r="G26" t="n">
-        <v>-64707.79652953412</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>66550</v>
+      </c>
+      <c r="I26" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1337,23 @@
         <v>0.0262</v>
       </c>
       <c r="G27" t="n">
-        <v>-64707.79652953412</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>66550</v>
+      </c>
+      <c r="I27" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1375,23 @@
         <v>10.8428</v>
       </c>
       <c r="G28" t="n">
-        <v>-64707.79652953412</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>66550</v>
+      </c>
+      <c r="I28" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1413,23 @@
         <v>59.6807</v>
       </c>
       <c r="G29" t="n">
-        <v>-64707.79652953412</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>66550</v>
+      </c>
+      <c r="I29" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1451,23 @@
         <v>44.3483</v>
       </c>
       <c r="G30" t="n">
-        <v>-64707.79652953412</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>66550</v>
+      </c>
+      <c r="I30" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1489,23 @@
         <v>12.3809</v>
       </c>
       <c r="G31" t="n">
-        <v>-64707.79652953412</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>66550</v>
+      </c>
+      <c r="I31" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1527,23 @@
         <v>26.434</v>
       </c>
       <c r="G32" t="n">
-        <v>-64707.79652953412</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>66550</v>
+      </c>
+      <c r="I32" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1565,23 @@
         <v>3.601</v>
       </c>
       <c r="G33" t="n">
-        <v>-64704.19552953412</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>66550</v>
+      </c>
+      <c r="I33" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1603,23 @@
         <v>0.6776</v>
       </c>
       <c r="G34" t="n">
-        <v>-64703.51792953411</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>66900</v>
+      </c>
+      <c r="I34" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1641,23 @@
         <v>0.1</v>
       </c>
       <c r="G35" t="n">
-        <v>-64703.61792953411</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>67300</v>
+      </c>
+      <c r="I35" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1679,23 @@
         <v>0.02</v>
       </c>
       <c r="G36" t="n">
-        <v>-64703.61792953411</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>66700</v>
+      </c>
+      <c r="I36" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1717,23 @@
         <v>2</v>
       </c>
       <c r="G37" t="n">
-        <v>-64701.61792953411</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>66700</v>
+      </c>
+      <c r="I37" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1755,23 @@
         <v>7.1785</v>
       </c>
       <c r="G38" t="n">
-        <v>-64701.61792953411</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>67250</v>
+      </c>
+      <c r="I38" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1793,21 @@
         <v>49.5821</v>
       </c>
       <c r="G39" t="n">
-        <v>-64751.20002953411</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1829,23 @@
         <v>15.7226</v>
       </c>
       <c r="G40" t="n">
-        <v>-64751.20002953411</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>66800</v>
+      </c>
+      <c r="I40" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1867,23 @@
         <v>14.3533</v>
       </c>
       <c r="G41" t="n">
-        <v>-64736.84672953411</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>66800</v>
+      </c>
+      <c r="I41" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1905,23 @@
         <v>1.1256</v>
       </c>
       <c r="G42" t="n">
-        <v>-64735.72112953411</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>66850</v>
+      </c>
+      <c r="I42" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1943,21 @@
         <v>69.06486354243501</v>
       </c>
       <c r="G43" t="n">
-        <v>-64666.65626599167</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1979,21 @@
         <v>20.6117</v>
       </c>
       <c r="G44" t="n">
-        <v>-64687.26796599168</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +2015,21 @@
         <v>4.623</v>
       </c>
       <c r="G45" t="n">
-        <v>-64687.26796599168</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +2051,21 @@
         <v>33.1736</v>
       </c>
       <c r="G46" t="n">
-        <v>-64687.26796599168</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +2087,21 @@
         <v>20</v>
       </c>
       <c r="G47" t="n">
-        <v>-64667.26796599168</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +2123,21 @@
         <v>7</v>
       </c>
       <c r="G48" t="n">
-        <v>-64667.26796599168</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +2159,21 @@
         <v>53.0456</v>
       </c>
       <c r="G49" t="n">
-        <v>-64667.26796599168</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2195,21 @@
         <v>0.1694</v>
       </c>
       <c r="G50" t="n">
-        <v>-64667.26796599168</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2231,21 @@
         <v>23.6878</v>
       </c>
       <c r="G51" t="n">
-        <v>-64690.95576599168</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2267,21 @@
         <v>11.7366</v>
       </c>
       <c r="G52" t="n">
-        <v>-64679.21916599168</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2303,21 @@
         <v>1.0632</v>
       </c>
       <c r="G53" t="n">
-        <v>-64679.21916599168</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2339,21 @@
         <v>16.9001</v>
       </c>
       <c r="G54" t="n">
-        <v>-64662.31906599168</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2375,21 @@
         <v>0.4601</v>
       </c>
       <c r="G55" t="n">
-        <v>-64661.85896599168</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2411,21 @@
         <v>5.1585</v>
       </c>
       <c r="G56" t="n">
-        <v>-64656.70046599169</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2447,21 @@
         <v>10.212</v>
       </c>
       <c r="G57" t="n">
-        <v>-64646.48846599169</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2483,21 @@
         <v>0.5114</v>
       </c>
       <c r="G58" t="n">
-        <v>-64645.97706599168</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2519,21 @@
         <v>9.928900000000001</v>
       </c>
       <c r="G59" t="n">
-        <v>-64636.04816599168</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2555,21 @@
         <v>30</v>
       </c>
       <c r="G60" t="n">
-        <v>-64666.04816599168</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2591,21 @@
         <v>27.8369</v>
       </c>
       <c r="G61" t="n">
-        <v>-64693.88506599169</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2627,21 @@
         <v>31.1859</v>
       </c>
       <c r="G62" t="n">
-        <v>-64662.69916599169</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2663,21 @@
         <v>0.2443</v>
       </c>
       <c r="G63" t="n">
-        <v>-64662.94346599169</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2699,21 @@
         <v>6.6803</v>
       </c>
       <c r="G64" t="n">
-        <v>-64656.26316599169</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2735,21 @@
         <v>26.8106</v>
       </c>
       <c r="G65" t="n">
-        <v>-64629.45256599169</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2771,21 @@
         <v>24.613</v>
       </c>
       <c r="G66" t="n">
-        <v>-64654.06556599169</v>
-      </c>
-      <c r="H66" t="n">
         <v>2</v>
       </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>66550</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1.022047332832457</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2807,15 @@
         <v>5.2833</v>
       </c>
       <c r="G67" t="n">
-        <v>-64654.06556599169</v>
-      </c>
-      <c r="H67" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2837,15 @@
         <v>2.238372093023</v>
       </c>
       <c r="G68" t="n">
-        <v>-64651.82719389867</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2867,15 @@
         <v>1.103</v>
       </c>
       <c r="G69" t="n">
-        <v>-64651.82719389867</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2897,15 @@
         <v>3.025</v>
       </c>
       <c r="G70" t="n">
-        <v>-64654.85219389867</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2927,15 @@
         <v>13.8716</v>
       </c>
       <c r="G71" t="n">
-        <v>-64668.72379389867</v>
-      </c>
-      <c r="H71" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,24 +2957,15 @@
         <v>15.1712</v>
       </c>
       <c r="G72" t="n">
-        <v>-64683.89499389866</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>68250</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2797,24 +2987,15 @@
         <v>5.7254</v>
       </c>
       <c r="G73" t="n">
-        <v>-64678.16959389866</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>68200</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2836,24 +3017,15 @@
         <v>21.9269</v>
       </c>
       <c r="G74" t="n">
-        <v>-64700.09649389866</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>68750</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2875,24 +3047,15 @@
         <v>5.3422</v>
       </c>
       <c r="G75" t="n">
-        <v>-64705.43869389866</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>68200</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2914,24 +3077,15 @@
         <v>7.6908</v>
       </c>
       <c r="G76" t="n">
-        <v>-64713.12949389865</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>68050</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2953,24 +3107,15 @@
         <v>25.8762</v>
       </c>
       <c r="G77" t="n">
-        <v>-64713.12949389865</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>67950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2992,24 +3137,15 @@
         <v>1.159</v>
       </c>
       <c r="G78" t="n">
-        <v>-64713.12949389865</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>67950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3031,24 +3167,15 @@
         <v>6.1384</v>
       </c>
       <c r="G79" t="n">
-        <v>-64719.26789389866</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>67950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3070,24 +3197,15 @@
         <v>39.6372</v>
       </c>
       <c r="G80" t="n">
-        <v>-64679.63069389866</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>67600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3109,24 +3227,15 @@
         <v>69.06480000000001</v>
       </c>
       <c r="G81" t="n">
-        <v>-64748.69549389866</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>67850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3148,24 +3257,15 @@
         <v>27.7966</v>
       </c>
       <c r="G82" t="n">
-        <v>-64720.89889389866</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>67650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3187,24 +3287,15 @@
         <v>55.5391</v>
       </c>
       <c r="G83" t="n">
-        <v>-64776.43799389866</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>68550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3226,24 +3317,15 @@
         <v>9.369799123447001</v>
       </c>
       <c r="G84" t="n">
-        <v>-64767.06819477522</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>67700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3265,24 +3347,15 @@
         <v>10</v>
       </c>
       <c r="G85" t="n">
-        <v>-64767.06819477522</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>68450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3304,24 +3377,15 @@
         <v>10</v>
       </c>
       <c r="G86" t="n">
-        <v>-64767.06819477522</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>68450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3343,24 +3407,15 @@
         <v>35</v>
       </c>
       <c r="G87" t="n">
-        <v>-64802.06819477522</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>68450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3382,24 +3437,15 @@
         <v>15.1627</v>
       </c>
       <c r="G88" t="n">
-        <v>-64802.06819477522</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>68250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3421,24 +3467,15 @@
         <v>0.1</v>
       </c>
       <c r="G89" t="n">
-        <v>-64801.96819477522</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>68250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3460,20 +3497,15 @@
         <v>0.3291</v>
       </c>
       <c r="G90" t="n">
-        <v>-64801.96819477522</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K90" t="n">
+        <v>1</v>
       </c>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3495,18 +3527,15 @@
         <v>2.2384</v>
       </c>
       <c r="G91" t="n">
-        <v>-64804.20659477522</v>
-      </c>
-      <c r="H91" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3528,22 +3557,15 @@
         <v>2</v>
       </c>
       <c r="G92" t="n">
-        <v>-64802.20659477522</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>68200</v>
-      </c>
-      <c r="J92" t="n">
-        <v>68200</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3565,26 +3587,15 @@
         <v>675.8249</v>
       </c>
       <c r="G93" t="n">
-        <v>-65478.03149477522</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>68750</v>
-      </c>
-      <c r="J93" t="n">
-        <v>68200</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3606,24 +3617,15 @@
         <v>0.048095238095</v>
       </c>
       <c r="G94" t="n">
-        <v>-65477.98339953712</v>
-      </c>
-      <c r="H94" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>68200</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3645,24 +3647,15 @@
         <v>1.4775</v>
       </c>
       <c r="G95" t="n">
-        <v>-65479.46089953712</v>
-      </c>
-      <c r="H95" t="n">
         <v>2</v>
       </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>68200</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3684,24 +3677,15 @@
         <v>1.4844</v>
       </c>
       <c r="G96" t="n">
-        <v>-65480.94529953712</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>68200</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3723,24 +3707,15 @@
         <v>0.15</v>
       </c>
       <c r="G97" t="n">
-        <v>-65481.09529953713</v>
-      </c>
-      <c r="H97" t="n">
         <v>2</v>
       </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>68200</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3762,24 +3737,15 @@
         <v>2</v>
       </c>
       <c r="G98" t="n">
-        <v>-65479.09529953713</v>
-      </c>
-      <c r="H98" t="n">
         <v>2</v>
       </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>68200</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3801,24 +3767,15 @@
         <v>33.4959</v>
       </c>
       <c r="G99" t="n">
-        <v>-65512.59119953713</v>
-      </c>
-      <c r="H99" t="n">
         <v>2</v>
       </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>68200</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3840,24 +3797,15 @@
         <v>1.2687</v>
       </c>
       <c r="G100" t="n">
-        <v>-65513.85989953713</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>68200</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3879,24 +3827,15 @@
         <v>10</v>
       </c>
       <c r="G101" t="n">
-        <v>-65513.85989953713</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>68200</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3918,24 +3857,15 @@
         <v>10.15</v>
       </c>
       <c r="G102" t="n">
-        <v>-65503.70989953713</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>68200</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3957,24 +3887,15 @@
         <v>3.8829</v>
       </c>
       <c r="G103" t="n">
-        <v>-65499.82699953713</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>68200</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3996,24 +3917,15 @@
         <v>0.1</v>
       </c>
       <c r="G104" t="n">
-        <v>-65499.72699953713</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>68200</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4035,24 +3947,15 @@
         <v>12.0498</v>
       </c>
       <c r="G105" t="n">
-        <v>-65499.72699953713</v>
-      </c>
-      <c r="H105" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>68200</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1.008196480938417</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4074,18 +3977,15 @@
         <v>10.9048</v>
       </c>
       <c r="G106" t="n">
-        <v>-65499.72699953713</v>
-      </c>
-      <c r="H106" t="n">
         <v>2</v>
       </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4107,18 +4007,15 @@
         <v>1.5886</v>
       </c>
       <c r="G107" t="n">
-        <v>-65501.31559953713</v>
-      </c>
-      <c r="H107" t="n">
         <v>2</v>
       </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4140,18 +4037,15 @@
         <v>0.58</v>
       </c>
       <c r="G108" t="n">
-        <v>-65500.73559953713</v>
-      </c>
-      <c r="H108" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4173,18 +4067,15 @@
         <v>51.8525</v>
       </c>
       <c r="G109" t="n">
-        <v>-65552.58809953713</v>
-      </c>
-      <c r="H109" t="n">
         <v>2</v>
       </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4206,18 +4097,15 @@
         <v>0.1</v>
       </c>
       <c r="G110" t="n">
-        <v>-65552.48809953712</v>
-      </c>
-      <c r="H110" t="n">
         <v>2</v>
       </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4239,18 +4127,15 @@
         <v>10.0746</v>
       </c>
       <c r="G111" t="n">
-        <v>-65562.56269953713</v>
-      </c>
-      <c r="H111" t="n">
         <v>2</v>
       </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4272,18 +4157,15 @@
         <v>25.8318</v>
       </c>
       <c r="G112" t="n">
-        <v>-65588.39449953713</v>
-      </c>
-      <c r="H112" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4305,18 +4187,15 @@
         <v>21.2812</v>
       </c>
       <c r="G113" t="n">
-        <v>-65609.67569953713</v>
-      </c>
-      <c r="H113" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4338,18 +4217,15 @@
         <v>6.6387</v>
       </c>
       <c r="G114" t="n">
-        <v>-65609.67569953713</v>
-      </c>
-      <c r="H114" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4371,18 +4247,15 @@
         <v>4</v>
       </c>
       <c r="G115" t="n">
-        <v>-65609.67569953713</v>
-      </c>
-      <c r="H115" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4404,18 +4277,15 @@
         <v>1.1255</v>
       </c>
       <c r="G116" t="n">
-        <v>-65608.55019953713</v>
-      </c>
-      <c r="H116" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4437,18 +4307,15 @@
         <v>0.1449</v>
       </c>
       <c r="G117" t="n">
-        <v>-65608.55019953713</v>
-      </c>
-      <c r="H117" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4470,18 +4337,15 @@
         <v>27.932855451263</v>
       </c>
       <c r="G118" t="n">
-        <v>-65580.61734408587</v>
-      </c>
-      <c r="H118" t="n">
         <v>2</v>
       </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4503,18 +4367,15 @@
         <v>1.5</v>
       </c>
       <c r="G119" t="n">
-        <v>-65582.11734408587</v>
-      </c>
-      <c r="H119" t="n">
         <v>2</v>
       </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4536,18 +4397,15 @@
         <v>19.218843673174</v>
       </c>
       <c r="G120" t="n">
-        <v>-65582.11734408587</v>
-      </c>
-      <c r="H120" t="n">
         <v>2</v>
       </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4569,18 +4427,15 @@
         <v>36.915769767441</v>
       </c>
       <c r="G121" t="n">
-        <v>-65619.03311385331</v>
-      </c>
-      <c r="H121" t="n">
         <v>2</v>
       </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4602,18 +4457,15 @@
         <v>36.8866</v>
       </c>
       <c r="G122" t="n">
-        <v>-65655.91971385331</v>
-      </c>
-      <c r="H122" t="n">
         <v>2</v>
       </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4635,18 +4487,15 @@
         <v>1.4582</v>
       </c>
       <c r="G123" t="n">
-        <v>-65655.91971385331</v>
-      </c>
-      <c r="H123" t="n">
         <v>2</v>
       </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4668,18 +4517,15 @@
         <v>0.2921</v>
       </c>
       <c r="G124" t="n">
-        <v>-65656.21181385331</v>
-      </c>
-      <c r="H124" t="n">
         <v>2</v>
       </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4701,18 +4547,15 @@
         <v>3.8975</v>
       </c>
       <c r="G125" t="n">
-        <v>-65652.31431385331</v>
-      </c>
-      <c r="H125" t="n">
         <v>2</v>
       </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4734,18 +4577,15 @@
         <v>8.6714</v>
       </c>
       <c r="G126" t="n">
-        <v>-65643.6429138533</v>
-      </c>
-      <c r="H126" t="n">
         <v>2</v>
       </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4767,18 +4607,15 @@
         <v>7.4565</v>
       </c>
       <c r="G127" t="n">
-        <v>-65651.0994138533</v>
-      </c>
-      <c r="H127" t="n">
         <v>2</v>
       </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4800,18 +4637,15 @@
         <v>1.6374</v>
       </c>
       <c r="G128" t="n">
-        <v>-65651.0994138533</v>
-      </c>
-      <c r="H128" t="n">
         <v>2</v>
       </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4833,18 +4667,15 @@
         <v>8.1759</v>
       </c>
       <c r="G129" t="n">
-        <v>-65659.2753138533</v>
-      </c>
-      <c r="H129" t="n">
         <v>2</v>
       </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4866,18 +4697,15 @@
         <v>3.0424</v>
       </c>
       <c r="G130" t="n">
-        <v>-65659.2753138533</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4899,18 +4727,15 @@
         <v>24.023</v>
       </c>
       <c r="G131" t="n">
-        <v>-65659.2753138533</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4932,18 +4757,15 @@
         <v>7.4565</v>
       </c>
       <c r="G132" t="n">
-        <v>-65666.7318138533</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4965,18 +4787,15 @@
         <v>57.6597</v>
       </c>
       <c r="G133" t="n">
-        <v>-65666.7318138533</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4998,18 +4817,15 @@
         <v>0.1859</v>
       </c>
       <c r="G134" t="n">
-        <v>-65666.5459138533</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5031,18 +4847,15 @@
         <v>0.1859</v>
       </c>
       <c r="G135" t="n">
-        <v>-65666.7318138533</v>
-      </c>
-      <c r="H135" t="n">
         <v>2</v>
       </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5064,18 +4877,15 @@
         <v>0.129186046511</v>
       </c>
       <c r="G136" t="n">
-        <v>-65666.60262780679</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5097,18 +4907,15 @@
         <v>5</v>
       </c>
       <c r="G137" t="n">
-        <v>-65671.60262780679</v>
-      </c>
-      <c r="H137" t="n">
         <v>2</v>
       </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5130,18 +4937,15 @@
         <v>2.7547</v>
       </c>
       <c r="G138" t="n">
-        <v>-65668.84792780678</v>
-      </c>
-      <c r="H138" t="n">
         <v>2</v>
       </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5163,18 +4967,15 @@
         <v>1.3567</v>
       </c>
       <c r="G139" t="n">
-        <v>-65670.20462780679</v>
-      </c>
-      <c r="H139" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5196,18 +4997,15 @@
         <v>39.9127</v>
       </c>
       <c r="G140" t="n">
-        <v>-65710.11732780679</v>
-      </c>
-      <c r="H140" t="n">
         <v>2</v>
       </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5229,18 +5027,15 @@
         <v>1.0143</v>
       </c>
       <c r="G141" t="n">
-        <v>-65711.13162780678</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5262,18 +5057,15 @@
         <v>0.7862</v>
       </c>
       <c r="G142" t="n">
-        <v>-65711.91782780678</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5295,18 +5087,15 @@
         <v>10</v>
       </c>
       <c r="G143" t="n">
-        <v>-65711.91782780678</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5328,18 +5117,15 @@
         <v>6.7138</v>
       </c>
       <c r="G144" t="n">
-        <v>-65705.20402780679</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5361,18 +5147,15 @@
         <v>1.7475</v>
       </c>
       <c r="G145" t="n">
-        <v>-65703.45652780679</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5394,18 +5177,15 @@
         <v>1.53</v>
       </c>
       <c r="G146" t="n">
-        <v>-65704.98652780679</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5427,18 +5207,15 @@
         <v>8.8971</v>
       </c>
       <c r="G147" t="n">
-        <v>-65713.88362780679</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5460,18 +5237,15 @@
         <v>4.644</v>
       </c>
       <c r="G148" t="n">
-        <v>-65709.23962780679</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5493,18 +5267,15 @@
         <v>1.4981</v>
       </c>
       <c r="G149" t="n">
-        <v>-65710.73772780679</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5526,18 +5297,15 @@
         <v>49</v>
       </c>
       <c r="G150" t="n">
-        <v>-65710.73772780679</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5559,22 +5327,15 @@
         <v>6.3562</v>
       </c>
       <c r="G151" t="n">
-        <v>-65717.09392780678</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>67400</v>
-      </c>
-      <c r="J151" t="n">
-        <v>67400</v>
-      </c>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5596,24 +5357,15 @@
         <v>1.06</v>
       </c>
       <c r="G152" t="n">
-        <v>-65716.03392780678</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>67400</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5635,26 +5387,15 @@
         <v>3.9729</v>
       </c>
       <c r="G153" t="n">
-        <v>-65720.00682780678</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>67550</v>
-      </c>
-      <c r="J153" t="n">
-        <v>67400</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5676,26 +5417,15 @@
         <v>119.7466</v>
       </c>
       <c r="G154" t="n">
-        <v>-65600.26022780678</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>67500</v>
-      </c>
-      <c r="J154" t="n">
-        <v>67400</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5717,26 +5447,15 @@
         <v>9.8787</v>
       </c>
       <c r="G155" t="n">
-        <v>-65610.13892780678</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>67850</v>
-      </c>
-      <c r="J155" t="n">
-        <v>67400</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5758,26 +5477,15 @@
         <v>10</v>
       </c>
       <c r="G156" t="n">
-        <v>-65600.13892780678</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>67400</v>
-      </c>
-      <c r="J156" t="n">
-        <v>67400</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5799,24 +5507,15 @@
         <v>1.6029</v>
       </c>
       <c r="G157" t="n">
-        <v>-65601.74182780678</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>67400</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5838,24 +5537,15 @@
         <v>17.9147</v>
       </c>
       <c r="G158" t="n">
-        <v>-65619.65652780677</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>67400</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5877,26 +5567,15 @@
         <v>14.579</v>
       </c>
       <c r="G159" t="n">
-        <v>-65634.23552780677</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>67300</v>
-      </c>
-      <c r="J159" t="n">
-        <v>67400</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5918,26 +5597,15 @@
         <v>13.6046</v>
       </c>
       <c r="G160" t="n">
-        <v>-65647.84012780678</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>67000</v>
-      </c>
-      <c r="J160" t="n">
-        <v>67400</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5959,26 +5627,15 @@
         <v>0.5679999999999999</v>
       </c>
       <c r="G161" t="n">
-        <v>-65647.27212780678</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>66900</v>
-      </c>
-      <c r="J161" t="n">
-        <v>67400</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6000,26 +5657,15 @@
         <v>2.2617</v>
       </c>
       <c r="G162" t="n">
-        <v>-65649.53382780678</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>67000</v>
-      </c>
-      <c r="J162" t="n">
-        <v>67400</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6041,26 +5687,15 @@
         <v>0.3194</v>
       </c>
       <c r="G163" t="n">
-        <v>-65649.21442780679</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>66950</v>
-      </c>
-      <c r="J163" t="n">
-        <v>67400</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6082,26 +5717,15 @@
         <v>1.9556</v>
       </c>
       <c r="G164" t="n">
-        <v>-65651.17002780679</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>67000</v>
-      </c>
-      <c r="J164" t="n">
-        <v>67400</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6123,26 +5747,21 @@
         <v>131.3544</v>
       </c>
       <c r="G165" t="n">
-        <v>-65519.81562780679</v>
+        <v>1</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
         <v>66950</v>
       </c>
-      <c r="J165" t="n">
-        <v>67400</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6164,26 +5783,21 @@
         <v>99.1962</v>
       </c>
       <c r="G166" t="n">
-        <v>-65420.61942780679</v>
+        <v>1</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
         <v>67000</v>
       </c>
-      <c r="J166" t="n">
-        <v>67400</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6205,26 +5819,19 @@
         <v>2.6841</v>
       </c>
       <c r="G167" t="n">
-        <v>-65423.30352780679</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>67350</v>
-      </c>
-      <c r="J167" t="n">
-        <v>67400</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6246,26 +5853,21 @@
         <v>10.9048</v>
       </c>
       <c r="G168" t="n">
-        <v>-65434.20832780679</v>
+        <v>1</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
         <v>67000</v>
       </c>
-      <c r="J168" t="n">
-        <v>67400</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6287,26 +5889,19 @@
         <v>50.9979</v>
       </c>
       <c r="G169" t="n">
-        <v>-65485.20622780679</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>66800</v>
-      </c>
-      <c r="J169" t="n">
-        <v>67400</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6328,26 +5923,21 @@
         <v>0.7587</v>
       </c>
       <c r="G170" t="n">
-        <v>-65484.44752780679</v>
+        <v>1</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>66550</v>
-      </c>
-      <c r="J170" t="n">
-        <v>67400</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>66550</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6369,24 +5959,19 @@
         <v>15.6013</v>
       </c>
       <c r="G171" t="n">
-        <v>-65468.84622780679</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>67400</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6408,24 +5993,19 @@
         <v>1.7349</v>
       </c>
       <c r="G172" t="n">
-        <v>-65470.58112780679</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>67400</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6447,26 +6027,19 @@
         <v>1.5424</v>
       </c>
       <c r="G173" t="n">
-        <v>-65472.12352780679</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>67250</v>
-      </c>
-      <c r="J173" t="n">
-        <v>67400</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6488,26 +6061,19 @@
         <v>0.008</v>
       </c>
       <c r="G174" t="n">
-        <v>-65472.11552780679</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>67150</v>
-      </c>
-      <c r="J174" t="n">
-        <v>67400</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6529,26 +6095,19 @@
         <v>0.635</v>
       </c>
       <c r="G175" t="n">
-        <v>-65472.75052780679</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>67600</v>
-      </c>
-      <c r="J175" t="n">
-        <v>67400</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6570,24 +6129,19 @@
         <v>0.365</v>
       </c>
       <c r="G176" t="n">
-        <v>-65472.75052780679</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>67400</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6609,26 +6163,19 @@
         <v>5.065</v>
       </c>
       <c r="G177" t="n">
-        <v>-65477.81552780679</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>67500</v>
-      </c>
-      <c r="J177" t="n">
-        <v>67400</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6650,26 +6197,19 @@
         <v>34.421</v>
       </c>
       <c r="G178" t="n">
-        <v>-65477.81552780679</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>67300</v>
-      </c>
-      <c r="J178" t="n">
-        <v>67400</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6691,26 +6231,19 @@
         <v>19.001</v>
       </c>
       <c r="G179" t="n">
-        <v>-65477.81552780679</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>67300</v>
-      </c>
-      <c r="J179" t="n">
-        <v>67400</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6732,26 +6265,19 @@
         <v>33.2212</v>
       </c>
       <c r="G180" t="n">
-        <v>-65477.81552780679</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>67300</v>
-      </c>
-      <c r="J180" t="n">
-        <v>67400</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6773,26 +6299,19 @@
         <v>20.7175</v>
       </c>
       <c r="G181" t="n">
-        <v>-65457.09802780679</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>67300</v>
-      </c>
-      <c r="J181" t="n">
-        <v>67400</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6814,26 +6333,19 @@
         <v>0.0001</v>
       </c>
       <c r="G182" t="n">
-        <v>-65457.09802780679</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>67400</v>
-      </c>
-      <c r="J182" t="n">
-        <v>67400</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
